--- a/results_xlsx/prednasejici_bez_prednasek.xlsx
+++ b/results_xlsx/prednasejici_bez_prednasek.xlsx
@@ -28,48 +28,48 @@
     <t>jmena</t>
   </si>
   <si>
+    <t>Základy počítačové fyziky</t>
+  </si>
+  <si>
     <t>Počítačové modelování IV</t>
   </si>
   <si>
-    <t>Základy počítačové fyziky</t>
-  </si>
-  <si>
     <t>Fyzika pevných látek I</t>
   </si>
   <si>
     <t>Demografie</t>
   </si>
   <si>
+    <t>Anorganická chemie</t>
+  </si>
+  <si>
     <t>Anorganická chemie Nmgr.</t>
   </si>
   <si>
-    <t>Anorganická chemie</t>
+    <t>Fyziologie živočichů a člověka</t>
   </si>
   <si>
     <t>Patobiologie živočišných buněk a tkání</t>
   </si>
   <si>
-    <t>Fyziologie živočichů a člověka</t>
-  </si>
-  <si>
     <t>Fyziologie a mol. bio. eukar. buňky I</t>
   </si>
   <si>
     <t>Fyziologie a molekul. biologie živ. buňk</t>
   </si>
   <si>
+    <t>Charakterizace materiálů I</t>
+  </si>
+  <si>
     <t>Úvod do počítačového modelování</t>
   </si>
   <si>
+    <t>Fyzikální vlastnosti tenkých vrstev</t>
+  </si>
+  <si>
     <t>Vakuová fyzika a technika</t>
   </si>
   <si>
-    <t>Charakterizace materiálů I</t>
-  </si>
-  <si>
-    <t>Fyzikální vlastnosti tenkých vrstev</t>
-  </si>
-  <si>
     <t>Počítačové simulace v nanotechnologiích</t>
   </si>
   <si>
@@ -82,69 +82,69 @@
     <t>Teorie elektromagnetického pole</t>
   </si>
   <si>
+    <t>Kvantová mechanika</t>
+  </si>
+  <si>
+    <t>Kvantová fyzika II</t>
+  </si>
+  <si>
+    <t>Fyzika I</t>
+  </si>
+  <si>
+    <t>Kvantová fyzika</t>
+  </si>
+  <si>
+    <t>Kvantová fyzika I</t>
+  </si>
+  <si>
+    <t>PVK - Vyb.partie z teoretické fyziky I</t>
+  </si>
+  <si>
+    <t>Teorie relativity</t>
+  </si>
+  <si>
     <t>Vybrané partie z teoretické fyziky I</t>
   </si>
   <si>
+    <t>Fyzika</t>
+  </si>
+  <si>
+    <t>Úvod do kvantové fyziky a spektroskopie</t>
+  </si>
+  <si>
+    <t>Vybrané partie z teorie elektromag. pole</t>
+  </si>
+  <si>
+    <t>Sel. parts of the theory of el. fields</t>
+  </si>
+  <si>
+    <t>VK-Teorie relativity</t>
+  </si>
+  <si>
     <t>Vybr. partie z teorie el. pole</t>
   </si>
   <si>
-    <t>Sel. parts of the theory of el. fields</t>
-  </si>
-  <si>
-    <t>Teorie relativity</t>
-  </si>
-  <si>
-    <t>Kvantová mechanika</t>
-  </si>
-  <si>
-    <t>Kvantová fyzika</t>
-  </si>
-  <si>
-    <t>Kvantová fyzika I</t>
-  </si>
-  <si>
-    <t>Vybrané partie z teorie elektromag. pole</t>
-  </si>
-  <si>
-    <t>VK-Teorie relativity</t>
-  </si>
-  <si>
     <t>PVK - Vyb.partie z teoretické fyziky II</t>
   </si>
   <si>
-    <t>Úvod do kvantové fyziky a spektroskopie</t>
-  </si>
-  <si>
-    <t>Fyzika I</t>
-  </si>
-  <si>
     <t>Vybrané partie z kvantové fyziky</t>
   </si>
   <si>
-    <t>PVK - Vyb.partie z teoretické fyziky I</t>
-  </si>
-  <si>
-    <t>Fyzika</t>
-  </si>
-  <si>
-    <t>Kvantová fyzika II</t>
+    <t>Regional environmental change</t>
+  </si>
+  <si>
+    <t>Potenciál kulturní krajiny a GIS</t>
   </si>
   <si>
     <t>Krajinná ekologie</t>
   </si>
   <si>
-    <t>Regional environmental change</t>
-  </si>
-  <si>
-    <t>Potenciál kulturní krajiny a GIS</t>
+    <t>Metody geografického výzkumu krajiny</t>
   </si>
   <si>
     <t>Vybrané kapitoly FG Evropy</t>
   </si>
   <si>
-    <t>Metody geografického výzkumu krajiny</t>
-  </si>
-  <si>
     <t>Problémové oblasti Česka</t>
   </si>
   <si>
@@ -175,12 +175,12 @@
     <t>Systém kvality a vyhodnocování dat</t>
   </si>
   <si>
+    <t>Matematika pro informatiky</t>
+  </si>
+  <si>
     <t>Počítač. modelování - spojité modelování</t>
   </si>
   <si>
-    <t>Matematika pro informatiky</t>
-  </si>
-  <si>
     <t>VK - Úvod do geografie náboženství</t>
   </si>
   <si>
@@ -196,12 +196,12 @@
     <t>Statistika na PC</t>
   </si>
   <si>
+    <t>Matematika IV</t>
+  </si>
+  <si>
     <t>Matematika III</t>
   </si>
   <si>
-    <t>Matematika IV</t>
-  </si>
-  <si>
     <t>Somatologie</t>
   </si>
   <si>
@@ -221,6 +221,9 @@
   </si>
   <si>
     <t>Logistika</t>
+  </si>
+  <si>
+    <t>Metody analýz materiálů</t>
   </si>
   <si>
     <t>Komplexní analýza materiálů</t>
@@ -230,9 +233,6 @@
 využ. el. mikroskopie</t>
   </si>
   <si>
-    <t>Metody analýz materiálů</t>
-  </si>
-  <si>
     <t>Specializační přednášky z praxe</t>
   </si>
   <si>
@@ -248,12 +248,12 @@
     <t>Value orient. in transforming societies</t>
   </si>
   <si>
+    <t>Algoritmy a datové struktury</t>
+  </si>
+  <si>
     <t>Teorie formálních jazyků</t>
   </si>
   <si>
-    <t>Algoritmy a datové struktury</t>
-  </si>
-  <si>
     <t>Struktura a vlastnosti polymerů</t>
   </si>
   <si>
@@ -272,10 +272,16 @@
     <t>Geospatial data: sources and analysis</t>
   </si>
   <si>
+    <t>Finanční analýza</t>
+  </si>
+  <si>
     <t>Základy financí</t>
   </si>
   <si>
-    <t>Finanční analýza</t>
+    <t>Anatomie a fyziologie člověka</t>
+  </si>
+  <si>
+    <t>Návykové látky a právní předpisy</t>
   </si>
   <si>
     <t>Lékové intoxikace</t>
@@ -284,36 +290,30 @@
     <t>Medicína katastrof</t>
   </si>
   <si>
-    <t>Anatomie a fyziologie člověka</t>
-  </si>
-  <si>
-    <t>Návykové látky a právní předpisy</t>
-  </si>
-  <si>
     <t>Technologie ochrany životního prostředí</t>
   </si>
   <si>
+    <t>Toxikologie rostl. a živočišných toxinů</t>
+  </si>
+  <si>
+    <t>Toxikologie NMgr.</t>
+  </si>
+  <si>
+    <t>Toxikologie I</t>
+  </si>
+  <si>
     <t>Úvod do toxikologie</t>
   </si>
   <si>
-    <t>Toxikologie I</t>
-  </si>
-  <si>
     <t>Ekotoxikologie</t>
   </si>
   <si>
-    <t>Toxikologie NMgr.</t>
-  </si>
-  <si>
-    <t>Toxikologie rostl. a živočišných toxinů</t>
+    <t>Úvod do fotofyziky a fotochemie nanomat.</t>
   </si>
   <si>
     <t>Fotofyzika a fotochemie nanomateriálů</t>
   </si>
   <si>
-    <t>Úvod do fotofyziky a fotochemie nanomat.</t>
-  </si>
-  <si>
     <t>Počítačové sítě a protokoly</t>
   </si>
   <si>
@@ -347,34 +347,34 @@
     <t>Automatické řízení</t>
   </si>
   <si>
+    <t>Klinická biochemie a patobiochemie</t>
+  </si>
+  <si>
+    <t>Biochemie cizorodých látek</t>
+  </si>
+  <si>
+    <t>Forenzní vědy</t>
+  </si>
+  <si>
     <t>Klinická analýza</t>
   </si>
   <si>
-    <t>Klinická biochemie a patobiochemie</t>
-  </si>
-  <si>
-    <t>Biochemie cizorodých látek</t>
-  </si>
-  <si>
-    <t>Forenzní vědy</t>
-  </si>
-  <si>
     <t>Bioaktivní přírodní látky</t>
   </si>
   <si>
     <t>Fyzika plazmatu a plazmové technologie</t>
+  </si>
+  <si>
+    <t>Principy a obvod. řešení el. spektometrů</t>
+  </si>
+  <si>
+    <t>Fyzika povrchů</t>
   </si>
   <si>
     <t>Met. analýz mat. 
 využ. prin. el. spektr</t>
   </si>
   <si>
-    <t>Fyzika povrchů</t>
-  </si>
-  <si>
-    <t>Principy a obvod. řešení el. spektometrů</t>
-  </si>
-  <si>
     <t>Veřejná správa</t>
   </si>
   <si>
@@ -387,12 +387,12 @@
     <t>Veřejné finance</t>
   </si>
   <si>
+    <t>Toxikologie a legislavita ČR a EU 1</t>
+  </si>
+  <si>
     <t>Toxikologie a legislavita ČR a EU 2</t>
   </si>
   <si>
-    <t>Toxikologie a legislavita ČR a EU 1</t>
-  </si>
-  <si>
     <t>Nekovové anorganické materiály</t>
   </si>
   <si>
@@ -408,12 +408,12 @@
     <t>Přípr. a využití nanovlákenných struktur</t>
   </si>
   <si>
+    <t>Didaktika biologie I</t>
+  </si>
+  <si>
     <t>Didaktika biologie II</t>
   </si>
   <si>
-    <t>Didaktika biologie I</t>
-  </si>
-  <si>
     <t>Nanoporézní materiály</t>
   </si>
   <si>
@@ -423,15 +423,18 @@
     <t>Nanokompozitní materiály na bázi uhlíku</t>
   </si>
   <si>
+    <t>Pokroky v mol. biologii bakterií a virů</t>
+  </si>
+  <si>
     <t>Apl. biologie prokaryot. a eukaryot. m.</t>
   </si>
   <si>
-    <t>Pokroky v mol. biologii bakterií a virů</t>
-  </si>
-  <si>
     <t>Regulace a poruchy signálních drah ž.b.</t>
   </si>
   <si>
+    <t>Python and R for Data Science</t>
+  </si>
+  <si>
     <t>Machine Learning Based on R Software</t>
   </si>
   <si>
@@ -441,36 +444,33 @@
     <t>Data Analysis and Visualisation</t>
   </si>
   <si>
-    <t>Python and R for Data Science</t>
-  </si>
-  <si>
     <t>Materials and Technolog. for Sust. Soc.</t>
   </si>
   <si>
+    <t>Základy matematiky</t>
+  </si>
+  <si>
     <t>Pravděpodobnost a statistika I</t>
   </si>
   <si>
-    <t>Základy matematiky</t>
-  </si>
-  <si>
     <t>Geometrie</t>
   </si>
   <si>
     <t>Pravděpodobnost a statistika II</t>
   </si>
   <si>
+    <t>K503</t>
+  </si>
+  <si>
+    <t>P503</t>
+  </si>
+  <si>
     <t>K403</t>
   </si>
   <si>
-    <t>K503</t>
-  </si>
-  <si>
     <t>P403</t>
   </si>
   <si>
-    <t>P503</t>
-  </si>
-  <si>
     <t>K839</t>
   </si>
   <si>
@@ -480,174 +480,174 @@
     <t>5DEMO</t>
   </si>
   <si>
+    <t>P224</t>
+  </si>
+  <si>
     <t>KN11</t>
   </si>
   <si>
     <t>N114</t>
   </si>
   <si>
-    <t>P224</t>
+    <t>KB502</t>
   </si>
   <si>
     <t>N059</t>
   </si>
   <si>
-    <t>KB502</t>
+    <t>PB502</t>
   </si>
   <si>
     <t>N016</t>
   </si>
   <si>
-    <t>PB502</t>
-  </si>
-  <si>
     <t>ME100</t>
   </si>
   <si>
+    <t>CHM1</t>
+  </si>
+  <si>
     <t>KUDPM</t>
   </si>
   <si>
+    <t>UDPM</t>
+  </si>
+  <si>
+    <t>P325</t>
+  </si>
+  <si>
     <t>K218</t>
   </si>
   <si>
-    <t>CHM1</t>
-  </si>
-  <si>
-    <t>UDPM</t>
-  </si>
-  <si>
-    <t>P325</t>
-  </si>
-  <si>
     <t>PSVN</t>
   </si>
   <si>
     <t>K414</t>
   </si>
   <si>
+    <t>STR</t>
+  </si>
+  <si>
+    <t>TEP</t>
+  </si>
+  <si>
+    <t>KKM</t>
+  </si>
+  <si>
+    <t>P607</t>
+  </si>
+  <si>
+    <t>K222</t>
+  </si>
+  <si>
+    <t>K724</t>
+  </si>
+  <si>
     <t>P427</t>
   </si>
   <si>
+    <t>P509</t>
+  </si>
+  <si>
+    <t>K422</t>
+  </si>
+  <si>
+    <t>P737</t>
+  </si>
+  <si>
+    <t>KM</t>
+  </si>
+  <si>
+    <t>K512</t>
+  </si>
+  <si>
+    <t>P606</t>
+  </si>
+  <si>
     <t>KSTR</t>
   </si>
   <si>
-    <t>TEP</t>
-  </si>
-  <si>
     <t>P938</t>
   </si>
   <si>
+    <t>P231</t>
+  </si>
+  <si>
+    <t>P216</t>
+  </si>
+  <si>
+    <t>P508</t>
+  </si>
+  <si>
+    <t>PD203</t>
+  </si>
+  <si>
+    <t>CM101</t>
+  </si>
+  <si>
+    <t>P213</t>
+  </si>
+  <si>
+    <t>K606</t>
+  </si>
+  <si>
+    <t>0164</t>
+  </si>
+  <si>
     <t>PM101</t>
   </si>
   <si>
-    <t>CM101</t>
-  </si>
-  <si>
-    <t>K606</t>
-  </si>
-  <si>
-    <t>KM</t>
-  </si>
-  <si>
-    <t>STR</t>
-  </si>
-  <si>
-    <t>P737</t>
-  </si>
-  <si>
-    <t>P509</t>
-  </si>
-  <si>
-    <t>PD203</t>
-  </si>
-  <si>
-    <t>0164</t>
-  </si>
-  <si>
     <t>K522</t>
   </si>
   <si>
-    <t>P216</t>
-  </si>
-  <si>
-    <t>P508</t>
-  </si>
-  <si>
-    <t>K724</t>
-  </si>
-  <si>
-    <t>K222</t>
-  </si>
-  <si>
     <t>PM100</t>
   </si>
   <si>
-    <t>P213</t>
-  </si>
-  <si>
-    <t>K512</t>
-  </si>
-  <si>
-    <t>P606</t>
-  </si>
-  <si>
-    <t>K422</t>
-  </si>
-  <si>
-    <t>KKM</t>
-  </si>
-  <si>
-    <t>P231</t>
-  </si>
-  <si>
-    <t>P607</t>
+    <t>PD103</t>
+  </si>
+  <si>
+    <t>M214</t>
   </si>
   <si>
     <t>B303</t>
   </si>
   <si>
-    <t>PD103</t>
-  </si>
-  <si>
-    <t>M214</t>
+    <t>M409</t>
   </si>
   <si>
     <t>M102</t>
   </si>
   <si>
-    <t>M409</t>
-  </si>
-  <si>
     <t>0154</t>
   </si>
   <si>
     <t>B102</t>
   </si>
   <si>
+    <t>KN22</t>
+  </si>
+  <si>
+    <t>KN10</t>
+  </si>
+  <si>
     <t>N304</t>
   </si>
   <si>
     <t>N115</t>
   </si>
   <si>
-    <t>KN10</t>
-  </si>
-  <si>
-    <t>KN22</t>
-  </si>
-  <si>
     <t>0124</t>
   </si>
   <si>
     <t>0175</t>
   </si>
   <si>
+    <t>K305</t>
+  </si>
+  <si>
     <t>P422</t>
   </si>
   <si>
-    <t>K305</t>
-  </si>
-  <si>
     <t>P522</t>
   </si>
   <si>
@@ -657,12 +657,12 @@
     <t>N111</t>
   </si>
   <si>
+    <t>MAI</t>
+  </si>
+  <si>
     <t>P366</t>
   </si>
   <si>
-    <t>MAI</t>
-  </si>
-  <si>
     <t>0133</t>
   </si>
   <si>
@@ -678,10 +678,13 @@
     <t>K516</t>
   </si>
   <si>
+    <t>K409</t>
+  </si>
+  <si>
     <t>K304</t>
   </si>
   <si>
-    <t>K409</t>
+    <t>BP423</t>
   </si>
   <si>
     <t>BK423</t>
@@ -693,9 +696,6 @@
     <t>P323</t>
   </si>
   <si>
-    <t>BP423</t>
-  </si>
-  <si>
     <t>P303</t>
   </si>
   <si>
@@ -708,24 +708,24 @@
     <t>LOG</t>
   </si>
   <si>
+    <t>AP05</t>
+  </si>
+  <si>
     <t>PD202</t>
   </si>
   <si>
     <t>AP03</t>
   </si>
   <si>
-    <t>AP05</t>
-  </si>
-  <si>
     <t>B605</t>
   </si>
   <si>
+    <t>ME200</t>
+  </si>
+  <si>
     <t>N023</t>
   </si>
   <si>
-    <t>ME200</t>
-  </si>
-  <si>
     <t>0120</t>
   </si>
   <si>
@@ -735,21 +735,21 @@
     <t>PD109</t>
   </si>
   <si>
+    <t>DSA</t>
+  </si>
+  <si>
     <t>TFL</t>
   </si>
   <si>
     <t>KDSA</t>
   </si>
   <si>
-    <t>DSA</t>
+    <t>PD305</t>
   </si>
   <si>
     <t>PD06</t>
   </si>
   <si>
-    <t>PD305</t>
-  </si>
-  <si>
     <t>E121</t>
   </si>
   <si>
@@ -765,10 +765,16 @@
     <t>PD107</t>
   </si>
   <si>
+    <t>FINA</t>
+  </si>
+  <si>
     <t>ZFIN</t>
   </si>
   <si>
-    <t>FINA</t>
+    <t>BK106</t>
+  </si>
+  <si>
+    <t>N107</t>
   </si>
   <si>
     <t>N321</t>
@@ -777,48 +783,42 @@
     <t>BK307</t>
   </si>
   <si>
-    <t>BK106</t>
-  </si>
-  <si>
     <t>P518</t>
   </si>
   <si>
+    <t>B307</t>
+  </si>
+  <si>
     <t>B106</t>
   </si>
   <si>
-    <t>N107</t>
-  </si>
-  <si>
-    <t>B307</t>
-  </si>
-  <si>
     <t>P226</t>
   </si>
   <si>
     <t>P414</t>
   </si>
   <si>
+    <t>P534</t>
+  </si>
+  <si>
+    <t>N216</t>
+  </si>
+  <si>
+    <t>K101</t>
+  </si>
+  <si>
     <t>P117</t>
   </si>
   <si>
-    <t>K101</t>
-  </si>
-  <si>
     <t>N109</t>
   </si>
   <si>
-    <t>N216</t>
-  </si>
-  <si>
-    <t>P534</t>
+    <t>NA18</t>
   </si>
   <si>
     <t>PD53</t>
   </si>
   <si>
-    <t>NA18</t>
-  </si>
-  <si>
     <t>PSP</t>
   </si>
   <si>
@@ -831,12 +831,12 @@
     <t>0090</t>
   </si>
   <si>
+    <t>BIG</t>
+  </si>
+  <si>
     <t>KBIG</t>
   </si>
   <si>
-    <t>BIG</t>
-  </si>
-  <si>
     <t>0150</t>
   </si>
   <si>
@@ -855,36 +855,36 @@
     <t>AUC</t>
   </si>
   <si>
+    <t>N224</t>
+  </si>
+  <si>
+    <t>N223</t>
+  </si>
+  <si>
     <t>N024</t>
   </si>
   <si>
-    <t>N224</t>
-  </si>
-  <si>
-    <t>N223</t>
-  </si>
-  <si>
     <t>N211</t>
   </si>
   <si>
     <t>P750</t>
   </si>
   <si>
+    <t>0231</t>
+  </si>
+  <si>
+    <t>P839</t>
+  </si>
+  <si>
+    <t>P230</t>
+  </si>
+  <si>
+    <t>AP04</t>
+  </si>
+  <si>
     <t>P861</t>
   </si>
   <si>
-    <t>AP04</t>
-  </si>
-  <si>
-    <t>P230</t>
-  </si>
-  <si>
-    <t>P839</t>
-  </si>
-  <si>
-    <t>0231</t>
-  </si>
-  <si>
     <t>VSP</t>
   </si>
   <si>
@@ -897,12 +897,12 @@
     <t>VFIN</t>
   </si>
   <si>
+    <t>P529</t>
+  </si>
+  <si>
     <t>P629</t>
   </si>
   <si>
-    <t>P529</t>
-  </si>
-  <si>
     <t>AMAT</t>
   </si>
   <si>
@@ -918,12 +918,12 @@
     <t>PD55</t>
   </si>
   <si>
+    <t>P108</t>
+  </si>
+  <si>
     <t>P208</t>
   </si>
   <si>
-    <t>P108</t>
-  </si>
-  <si>
     <t>PD10</t>
   </si>
   <si>
@@ -933,15 +933,18 @@
     <t>PD08</t>
   </si>
   <si>
+    <t>ME300</t>
+  </si>
+  <si>
     <t>ME301</t>
   </si>
   <si>
-    <t>ME300</t>
-  </si>
-  <si>
     <t>ME302</t>
   </si>
   <si>
+    <t>EPYR</t>
+  </si>
+  <si>
     <t>EMLR</t>
   </si>
   <si>
@@ -951,18 +954,15 @@
     <t>EDAV</t>
   </si>
   <si>
-    <t>EPYR</t>
-  </si>
-  <si>
     <t>PD307</t>
   </si>
   <si>
+    <t>P103</t>
+  </si>
+  <si>
     <t>K413</t>
   </si>
   <si>
-    <t>P103</t>
-  </si>
-  <si>
     <t>P335</t>
   </si>
   <si>
@@ -978,12 +978,12 @@
     <t>'doc. Ing. Tomáš Loučka CSc.</t>
   </si>
   <si>
+    <t>'doc. MUDr. Vladislav Mareš DrSc.</t>
+  </si>
+  <si>
     <t>'doc. MUDr. Vladislav Mareš DrSc.'</t>
   </si>
   <si>
-    <t>'doc. MUDr. Vladislav Mareš DrSc.</t>
-  </si>
-  <si>
     <t>'prof. RNDr. Stanislav Novák CSc.</t>
   </si>
   <si>
@@ -1017,12 +1017,12 @@
     <t>'doc. RNDr. František Fiala'</t>
   </si>
   <si>
+    <t>'doc. RNDr. Ing. Kurt Fišer CSc.</t>
+  </si>
+  <si>
     <t>'doc. RNDr. Ing. Kurt Fišer CSc.'</t>
   </si>
   <si>
-    <t>'doc. RNDr. Ing. Kurt Fišer CSc.</t>
-  </si>
-  <si>
     <t>'Mgr. Dalibor Sedlák'</t>
   </si>
   <si>
@@ -1080,12 +1080,12 @@
     <t>'prof. Petr Dostál Ph.D., M.A.'</t>
   </si>
   <si>
+    <t>'doc. RNDr. Karel Oliva Dr.</t>
+  </si>
+  <si>
     <t>'doc. RNDr. Karel Oliva Dr.'</t>
   </si>
   <si>
-    <t>'doc. RNDr. Karel Oliva Dr.</t>
-  </si>
-  <si>
     <t>'prof. Ing. Václav Švorčík DrSc.'</t>
   </si>
   <si>
@@ -1227,22 +1227,22 @@
     <t>'Ing. Petra Ecorchard Ph.D.'</t>
   </si>
   <si>
+    <t>'RNDr. Pavel Branny CSc.'</t>
+  </si>
+  <si>
     <t>'RNDr. Pavel Branny CSc.</t>
   </si>
   <si>
-    <t>'RNDr. Pavel Branny CSc.'</t>
-  </si>
-  <si>
     <t>'Mgr. David Poustka</t>
   </si>
   <si>
     <t>'Ing. Tomáš Vomastek Ph.D.'</t>
   </si>
   <si>
+    <t>'Ricardo Rodriguez Jorge Ph.D.</t>
+  </si>
+  <si>
     <t>'Ricardo Rodriguez Jorge Ph.D.'</t>
-  </si>
-  <si>
-    <t>'Ricardo Rodriguez Jorge Ph.D.</t>
   </si>
   <si>
     <t>'Ing. Tadeáš Riley Wangle Ph.D.'</t>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>148</v>
@@ -1666,7 +1666,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>149</v>
@@ -1750,7 +1750,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>155</v>
@@ -1806,7 +1806,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>159</v>
@@ -1820,7 +1820,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>160</v>
@@ -1843,7 +1843,7 @@
         <v>281</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1871,12 +1871,12 @@
         <v>306</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>164</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>165</v>
@@ -1899,7 +1899,7 @@
         <v>306</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1946,7 +1946,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>169</v>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>170</v>
@@ -1974,7 +1974,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>171</v>
@@ -1988,7 +1988,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>172</v>
@@ -2002,7 +2002,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>173</v>
@@ -2011,12 +2011,12 @@
         <v>307</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>174</v>
@@ -2025,12 +2025,12 @@
         <v>307</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>175</v>
@@ -2058,7 +2058,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>177</v>
@@ -2072,7 +2072,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>178</v>
@@ -2086,7 +2086,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>179</v>
@@ -2100,7 +2100,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>180</v>
@@ -2114,7 +2114,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>181</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>182</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>183</v>
@@ -2156,7 +2156,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>184</v>
@@ -2170,7 +2170,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>185</v>
@@ -2184,7 +2184,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>186</v>
@@ -2198,7 +2198,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>187</v>
@@ -2221,12 +2221,12 @@
         <v>307</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>189</v>
@@ -2240,7 +2240,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>190</v>
@@ -2254,7 +2254,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>191</v>
@@ -2268,7 +2268,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>192</v>
@@ -2277,7 +2277,7 @@
         <v>307</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2436,7 +2436,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>204</v>
@@ -2450,7 +2450,7 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>205</v>
@@ -2492,7 +2492,7 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>208</v>
@@ -2506,7 +2506,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>209</v>
@@ -2529,7 +2529,7 @@
         <v>606</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2702,7 +2702,7 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>223</v>
@@ -2716,7 +2716,7 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>224</v>
@@ -2730,7 +2730,7 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>225</v>
@@ -2856,10 +2856,10 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C89" s="2">
         <v>1894</v>
@@ -2968,7 +2968,7 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>241</v>
@@ -2977,7 +2977,7 @@
         <v>2240</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3164,7 +3164,7 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>254</v>
@@ -3178,7 +3178,7 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>255</v>
@@ -3206,7 +3206,7 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>257</v>
@@ -3220,7 +3220,7 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>258</v>
@@ -3285,7 +3285,7 @@
         <v>3176</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3313,7 +3313,7 @@
         <v>3176</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3433,7 +3433,7 @@
         <v>12</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C130" s="2">
         <v>4208</v>
@@ -3556,10 +3556,10 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C139" s="2">
         <v>5061</v>
@@ -3570,10 +3570,10 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C140" s="2">
         <v>5061</v>
@@ -3601,7 +3601,7 @@
         <v>111</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>280</v>
+        <v>235</v>
       </c>
       <c r="C142" s="2">
         <v>5062</v>
@@ -3615,7 +3615,7 @@
         <v>112</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>234</v>
+        <v>280</v>
       </c>
       <c r="C143" s="2">
         <v>5062</v>
@@ -3682,7 +3682,7 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="1" t="s">
-        <v>6</v>
+        <v>116</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>284</v>
@@ -3696,7 +3696,7 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="1" t="s">
-        <v>116</v>
+        <v>6</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>285</v>
@@ -3724,7 +3724,7 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="1" t="s">
-        <v>6</v>
+        <v>118</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>287</v>
@@ -3738,7 +3738,7 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="1" t="s">
-        <v>118</v>
+        <v>6</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>288</v>
@@ -3836,10 +3836,10 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C159" s="2">
         <v>6387</v>
@@ -4083,7 +4083,7 @@
         <v>8514</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4111,7 +4111,7 @@
         <v>8514</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4189,7 +4189,7 @@
         <v>146</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="C184" s="2">
         <v>8750</v>
@@ -4200,10 +4200,10 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C185" s="2">
         <v>9098</v>
@@ -4214,10 +4214,10 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C186" s="2">
         <v>9098</v>

--- a/results_xlsx/prednasejici_bez_prednasek.xlsx
+++ b/results_xlsx/prednasejici_bez_prednasek.xlsx
@@ -28,15 +28,15 @@
     <t>jmena</t>
   </si>
   <si>
+    <t>Fyzika pevných látek I</t>
+  </si>
+  <si>
     <t>Základy počítačové fyziky</t>
   </si>
   <si>
     <t>Počítačové modelování IV</t>
   </si>
   <si>
-    <t>Fyzika pevných látek I</t>
-  </si>
-  <si>
     <t>Demografie</t>
   </si>
   <si>
@@ -49,99 +49,99 @@
     <t>Fyziologie živočichů a člověka</t>
   </si>
   <si>
+    <t>Fyziologie a mol. bio. eukar. buňky I</t>
+  </si>
+  <si>
     <t>Patobiologie živočišných buněk a tkání</t>
   </si>
   <si>
-    <t>Fyziologie a mol. bio. eukar. buňky I</t>
-  </si>
-  <si>
     <t>Fyziologie a molekul. biologie živ. buňk</t>
   </si>
   <si>
+    <t>Fyzikální vlastnosti tenkých vrstev</t>
+  </si>
+  <si>
+    <t>Úvod do počítačového modelování</t>
+  </si>
+  <si>
+    <t>Vakuová fyzika a technika</t>
+  </si>
+  <si>
+    <t>Vybrané partie z fyziky</t>
+  </si>
+  <si>
     <t>Charakterizace materiálů I</t>
   </si>
   <si>
-    <t>Úvod do počítačového modelování</t>
-  </si>
-  <si>
-    <t>Fyzikální vlastnosti tenkých vrstev</t>
-  </si>
-  <si>
-    <t>Vakuová fyzika a technika</t>
-  </si>
-  <si>
     <t>Počítačové simulace v nanotechnologiích</t>
   </si>
   <si>
-    <t>Vybrané partie z fyziky</t>
+    <t>Teorie elektromagnetického pole</t>
+  </si>
+  <si>
+    <t>Úvod do kvantové fyziky a spektroskopie</t>
+  </si>
+  <si>
+    <t>PVK - Vyb.partie z teoretické fyziky I</t>
+  </si>
+  <si>
+    <t>Fyzika</t>
+  </si>
+  <si>
+    <t>Vybrané partie z teoretické fyziky I</t>
+  </si>
+  <si>
+    <t>Vybr. partie z teorie el. pole</t>
+  </si>
+  <si>
+    <t>Kvantová mechanika</t>
+  </si>
+  <si>
+    <t>Fyzika I</t>
   </si>
   <si>
     <t>Speciální teorie relativity</t>
   </si>
   <si>
-    <t>Teorie elektromagnetického pole</t>
-  </si>
-  <si>
-    <t>Kvantová mechanika</t>
+    <t>Sel. parts of the theory of el. fields</t>
+  </si>
+  <si>
+    <t>Kvantová fyzika</t>
+  </si>
+  <si>
+    <t>Teorie relativity</t>
+  </si>
+  <si>
+    <t>Vybrané partie z teorie elektromag. pole</t>
+  </si>
+  <si>
+    <t>PVK - Vyb.partie z teoretické fyziky II</t>
+  </si>
+  <si>
+    <t>Kvantová fyzika I</t>
+  </si>
+  <si>
+    <t>VK-Teorie relativity</t>
+  </si>
+  <si>
+    <t>Vybrané partie z kvantové fyziky</t>
   </si>
   <si>
     <t>Kvantová fyzika II</t>
   </si>
   <si>
-    <t>Fyzika I</t>
-  </si>
-  <si>
-    <t>Kvantová fyzika</t>
-  </si>
-  <si>
-    <t>Kvantová fyzika I</t>
-  </si>
-  <si>
-    <t>PVK - Vyb.partie z teoretické fyziky I</t>
-  </si>
-  <si>
-    <t>Teorie relativity</t>
-  </si>
-  <si>
-    <t>Vybrané partie z teoretické fyziky I</t>
-  </si>
-  <si>
-    <t>Fyzika</t>
-  </si>
-  <si>
-    <t>Úvod do kvantové fyziky a spektroskopie</t>
-  </si>
-  <si>
-    <t>Vybrané partie z teorie elektromag. pole</t>
-  </si>
-  <si>
-    <t>Sel. parts of the theory of el. fields</t>
-  </si>
-  <si>
-    <t>VK-Teorie relativity</t>
-  </si>
-  <si>
-    <t>Vybr. partie z teorie el. pole</t>
-  </si>
-  <si>
-    <t>PVK - Vyb.partie z teoretické fyziky II</t>
-  </si>
-  <si>
-    <t>Vybrané partie z kvantové fyziky</t>
+    <t>Potenciál kulturní krajiny a GIS</t>
+  </si>
+  <si>
+    <t>Metody geografického výzkumu krajiny</t>
   </si>
   <si>
     <t>Regional environmental change</t>
   </si>
   <si>
-    <t>Potenciál kulturní krajiny a GIS</t>
-  </si>
-  <si>
     <t>Krajinná ekologie</t>
   </si>
   <si>
-    <t>Metody geografického výzkumu krajiny</t>
-  </si>
-  <si>
     <t>Vybrané kapitoly FG Evropy</t>
   </si>
   <si>
@@ -151,12 +151,12 @@
     <t>Planetární geografie</t>
   </si>
   <si>
+    <t>Didaktika chemie I</t>
+  </si>
+  <si>
     <t>Didaktika chemie II - SŠ</t>
   </si>
   <si>
-    <t>Didaktika chemie I</t>
-  </si>
-  <si>
     <t>VK-Regionální geografie Portugalska</t>
   </si>
   <si>
@@ -175,12 +175,12 @@
     <t>Systém kvality a vyhodnocování dat</t>
   </si>
   <si>
+    <t>Počítač. modelování - spojité modelování</t>
+  </si>
+  <si>
     <t>Matematika pro informatiky</t>
   </si>
   <si>
-    <t>Počítač. modelování - spojité modelování</t>
-  </si>
-  <si>
     <t>VK - Úvod do geografie náboženství</t>
   </si>
   <si>
@@ -221,9 +221,6 @@
   </si>
   <si>
     <t>Logistika</t>
-  </si>
-  <si>
-    <t>Metody analýz materiálů</t>
   </si>
   <si>
     <t>Komplexní analýza materiálů</t>
@@ -233,6 +230,9 @@
 využ. el. mikroskopie</t>
   </si>
   <si>
+    <t>Metody analýz materiálů</t>
+  </si>
+  <si>
     <t>Specializační přednášky z praxe</t>
   </si>
   <si>
@@ -272,42 +272,42 @@
     <t>Geospatial data: sources and analysis</t>
   </si>
   <si>
+    <t>Základy financí</t>
+  </si>
+  <si>
     <t>Finanční analýza</t>
   </si>
   <si>
-    <t>Základy financí</t>
-  </si>
-  <si>
     <t>Anatomie a fyziologie člověka</t>
   </si>
   <si>
+    <t>Medicína katastrof</t>
+  </si>
+  <si>
+    <t>Lékové intoxikace</t>
+  </si>
+  <si>
     <t>Návykové látky a právní předpisy</t>
   </si>
   <si>
-    <t>Lékové intoxikace</t>
-  </si>
-  <si>
-    <t>Medicína katastrof</t>
-  </si>
-  <si>
     <t>Technologie ochrany životního prostředí</t>
   </si>
   <si>
+    <t>Úvod do toxikologie</t>
+  </si>
+  <si>
     <t>Toxikologie rostl. a živočišných toxinů</t>
   </si>
   <si>
+    <t>Toxikologie I</t>
+  </si>
+  <si>
+    <t>Ekotoxikologie</t>
+  </si>
+  <si>
     <t>Toxikologie NMgr.</t>
   </si>
   <si>
-    <t>Toxikologie I</t>
-  </si>
-  <si>
-    <t>Úvod do toxikologie</t>
-  </si>
-  <si>
-    <t>Ekotoxikologie</t>
-  </si>
-  <si>
     <t>Úvod do fotofyziky a fotochemie nanomat.</t>
   </si>
   <si>
@@ -347,15 +347,15 @@
     <t>Automatické řízení</t>
   </si>
   <si>
+    <t>Forenzní vědy</t>
+  </si>
+  <si>
+    <t>Biochemie cizorodých látek</t>
+  </si>
+  <si>
     <t>Klinická biochemie a patobiochemie</t>
   </si>
   <si>
-    <t>Biochemie cizorodých látek</t>
-  </si>
-  <si>
-    <t>Forenzní vědy</t>
-  </si>
-  <si>
     <t>Klinická analýza</t>
   </si>
   <si>
@@ -363,18 +363,18 @@
   </si>
   <si>
     <t>Fyzika plazmatu a plazmové technologie</t>
-  </si>
-  <si>
-    <t>Principy a obvod. řešení el. spektometrů</t>
-  </si>
-  <si>
-    <t>Fyzika povrchů</t>
   </si>
   <si>
     <t>Met. analýz mat. 
 využ. prin. el. spektr</t>
   </si>
   <si>
+    <t>Principy a obvod. řešení el. spektometrů</t>
+  </si>
+  <si>
+    <t>Fyzika povrchů</t>
+  </si>
+  <si>
     <t>Veřejná správa</t>
   </si>
   <si>
@@ -387,12 +387,12 @@
     <t>Veřejné finance</t>
   </si>
   <si>
+    <t>Toxikologie a legislavita ČR a EU 2</t>
+  </si>
+  <si>
     <t>Toxikologie a legislavita ČR a EU 1</t>
   </si>
   <si>
-    <t>Toxikologie a legislavita ČR a EU 2</t>
-  </si>
-  <si>
     <t>Nekovové anorganické materiály</t>
   </si>
   <si>
@@ -408,12 +408,12 @@
     <t>Přípr. a využití nanovlákenných struktur</t>
   </si>
   <si>
+    <t>Didaktika biologie II</t>
+  </si>
+  <si>
     <t>Didaktika biologie I</t>
   </si>
   <si>
-    <t>Didaktika biologie II</t>
-  </si>
-  <si>
     <t>Nanoporézní materiály</t>
   </si>
   <si>
@@ -432,18 +432,18 @@
     <t>Regulace a poruchy signálních drah ž.b.</t>
   </si>
   <si>
+    <t>Machine Learning Based on R Software</t>
+  </si>
+  <si>
+    <t>Data Analysis and Visualisation</t>
+  </si>
+  <si>
     <t>Python and R for Data Science</t>
   </si>
   <si>
-    <t>Machine Learning Based on R Software</t>
-  </si>
-  <si>
     <t>Data Mining Techniq. based on R Software</t>
   </si>
   <si>
-    <t>Data Analysis and Visualisation</t>
-  </si>
-  <si>
     <t>Materials and Technolog. for Sust. Soc.</t>
   </si>
   <si>
@@ -459,27 +459,27 @@
     <t>Pravděpodobnost a statistika II</t>
   </si>
   <si>
+    <t>K839</t>
+  </si>
+  <si>
+    <t>P503</t>
+  </si>
+  <si>
     <t>K503</t>
   </si>
   <si>
-    <t>P503</t>
+    <t>P403</t>
   </si>
   <si>
     <t>K403</t>
   </si>
   <si>
-    <t>P403</t>
-  </si>
-  <si>
-    <t>K839</t>
+    <t>5DEMO</t>
   </si>
   <si>
     <t>FDEMO</t>
   </si>
   <si>
-    <t>5DEMO</t>
-  </si>
-  <si>
     <t>P224</t>
   </si>
   <si>
@@ -489,132 +489,132 @@
     <t>N114</t>
   </si>
   <si>
+    <t>PB502</t>
+  </si>
+  <si>
+    <t>N016</t>
+  </si>
+  <si>
+    <t>N059</t>
+  </si>
+  <si>
+    <t>ME100</t>
+  </si>
+  <si>
     <t>KB502</t>
   </si>
   <si>
-    <t>N059</t>
-  </si>
-  <si>
-    <t>PB502</t>
-  </si>
-  <si>
-    <t>N016</t>
-  </si>
-  <si>
-    <t>ME100</t>
+    <t>P325</t>
+  </si>
+  <si>
+    <t>UDPM</t>
+  </si>
+  <si>
+    <t>KUDPM</t>
+  </si>
+  <si>
+    <t>K218</t>
+  </si>
+  <si>
+    <t>K414</t>
   </si>
   <si>
     <t>CHM1</t>
   </si>
   <si>
-    <t>KUDPM</t>
-  </si>
-  <si>
-    <t>UDPM</t>
-  </si>
-  <si>
-    <t>P325</t>
-  </si>
-  <si>
-    <t>K218</t>
-  </si>
-  <si>
     <t>PSVN</t>
   </si>
   <si>
-    <t>K414</t>
+    <t>P508</t>
+  </si>
+  <si>
+    <t>P216</t>
+  </si>
+  <si>
+    <t>K422</t>
+  </si>
+  <si>
+    <t>P231</t>
+  </si>
+  <si>
+    <t>P938</t>
+  </si>
+  <si>
+    <t>PM101</t>
+  </si>
+  <si>
+    <t>KKM</t>
+  </si>
+  <si>
+    <t>TEP</t>
+  </si>
+  <si>
+    <t>P213</t>
+  </si>
+  <si>
+    <t>KSTR</t>
+  </si>
+  <si>
+    <t>CM101</t>
+  </si>
+  <si>
+    <t>P737</t>
+  </si>
+  <si>
+    <t>KM</t>
+  </si>
+  <si>
+    <t>P427</t>
+  </si>
+  <si>
+    <t>P606</t>
+  </si>
+  <si>
+    <t>PD203</t>
+  </si>
+  <si>
+    <t>K522</t>
+  </si>
+  <si>
+    <t>K222</t>
   </si>
   <si>
     <t>STR</t>
   </si>
   <si>
-    <t>TEP</t>
-  </si>
-  <si>
-    <t>KKM</t>
+    <t>K512</t>
+  </si>
+  <si>
+    <t>K724</t>
+  </si>
+  <si>
+    <t>0164</t>
+  </si>
+  <si>
+    <t>P509</t>
+  </si>
+  <si>
+    <t>PM100</t>
   </si>
   <si>
     <t>P607</t>
   </si>
   <si>
-    <t>K222</t>
-  </si>
-  <si>
-    <t>K724</t>
-  </si>
-  <si>
-    <t>P427</t>
-  </si>
-  <si>
-    <t>P509</t>
-  </si>
-  <si>
-    <t>K422</t>
-  </si>
-  <si>
-    <t>P737</t>
-  </si>
-  <si>
-    <t>KM</t>
-  </si>
-  <si>
-    <t>K512</t>
-  </si>
-  <si>
-    <t>P606</t>
-  </si>
-  <si>
-    <t>KSTR</t>
-  </si>
-  <si>
-    <t>P938</t>
-  </si>
-  <si>
-    <t>P231</t>
-  </si>
-  <si>
-    <t>P216</t>
-  </si>
-  <si>
-    <t>P508</t>
-  </si>
-  <si>
-    <t>PD203</t>
-  </si>
-  <si>
-    <t>CM101</t>
-  </si>
-  <si>
-    <t>P213</t>
-  </si>
-  <si>
     <t>K606</t>
   </si>
   <si>
-    <t>0164</t>
-  </si>
-  <si>
-    <t>PM101</t>
-  </si>
-  <si>
-    <t>K522</t>
-  </si>
-  <si>
-    <t>PM100</t>
+    <t>M214</t>
+  </si>
+  <si>
+    <t>M409</t>
   </si>
   <si>
     <t>PD103</t>
   </si>
   <si>
-    <t>M214</t>
-  </si>
-  <si>
     <t>B303</t>
   </si>
   <si>
-    <t>M409</t>
-  </si>
-  <si>
     <t>M102</t>
   </si>
   <si>
@@ -624,6 +624,9 @@
     <t>B102</t>
   </si>
   <si>
+    <t>N115</t>
+  </si>
+  <si>
     <t>KN22</t>
   </si>
   <si>
@@ -633,9 +636,6 @@
     <t>N304</t>
   </si>
   <si>
-    <t>N115</t>
-  </si>
-  <si>
     <t>0124</t>
   </si>
   <si>
@@ -645,24 +645,24 @@
     <t>K305</t>
   </si>
   <si>
+    <t>P522</t>
+  </si>
+  <si>
     <t>P422</t>
   </si>
   <si>
-    <t>P522</t>
-  </si>
-  <si>
     <t>P203</t>
   </si>
   <si>
     <t>N111</t>
   </si>
   <si>
+    <t>P366</t>
+  </si>
+  <si>
     <t>MAI</t>
   </si>
   <si>
-    <t>P366</t>
-  </si>
-  <si>
     <t>0133</t>
   </si>
   <si>
@@ -687,45 +687,45 @@
     <t>BP423</t>
   </si>
   <si>
+    <t>E129</t>
+  </si>
+  <si>
+    <t>P323</t>
+  </si>
+  <si>
+    <t>P303</t>
+  </si>
+  <si>
+    <t>K110</t>
+  </si>
+  <si>
     <t>BK423</t>
   </si>
   <si>
-    <t>E129</t>
-  </si>
-  <si>
-    <t>P323</t>
-  </si>
-  <si>
-    <t>P303</t>
-  </si>
-  <si>
-    <t>K110</t>
-  </si>
-  <si>
     <t>PD106</t>
   </si>
   <si>
     <t>LOG</t>
   </si>
   <si>
+    <t>PD202</t>
+  </si>
+  <si>
+    <t>AP03</t>
+  </si>
+  <si>
     <t>AP05</t>
   </si>
   <si>
-    <t>PD202</t>
-  </si>
-  <si>
-    <t>AP03</t>
-  </si>
-  <si>
     <t>B605</t>
   </si>
   <si>
+    <t>N023</t>
+  </si>
+  <si>
     <t>ME200</t>
   </si>
   <si>
-    <t>N023</t>
-  </si>
-  <si>
     <t>0120</t>
   </si>
   <si>
@@ -765,10 +765,25 @@
     <t>PD107</t>
   </si>
   <si>
+    <t>ZFIN</t>
+  </si>
+  <si>
     <t>FINA</t>
   </si>
   <si>
-    <t>ZFIN</t>
+    <t>B106</t>
+  </si>
+  <si>
+    <t>BK307</t>
+  </si>
+  <si>
+    <t>P518</t>
+  </si>
+  <si>
+    <t>P226</t>
+  </si>
+  <si>
+    <t>N321</t>
   </si>
   <si>
     <t>BK106</t>
@@ -777,42 +792,27 @@
     <t>N107</t>
   </si>
   <si>
-    <t>N321</t>
-  </si>
-  <si>
-    <t>BK307</t>
-  </si>
-  <si>
-    <t>P518</t>
-  </si>
-  <si>
     <t>B307</t>
   </si>
   <si>
-    <t>B106</t>
-  </si>
-  <si>
-    <t>P226</t>
-  </si>
-  <si>
     <t>P414</t>
   </si>
   <si>
+    <t>P117</t>
+  </si>
+  <si>
     <t>P534</t>
   </si>
   <si>
+    <t>K101</t>
+  </si>
+  <si>
+    <t>N109</t>
+  </si>
+  <si>
     <t>N216</t>
   </si>
   <si>
-    <t>K101</t>
-  </si>
-  <si>
-    <t>P117</t>
-  </si>
-  <si>
-    <t>N109</t>
-  </si>
-  <si>
     <t>NA18</t>
   </si>
   <si>
@@ -855,12 +855,12 @@
     <t>AUC</t>
   </si>
   <si>
+    <t>N223</t>
+  </si>
+  <si>
     <t>N224</t>
   </si>
   <si>
-    <t>N223</t>
-  </si>
-  <si>
     <t>N024</t>
   </si>
   <si>
@@ -870,21 +870,21 @@
     <t>P750</t>
   </si>
   <si>
+    <t>AP04</t>
+  </si>
+  <si>
+    <t>P861</t>
+  </si>
+  <si>
     <t>0231</t>
   </si>
   <si>
+    <t>P230</t>
+  </si>
+  <si>
     <t>P839</t>
   </si>
   <si>
-    <t>P230</t>
-  </si>
-  <si>
-    <t>AP04</t>
-  </si>
-  <si>
-    <t>P861</t>
-  </si>
-  <si>
     <t>VSP</t>
   </si>
   <si>
@@ -897,12 +897,12 @@
     <t>VFIN</t>
   </si>
   <si>
+    <t>P629</t>
+  </si>
+  <si>
     <t>P529</t>
   </si>
   <si>
-    <t>P629</t>
-  </si>
-  <si>
     <t>AMAT</t>
   </si>
   <si>
@@ -918,12 +918,12 @@
     <t>PD55</t>
   </si>
   <si>
+    <t>P208</t>
+  </si>
+  <si>
     <t>P108</t>
   </si>
   <si>
-    <t>P208</t>
-  </si>
-  <si>
     <t>PD10</t>
   </si>
   <si>
@@ -942,18 +942,18 @@
     <t>ME302</t>
   </si>
   <si>
+    <t>EMLR</t>
+  </si>
+  <si>
+    <t>EDAV</t>
+  </si>
+  <si>
     <t>EPYR</t>
   </si>
   <si>
-    <t>EMLR</t>
-  </si>
-  <si>
     <t>EDMR</t>
   </si>
   <si>
-    <t>EDAV</t>
-  </si>
-  <si>
     <t>PD307</t>
   </si>
   <si>
@@ -984,12 +984,12 @@
     <t>'doc. MUDr. Vladislav Mareš DrSc.'</t>
   </si>
   <si>
+    <t>'prof. RNDr. Stanislav Novák CSc.'</t>
+  </si>
+  <si>
     <t>'prof. RNDr. Stanislav Novák CSc.</t>
   </si>
   <si>
-    <t>'prof. RNDr. Stanislav Novák CSc.'</t>
-  </si>
-  <si>
     <t>'doc. RNDr. Dušan Novotný CSc.'</t>
   </si>
   <si>
@@ -1239,10 +1239,10 @@
     <t>'Ing. Tomáš Vomastek Ph.D.'</t>
   </si>
   <si>
+    <t>'Ricardo Rodriguez Jorge Ph.D.'</t>
+  </si>
+  <si>
     <t>'Ricardo Rodriguez Jorge Ph.D.</t>
-  </si>
-  <si>
-    <t>'Ricardo Rodriguez Jorge Ph.D.'</t>
   </si>
   <si>
     <t>'Ing. Tadeáš Riley Wangle Ph.D.'</t>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>148</v>
@@ -1680,7 +1680,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>150</v>
@@ -1806,7 +1806,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>159</v>
@@ -1815,12 +1815,12 @@
         <v>281</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>160</v>
@@ -1829,12 +1829,12 @@
         <v>281</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>161</v>
@@ -1871,7 +1871,7 @@
         <v>306</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1885,7 +1885,7 @@
         <v>306</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1899,7 +1899,7 @@
         <v>306</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1913,7 +1913,7 @@
         <v>306</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1927,7 +1927,7 @@
         <v>306</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2025,12 +2025,12 @@
         <v>307</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>175</v>
@@ -2044,7 +2044,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>176</v>
@@ -2072,7 +2072,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>178</v>
@@ -2086,7 +2086,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>179</v>
@@ -2095,12 +2095,12 @@
         <v>307</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>180</v>
@@ -2114,7 +2114,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>181</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>182</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>183</v>
@@ -2156,7 +2156,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>184</v>
@@ -2170,7 +2170,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>185</v>
@@ -2184,7 +2184,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>186</v>
@@ -2198,7 +2198,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>187</v>
@@ -2212,7 +2212,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>188</v>
@@ -2221,12 +2221,12 @@
         <v>307</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>189</v>
@@ -2240,7 +2240,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>190</v>
@@ -2268,7 +2268,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>192</v>
@@ -2277,12 +2277,12 @@
         <v>307</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>193</v>
@@ -2296,7 +2296,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>194</v>
@@ -2333,7 +2333,7 @@
         <v>313</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2361,7 +2361,7 @@
         <v>313</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2506,7 +2506,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>209</v>
@@ -2520,7 +2520,7 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>210</v>
@@ -2702,7 +2702,7 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>223</v>
@@ -2716,7 +2716,7 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>224</v>
@@ -2730,7 +2730,7 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>225</v>
@@ -2744,7 +2744,7 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>226</v>
@@ -2758,7 +2758,7 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>227</v>
@@ -2856,10 +2856,10 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C89" s="2">
         <v>1894</v>
@@ -3055,7 +3055,7 @@
         <v>65</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C103" s="2">
         <v>2757</v>
@@ -3150,7 +3150,7 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>253</v>
@@ -3164,7 +3164,7 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>254</v>
@@ -3178,7 +3178,7 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>255</v>
@@ -3192,7 +3192,7 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>256</v>
@@ -3206,7 +3206,7 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>257</v>
@@ -3220,7 +3220,7 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>258</v>
@@ -3299,7 +3299,7 @@
         <v>3176</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3313,7 +3313,7 @@
         <v>3176</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3430,10 +3430,10 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C130" s="2">
         <v>4208</v>
@@ -3447,7 +3447,7 @@
         <v>65</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C131" s="2">
         <v>4219</v>
@@ -3556,10 +3556,10 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C139" s="2">
         <v>5061</v>
@@ -3570,10 +3570,10 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C140" s="2">
         <v>5061</v>
@@ -3601,7 +3601,7 @@
         <v>111</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C142" s="2">
         <v>5062</v>
@@ -3696,7 +3696,7 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>285</v>
@@ -3738,7 +3738,7 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>288</v>
@@ -3836,10 +3836,10 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C159" s="2">
         <v>6387</v>
@@ -4189,7 +4189,7 @@
         <v>146</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="C184" s="2">
         <v>8750</v>
@@ -4200,10 +4200,10 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C185" s="2">
         <v>9098</v>
@@ -4214,10 +4214,10 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C186" s="2">
         <v>9098</v>

--- a/results_xlsx/prednasejici_bez_prednasek.xlsx
+++ b/results_xlsx/prednasejici_bez_prednasek.xlsx
@@ -28,123 +28,123 @@
     <t>jmena</t>
   </si>
   <si>
+    <t>Počítačové modelování IV</t>
+  </si>
+  <si>
+    <t>Základy počítačové fyziky</t>
+  </si>
+  <si>
     <t>Fyzika pevných látek I</t>
   </si>
   <si>
-    <t>Základy počítačové fyziky</t>
-  </si>
-  <si>
-    <t>Počítačové modelování IV</t>
-  </si>
-  <si>
     <t>Demografie</t>
   </si>
   <si>
+    <t>Anorganická chemie Nmgr.</t>
+  </si>
+  <si>
     <t>Anorganická chemie</t>
   </si>
   <si>
-    <t>Anorganická chemie Nmgr.</t>
-  </si>
-  <si>
     <t>Fyziologie živočichů a člověka</t>
   </si>
   <si>
+    <t>Fyziologie a molekul. biologie živ. buňk</t>
+  </si>
+  <si>
     <t>Fyziologie a mol. bio. eukar. buňky I</t>
   </si>
   <si>
     <t>Patobiologie živočišných buněk a tkání</t>
   </si>
   <si>
-    <t>Fyziologie a molekul. biologie živ. buňk</t>
+    <t>Úvod do počítačového modelování</t>
+  </si>
+  <si>
+    <t>Vybrané partie z fyziky</t>
   </si>
   <si>
     <t>Fyzikální vlastnosti tenkých vrstev</t>
   </si>
   <si>
-    <t>Úvod do počítačového modelování</t>
+    <t>Počítačové simulace v nanotechnologiích</t>
   </si>
   <si>
     <t>Vakuová fyzika a technika</t>
   </si>
   <si>
-    <t>Vybrané partie z fyziky</t>
-  </si>
-  <si>
     <t>Charakterizace materiálů I</t>
   </si>
   <si>
-    <t>Počítačové simulace v nanotechnologiích</t>
+    <t>Fyzika I</t>
+  </si>
+  <si>
+    <t>Kvantová fyzika II</t>
+  </si>
+  <si>
+    <t>Teorie relativity</t>
+  </si>
+  <si>
+    <t>Vybrané partie z teorie elektromag. pole</t>
   </si>
   <si>
     <t>Teorie elektromagnetického pole</t>
   </si>
   <si>
+    <t>Speciální teorie relativity</t>
+  </si>
+  <si>
+    <t>Vybrané partie z teoretické fyziky I</t>
+  </si>
+  <si>
+    <t>Kvantová fyzika I</t>
+  </si>
+  <si>
+    <t>Vybrané partie z kvantové fyziky</t>
+  </si>
+  <si>
+    <t>Kvantová fyzika</t>
+  </si>
+  <si>
+    <t>Kvantová mechanika</t>
+  </si>
+  <si>
+    <t>Fyzika</t>
+  </si>
+  <si>
+    <t>Sel. parts of the theory of el. fields</t>
+  </si>
+  <si>
+    <t>Vybr. partie z teorie el. pole</t>
+  </si>
+  <si>
+    <t>PVK - Vyb.partie z teoretické fyziky II</t>
+  </si>
+  <si>
     <t>Úvod do kvantové fyziky a spektroskopie</t>
   </si>
   <si>
     <t>PVK - Vyb.partie z teoretické fyziky I</t>
   </si>
   <si>
-    <t>Fyzika</t>
-  </si>
-  <si>
-    <t>Vybrané partie z teoretické fyziky I</t>
-  </si>
-  <si>
-    <t>Vybr. partie z teorie el. pole</t>
-  </si>
-  <si>
-    <t>Kvantová mechanika</t>
-  </si>
-  <si>
-    <t>Fyzika I</t>
-  </si>
-  <si>
-    <t>Speciální teorie relativity</t>
-  </si>
-  <si>
-    <t>Sel. parts of the theory of el. fields</t>
-  </si>
-  <si>
-    <t>Kvantová fyzika</t>
-  </si>
-  <si>
-    <t>Teorie relativity</t>
-  </si>
-  <si>
-    <t>Vybrané partie z teorie elektromag. pole</t>
-  </si>
-  <si>
-    <t>PVK - Vyb.partie z teoretické fyziky II</t>
-  </si>
-  <si>
-    <t>Kvantová fyzika I</t>
-  </si>
-  <si>
     <t>VK-Teorie relativity</t>
   </si>
   <si>
-    <t>Vybrané partie z kvantové fyziky</t>
-  </si>
-  <si>
-    <t>Kvantová fyzika II</t>
+    <t>Regional environmental change</t>
+  </si>
+  <si>
+    <t>Krajinná ekologie</t>
   </si>
   <si>
     <t>Potenciál kulturní krajiny a GIS</t>
   </si>
   <si>
+    <t>Vybrané kapitoly FG Evropy</t>
+  </si>
+  <si>
     <t>Metody geografického výzkumu krajiny</t>
   </si>
   <si>
-    <t>Regional environmental change</t>
-  </si>
-  <si>
-    <t>Krajinná ekologie</t>
-  </si>
-  <si>
-    <t>Vybrané kapitoly FG Evropy</t>
-  </si>
-  <si>
     <t>Problémové oblasti Česka</t>
   </si>
   <si>
@@ -202,12 +202,12 @@
     <t>Matematika III</t>
   </si>
   <si>
+    <t>Parasitology</t>
+  </si>
+  <si>
     <t>Somatologie</t>
   </si>
   <si>
-    <t>Parasitology</t>
-  </si>
-  <si>
     <t>Obecná parazitologie</t>
   </si>
   <si>
@@ -221,15 +221,15 @@
   </si>
   <si>
     <t>Logistika</t>
-  </si>
-  <si>
-    <t>Komplexní analýza materiálů</t>
   </si>
   <si>
     <t>Met. analýz mat. 
 využ. el. mikroskopie</t>
   </si>
   <si>
+    <t>Komplexní analýza materiálů</t>
+  </si>
+  <si>
     <t>Metody analýz materiálů</t>
   </si>
   <si>
@@ -278,12 +278,12 @@
     <t>Finanční analýza</t>
   </si>
   <si>
+    <t>Medicína katastrof</t>
+  </si>
+  <si>
     <t>Anatomie a fyziologie člověka</t>
   </si>
   <si>
-    <t>Medicína katastrof</t>
-  </si>
-  <si>
     <t>Lékové intoxikace</t>
   </si>
   <si>
@@ -293,21 +293,21 @@
     <t>Technologie ochrany životního prostředí</t>
   </si>
   <si>
+    <t>Toxikologie NMgr.</t>
+  </si>
+  <si>
+    <t>Toxikologie I</t>
+  </si>
+  <si>
+    <t>Toxikologie rostl. a živočišných toxinů</t>
+  </si>
+  <si>
+    <t>Ekotoxikologie</t>
+  </si>
+  <si>
     <t>Úvod do toxikologie</t>
   </si>
   <si>
-    <t>Toxikologie rostl. a živočišných toxinů</t>
-  </si>
-  <si>
-    <t>Toxikologie I</t>
-  </si>
-  <si>
-    <t>Ekotoxikologie</t>
-  </si>
-  <si>
-    <t>Toxikologie NMgr.</t>
-  </si>
-  <si>
     <t>Úvod do fotofyziky a fotochemie nanomat.</t>
   </si>
   <si>
@@ -347,34 +347,34 @@
     <t>Automatické řízení</t>
   </si>
   <si>
+    <t>Klinická analýza</t>
+  </si>
+  <si>
+    <t>Biochemie cizorodých látek</t>
+  </si>
+  <si>
     <t>Forenzní vědy</t>
   </si>
   <si>
-    <t>Biochemie cizorodých látek</t>
-  </si>
-  <si>
     <t>Klinická biochemie a patobiochemie</t>
   </si>
   <si>
-    <t>Klinická analýza</t>
-  </si>
-  <si>
     <t>Bioaktivní přírodní látky</t>
   </si>
   <si>
     <t>Fyzika plazmatu a plazmové technologie</t>
+  </si>
+  <si>
+    <t>Fyzika povrchů</t>
+  </si>
+  <si>
+    <t>Principy a obvod. řešení el. spektometrů</t>
   </si>
   <si>
     <t>Met. analýz mat. 
 využ. prin. el. spektr</t>
   </si>
   <si>
-    <t>Principy a obvod. řešení el. spektometrů</t>
-  </si>
-  <si>
-    <t>Fyzika povrchů</t>
-  </si>
-  <si>
     <t>Veřejná správa</t>
   </si>
   <si>
@@ -408,12 +408,12 @@
     <t>Přípr. a využití nanovlákenných struktur</t>
   </si>
   <si>
+    <t>Didaktika biologie I</t>
+  </si>
+  <si>
     <t>Didaktika biologie II</t>
   </si>
   <si>
-    <t>Didaktika biologie I</t>
-  </si>
-  <si>
     <t>Nanoporézní materiály</t>
   </si>
   <si>
@@ -432,18 +432,18 @@
     <t>Regulace a poruchy signálních drah ž.b.</t>
   </si>
   <si>
+    <t>Data Mining Techniq. based on R Software</t>
+  </si>
+  <si>
+    <t>Data Analysis and Visualisation</t>
+  </si>
+  <si>
+    <t>Python and R for Data Science</t>
+  </si>
+  <si>
     <t>Machine Learning Based on R Software</t>
   </si>
   <si>
-    <t>Data Analysis and Visualisation</t>
-  </si>
-  <si>
-    <t>Python and R for Data Science</t>
-  </si>
-  <si>
-    <t>Data Mining Techniq. based on R Software</t>
-  </si>
-  <si>
     <t>Materials and Technolog. for Sust. Soc.</t>
   </si>
   <si>
@@ -459,165 +459,165 @@
     <t>Pravděpodobnost a statistika II</t>
   </si>
   <si>
+    <t>P403</t>
+  </si>
+  <si>
+    <t>K503</t>
+  </si>
+  <si>
     <t>K839</t>
   </si>
   <si>
+    <t>K403</t>
+  </si>
+  <si>
     <t>P503</t>
   </si>
   <si>
-    <t>K503</t>
-  </si>
-  <si>
-    <t>P403</t>
-  </si>
-  <si>
-    <t>K403</t>
+    <t>FDEMO</t>
   </si>
   <si>
     <t>5DEMO</t>
   </si>
   <si>
-    <t>FDEMO</t>
+    <t>KN11</t>
   </si>
   <si>
     <t>P224</t>
   </si>
   <si>
-    <t>KN11</t>
-  </si>
-  <si>
     <t>N114</t>
   </si>
   <si>
+    <t>KB502</t>
+  </si>
+  <si>
+    <t>ME100</t>
+  </si>
+  <si>
+    <t>N016</t>
+  </si>
+  <si>
     <t>PB502</t>
   </si>
   <si>
-    <t>N016</t>
-  </si>
-  <si>
     <t>N059</t>
   </si>
   <si>
-    <t>ME100</t>
-  </si>
-  <si>
-    <t>KB502</t>
+    <t>KUDPM</t>
+  </si>
+  <si>
+    <t>UDPM</t>
+  </si>
+  <si>
+    <t>K414</t>
   </si>
   <si>
     <t>P325</t>
   </si>
   <si>
-    <t>UDPM</t>
-  </si>
-  <si>
-    <t>KUDPM</t>
+    <t>PSVN</t>
   </si>
   <si>
     <t>K218</t>
   </si>
   <si>
-    <t>K414</t>
-  </si>
-  <si>
     <t>CHM1</t>
   </si>
   <si>
-    <t>PSVN</t>
+    <t>P213</t>
+  </si>
+  <si>
+    <t>P607</t>
+  </si>
+  <si>
+    <t>K606</t>
+  </si>
+  <si>
+    <t>PD203</t>
   </si>
   <si>
     <t>P508</t>
   </si>
   <si>
+    <t>STR</t>
+  </si>
+  <si>
+    <t>P938</t>
+  </si>
+  <si>
+    <t>K512</t>
+  </si>
+  <si>
+    <t>PM100</t>
+  </si>
+  <si>
+    <t>P737</t>
+  </si>
+  <si>
+    <t>KM</t>
+  </si>
+  <si>
+    <t>P231</t>
+  </si>
+  <si>
+    <t>TEP</t>
+  </si>
+  <si>
+    <t>P509</t>
+  </si>
+  <si>
+    <t>CM101</t>
+  </si>
+  <si>
+    <t>KKM</t>
+  </si>
+  <si>
+    <t>K222</t>
+  </si>
+  <si>
+    <t>K724</t>
+  </si>
+  <si>
+    <t>PM101</t>
+  </si>
+  <si>
+    <t>K522</t>
+  </si>
+  <si>
     <t>P216</t>
   </si>
   <si>
     <t>K422</t>
   </si>
   <si>
-    <t>P231</t>
-  </si>
-  <si>
-    <t>P938</t>
-  </si>
-  <si>
-    <t>PM101</t>
-  </si>
-  <si>
-    <t>KKM</t>
-  </si>
-  <si>
-    <t>TEP</t>
-  </si>
-  <si>
-    <t>P213</t>
+    <t>P606</t>
+  </si>
+  <si>
+    <t>P427</t>
   </si>
   <si>
     <t>KSTR</t>
   </si>
   <si>
-    <t>CM101</t>
-  </si>
-  <si>
-    <t>P737</t>
-  </si>
-  <si>
-    <t>KM</t>
-  </si>
-  <si>
-    <t>P427</t>
-  </si>
-  <si>
-    <t>P606</t>
-  </si>
-  <si>
-    <t>PD203</t>
-  </si>
-  <si>
-    <t>K522</t>
-  </si>
-  <si>
-    <t>K222</t>
-  </si>
-  <si>
-    <t>STR</t>
-  </si>
-  <si>
-    <t>K512</t>
-  </si>
-  <si>
-    <t>K724</t>
-  </si>
-  <si>
     <t>0164</t>
   </si>
   <si>
-    <t>P509</t>
-  </si>
-  <si>
-    <t>PM100</t>
-  </si>
-  <si>
-    <t>P607</t>
-  </si>
-  <si>
-    <t>K606</t>
+    <t>PD103</t>
+  </si>
+  <si>
+    <t>B303</t>
   </si>
   <si>
     <t>M214</t>
   </si>
   <si>
+    <t>M102</t>
+  </si>
+  <si>
     <t>M409</t>
   </si>
   <si>
-    <t>PD103</t>
-  </si>
-  <si>
-    <t>B303</t>
-  </si>
-  <si>
-    <t>M102</t>
-  </si>
-  <si>
     <t>0154</t>
   </si>
   <si>
@@ -627,12 +627,12 @@
     <t>N115</t>
   </si>
   <si>
+    <t>KN10</t>
+  </si>
+  <si>
     <t>KN22</t>
   </si>
   <si>
-    <t>KN10</t>
-  </si>
-  <si>
     <t>N304</t>
   </si>
   <si>
@@ -645,12 +645,12 @@
     <t>K305</t>
   </si>
   <si>
+    <t>P422</t>
+  </si>
+  <si>
     <t>P522</t>
   </si>
   <si>
-    <t>P422</t>
-  </si>
-  <si>
     <t>P203</t>
   </si>
   <si>
@@ -684,12 +684,15 @@
     <t>K304</t>
   </si>
   <si>
+    <t>E129</t>
+  </si>
+  <si>
+    <t>BK423</t>
+  </si>
+  <si>
     <t>BP423</t>
   </si>
   <si>
-    <t>E129</t>
-  </si>
-  <si>
     <t>P323</t>
   </si>
   <si>
@@ -699,21 +702,18 @@
     <t>K110</t>
   </si>
   <si>
-    <t>BK423</t>
-  </si>
-  <si>
     <t>PD106</t>
   </si>
   <si>
     <t>LOG</t>
   </si>
   <si>
+    <t>AP03</t>
+  </si>
+  <si>
     <t>PD202</t>
   </si>
   <si>
-    <t>AP03</t>
-  </si>
-  <si>
     <t>AP05</t>
   </si>
   <si>
@@ -738,12 +738,12 @@
     <t>DSA</t>
   </si>
   <si>
+    <t>KDSA</t>
+  </si>
+  <si>
     <t>TFL</t>
   </si>
   <si>
-    <t>KDSA</t>
-  </si>
-  <si>
     <t>PD305</t>
   </si>
   <si>
@@ -771,48 +771,48 @@
     <t>FINA</t>
   </si>
   <si>
+    <t>B307</t>
+  </si>
+  <si>
     <t>B106</t>
   </si>
   <si>
+    <t>N321</t>
+  </si>
+  <si>
     <t>BK307</t>
   </si>
   <si>
+    <t>BK106</t>
+  </si>
+  <si>
+    <t>N107</t>
+  </si>
+  <si>
     <t>P518</t>
   </si>
   <si>
     <t>P226</t>
   </si>
   <si>
-    <t>N321</t>
-  </si>
-  <si>
-    <t>BK106</t>
-  </si>
-  <si>
-    <t>N107</t>
-  </si>
-  <si>
-    <t>B307</t>
-  </si>
-  <si>
     <t>P414</t>
   </si>
   <si>
+    <t>N216</t>
+  </si>
+  <si>
+    <t>K101</t>
+  </si>
+  <si>
+    <t>P534</t>
+  </si>
+  <si>
+    <t>N109</t>
+  </si>
+  <si>
     <t>P117</t>
   </si>
   <si>
-    <t>P534</t>
-  </si>
-  <si>
-    <t>K101</t>
-  </si>
-  <si>
-    <t>N109</t>
-  </si>
-  <si>
-    <t>N216</t>
-  </si>
-  <si>
     <t>NA18</t>
   </si>
   <si>
@@ -855,36 +855,36 @@
     <t>AUC</t>
   </si>
   <si>
+    <t>N024</t>
+  </si>
+  <si>
     <t>N223</t>
   </si>
   <si>
     <t>N224</t>
   </si>
   <si>
-    <t>N024</t>
-  </si>
-  <si>
     <t>N211</t>
   </si>
   <si>
     <t>P750</t>
   </si>
   <si>
+    <t>P839</t>
+  </si>
+  <si>
+    <t>P230</t>
+  </si>
+  <si>
+    <t>0231</t>
+  </si>
+  <si>
     <t>AP04</t>
   </si>
   <si>
     <t>P861</t>
   </si>
   <si>
-    <t>0231</t>
-  </si>
-  <si>
-    <t>P230</t>
-  </si>
-  <si>
-    <t>P839</t>
-  </si>
-  <si>
     <t>VSP</t>
   </si>
   <si>
@@ -918,12 +918,12 @@
     <t>PD55</t>
   </si>
   <si>
+    <t>P108</t>
+  </si>
+  <si>
     <t>P208</t>
   </si>
   <si>
-    <t>P108</t>
-  </si>
-  <si>
     <t>PD10</t>
   </si>
   <si>
@@ -942,18 +942,18 @@
     <t>ME302</t>
   </si>
   <si>
+    <t>EDMR</t>
+  </si>
+  <si>
+    <t>EDAV</t>
+  </si>
+  <si>
+    <t>EPYR</t>
+  </si>
+  <si>
     <t>EMLR</t>
   </si>
   <si>
-    <t>EDAV</t>
-  </si>
-  <si>
-    <t>EPYR</t>
-  </si>
-  <si>
-    <t>EDMR</t>
-  </si>
-  <si>
     <t>PD307</t>
   </si>
   <si>
@@ -984,10 +984,10 @@
     <t>'doc. MUDr. Vladislav Mareš DrSc.'</t>
   </si>
   <si>
+    <t>'prof. RNDr. Stanislav Novák CSc.</t>
+  </si>
+  <si>
     <t>'prof. RNDr. Stanislav Novák CSc.'</t>
-  </si>
-  <si>
-    <t>'prof. RNDr. Stanislav Novák CSc.</t>
   </si>
   <si>
     <t>'doc. RNDr. Dušan Novotný CSc.'</t>
@@ -1666,7 +1666,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>149</v>
@@ -1680,7 +1680,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>150</v>
@@ -1694,7 +1694,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>151</v>
@@ -1764,7 +1764,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>156</v>
@@ -1801,7 +1801,7 @@
         <v>281</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1820,7 +1820,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>160</v>
@@ -1834,7 +1834,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>161</v>
@@ -1843,7 +1843,7 @@
         <v>281</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1862,7 +1862,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>163</v>
@@ -1871,7 +1871,7 @@
         <v>306</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1899,7 +1899,7 @@
         <v>306</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1941,7 +1941,7 @@
         <v>306</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2025,7 +2025,7 @@
         <v>307</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2044,7 +2044,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>176</v>
@@ -2058,7 +2058,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>177</v>
@@ -2072,7 +2072,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>178</v>
@@ -2086,7 +2086,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>179</v>
@@ -2095,12 +2095,12 @@
         <v>307</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>180</v>
@@ -2114,7 +2114,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>181</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>182</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>183</v>
@@ -2151,12 +2151,12 @@
         <v>307</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>184</v>
@@ -2170,7 +2170,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>185</v>
@@ -2184,7 +2184,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>186</v>
@@ -2198,7 +2198,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>187</v>
@@ -2207,7 +2207,7 @@
         <v>307</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2226,7 +2226,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>189</v>
@@ -2240,7 +2240,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>190</v>
@@ -2254,7 +2254,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>191</v>
@@ -2268,7 +2268,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>192</v>
@@ -2282,7 +2282,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>193</v>
@@ -2296,7 +2296,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>194</v>
@@ -2333,7 +2333,7 @@
         <v>313</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2361,7 +2361,7 @@
         <v>313</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2422,7 +2422,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>203</v>
@@ -2436,7 +2436,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>204</v>
@@ -2506,7 +2506,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>209</v>
@@ -2520,7 +2520,7 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>210</v>
@@ -2716,7 +2716,7 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>224</v>
@@ -2730,7 +2730,7 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>225</v>
@@ -2744,7 +2744,7 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>226</v>
@@ -2758,7 +2758,7 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>227</v>
@@ -2856,10 +2856,10 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C89" s="2">
         <v>1894</v>
@@ -2954,7 +2954,7 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>240</v>
@@ -2963,12 +2963,12 @@
         <v>2240</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>241</v>
@@ -2977,7 +2977,7 @@
         <v>2240</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3055,7 +3055,7 @@
         <v>65</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C103" s="2">
         <v>2757</v>
@@ -3150,7 +3150,7 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>253</v>
@@ -3178,7 +3178,7 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>255</v>
@@ -3192,7 +3192,7 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>256</v>
@@ -3206,7 +3206,7 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>257</v>
@@ -3430,10 +3430,10 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C130" s="2">
         <v>4208</v>
@@ -3447,7 +3447,7 @@
         <v>65</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C131" s="2">
         <v>4219</v>
@@ -3559,7 +3559,7 @@
         <v>89</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C139" s="2">
         <v>5061</v>
@@ -3573,7 +3573,7 @@
         <v>90</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C140" s="2">
         <v>5061</v>
@@ -3682,7 +3682,7 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="1" t="s">
-        <v>116</v>
+        <v>6</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>284</v>
@@ -3696,7 +3696,7 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="1" t="s">
-        <v>4</v>
+        <v>116</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>285</v>
@@ -3738,7 +3738,7 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>288</v>
@@ -3836,10 +3836,10 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C159" s="2">
         <v>6387</v>
@@ -4189,7 +4189,7 @@
         <v>146</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="C184" s="2">
         <v>8750</v>
@@ -4203,7 +4203,7 @@
         <v>89</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C185" s="2">
         <v>9098</v>
@@ -4217,7 +4217,7 @@
         <v>90</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C186" s="2">
         <v>9098</v>

--- a/results_xlsx/prednasejici_bez_prednasek.xlsx
+++ b/results_xlsx/prednasejici_bez_prednasek.xlsx
@@ -46,102 +46,102 @@
     <t>Anorganická chemie</t>
   </si>
   <si>
+    <t>Fyziologie a mol. bio. eukar. buňky I</t>
+  </si>
+  <si>
     <t>Fyziologie živočichů a člověka</t>
   </si>
   <si>
     <t>Fyziologie a molekul. biologie živ. buňk</t>
   </si>
   <si>
-    <t>Fyziologie a mol. bio. eukar. buňky I</t>
-  </si>
-  <si>
     <t>Patobiologie živočišných buněk a tkání</t>
   </si>
   <si>
+    <t>Počítačové simulace v nanotechnologiích</t>
+  </si>
+  <si>
+    <t>Vakuová fyzika a technika</t>
+  </si>
+  <si>
     <t>Úvod do počítačového modelování</t>
   </si>
   <si>
+    <t>Fyzikální vlastnosti tenkých vrstev</t>
+  </si>
+  <si>
+    <t>Charakterizace materiálů I</t>
+  </si>
+  <si>
     <t>Vybrané partie z fyziky</t>
   </si>
   <si>
-    <t>Fyzikální vlastnosti tenkých vrstev</t>
-  </si>
-  <si>
-    <t>Počítačové simulace v nanotechnologiích</t>
-  </si>
-  <si>
-    <t>Vakuová fyzika a technika</t>
-  </si>
-  <si>
-    <t>Charakterizace materiálů I</t>
+    <t>PVK - Vyb.partie z teoretické fyziky I</t>
+  </si>
+  <si>
+    <t>Vybrané partie z kvantové fyziky</t>
+  </si>
+  <si>
+    <t>Kvantová mechanika</t>
+  </si>
+  <si>
+    <t>Kvantová fyzika I</t>
+  </si>
+  <si>
+    <t>Fyzika</t>
+  </si>
+  <si>
+    <t>Kvantová fyzika II</t>
   </si>
   <si>
     <t>Fyzika I</t>
   </si>
   <si>
-    <t>Kvantová fyzika II</t>
-  </si>
-  <si>
     <t>Teorie relativity</t>
   </si>
   <si>
+    <t>Teorie elektromagnetického pole</t>
+  </si>
+  <si>
+    <t>PVK - Vyb.partie z teoretické fyziky II</t>
+  </si>
+  <si>
+    <t>Kvantová fyzika</t>
+  </si>
+  <si>
+    <t>Speciální teorie relativity</t>
+  </si>
+  <si>
+    <t>Sel. parts of the theory of el. fields</t>
+  </si>
+  <si>
+    <t>Vybr. partie z teorie el. pole</t>
+  </si>
+  <si>
+    <t>Vybrané partie z teoretické fyziky I</t>
+  </si>
+  <si>
     <t>Vybrané partie z teorie elektromag. pole</t>
   </si>
   <si>
-    <t>Teorie elektromagnetického pole</t>
-  </si>
-  <si>
-    <t>Speciální teorie relativity</t>
-  </si>
-  <si>
-    <t>Vybrané partie z teoretické fyziky I</t>
-  </si>
-  <si>
-    <t>Kvantová fyzika I</t>
-  </si>
-  <si>
-    <t>Vybrané partie z kvantové fyziky</t>
-  </si>
-  <si>
-    <t>Kvantová fyzika</t>
-  </si>
-  <si>
-    <t>Kvantová mechanika</t>
-  </si>
-  <si>
-    <t>Fyzika</t>
-  </si>
-  <si>
-    <t>Sel. parts of the theory of el. fields</t>
-  </si>
-  <si>
-    <t>Vybr. partie z teorie el. pole</t>
-  </si>
-  <si>
-    <t>PVK - Vyb.partie z teoretické fyziky II</t>
+    <t>VK-Teorie relativity</t>
   </si>
   <si>
     <t>Úvod do kvantové fyziky a spektroskopie</t>
   </si>
   <si>
-    <t>PVK - Vyb.partie z teoretické fyziky I</t>
-  </si>
-  <si>
-    <t>VK-Teorie relativity</t>
+    <t>Vybrané kapitoly FG Evropy</t>
   </si>
   <si>
     <t>Regional environmental change</t>
   </si>
   <si>
+    <t>Potenciál kulturní krajiny a GIS</t>
+  </si>
+  <si>
     <t>Krajinná ekologie</t>
   </si>
   <si>
-    <t>Potenciál kulturní krajiny a GIS</t>
-  </si>
-  <si>
-    <t>Vybrané kapitoly FG Evropy</t>
-  </si>
-  <si>
     <t>Metody geografického výzkumu krajiny</t>
   </si>
   <si>
@@ -151,24 +151,24 @@
     <t>Planetární geografie</t>
   </si>
   <si>
+    <t>Didaktika chemie II - SŠ</t>
+  </si>
+  <si>
     <t>Didaktika chemie I</t>
   </si>
   <si>
-    <t>Didaktika chemie II - SŠ</t>
-  </si>
-  <si>
     <t>VK-Regionální geografie Portugalska</t>
   </si>
   <si>
     <t>VK-Programování ATMEL I</t>
   </si>
   <si>
+    <t>Vybrané partie z teoretické fyziky II</t>
+  </si>
+  <si>
     <t>Teoretická mechanika I</t>
   </si>
   <si>
-    <t>Vybrané partie z teoretické fyziky II</t>
-  </si>
-  <si>
     <t>Programování B</t>
   </si>
   <si>
@@ -202,18 +202,18 @@
     <t>Matematika III</t>
   </si>
   <si>
+    <t>Biologie a ekologie člověka I</t>
+  </si>
+  <si>
+    <t>Somatologie</t>
+  </si>
+  <si>
     <t>Parasitology</t>
   </si>
   <si>
-    <t>Somatologie</t>
-  </si>
-  <si>
     <t>Obecná parazitologie</t>
   </si>
   <si>
-    <t>Biologie a ekologie člověka I</t>
-  </si>
-  <si>
     <t>Obecná zoologie</t>
   </si>
   <si>
@@ -221,18 +221,18 @@
   </si>
   <si>
     <t>Logistika</t>
+  </si>
+  <si>
+    <t>Komplexní analýza materiálů</t>
+  </si>
+  <si>
+    <t>Metody analýz materiálů</t>
   </si>
   <si>
     <t>Met. analýz mat. 
 využ. el. mikroskopie</t>
   </si>
   <si>
-    <t>Komplexní analýza materiálů</t>
-  </si>
-  <si>
-    <t>Metody analýz materiálů</t>
-  </si>
-  <si>
     <t>Specializační přednášky z praxe</t>
   </si>
   <si>
@@ -272,18 +272,18 @@
     <t>Geospatial data: sources and analysis</t>
   </si>
   <si>
+    <t>Finanční analýza</t>
+  </si>
+  <si>
     <t>Základy financí</t>
   </si>
   <si>
-    <t>Finanční analýza</t>
+    <t>Anatomie a fyziologie člověka</t>
   </si>
   <si>
     <t>Medicína katastrof</t>
   </si>
   <si>
-    <t>Anatomie a fyziologie člověka</t>
-  </si>
-  <si>
     <t>Lékové intoxikace</t>
   </si>
   <si>
@@ -302,12 +302,12 @@
     <t>Toxikologie rostl. a živočišných toxinů</t>
   </si>
   <si>
+    <t>Úvod do toxikologie</t>
+  </si>
+  <si>
     <t>Ekotoxikologie</t>
   </si>
   <si>
-    <t>Úvod do toxikologie</t>
-  </si>
-  <si>
     <t>Úvod do fotofyziky a fotochemie nanomat.</t>
   </si>
   <si>
@@ -347,34 +347,34 @@
     <t>Automatické řízení</t>
   </si>
   <si>
+    <t>Biochemie cizorodých látek</t>
+  </si>
+  <si>
+    <t>Klinická biochemie a patobiochemie</t>
+  </si>
+  <si>
+    <t>Forenzní vědy</t>
+  </si>
+  <si>
     <t>Klinická analýza</t>
   </si>
   <si>
-    <t>Biochemie cizorodých látek</t>
-  </si>
-  <si>
-    <t>Forenzní vědy</t>
-  </si>
-  <si>
-    <t>Klinická biochemie a patobiochemie</t>
-  </si>
-  <si>
     <t>Bioaktivní přírodní látky</t>
   </si>
   <si>
     <t>Fyzika plazmatu a plazmové technologie</t>
-  </si>
-  <si>
-    <t>Fyzika povrchů</t>
-  </si>
-  <si>
-    <t>Principy a obvod. řešení el. spektometrů</t>
   </si>
   <si>
     <t>Met. analýz mat. 
 využ. prin. el. spektr</t>
   </si>
   <si>
+    <t>Fyzika povrchů</t>
+  </si>
+  <si>
+    <t>Principy a obvod. řešení el. spektometrů</t>
+  </si>
+  <si>
     <t>Veřejná správa</t>
   </si>
   <si>
@@ -408,12 +408,12 @@
     <t>Přípr. a využití nanovlákenných struktur</t>
   </si>
   <si>
+    <t>Didaktika biologie II</t>
+  </si>
+  <si>
     <t>Didaktika biologie I</t>
   </si>
   <si>
-    <t>Didaktika biologie II</t>
-  </si>
-  <si>
     <t>Nanoporézní materiály</t>
   </si>
   <si>
@@ -423,36 +423,36 @@
     <t>Nanokompozitní materiály na bázi uhlíku</t>
   </si>
   <si>
+    <t>Apl. biologie prokaryot. a eukaryot. m.</t>
+  </si>
+  <si>
     <t>Pokroky v mol. biologii bakterií a virů</t>
   </si>
   <si>
-    <t>Apl. biologie prokaryot. a eukaryot. m.</t>
-  </si>
-  <si>
     <t>Regulace a poruchy signálních drah ž.b.</t>
   </si>
   <si>
+    <t>Python and R for Data Science</t>
+  </si>
+  <si>
+    <t>Machine Learning Based on R Software</t>
+  </si>
+  <si>
     <t>Data Mining Techniq. based on R Software</t>
   </si>
   <si>
     <t>Data Analysis and Visualisation</t>
   </si>
   <si>
-    <t>Python and R for Data Science</t>
-  </si>
-  <si>
-    <t>Machine Learning Based on R Software</t>
-  </si>
-  <si>
     <t>Materials and Technolog. for Sust. Soc.</t>
   </si>
   <si>
+    <t>Pravděpodobnost a statistika I</t>
+  </si>
+  <si>
     <t>Základy matematiky</t>
   </si>
   <si>
-    <t>Pravděpodobnost a statistika I</t>
-  </si>
-  <si>
     <t>Geometrie</t>
   </si>
   <si>
@@ -462,24 +462,24 @@
     <t>P403</t>
   </si>
   <si>
+    <t>K403</t>
+  </si>
+  <si>
+    <t>P503</t>
+  </si>
+  <si>
     <t>K503</t>
   </si>
   <si>
     <t>K839</t>
   </si>
   <si>
-    <t>K403</t>
-  </si>
-  <si>
-    <t>P503</t>
+    <t>5DEMO</t>
   </si>
   <si>
     <t>FDEMO</t>
   </si>
   <si>
-    <t>5DEMO</t>
-  </si>
-  <si>
     <t>KN11</t>
   </si>
   <si>
@@ -489,132 +489,132 @@
     <t>N114</t>
   </si>
   <si>
+    <t>N016</t>
+  </si>
+  <si>
+    <t>PB502</t>
+  </si>
+  <si>
     <t>KB502</t>
   </si>
   <si>
     <t>ME100</t>
   </si>
   <si>
-    <t>N016</t>
-  </si>
-  <si>
-    <t>PB502</t>
-  </si>
-  <si>
     <t>N059</t>
   </si>
   <si>
+    <t>PSVN</t>
+  </si>
+  <si>
+    <t>K218</t>
+  </si>
+  <si>
+    <t>UDPM</t>
+  </si>
+  <si>
+    <t>P325</t>
+  </si>
+  <si>
+    <t>CHM1</t>
+  </si>
+  <si>
     <t>KUDPM</t>
   </si>
   <si>
-    <t>UDPM</t>
-  </si>
-  <si>
     <t>K414</t>
   </si>
   <si>
-    <t>P325</t>
-  </si>
-  <si>
-    <t>PSVN</t>
-  </si>
-  <si>
-    <t>K218</t>
-  </si>
-  <si>
-    <t>CHM1</t>
+    <t>K422</t>
+  </si>
+  <si>
+    <t>P427</t>
+  </si>
+  <si>
+    <t>PM100</t>
+  </si>
+  <si>
+    <t>KKM</t>
+  </si>
+  <si>
+    <t>P509</t>
+  </si>
+  <si>
+    <t>P231</t>
+  </si>
+  <si>
+    <t>P607</t>
   </si>
   <si>
     <t>P213</t>
   </si>
   <si>
-    <t>P607</t>
+    <t>P606</t>
+  </si>
+  <si>
+    <t>TEP</t>
+  </si>
+  <si>
+    <t>K512</t>
+  </si>
+  <si>
+    <t>K222</t>
+  </si>
+  <si>
+    <t>P508</t>
+  </si>
+  <si>
+    <t>K522</t>
+  </si>
+  <si>
+    <t>P737</t>
+  </si>
+  <si>
+    <t>KSTR</t>
   </si>
   <si>
     <t>K606</t>
   </si>
   <si>
+    <t>STR</t>
+  </si>
+  <si>
+    <t>CM101</t>
+  </si>
+  <si>
+    <t>PM101</t>
+  </si>
+  <si>
+    <t>P938</t>
+  </si>
+  <si>
     <t>PD203</t>
   </si>
   <si>
-    <t>P508</t>
-  </si>
-  <si>
-    <t>STR</t>
-  </si>
-  <si>
-    <t>P938</t>
-  </si>
-  <si>
-    <t>K512</t>
-  </si>
-  <si>
-    <t>PM100</t>
-  </si>
-  <si>
-    <t>P737</t>
-  </si>
-  <si>
     <t>KM</t>
   </si>
   <si>
-    <t>P231</t>
-  </si>
-  <si>
-    <t>TEP</t>
-  </si>
-  <si>
-    <t>P509</t>
-  </si>
-  <si>
-    <t>CM101</t>
-  </si>
-  <si>
-    <t>KKM</t>
-  </si>
-  <si>
-    <t>K222</t>
+    <t>0164</t>
+  </si>
+  <si>
+    <t>P216</t>
   </si>
   <si>
     <t>K724</t>
   </si>
   <si>
-    <t>PM101</t>
-  </si>
-  <si>
-    <t>K522</t>
-  </si>
-  <si>
-    <t>P216</t>
-  </si>
-  <si>
-    <t>K422</t>
-  </si>
-  <si>
-    <t>P606</t>
-  </si>
-  <si>
-    <t>P427</t>
-  </si>
-  <si>
-    <t>KSTR</t>
-  </si>
-  <si>
-    <t>0164</t>
+    <t>M102</t>
   </si>
   <si>
     <t>PD103</t>
   </si>
   <si>
+    <t>M214</t>
+  </si>
+  <si>
     <t>B303</t>
   </si>
   <si>
-    <t>M214</t>
-  </si>
-  <si>
-    <t>M102</t>
-  </si>
-  <si>
     <t>M409</t>
   </si>
   <si>
@@ -624,15 +624,15 @@
     <t>B102</t>
   </si>
   <si>
+    <t>KN22</t>
+  </si>
+  <si>
     <t>N115</t>
   </si>
   <si>
     <t>KN10</t>
   </si>
   <si>
-    <t>KN22</t>
-  </si>
-  <si>
     <t>N304</t>
   </si>
   <si>
@@ -642,15 +642,15 @@
     <t>0175</t>
   </si>
   <si>
+    <t>P522</t>
+  </si>
+  <si>
+    <t>P422</t>
+  </si>
+  <si>
     <t>K305</t>
   </si>
   <si>
-    <t>P422</t>
-  </si>
-  <si>
-    <t>P522</t>
-  </si>
-  <si>
     <t>P203</t>
   </si>
   <si>
@@ -684,21 +684,21 @@
     <t>K304</t>
   </si>
   <si>
+    <t>P303</t>
+  </si>
+  <si>
+    <t>BP423</t>
+  </si>
+  <si>
     <t>E129</t>
   </si>
   <si>
+    <t>P323</t>
+  </si>
+  <si>
     <t>BK423</t>
   </si>
   <si>
-    <t>BP423</t>
-  </si>
-  <si>
-    <t>P323</t>
-  </si>
-  <si>
-    <t>P303</t>
-  </si>
-  <si>
     <t>K110</t>
   </si>
   <si>
@@ -708,15 +708,15 @@
     <t>LOG</t>
   </si>
   <si>
+    <t>PD202</t>
+  </si>
+  <si>
+    <t>AP05</t>
+  </si>
+  <si>
     <t>AP03</t>
   </si>
   <si>
-    <t>PD202</t>
-  </si>
-  <si>
-    <t>AP05</t>
-  </si>
-  <si>
     <t>B605</t>
   </si>
   <si>
@@ -735,15 +735,15 @@
     <t>PD109</t>
   </si>
   <si>
+    <t>KDSA</t>
+  </si>
+  <si>
+    <t>TFL</t>
+  </si>
+  <si>
     <t>DSA</t>
   </si>
   <si>
-    <t>KDSA</t>
-  </si>
-  <si>
-    <t>TFL</t>
-  </si>
-  <si>
     <t>PD305</t>
   </si>
   <si>
@@ -765,36 +765,36 @@
     <t>PD107</t>
   </si>
   <si>
+    <t>FINA</t>
+  </si>
+  <si>
     <t>ZFIN</t>
   </si>
   <si>
-    <t>FINA</t>
+    <t>BK106</t>
   </si>
   <si>
     <t>B307</t>
   </si>
   <si>
+    <t>N321</t>
+  </si>
+  <si>
     <t>B106</t>
   </si>
   <si>
-    <t>N321</t>
+    <t>P518</t>
+  </si>
+  <si>
+    <t>P226</t>
+  </si>
+  <si>
+    <t>N107</t>
   </si>
   <si>
     <t>BK307</t>
   </si>
   <si>
-    <t>BK106</t>
-  </si>
-  <si>
-    <t>N107</t>
-  </si>
-  <si>
-    <t>P518</t>
-  </si>
-  <si>
-    <t>P226</t>
-  </si>
-  <si>
     <t>P414</t>
   </si>
   <si>
@@ -807,12 +807,12 @@
     <t>P534</t>
   </si>
   <si>
+    <t>P117</t>
+  </si>
+  <si>
     <t>N109</t>
   </si>
   <si>
-    <t>P117</t>
-  </si>
-  <si>
     <t>NA18</t>
   </si>
   <si>
@@ -831,12 +831,12 @@
     <t>0090</t>
   </si>
   <si>
+    <t>KBIG</t>
+  </si>
+  <si>
     <t>BIG</t>
   </si>
   <si>
-    <t>KBIG</t>
-  </si>
-  <si>
     <t>0150</t>
   </si>
   <si>
@@ -855,15 +855,15 @@
     <t>AUC</t>
   </si>
   <si>
+    <t>N224</t>
+  </si>
+  <si>
+    <t>N223</t>
+  </si>
+  <si>
     <t>N024</t>
   </si>
   <si>
-    <t>N223</t>
-  </si>
-  <si>
-    <t>N224</t>
-  </si>
-  <si>
     <t>N211</t>
   </si>
   <si>
@@ -873,18 +873,18 @@
     <t>P839</t>
   </si>
   <si>
+    <t>AP04</t>
+  </si>
+  <si>
     <t>P230</t>
   </si>
   <si>
+    <t>P861</t>
+  </si>
+  <si>
     <t>0231</t>
   </si>
   <si>
-    <t>AP04</t>
-  </si>
-  <si>
-    <t>P861</t>
-  </si>
-  <si>
     <t>VSP</t>
   </si>
   <si>
@@ -918,12 +918,12 @@
     <t>PD55</t>
   </si>
   <si>
+    <t>P208</t>
+  </si>
+  <si>
     <t>P108</t>
   </si>
   <si>
-    <t>P208</t>
-  </si>
-  <si>
     <t>PD10</t>
   </si>
   <si>
@@ -933,36 +933,36 @@
     <t>PD08</t>
   </si>
   <si>
+    <t>ME301</t>
+  </si>
+  <si>
     <t>ME300</t>
   </si>
   <si>
-    <t>ME301</t>
-  </si>
-  <si>
     <t>ME302</t>
   </si>
   <si>
+    <t>EPYR</t>
+  </si>
+  <si>
+    <t>EMLR</t>
+  </si>
+  <si>
     <t>EDMR</t>
   </si>
   <si>
     <t>EDAV</t>
   </si>
   <si>
-    <t>EPYR</t>
-  </si>
-  <si>
-    <t>EMLR</t>
-  </si>
-  <si>
     <t>PD307</t>
   </si>
   <si>
+    <t>K413</t>
+  </si>
+  <si>
     <t>P103</t>
   </si>
   <si>
-    <t>K413</t>
-  </si>
-  <si>
     <t>P335</t>
   </si>
   <si>
@@ -978,12 +978,12 @@
     <t>'doc. Ing. Tomáš Loučka CSc.</t>
   </si>
   <si>
+    <t>'doc. MUDr. Vladislav Mareš DrSc.'</t>
+  </si>
+  <si>
     <t>'doc. MUDr. Vladislav Mareš DrSc.</t>
   </si>
   <si>
-    <t>'doc. MUDr. Vladislav Mareš DrSc.'</t>
-  </si>
-  <si>
     <t>'prof. RNDr. Stanislav Novák CSc.</t>
   </si>
   <si>
@@ -996,12 +996,12 @@
     <t>'doc. RNDr. Dušan Novotný CSc.</t>
   </si>
   <si>
+    <t>'doc. RNDr. Martin Balej Ph.D.'</t>
+  </si>
+  <si>
     <t>'doc. RNDr. Martin Balej Ph.D.</t>
   </si>
   <si>
-    <t>'doc. RNDr. Martin Balej Ph.D.'</t>
-  </si>
-  <si>
     <t>'Mgr. Milan Bursa CSc.'</t>
   </si>
   <si>
@@ -1017,12 +1017,12 @@
     <t>'doc. RNDr. František Fiala'</t>
   </si>
   <si>
+    <t>'doc. RNDr. Ing. Kurt Fišer CSc.'</t>
+  </si>
+  <si>
     <t>'doc. RNDr. Ing. Kurt Fišer CSc.</t>
   </si>
   <si>
-    <t>'doc. RNDr. Ing. Kurt Fišer CSc.'</t>
-  </si>
-  <si>
     <t>'Mgr. Dalibor Sedlák'</t>
   </si>
   <si>
@@ -1227,22 +1227,22 @@
     <t>'Ing. Petra Ecorchard Ph.D.'</t>
   </si>
   <si>
+    <t>'RNDr. Pavel Branny CSc.</t>
+  </si>
+  <si>
     <t>'RNDr. Pavel Branny CSc.'</t>
   </si>
   <si>
-    <t>'RNDr. Pavel Branny CSc.</t>
-  </si>
-  <si>
     <t>'Mgr. David Poustka</t>
   </si>
   <si>
     <t>'Ing. Tomáš Vomastek Ph.D.'</t>
   </si>
   <si>
+    <t>'Ricardo Rodriguez Jorge Ph.D.</t>
+  </si>
+  <si>
     <t>'Ricardo Rodriguez Jorge Ph.D.'</t>
-  </si>
-  <si>
-    <t>'Ricardo Rodriguez Jorge Ph.D.</t>
   </si>
   <si>
     <t>'Ing. Tadeáš Riley Wangle Ph.D.'</t>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>148</v>
@@ -1666,7 +1666,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>149</v>
@@ -1680,7 +1680,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>150</v>
@@ -1694,7 +1694,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>151</v>
@@ -1801,12 +1801,12 @@
         <v>281</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>159</v>
@@ -1820,7 +1820,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>160</v>
@@ -1829,7 +1829,7 @@
         <v>281</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1843,7 +1843,7 @@
         <v>281</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1862,7 +1862,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>163</v>
@@ -1871,12 +1871,12 @@
         <v>306</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>164</v>
@@ -1885,12 +1885,12 @@
         <v>306</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>165</v>
@@ -1904,7 +1904,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>166</v>
@@ -1918,7 +1918,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>167</v>
@@ -1927,7 +1927,7 @@
         <v>306</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1941,7 +1941,7 @@
         <v>306</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1960,7 +1960,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>170</v>
@@ -1974,7 +1974,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>171</v>
@@ -1988,7 +1988,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>172</v>
@@ -2002,7 +2002,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>173</v>
@@ -2016,7 +2016,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>174</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>175</v>
@@ -2044,7 +2044,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>176</v>
@@ -2058,7 +2058,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>177</v>
@@ -2072,7 +2072,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>178</v>
@@ -2086,7 +2086,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>179</v>
@@ -2100,7 +2100,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>180</v>
@@ -2114,7 +2114,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>181</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>182</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>183</v>
@@ -2151,12 +2151,12 @@
         <v>307</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>184</v>
@@ -2170,7 +2170,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>185</v>
@@ -2184,7 +2184,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>186</v>
@@ -2198,7 +2198,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>187</v>
@@ -2212,7 +2212,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>188</v>
@@ -2221,12 +2221,12 @@
         <v>307</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>189</v>
@@ -2240,7 +2240,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>190</v>
@@ -2268,7 +2268,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>192</v>
@@ -2282,7 +2282,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>193</v>
@@ -2296,7 +2296,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>194</v>
@@ -2333,7 +2333,7 @@
         <v>313</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2347,7 +2347,7 @@
         <v>313</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2375,7 +2375,7 @@
         <v>313</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2422,7 +2422,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>203</v>
@@ -2450,7 +2450,7 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>205</v>
@@ -2506,7 +2506,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>209</v>
@@ -2515,7 +2515,7 @@
         <v>606</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2716,7 +2716,7 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>224</v>
@@ -2730,7 +2730,7 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>225</v>
@@ -2744,7 +2744,7 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>226</v>
@@ -2856,10 +2856,10 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C89" s="2">
         <v>1894</v>
@@ -2954,7 +2954,7 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>240</v>
@@ -2963,12 +2963,12 @@
         <v>2240</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>241</v>
@@ -2977,7 +2977,7 @@
         <v>2240</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3052,10 +3052,10 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C103" s="2">
         <v>2757</v>
@@ -3192,7 +3192,7 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>256</v>
@@ -3206,7 +3206,7 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>257</v>
@@ -3299,7 +3299,7 @@
         <v>3176</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3313,7 +3313,7 @@
         <v>3176</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3430,10 +3430,10 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C130" s="2">
         <v>4208</v>
@@ -3444,10 +3444,10 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C131" s="2">
         <v>4219</v>
@@ -3573,7 +3573,7 @@
         <v>90</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C140" s="2">
         <v>5061</v>
@@ -3587,7 +3587,7 @@
         <v>110</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>279</v>
+        <v>234</v>
       </c>
       <c r="C141" s="2">
         <v>5062</v>
@@ -3601,7 +3601,7 @@
         <v>111</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>234</v>
+        <v>279</v>
       </c>
       <c r="C142" s="2">
         <v>5062</v>
@@ -3724,7 +3724,7 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="1" t="s">
-        <v>118</v>
+        <v>6</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>287</v>
@@ -3738,7 +3738,7 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="1" t="s">
-        <v>6</v>
+        <v>118</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>288</v>
@@ -3836,10 +3836,10 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C159" s="2">
         <v>6387</v>
@@ -4189,7 +4189,7 @@
         <v>146</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C184" s="2">
         <v>8750</v>
@@ -4217,7 +4217,7 @@
         <v>90</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C186" s="2">
         <v>9098</v>

--- a/results_xlsx/prednasejici_bez_prednasek.xlsx
+++ b/results_xlsx/prednasejici_bez_prednasek.xlsx
@@ -28,12 +28,12 @@
     <t>jmena</t>
   </si>
   <si>
+    <t>Základy počítačové fyziky</t>
+  </si>
+  <si>
     <t>Počítačové modelování IV</t>
   </si>
   <si>
-    <t>Základy počítačové fyziky</t>
-  </si>
-  <si>
     <t>Fyzika pevných látek I</t>
   </si>
   <si>
@@ -46,6 +46,9 @@
     <t>Anorganická chemie</t>
   </si>
   <si>
+    <t>Patobiologie živočišných buněk a tkání</t>
+  </si>
+  <si>
     <t>Fyziologie a mol. bio. eukar. buňky I</t>
   </si>
   <si>
@@ -55,79 +58,79 @@
     <t>Fyziologie a molekul. biologie živ. buňk</t>
   </si>
   <si>
-    <t>Patobiologie živočišných buněk a tkání</t>
+    <t>Úvod do počítačového modelování</t>
   </si>
   <si>
     <t>Počítačové simulace v nanotechnologiích</t>
   </si>
   <si>
+    <t>Vybrané partie z fyziky</t>
+  </si>
+  <si>
     <t>Vakuová fyzika a technika</t>
   </si>
   <si>
-    <t>Úvod do počítačového modelování</t>
+    <t>Charakterizace materiálů I</t>
   </si>
   <si>
     <t>Fyzikální vlastnosti tenkých vrstev</t>
   </si>
   <si>
-    <t>Charakterizace materiálů I</t>
-  </si>
-  <si>
-    <t>Vybrané partie z fyziky</t>
+    <t>Kvantová fyzika</t>
+  </si>
+  <si>
+    <t>Vybrané partie z teorie elektromag. pole</t>
+  </si>
+  <si>
+    <t>Speciální teorie relativity</t>
+  </si>
+  <si>
+    <t>VK-Teorie relativity</t>
+  </si>
+  <si>
+    <t>Teorie relativity</t>
+  </si>
+  <si>
+    <t>Vybr. partie z teorie el. pole</t>
+  </si>
+  <si>
+    <t>Kvantová mechanika</t>
+  </si>
+  <si>
+    <t>Kvantová fyzika I</t>
   </si>
   <si>
     <t>PVK - Vyb.partie z teoretické fyziky I</t>
   </si>
   <si>
+    <t>PVK - Vyb.partie z teoretické fyziky II</t>
+  </si>
+  <si>
+    <t>Úvod do kvantové fyziky a spektroskopie</t>
+  </si>
+  <si>
+    <t>Teorie elektromagnetického pole</t>
+  </si>
+  <si>
+    <t>Fyzika I</t>
+  </si>
+  <si>
+    <t>Sel. parts of the theory of el. fields</t>
+  </si>
+  <si>
+    <t>Fyzika</t>
+  </si>
+  <si>
+    <t>Vybrané partie z teoretické fyziky I</t>
+  </si>
+  <si>
     <t>Vybrané partie z kvantové fyziky</t>
   </si>
   <si>
-    <t>Kvantová mechanika</t>
-  </si>
-  <si>
-    <t>Kvantová fyzika I</t>
-  </si>
-  <si>
-    <t>Fyzika</t>
-  </si>
-  <si>
     <t>Kvantová fyzika II</t>
   </si>
   <si>
-    <t>Fyzika I</t>
-  </si>
-  <si>
-    <t>Teorie relativity</t>
-  </si>
-  <si>
-    <t>Teorie elektromagnetického pole</t>
-  </si>
-  <si>
-    <t>PVK - Vyb.partie z teoretické fyziky II</t>
-  </si>
-  <si>
-    <t>Kvantová fyzika</t>
-  </si>
-  <si>
-    <t>Speciální teorie relativity</t>
-  </si>
-  <si>
-    <t>Sel. parts of the theory of el. fields</t>
-  </si>
-  <si>
-    <t>Vybr. partie z teorie el. pole</t>
-  </si>
-  <si>
-    <t>Vybrané partie z teoretické fyziky I</t>
-  </si>
-  <si>
-    <t>Vybrané partie z teorie elektromag. pole</t>
-  </si>
-  <si>
-    <t>VK-Teorie relativity</t>
-  </si>
-  <si>
-    <t>Úvod do kvantové fyziky a spektroskopie</t>
+    <t>Krajinná ekologie</t>
   </si>
   <si>
     <t>Vybrané kapitoly FG Evropy</t>
@@ -139,9 +142,6 @@
     <t>Potenciál kulturní krajiny a GIS</t>
   </si>
   <si>
-    <t>Krajinná ekologie</t>
-  </si>
-  <si>
     <t>Metody geografického výzkumu krajiny</t>
   </si>
   <si>
@@ -151,12 +151,12 @@
     <t>Planetární geografie</t>
   </si>
   <si>
+    <t>Didaktika chemie I</t>
+  </si>
+  <si>
     <t>Didaktika chemie II - SŠ</t>
   </si>
   <si>
-    <t>Didaktika chemie I</t>
-  </si>
-  <si>
     <t>VK-Regionální geografie Portugalska</t>
   </si>
   <si>
@@ -202,21 +202,21 @@
     <t>Matematika III</t>
   </si>
   <si>
+    <t>Obecná zoologie</t>
+  </si>
+  <si>
+    <t>Parasitology</t>
+  </si>
+  <si>
     <t>Biologie a ekologie člověka I</t>
   </si>
   <si>
     <t>Somatologie</t>
   </si>
   <si>
-    <t>Parasitology</t>
-  </si>
-  <si>
     <t>Obecná parazitologie</t>
   </si>
   <si>
-    <t>Obecná zoologie</t>
-  </si>
-  <si>
     <t>Approaches to regional histories</t>
   </si>
   <si>
@@ -224,15 +224,15 @@
   </si>
   <si>
     <t>Komplexní analýza materiálů</t>
-  </si>
-  <si>
-    <t>Metody analýz materiálů</t>
   </si>
   <si>
     <t>Met. analýz mat. 
 využ. el. mikroskopie</t>
   </si>
   <si>
+    <t>Metody analýz materiálů</t>
+  </si>
+  <si>
     <t>Specializační přednášky z praxe</t>
   </si>
   <si>
@@ -248,12 +248,12 @@
     <t>Value orient. in transforming societies</t>
   </si>
   <si>
+    <t>Teorie formálních jazyků</t>
+  </si>
+  <si>
     <t>Algoritmy a datové struktury</t>
   </si>
   <si>
-    <t>Teorie formálních jazyků</t>
-  </si>
-  <si>
     <t>Struktura a vlastnosti polymerů</t>
   </si>
   <si>
@@ -278,42 +278,42 @@
     <t>Základy financí</t>
   </si>
   <si>
+    <t>Lékové intoxikace</t>
+  </si>
+  <si>
+    <t>Medicína katastrof</t>
+  </si>
+  <si>
     <t>Anatomie a fyziologie člověka</t>
   </si>
   <si>
-    <t>Medicína katastrof</t>
-  </si>
-  <si>
-    <t>Lékové intoxikace</t>
-  </si>
-  <si>
     <t>Návykové látky a právní předpisy</t>
   </si>
   <si>
     <t>Technologie ochrany životního prostředí</t>
   </si>
   <si>
+    <t>Toxikologie rostl. a živočišných toxinů</t>
+  </si>
+  <si>
+    <t>Úvod do toxikologie</t>
+  </si>
+  <si>
+    <t>Ekotoxikologie</t>
+  </si>
+  <si>
+    <t>Toxikologie I</t>
+  </si>
+  <si>
     <t>Toxikologie NMgr.</t>
   </si>
   <si>
-    <t>Toxikologie I</t>
-  </si>
-  <si>
-    <t>Toxikologie rostl. a živočišných toxinů</t>
-  </si>
-  <si>
-    <t>Úvod do toxikologie</t>
-  </si>
-  <si>
-    <t>Ekotoxikologie</t>
+    <t>Fotofyzika a fotochemie nanomateriálů</t>
   </si>
   <si>
     <t>Úvod do fotofyziky a fotochemie nanomat.</t>
   </si>
   <si>
-    <t>Fotofyzika a fotochemie nanomateriálů</t>
-  </si>
-  <si>
     <t>Počítačové sítě a protokoly</t>
   </si>
   <si>
@@ -350,31 +350,31 @@
     <t>Biochemie cizorodých látek</t>
   </si>
   <si>
+    <t>Klinická analýza</t>
+  </si>
+  <si>
     <t>Klinická biochemie a patobiochemie</t>
   </si>
   <si>
     <t>Forenzní vědy</t>
   </si>
   <si>
-    <t>Klinická analýza</t>
-  </si>
-  <si>
     <t>Bioaktivní přírodní látky</t>
   </si>
   <si>
     <t>Fyzika plazmatu a plazmové technologie</t>
+  </si>
+  <si>
+    <t>Principy a obvod. řešení el. spektometrů</t>
+  </si>
+  <si>
+    <t>Fyzika povrchů</t>
   </si>
   <si>
     <t>Met. analýz mat. 
 využ. prin. el. spektr</t>
   </si>
   <si>
-    <t>Fyzika povrchů</t>
-  </si>
-  <si>
-    <t>Principy a obvod. řešení el. spektometrů</t>
-  </si>
-  <si>
     <t>Veřejná správa</t>
   </si>
   <si>
@@ -387,12 +387,12 @@
     <t>Veřejné finance</t>
   </si>
   <si>
+    <t>Toxikologie a legislavita ČR a EU 1</t>
+  </si>
+  <si>
     <t>Toxikologie a legislavita ČR a EU 2</t>
   </si>
   <si>
-    <t>Toxikologie a legislavita ČR a EU 1</t>
-  </si>
-  <si>
     <t>Nekovové anorganické materiály</t>
   </si>
   <si>
@@ -408,12 +408,12 @@
     <t>Přípr. a využití nanovlákenných struktur</t>
   </si>
   <si>
+    <t>Didaktika biologie I</t>
+  </si>
+  <si>
     <t>Didaktika biologie II</t>
   </si>
   <si>
-    <t>Didaktika biologie I</t>
-  </si>
-  <si>
     <t>Nanoporézní materiály</t>
   </si>
   <si>
@@ -432,54 +432,54 @@
     <t>Regulace a poruchy signálních drah ž.b.</t>
   </si>
   <si>
+    <t>Data Analysis and Visualisation</t>
+  </si>
+  <si>
+    <t>Data Mining Techniq. based on R Software</t>
+  </si>
+  <si>
     <t>Python and R for Data Science</t>
   </si>
   <si>
     <t>Machine Learning Based on R Software</t>
   </si>
   <si>
-    <t>Data Mining Techniq. based on R Software</t>
-  </si>
-  <si>
-    <t>Data Analysis and Visualisation</t>
-  </si>
-  <si>
     <t>Materials and Technolog. for Sust. Soc.</t>
   </si>
   <si>
+    <t>Základy matematiky</t>
+  </si>
+  <si>
     <t>Pravděpodobnost a statistika I</t>
   </si>
   <si>
-    <t>Základy matematiky</t>
-  </si>
-  <si>
     <t>Geometrie</t>
   </si>
   <si>
     <t>Pravděpodobnost a statistika II</t>
   </si>
   <si>
+    <t>K503</t>
+  </si>
+  <si>
     <t>P403</t>
   </si>
   <si>
+    <t>P503</t>
+  </si>
+  <si>
     <t>K403</t>
   </si>
   <si>
-    <t>P503</t>
-  </si>
-  <si>
-    <t>K503</t>
-  </si>
-  <si>
     <t>K839</t>
   </si>
   <si>
+    <t>FDEMO</t>
+  </si>
+  <si>
     <t>5DEMO</t>
   </si>
   <si>
-    <t>FDEMO</t>
-  </si>
-  <si>
     <t>KN11</t>
   </si>
   <si>
@@ -489,6 +489,9 @@
     <t>N114</t>
   </si>
   <si>
+    <t>N059</t>
+  </si>
+  <si>
     <t>N016</t>
   </si>
   <si>
@@ -501,108 +504,108 @@
     <t>ME100</t>
   </si>
   <si>
-    <t>N059</t>
+    <t>KUDPM</t>
   </si>
   <si>
     <t>PSVN</t>
   </si>
   <si>
+    <t>K414</t>
+  </si>
+  <si>
     <t>K218</t>
   </si>
   <si>
     <t>UDPM</t>
   </si>
   <si>
+    <t>CHM1</t>
+  </si>
+  <si>
     <t>P325</t>
   </si>
   <si>
-    <t>CHM1</t>
-  </si>
-  <si>
-    <t>KUDPM</t>
-  </si>
-  <si>
-    <t>K414</t>
+    <t>P737</t>
+  </si>
+  <si>
+    <t>P427</t>
+  </si>
+  <si>
+    <t>PD203</t>
+  </si>
+  <si>
+    <t>KSTR</t>
+  </si>
+  <si>
+    <t>0164</t>
+  </si>
+  <si>
+    <t>STR</t>
+  </si>
+  <si>
+    <t>K606</t>
+  </si>
+  <si>
+    <t>PM101</t>
+  </si>
+  <si>
+    <t>KKM</t>
+  </si>
+  <si>
+    <t>K512</t>
   </si>
   <si>
     <t>K422</t>
   </si>
   <si>
-    <t>P427</t>
+    <t>K522</t>
+  </si>
+  <si>
+    <t>P216</t>
+  </si>
+  <si>
+    <t>P508</t>
+  </si>
+  <si>
+    <t>K222</t>
+  </si>
+  <si>
+    <t>KM</t>
+  </si>
+  <si>
+    <t>TEP</t>
+  </si>
+  <si>
+    <t>CM101</t>
+  </si>
+  <si>
+    <t>P231</t>
+  </si>
+  <si>
+    <t>P606</t>
+  </si>
+  <si>
+    <t>P938</t>
+  </si>
+  <si>
+    <t>P509</t>
   </si>
   <si>
     <t>PM100</t>
   </si>
   <si>
-    <t>KKM</t>
-  </si>
-  <si>
-    <t>P509</t>
-  </si>
-  <si>
-    <t>P231</t>
-  </si>
-  <si>
     <t>P607</t>
   </si>
   <si>
     <t>P213</t>
   </si>
   <si>
-    <t>P606</t>
-  </si>
-  <si>
-    <t>TEP</t>
-  </si>
-  <si>
-    <t>K512</t>
-  </si>
-  <si>
-    <t>K222</t>
-  </si>
-  <si>
-    <t>P508</t>
-  </si>
-  <si>
-    <t>K522</t>
-  </si>
-  <si>
-    <t>P737</t>
-  </si>
-  <si>
-    <t>KSTR</t>
-  </si>
-  <si>
-    <t>K606</t>
-  </si>
-  <si>
-    <t>STR</t>
-  </si>
-  <si>
-    <t>CM101</t>
-  </si>
-  <si>
-    <t>PM101</t>
-  </si>
-  <si>
-    <t>P938</t>
-  </si>
-  <si>
-    <t>PD203</t>
-  </si>
-  <si>
-    <t>KM</t>
-  </si>
-  <si>
-    <t>0164</t>
-  </si>
-  <si>
-    <t>P216</t>
-  </si>
-  <si>
     <t>K724</t>
   </si>
   <si>
+    <t>B303</t>
+  </si>
+  <si>
     <t>M102</t>
   </si>
   <si>
@@ -612,9 +615,6 @@
     <t>M214</t>
   </si>
   <si>
-    <t>B303</t>
-  </si>
-  <si>
     <t>M409</t>
   </si>
   <si>
@@ -624,30 +624,30 @@
     <t>B102</t>
   </si>
   <si>
+    <t>N115</t>
+  </si>
+  <si>
+    <t>KN10</t>
+  </si>
+  <si>
+    <t>N304</t>
+  </si>
+  <si>
     <t>KN22</t>
   </si>
   <si>
-    <t>N115</t>
-  </si>
-  <si>
-    <t>KN10</t>
-  </si>
-  <si>
-    <t>N304</t>
-  </si>
-  <si>
     <t>0124</t>
   </si>
   <si>
     <t>0175</t>
   </si>
   <si>
+    <t>P422</t>
+  </si>
+  <si>
     <t>P522</t>
   </si>
   <si>
-    <t>P422</t>
-  </si>
-  <si>
     <t>K305</t>
   </si>
   <si>
@@ -684,24 +684,24 @@
     <t>K304</t>
   </si>
   <si>
+    <t>K110</t>
+  </si>
+  <si>
+    <t>E129</t>
+  </si>
+  <si>
     <t>P303</t>
   </si>
   <si>
     <t>BP423</t>
   </si>
   <si>
-    <t>E129</t>
-  </si>
-  <si>
     <t>P323</t>
   </si>
   <si>
     <t>BK423</t>
   </si>
   <si>
-    <t>K110</t>
-  </si>
-  <si>
     <t>PD106</t>
   </si>
   <si>
@@ -711,21 +711,21 @@
     <t>PD202</t>
   </si>
   <si>
+    <t>AP03</t>
+  </si>
+  <si>
     <t>AP05</t>
   </si>
   <si>
-    <t>AP03</t>
-  </si>
-  <si>
     <t>B605</t>
   </si>
   <si>
+    <t>ME200</t>
+  </si>
+  <si>
     <t>N023</t>
   </si>
   <si>
-    <t>ME200</t>
-  </si>
-  <si>
     <t>0120</t>
   </si>
   <si>
@@ -735,12 +735,12 @@
     <t>PD109</t>
   </si>
   <si>
+    <t>TFL</t>
+  </si>
+  <si>
     <t>KDSA</t>
   </si>
   <si>
-    <t>TFL</t>
-  </si>
-  <si>
     <t>DSA</t>
   </si>
   <si>
@@ -771,54 +771,54 @@
     <t>ZFIN</t>
   </si>
   <si>
+    <t>N321</t>
+  </si>
+  <si>
+    <t>B307</t>
+  </si>
+  <si>
+    <t>P226</t>
+  </si>
+  <si>
+    <t>N107</t>
+  </si>
+  <si>
+    <t>B106</t>
+  </si>
+  <si>
+    <t>BK307</t>
+  </si>
+  <si>
+    <t>P518</t>
+  </si>
+  <si>
     <t>BK106</t>
   </si>
   <si>
-    <t>B307</t>
-  </si>
-  <si>
-    <t>N321</t>
-  </si>
-  <si>
-    <t>B106</t>
-  </si>
-  <si>
-    <t>P518</t>
-  </si>
-  <si>
-    <t>P226</t>
-  </si>
-  <si>
-    <t>N107</t>
-  </si>
-  <si>
-    <t>BK307</t>
-  </si>
-  <si>
     <t>P414</t>
   </si>
   <si>
+    <t>P534</t>
+  </si>
+  <si>
+    <t>P117</t>
+  </si>
+  <si>
+    <t>N109</t>
+  </si>
+  <si>
+    <t>K101</t>
+  </si>
+  <si>
     <t>N216</t>
   </si>
   <si>
-    <t>K101</t>
-  </si>
-  <si>
-    <t>P534</t>
-  </si>
-  <si>
-    <t>P117</t>
-  </si>
-  <si>
-    <t>N109</t>
+    <t>PD53</t>
   </si>
   <si>
     <t>NA18</t>
   </si>
   <si>
-    <t>PD53</t>
-  </si>
-  <si>
     <t>PSP</t>
   </si>
   <si>
@@ -855,36 +855,36 @@
     <t>AUC</t>
   </si>
   <si>
+    <t>N024</t>
+  </si>
+  <si>
     <t>N224</t>
   </si>
   <si>
     <t>N223</t>
   </si>
   <si>
-    <t>N024</t>
-  </si>
-  <si>
     <t>N211</t>
   </si>
   <si>
     <t>P750</t>
   </si>
   <si>
+    <t>0231</t>
+  </si>
+  <si>
     <t>P839</t>
   </si>
   <si>
+    <t>P230</t>
+  </si>
+  <si>
     <t>AP04</t>
   </si>
   <si>
-    <t>P230</t>
-  </si>
-  <si>
     <t>P861</t>
   </si>
   <si>
-    <t>0231</t>
-  </si>
-  <si>
     <t>VSP</t>
   </si>
   <si>
@@ -897,12 +897,12 @@
     <t>VFIN</t>
   </si>
   <si>
+    <t>P529</t>
+  </si>
+  <si>
     <t>P629</t>
   </si>
   <si>
-    <t>P529</t>
-  </si>
-  <si>
     <t>AMAT</t>
   </si>
   <si>
@@ -918,12 +918,12 @@
     <t>PD55</t>
   </si>
   <si>
+    <t>P108</t>
+  </si>
+  <si>
     <t>P208</t>
   </si>
   <si>
-    <t>P108</t>
-  </si>
-  <si>
     <t>PD10</t>
   </si>
   <si>
@@ -942,33 +942,33 @@
     <t>ME302</t>
   </si>
   <si>
+    <t>EDAV</t>
+  </si>
+  <si>
+    <t>EDMR</t>
+  </si>
+  <si>
     <t>EPYR</t>
   </si>
   <si>
     <t>EMLR</t>
   </si>
   <si>
-    <t>EDMR</t>
-  </si>
-  <si>
-    <t>EDAV</t>
-  </si>
-  <si>
     <t>PD307</t>
   </si>
   <si>
+    <t>P103</t>
+  </si>
+  <si>
     <t>K413</t>
   </si>
   <si>
-    <t>P103</t>
+    <t>K312</t>
   </si>
   <si>
     <t>P335</t>
   </si>
   <si>
-    <t>K312</t>
-  </si>
-  <si>
     <t>'prof. RNDr. Rudolf Hrach DrSc.'</t>
   </si>
   <si>
@@ -996,12 +996,12 @@
     <t>'doc. RNDr. Dušan Novotný CSc.</t>
   </si>
   <si>
+    <t>'doc. RNDr. Martin Balej Ph.D.</t>
+  </si>
+  <si>
     <t>'doc. RNDr. Martin Balej Ph.D.'</t>
   </si>
   <si>
-    <t>'doc. RNDr. Martin Balej Ph.D.</t>
-  </si>
-  <si>
     <t>'Mgr. Milan Bursa CSc.'</t>
   </si>
   <si>
@@ -1080,10 +1080,10 @@
     <t>'prof. Petr Dostál Ph.D., M.A.'</t>
   </si>
   <si>
+    <t>'doc. RNDr. Karel Oliva Dr.'</t>
+  </si>
+  <si>
     <t>'doc. RNDr. Karel Oliva Dr.</t>
-  </si>
-  <si>
-    <t>'doc. RNDr. Karel Oliva Dr.'</t>
   </si>
   <si>
     <t>'prof. Ing. Václav Švorčík DrSc.'</t>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>148</v>
@@ -1666,7 +1666,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>149</v>
@@ -1801,12 +1801,12 @@
         <v>281</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>159</v>
@@ -1843,7 +1843,7 @@
         <v>281</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1871,7 +1871,7 @@
         <v>306</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1885,7 +1885,7 @@
         <v>306</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1904,7 +1904,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>166</v>
@@ -1918,7 +1918,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>167</v>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>170</v>
@@ -2016,7 +2016,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>174</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>175</v>
@@ -2044,7 +2044,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>176</v>
@@ -2053,12 +2053,12 @@
         <v>307</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>177</v>
@@ -2072,7 +2072,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>178</v>
@@ -2086,7 +2086,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>179</v>
@@ -2100,7 +2100,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>180</v>
@@ -2114,7 +2114,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>181</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>182</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>183</v>
@@ -2156,7 +2156,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>184</v>
@@ -2170,7 +2170,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>185</v>
@@ -2184,7 +2184,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>186</v>
@@ -2193,12 +2193,12 @@
         <v>307</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>187</v>
@@ -2207,12 +2207,12 @@
         <v>307</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>188</v>
@@ -2221,12 +2221,12 @@
         <v>307</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>189</v>
@@ -2240,7 +2240,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>190</v>
@@ -2254,7 +2254,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>191</v>
@@ -2268,7 +2268,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>192</v>
@@ -2282,7 +2282,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>193</v>
@@ -2296,7 +2296,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>194</v>
@@ -2347,7 +2347,7 @@
         <v>313</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2361,7 +2361,7 @@
         <v>313</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2375,7 +2375,7 @@
         <v>313</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2422,7 +2422,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>203</v>
@@ -2450,7 +2450,7 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>205</v>
@@ -2492,7 +2492,7 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>208</v>
@@ -2506,7 +2506,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>209</v>
@@ -2744,7 +2744,7 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>226</v>
@@ -2758,7 +2758,7 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>227</v>
@@ -2856,10 +2856,10 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C89" s="2">
         <v>1894</v>
@@ -2968,7 +2968,7 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>241</v>
@@ -2977,7 +2977,7 @@
         <v>2240</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3052,10 +3052,10 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C103" s="2">
         <v>2757</v>
@@ -3164,7 +3164,7 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>254</v>
@@ -3178,7 +3178,7 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>255</v>
@@ -3192,7 +3192,7 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>256</v>
@@ -3206,7 +3206,7 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>257</v>
@@ -3220,7 +3220,7 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>258</v>
@@ -3285,7 +3285,7 @@
         <v>3176</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3313,7 +3313,7 @@
         <v>3176</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3430,10 +3430,10 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C130" s="2">
         <v>4208</v>
@@ -3444,10 +3444,10 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C131" s="2">
         <v>4219</v>
@@ -3556,10 +3556,10 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C139" s="2">
         <v>5061</v>
@@ -3573,7 +3573,7 @@
         <v>90</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C140" s="2">
         <v>5061</v>
@@ -3587,7 +3587,7 @@
         <v>110</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C141" s="2">
         <v>5062</v>
@@ -3682,7 +3682,7 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="1" t="s">
-        <v>6</v>
+        <v>116</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>284</v>
@@ -3696,7 +3696,7 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="1" t="s">
-        <v>116</v>
+        <v>6</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>285</v>
@@ -3724,7 +3724,7 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="1" t="s">
-        <v>6</v>
+        <v>118</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>287</v>
@@ -3738,7 +3738,7 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="1" t="s">
-        <v>118</v>
+        <v>6</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>288</v>
@@ -3836,10 +3836,10 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C159" s="2">
         <v>6387</v>
@@ -4097,7 +4097,7 @@
         <v>8514</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4111,7 +4111,7 @@
         <v>8514</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4189,7 +4189,7 @@
         <v>146</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C184" s="2">
         <v>8750</v>
@@ -4200,10 +4200,10 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C185" s="2">
         <v>9098</v>
@@ -4217,7 +4217,7 @@
         <v>90</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C186" s="2">
         <v>9098</v>

--- a/results_xlsx/prednasejici_bez_prednasek.xlsx
+++ b/results_xlsx/prednasejici_bez_prednasek.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="702">
   <si>
     <t>nazev</t>
   </si>
@@ -28,15 +28,15 @@
     <t>jmena</t>
   </si>
   <si>
+    <t>Fyzika pevných látek I</t>
+  </si>
+  <si>
     <t>Základy počítačové fyziky</t>
   </si>
   <si>
     <t>Počítačové modelování IV</t>
   </si>
   <si>
-    <t>Fyzika pevných látek I</t>
-  </si>
-  <si>
     <t>Demografie</t>
   </si>
   <si>
@@ -46,120 +46,228 @@
     <t>Anorganická chemie</t>
   </si>
   <si>
+    <t>Technologie ochrany životního prostředí</t>
+  </si>
+  <si>
+    <t>Vědecká komunikace v biologii</t>
+  </si>
+  <si>
+    <t>Vybrané kapitoly z etologie bezobratlých</t>
+  </si>
+  <si>
+    <t>Biologie členovců</t>
+  </si>
+  <si>
+    <t>Fauna ČR</t>
+  </si>
+  <si>
+    <t>Fylogeneze a systém bezobratlých</t>
+  </si>
+  <si>
+    <t>Fylogeneze a systém vyšších rostlin</t>
+  </si>
+  <si>
+    <t>Biologické principy ochrany přírody</t>
+  </si>
+  <si>
+    <t>Flóra ČR</t>
+  </si>
+  <si>
+    <t>Obecná botanika</t>
+  </si>
+  <si>
+    <t>Biogeografie</t>
+  </si>
+  <si>
+    <t>Geobotanika</t>
+  </si>
+  <si>
+    <t>Fyziologie a mol. bio. eukar. buňky I</t>
+  </si>
+  <si>
     <t>Patobiologie živočišných buněk a tkání</t>
   </si>
   <si>
-    <t>Fyziologie a mol. bio. eukar. buňky I</t>
-  </si>
-  <si>
     <t>Fyziologie živočichů a člověka</t>
   </si>
   <si>
-    <t>Fyziologie a molekul. biologie živ. buňk</t>
-  </si>
-  <si>
     <t>Úvod do počítačového modelování</t>
   </si>
   <si>
+    <t>Vybrané partie z fyziky</t>
+  </si>
+  <si>
+    <t>Fyzikální vlastnosti tenkých vrstev</t>
+  </si>
+  <si>
+    <t>Vakuová fyzika a technika</t>
+  </si>
+  <si>
     <t>Počítačové simulace v nanotechnologiích</t>
   </si>
   <si>
-    <t>Vybrané partie z fyziky</t>
-  </si>
-  <si>
-    <t>Vakuová fyzika a technika</t>
-  </si>
-  <si>
-    <t>Charakterizace materiálů I</t>
-  </si>
-  <si>
-    <t>Fyzikální vlastnosti tenkých vrstev</t>
+    <t>Kvantová fyzika I</t>
   </si>
   <si>
     <t>Kvantová fyzika</t>
   </si>
   <si>
+    <t>Teorie elektromagnetického pole</t>
+  </si>
+  <si>
+    <t>Fyzika I</t>
+  </si>
+  <si>
+    <t>PVK - Vyb.partie z teoretické fyziky II</t>
+  </si>
+  <si>
+    <t>Vybrané partie z kvantové fyziky</t>
+  </si>
+  <si>
+    <t>PVK - Vyb.partie z teoretické fyziky I</t>
+  </si>
+  <si>
+    <t>Sel. parts of the theory of el. fields</t>
+  </si>
+  <si>
+    <t>Úvod do kvantové fyziky a spektroskopie</t>
+  </si>
+  <si>
+    <t>Teorie relativity</t>
+  </si>
+  <si>
+    <t>Vybr. partie z teorie el. pole</t>
+  </si>
+  <si>
+    <t>Kvantová mechanika</t>
+  </si>
+  <si>
+    <t>Kvantová fyzika II</t>
+  </si>
+  <si>
+    <t>Základy kvantové chemie a spektra mol.</t>
+  </si>
+  <si>
+    <t>VK-Teorie relativity</t>
+  </si>
+  <si>
+    <t>Speciální teorie relativity</t>
+  </si>
+  <si>
+    <t>Fyzika</t>
+  </si>
+  <si>
+    <t>Vybrané partie z teoretické fyziky I</t>
+  </si>
+  <si>
     <t>Vybrané partie z teorie elektromag. pole</t>
   </si>
   <si>
-    <t>Speciální teorie relativity</t>
-  </si>
-  <si>
-    <t>VK-Teorie relativity</t>
-  </si>
-  <si>
-    <t>Teorie relativity</t>
-  </si>
-  <si>
-    <t>Vybr. partie z teorie el. pole</t>
-  </si>
-  <si>
-    <t>Kvantová mechanika</t>
-  </si>
-  <si>
-    <t>Kvantová fyzika I</t>
-  </si>
-  <si>
-    <t>PVK - Vyb.partie z teoretické fyziky I</t>
-  </si>
-  <si>
-    <t>PVK - Vyb.partie z teoretické fyziky II</t>
-  </si>
-  <si>
-    <t>Úvod do kvantové fyziky a spektroskopie</t>
-  </si>
-  <si>
-    <t>Teorie elektromagnetického pole</t>
-  </si>
-  <si>
-    <t>Fyzika I</t>
-  </si>
-  <si>
-    <t>Sel. parts of the theory of el. fields</t>
-  </si>
-  <si>
-    <t>Fyzika</t>
-  </si>
-  <si>
-    <t>Vybrané partie z teoretické fyziky I</t>
-  </si>
-  <si>
-    <t>Vybrané partie z kvantové fyziky</t>
-  </si>
-  <si>
-    <t>Kvantová fyzika II</t>
+    <t>Vybrané kapitoly FG Evropy</t>
   </si>
   <si>
     <t>Krajinná ekologie</t>
   </si>
   <si>
-    <t>Vybrané kapitoly FG Evropy</t>
-  </si>
-  <si>
     <t>Regional environmental change</t>
   </si>
   <si>
+    <t>Metody geografického výzkumu krajiny</t>
+  </si>
+  <si>
     <t>Potenciál kulturní krajiny a GIS</t>
   </si>
   <si>
-    <t>Metody geografického výzkumu krajiny</t>
-  </si>
-  <si>
     <t>Problémové oblasti Česka</t>
   </si>
   <si>
     <t>Planetární geografie</t>
   </si>
   <si>
+    <t>Didaktika chemie II - SŠ</t>
+  </si>
+  <si>
     <t>Didaktika chemie I</t>
   </si>
   <si>
-    <t>Didaktika chemie II - SŠ</t>
+    <t>Characterization of surface layers using</t>
+  </si>
+  <si>
+    <t>Úvod do fyziky energet. svazků iontů</t>
+  </si>
+  <si>
+    <t>Jaderné analytické metody</t>
+  </si>
+  <si>
+    <t>Simulation of the charged particle</t>
+  </si>
+  <si>
+    <t>Fyzika energetických svazků iontů</t>
+  </si>
+  <si>
+    <t>Iontové analytické metody</t>
+  </si>
+  <si>
+    <t>Atomová a jaderná fyzika</t>
+  </si>
+  <si>
+    <t>Pokr. studium povrchů pomocí jader. met.</t>
+  </si>
+  <si>
+    <t>Simulace průchodu nabitých částic</t>
+  </si>
+  <si>
+    <t>Studium povrchů pomocí jaderných metod</t>
+  </si>
+  <si>
+    <t>Atomic and Nuclear Physics</t>
+  </si>
+  <si>
+    <t>Příprava mikro a nanostruktur</t>
+  </si>
+  <si>
+    <t>Automata and Formal Language Theory</t>
+  </si>
+  <si>
+    <t>Teorie automatů a formálních jazyků</t>
+  </si>
+  <si>
+    <t>Teoretické základy informatiky</t>
+  </si>
+  <si>
+    <t>Theory of Automata and Formal Languages</t>
+  </si>
+  <si>
+    <t>Pokročilé numerické metody</t>
+  </si>
+  <si>
+    <t>Numerické metody</t>
+  </si>
+  <si>
+    <t>Optimalizace</t>
+  </si>
+  <si>
+    <t>Teorie formálních jazyků</t>
   </si>
   <si>
     <t>VK-Regionální geografie Portugalska</t>
   </si>
   <si>
+    <t>Pokročilé instrumentální metody</t>
+  </si>
+  <si>
+    <t>Analytická chemie ŽP NMgr.</t>
+  </si>
+  <si>
+    <t>Stopová organická analýza</t>
+  </si>
+  <si>
+    <t>Hodnocení nebezpečných vlastností odpadů</t>
+  </si>
+  <si>
+    <t>Systém kvality a vyhodnocování dat</t>
+  </si>
+  <si>
     <t>VK-Programování ATMEL I</t>
   </si>
   <si>
@@ -172,27 +280,69 @@
     <t>Programování B</t>
   </si>
   <si>
-    <t>Systém kvality a vyhodnocování dat</t>
-  </si>
-  <si>
     <t>Počítač. modelování - spojité modelování</t>
   </si>
   <si>
     <t>Matematika pro informatiky</t>
   </si>
   <si>
+    <t>Základy kryptologie</t>
+  </si>
+  <si>
+    <t>Algoritmy a datové struktury</t>
+  </si>
+  <si>
+    <t>Samoopravné kódy</t>
+  </si>
+  <si>
+    <t>Algorithms and Data Structures</t>
+  </si>
+  <si>
+    <t>Základy kyberbezpečnosti</t>
+  </si>
+  <si>
+    <t>Aplikovaná kryptologie</t>
+  </si>
+  <si>
     <t>VK - Úvod do geografie náboženství</t>
   </si>
   <si>
     <t>Kurz marketingu a managementu</t>
   </si>
   <si>
+    <t>Úvod do spektroskop. metod v org. chem.</t>
+  </si>
+  <si>
+    <t>Heterocyklické a organokovové sloučeniny</t>
+  </si>
+  <si>
+    <t>Organická chemie I</t>
+  </si>
+  <si>
+    <t>Intr. to Inorganic and Organic Chemistry</t>
+  </si>
+  <si>
+    <t>Organické syntézy</t>
+  </si>
+  <si>
+    <t>Organická chemie</t>
+  </si>
+  <si>
+    <t>Organická chemie Nmgr.</t>
+  </si>
+  <si>
+    <t>Organická chemie Nmgr. - ZŠ</t>
+  </si>
+  <si>
+    <t>Koordinační chemie</t>
+  </si>
+  <si>
+    <t>Organická chemie Nmgr. - SŠ</t>
+  </si>
+  <si>
     <t>Odpadové hospodářství I</t>
   </si>
   <si>
-    <t>Hodnocení nebezpečných vlastností odpadů</t>
-  </si>
-  <si>
     <t>Statistika na PC</t>
   </si>
   <si>
@@ -202,18 +352,15 @@
     <t>Matematika III</t>
   </si>
   <si>
+    <t>Parasitology</t>
+  </si>
+  <si>
+    <t>Biologie a ekologie člověka I</t>
+  </si>
+  <si>
     <t>Obecná zoologie</t>
   </si>
   <si>
-    <t>Parasitology</t>
-  </si>
-  <si>
-    <t>Biologie a ekologie člověka I</t>
-  </si>
-  <si>
-    <t>Somatologie</t>
-  </si>
-  <si>
     <t>Obecná parazitologie</t>
   </si>
   <si>
@@ -224,45 +371,159 @@
   </si>
   <si>
     <t>Komplexní analýza materiálů</t>
+  </si>
+  <si>
+    <t>Metody analýz materiálů</t>
   </si>
   <si>
     <t>Met. analýz mat. 
 využ. el. mikroskopie</t>
   </si>
   <si>
-    <t>Metody analýz materiálů</t>
-  </si>
-  <si>
     <t>Specializační přednášky z praxe</t>
   </si>
   <si>
+    <t>Migrace, transf. a persistence polutantů</t>
+  </si>
+  <si>
     <t>Metody molekulární biologie</t>
   </si>
   <si>
     <t>VK-Proměny kulturní krajiny</t>
   </si>
   <si>
+    <t>Veřejná správa</t>
+  </si>
+  <si>
+    <t>Výpočetní geometrie</t>
+  </si>
+  <si>
+    <t>Časové řady</t>
+  </si>
+  <si>
+    <t>Informatika ve fyzice II</t>
+  </si>
+  <si>
+    <t>Pokročilé datové struktury a algoritmy</t>
+  </si>
+  <si>
+    <t>Analýza a vizualizace dat</t>
+  </si>
+  <si>
+    <t>Kvantitativní management</t>
+  </si>
+  <si>
+    <t>Projektové řízení a firemní IS</t>
+  </si>
+  <si>
+    <t>Python and R for Data Science</t>
+  </si>
+  <si>
+    <t>Podnikový management a IS</t>
+  </si>
+  <si>
+    <t>Základy ekonomie a managementu</t>
+  </si>
+  <si>
+    <t>Numerical Methods</t>
+  </si>
+  <si>
+    <t>Computational Geometry</t>
+  </si>
+  <si>
+    <t>Matematika v mikroekonomii</t>
+  </si>
+  <si>
+    <t>Data Analysis and Visualisation</t>
+  </si>
+  <si>
+    <t>Informatika ve fyzice I</t>
+  </si>
+  <si>
+    <t>Toxikologie rostl. a živočišných toxinů</t>
+  </si>
+  <si>
+    <t>Elektromigrační metody</t>
+  </si>
+  <si>
+    <t>Analytická chemie Nmgr.</t>
+  </si>
+  <si>
     <t>Didaktika geografie I</t>
   </si>
   <si>
-    <t>Value orient. in transforming societies</t>
-  </si>
-  <si>
-    <t>Teorie formálních jazyků</t>
-  </si>
-  <si>
-    <t>Algoritmy a datové struktury</t>
+    <t>Bezpečnostní technologie</t>
+  </si>
+  <si>
+    <t>Databázové systémy</t>
+  </si>
+  <si>
+    <t>Dependabilita hardwarových systémů</t>
+  </si>
+  <si>
+    <t>Dependabilita softwarových systémů</t>
+  </si>
+  <si>
+    <t>Internet Programming</t>
+  </si>
+  <si>
+    <t>Bezpečnost IS/IT</t>
+  </si>
+  <si>
+    <t>Programování pro Internet</t>
+  </si>
+  <si>
+    <t>Dependability of Information Systems</t>
+  </si>
+  <si>
+    <t>Dependabilita informačních systémů</t>
+  </si>
+  <si>
+    <t>Database Systems</t>
+  </si>
+  <si>
+    <t>Programování hardwaru</t>
+  </si>
+  <si>
+    <t>Soft Computing</t>
+  </si>
+  <si>
+    <t>Programování pro internet</t>
+  </si>
+  <si>
+    <t>Dependability of Software Systems</t>
+  </si>
+  <si>
+    <t>Počítačové sítě II</t>
+  </si>
+  <si>
+    <t>Architektura počítačů</t>
+  </si>
+  <si>
+    <t>Základy počítačových sítí a protokolů</t>
+  </si>
+  <si>
+    <t>Dependability of Hardware Systems</t>
+  </si>
+  <si>
+    <t>Počítačové sítě I</t>
+  </si>
+  <si>
+    <t>Pokročilé statistické metody</t>
+  </si>
+  <si>
+    <t>Úvod do kryptografie</t>
   </si>
   <si>
     <t>Struktura a vlastnosti polymerů</t>
   </si>
   <si>
+    <t>Microscopy Techniques in Biology</t>
+  </si>
+  <si>
     <t>Labor. Techniq. in Mol. and Cell Biology</t>
   </si>
   <si>
-    <t>Microscopy Techniques in Biology</t>
-  </si>
-  <si>
     <t>Ochrana přírody</t>
   </si>
   <si>
@@ -272,42 +533,18 @@
     <t>Geospatial data: sources and analysis</t>
   </si>
   <si>
+    <t>Základy financí</t>
+  </si>
+  <si>
     <t>Finanční analýza</t>
   </si>
   <si>
-    <t>Základy financí</t>
-  </si>
-  <si>
-    <t>Lékové intoxikace</t>
-  </si>
-  <si>
-    <t>Medicína katastrof</t>
-  </si>
-  <si>
-    <t>Anatomie a fyziologie člověka</t>
-  </si>
-  <si>
-    <t>Návykové látky a právní předpisy</t>
-  </si>
-  <si>
-    <t>Technologie ochrany životního prostředí</t>
-  </si>
-  <si>
-    <t>Toxikologie rostl. a živočišných toxinů</t>
-  </si>
-  <si>
-    <t>Úvod do toxikologie</t>
+    <t>Anglický jazyk</t>
   </si>
   <si>
     <t>Ekotoxikologie</t>
   </si>
   <si>
-    <t>Toxikologie I</t>
-  </si>
-  <si>
-    <t>Toxikologie NMgr.</t>
-  </si>
-  <si>
     <t>Fotofyzika a fotochemie nanomateriálů</t>
   </si>
   <si>
@@ -329,24 +566,42 @@
     <t>Datová úložiště a nástroje pro Big Data</t>
   </si>
   <si>
+    <t>Socioekonomická a politická geografie EU</t>
+  </si>
+  <si>
     <t>Neziskový sektor a regionální rozvoj</t>
   </si>
   <si>
+    <t>Fyziologie a mol. biologie rostl. buňky</t>
+  </si>
+  <si>
+    <t>Fyziol. a mol. biolog. eukar. buňky II</t>
+  </si>
+  <si>
     <t>Plant Biotechnology</t>
   </si>
   <si>
     <t>Domestikace a domestikanti</t>
   </si>
   <si>
+    <t>Geografický potenciál cestovního ruchu</t>
+  </si>
+  <si>
     <t>Information Security</t>
   </si>
   <si>
     <t>Scientific inquiry and reasoning</t>
   </si>
   <si>
+    <t>Materiály a jejich mezní stavy</t>
+  </si>
+  <si>
     <t>Automatické řízení</t>
   </si>
   <si>
+    <t>Forenzní vědy</t>
+  </si>
+  <si>
     <t>Biochemie cizorodých látek</t>
   </si>
   <si>
@@ -356,9 +611,6 @@
     <t>Klinická biochemie a patobiochemie</t>
   </si>
   <si>
-    <t>Forenzní vědy</t>
-  </si>
-  <si>
     <t>Bioaktivní přírodní látky</t>
   </si>
   <si>
@@ -366,31 +618,58 @@
   </si>
   <si>
     <t>Principy a obvod. řešení el. spektometrů</t>
-  </si>
-  <si>
-    <t>Fyzika povrchů</t>
   </si>
   <si>
     <t>Met. analýz mat. 
 využ. prin. el. spektr</t>
   </si>
   <si>
-    <t>Veřejná správa</t>
+    <t>Fyzika povrchů</t>
   </si>
   <si>
     <t>Srovnávací anatom. a morfol. obratlovců</t>
   </si>
   <si>
-    <t>Anglický jazyk A</t>
+    <t>Poč. mod. - zpracování obrazu a signálu</t>
+  </si>
+  <si>
+    <t>Počítačové metody Monte Carlo</t>
+  </si>
+  <si>
+    <t>Programming - Fortran</t>
+  </si>
+  <si>
+    <t>Poč. mod. - částicové modelování</t>
+  </si>
+  <si>
+    <t>Počítačové model. - částicové modelování</t>
+  </si>
+  <si>
+    <t>Počítačové zpracování obrazu a signálu</t>
+  </si>
+  <si>
+    <t>Programování - Fortran</t>
+  </si>
+  <si>
+    <t>Počítačová grafika a zpracování obrazu</t>
   </si>
   <si>
     <t>Veřejné finance</t>
   </si>
   <si>
+    <t>Toxikologie a legislavita ČR a EU 2</t>
+  </si>
+  <si>
     <t>Toxikologie a legislavita ČR a EU 1</t>
   </si>
   <si>
-    <t>Toxikologie a legislavita ČR a EU 2</t>
+    <t>Nanočástice v buňkách a tkáních</t>
+  </si>
+  <si>
+    <t>Biologie kvasinek</t>
+  </si>
+  <si>
+    <t>Biophysics</t>
   </si>
   <si>
     <t>Nekovové anorganické materiály</t>
@@ -405,15 +684,18 @@
     <t>Úvod do modelování průmyslových procesů</t>
   </si>
   <si>
+    <t>Strukturní analýza organických sloučenin</t>
+  </si>
+  <si>
     <t>Přípr. a využití nanovlákenných struktur</t>
   </si>
   <si>
+    <t>Didaktika biologie II</t>
+  </si>
+  <si>
     <t>Didaktika biologie I</t>
   </si>
   <si>
-    <t>Didaktika biologie II</t>
-  </si>
-  <si>
     <t>Nanoporézní materiály</t>
   </si>
   <si>
@@ -423,61 +705,67 @@
     <t>Nanokompozitní materiály na bázi uhlíku</t>
   </si>
   <si>
-    <t>Apl. biologie prokaryot. a eukaryot. m.</t>
-  </si>
-  <si>
-    <t>Pokroky v mol. biologii bakterií a virů</t>
-  </si>
-  <si>
     <t>Regulace a poruchy signálních drah ž.b.</t>
   </si>
   <si>
-    <t>Data Analysis and Visualisation</t>
+    <t>Vybrané partie matematiky</t>
+  </si>
+  <si>
+    <t>Machine Learning Based on R Software</t>
   </si>
   <si>
     <t>Data Mining Techniq. based on R Software</t>
   </si>
   <si>
-    <t>Python and R for Data Science</t>
-  </si>
-  <si>
-    <t>Machine Learning Based on R Software</t>
-  </si>
-  <si>
     <t>Materials and Technolog. for Sust. Soc.</t>
   </si>
   <si>
+    <t>Pravděpodobnost a statistika I</t>
+  </si>
+  <si>
     <t>Základy matematiky</t>
   </si>
   <si>
-    <t>Pravděpodobnost a statistika I</t>
-  </si>
-  <si>
     <t>Geometrie</t>
   </si>
   <si>
     <t>Pravděpodobnost a statistika II</t>
   </si>
   <si>
+    <t>Anatomie a fyziologie člověka</t>
+  </si>
+  <si>
+    <t>Optimální rozhodování</t>
+  </si>
+  <si>
+    <t>Optimiz. for Mach. Learning with MATLAB</t>
+  </si>
+  <si>
+    <t>Optimization for ML with MATLAB</t>
+  </si>
+  <si>
+    <t>K839</t>
+  </si>
+  <si>
+    <t>P503</t>
+  </si>
+  <si>
+    <t>P403</t>
+  </si>
+  <si>
+    <t>K403</t>
+  </si>
+  <si>
     <t>K503</t>
   </si>
   <si>
-    <t>P403</t>
-  </si>
-  <si>
-    <t>P503</t>
-  </si>
-  <si>
-    <t>K403</t>
-  </si>
-  <si>
-    <t>K839</t>
+    <t>5DEMO</t>
   </si>
   <si>
     <t>FDEMO</t>
   </si>
   <si>
-    <t>5DEMO</t>
+    <t>N114</t>
   </si>
   <si>
     <t>KN11</t>
@@ -486,195 +774,459 @@
     <t>P224</t>
   </si>
   <si>
-    <t>N114</t>
+    <t>BK315</t>
+  </si>
+  <si>
+    <t>P414</t>
+  </si>
+  <si>
+    <t>B315</t>
+  </si>
+  <si>
+    <t>N021</t>
+  </si>
+  <si>
+    <t>MA100</t>
+  </si>
+  <si>
+    <t>N102</t>
+  </si>
+  <si>
+    <t>P325</t>
+  </si>
+  <si>
+    <t>M100</t>
+  </si>
+  <si>
+    <t>KN102</t>
+  </si>
+  <si>
+    <t>N052</t>
+  </si>
+  <si>
+    <t>M102</t>
+  </si>
+  <si>
+    <t>P302</t>
+  </si>
+  <si>
+    <t>PB219</t>
+  </si>
+  <si>
+    <t>MA300</t>
+  </si>
+  <si>
+    <t>MA204</t>
+  </si>
+  <si>
+    <t>KB219</t>
+  </si>
+  <si>
+    <t>K102</t>
+  </si>
+  <si>
+    <t>P421</t>
+  </si>
+  <si>
+    <t>BP421</t>
+  </si>
+  <si>
+    <t>BK421</t>
+  </si>
+  <si>
+    <t>BP219</t>
+  </si>
+  <si>
+    <t>MA200</t>
+  </si>
+  <si>
+    <t>K410</t>
+  </si>
+  <si>
+    <t>P103</t>
+  </si>
+  <si>
+    <t>BK219</t>
+  </si>
+  <si>
+    <t>N064</t>
+  </si>
+  <si>
+    <t>P112</t>
+  </si>
+  <si>
+    <t>N025</t>
+  </si>
+  <si>
+    <t>N016</t>
   </si>
   <si>
     <t>N059</t>
   </si>
   <si>
-    <t>N016</t>
-  </si>
-  <si>
     <t>PB502</t>
   </si>
   <si>
     <t>KB502</t>
   </si>
   <si>
-    <t>ME100</t>
+    <t>UDPM</t>
+  </si>
+  <si>
+    <t>K414</t>
+  </si>
+  <si>
+    <t>K218</t>
+  </si>
+  <si>
+    <t>PSVN</t>
   </si>
   <si>
     <t>KUDPM</t>
   </si>
   <si>
-    <t>PSVN</t>
-  </si>
-  <si>
-    <t>K414</t>
-  </si>
-  <si>
-    <t>K218</t>
-  </si>
-  <si>
-    <t>UDPM</t>
-  </si>
-  <si>
-    <t>CHM1</t>
-  </si>
-  <si>
-    <t>P325</t>
+    <t>K512</t>
   </si>
   <si>
     <t>P737</t>
   </si>
   <si>
+    <t>TEP</t>
+  </si>
+  <si>
+    <t>K222</t>
+  </si>
+  <si>
+    <t>K522</t>
+  </si>
+  <si>
+    <t>PM100</t>
+  </si>
+  <si>
+    <t>K422</t>
+  </si>
+  <si>
+    <t>CM101</t>
+  </si>
+  <si>
+    <t>P216</t>
+  </si>
+  <si>
+    <t>K606</t>
+  </si>
+  <si>
+    <t>P508</t>
+  </si>
+  <si>
+    <t>PM101</t>
+  </si>
+  <si>
+    <t>KM</t>
+  </si>
+  <si>
+    <t>P607</t>
+  </si>
+  <si>
+    <t>NA11</t>
+  </si>
+  <si>
+    <t>P213</t>
+  </si>
+  <si>
+    <t>0164</t>
+  </si>
+  <si>
+    <t>STR</t>
+  </si>
+  <si>
+    <t>P606</t>
+  </si>
+  <si>
+    <t>P509</t>
+  </si>
+  <si>
+    <t>KSTR</t>
+  </si>
+  <si>
     <t>P427</t>
   </si>
   <si>
+    <t>P231</t>
+  </si>
+  <si>
+    <t>P938</t>
+  </si>
+  <si>
+    <t>K724</t>
+  </si>
+  <si>
+    <t>KKM</t>
+  </si>
+  <si>
     <t>PD203</t>
   </si>
   <si>
-    <t>KSTR</t>
-  </si>
-  <si>
-    <t>0164</t>
-  </si>
-  <si>
-    <t>STR</t>
-  </si>
-  <si>
-    <t>K606</t>
-  </si>
-  <si>
-    <t>PM101</t>
-  </si>
-  <si>
-    <t>KKM</t>
-  </si>
-  <si>
-    <t>K512</t>
-  </si>
-  <si>
-    <t>K422</t>
-  </si>
-  <si>
-    <t>K522</t>
-  </si>
-  <si>
-    <t>P216</t>
-  </si>
-  <si>
-    <t>P508</t>
-  </si>
-  <si>
-    <t>K222</t>
-  </si>
-  <si>
-    <t>KM</t>
-  </si>
-  <si>
-    <t>TEP</t>
-  </si>
-  <si>
-    <t>CM101</t>
-  </si>
-  <si>
-    <t>P231</t>
-  </si>
-  <si>
-    <t>P606</t>
-  </si>
-  <si>
-    <t>P938</t>
-  </si>
-  <si>
-    <t>P509</t>
-  </si>
-  <si>
-    <t>PM100</t>
-  </si>
-  <si>
-    <t>P607</t>
-  </si>
-  <si>
-    <t>P213</t>
-  </si>
-  <si>
-    <t>K724</t>
-  </si>
-  <si>
     <t>B303</t>
   </si>
   <si>
-    <t>M102</t>
-  </si>
-  <si>
     <t>PD103</t>
   </si>
   <si>
+    <t>M409</t>
+  </si>
+  <si>
     <t>M214</t>
   </si>
   <si>
-    <t>M409</t>
-  </si>
-  <si>
     <t>0154</t>
   </si>
   <si>
     <t>B102</t>
   </si>
   <si>
+    <t>KN22</t>
+  </si>
+  <si>
+    <t>N304</t>
+  </si>
+  <si>
+    <t>KN10</t>
+  </si>
+  <si>
     <t>N115</t>
   </si>
   <si>
-    <t>KN10</t>
-  </si>
-  <si>
-    <t>N304</t>
-  </si>
-  <si>
-    <t>KN22</t>
+    <t>CM203</t>
+  </si>
+  <si>
+    <t>AP09</t>
+  </si>
+  <si>
+    <t>JAM</t>
+  </si>
+  <si>
+    <t>CM306</t>
+  </si>
+  <si>
+    <t>PD101</t>
+  </si>
+  <si>
+    <t>PD200</t>
+  </si>
+  <si>
+    <t>KATOM</t>
+  </si>
+  <si>
+    <t>ATOM</t>
+  </si>
+  <si>
+    <t>AP14</t>
+  </si>
+  <si>
+    <t>PM306</t>
+  </si>
+  <si>
+    <t>PM203</t>
+  </si>
+  <si>
+    <t>K401</t>
+  </si>
+  <si>
+    <t>P511</t>
+  </si>
+  <si>
+    <t>E511</t>
+  </si>
+  <si>
+    <t>PMNS</t>
+  </si>
+  <si>
+    <t>ETFI</t>
+  </si>
+  <si>
+    <t>KAFJ</t>
+  </si>
+  <si>
+    <t>TZI</t>
+  </si>
+  <si>
+    <t>EAFJ</t>
+  </si>
+  <si>
+    <t>PNUM</t>
+  </si>
+  <si>
+    <t>XNME</t>
+  </si>
+  <si>
+    <t>OTT</t>
+  </si>
+  <si>
+    <t>KTZI</t>
+  </si>
+  <si>
+    <t>KOTT</t>
+  </si>
+  <si>
+    <t>KPNUM</t>
+  </si>
+  <si>
+    <t>AFJ</t>
+  </si>
+  <si>
+    <t>NME</t>
+  </si>
+  <si>
+    <t>KOPT</t>
+  </si>
+  <si>
+    <t>TFL</t>
   </si>
   <si>
     <t>0124</t>
   </si>
   <si>
+    <t>N108</t>
+  </si>
+  <si>
+    <t>KN04</t>
+  </si>
+  <si>
+    <t>N308</t>
+  </si>
+  <si>
+    <t>N111</t>
+  </si>
+  <si>
+    <t>N406</t>
+  </si>
+  <si>
     <t>0175</t>
   </si>
   <si>
+    <t>P522</t>
+  </si>
+  <si>
     <t>P422</t>
   </si>
   <si>
-    <t>P522</t>
-  </si>
-  <si>
     <t>K305</t>
   </si>
   <si>
     <t>P203</t>
   </si>
   <si>
-    <t>N111</t>
-  </si>
-  <si>
     <t>P366</t>
   </si>
   <si>
     <t>MAI</t>
   </si>
   <si>
+    <t>KKRY</t>
+  </si>
+  <si>
+    <t>ADS</t>
+  </si>
+  <si>
+    <t>KDSA</t>
+  </si>
+  <si>
+    <t>SOK</t>
+  </si>
+  <si>
+    <t>EDSA</t>
+  </si>
+  <si>
+    <t>KZKB</t>
+  </si>
+  <si>
+    <t>ZKR</t>
+  </si>
+  <si>
+    <t>KRY</t>
+  </si>
+  <si>
+    <t>XADS</t>
+  </si>
+  <si>
+    <t>KZKR</t>
+  </si>
+  <si>
+    <t>AKR</t>
+  </si>
+  <si>
+    <t>DSA</t>
+  </si>
+  <si>
+    <t>ZKB</t>
+  </si>
+  <si>
     <t>0133</t>
   </si>
   <si>
     <t>PD308</t>
   </si>
   <si>
+    <t>BK309</t>
+  </si>
+  <si>
+    <t>BK306</t>
+  </si>
+  <si>
+    <t>K301</t>
+  </si>
+  <si>
+    <t>E101</t>
+  </si>
+  <si>
+    <t>PD09</t>
+  </si>
+  <si>
+    <t>M202</t>
+  </si>
+  <si>
+    <t>KN32</t>
+  </si>
+  <si>
+    <t>P321</t>
+  </si>
+  <si>
+    <t>B306</t>
+  </si>
+  <si>
+    <t>N413</t>
+  </si>
+  <si>
+    <t>N323</t>
+  </si>
+  <si>
+    <t>BK200</t>
+  </si>
+  <si>
+    <t>KN323</t>
+  </si>
+  <si>
+    <t>M207</t>
+  </si>
+  <si>
+    <t>KN37</t>
+  </si>
+  <si>
+    <t>P301</t>
+  </si>
+  <si>
+    <t>B309</t>
+  </si>
+  <si>
+    <t>N402</t>
+  </si>
+  <si>
+    <t>B200</t>
+  </si>
+  <si>
     <t>P313</t>
   </si>
   <si>
-    <t>N308</t>
-  </si>
-  <si>
     <t>K516</t>
   </si>
   <si>
@@ -684,24 +1236,18 @@
     <t>K304</t>
   </si>
   <si>
+    <t>E129</t>
+  </si>
+  <si>
+    <t>P303</t>
+  </si>
+  <si>
     <t>K110</t>
   </si>
   <si>
-    <t>E129</t>
-  </si>
-  <si>
-    <t>P303</t>
-  </si>
-  <si>
-    <t>BP423</t>
-  </si>
-  <si>
     <t>P323</t>
   </si>
   <si>
-    <t>BK423</t>
-  </si>
-  <si>
     <t>PD106</t>
   </si>
   <si>
@@ -711,51 +1257,231 @@
     <t>PD202</t>
   </si>
   <si>
+    <t>AP05</t>
+  </si>
+  <si>
     <t>AP03</t>
   </si>
   <si>
-    <t>AP05</t>
-  </si>
-  <si>
     <t>B605</t>
   </si>
   <si>
+    <t>N307</t>
+  </si>
+  <si>
+    <t>N023</t>
+  </si>
+  <si>
     <t>ME200</t>
   </si>
   <si>
-    <t>N023</t>
-  </si>
-  <si>
     <t>0120</t>
   </si>
   <si>
+    <t>VSP</t>
+  </si>
+  <si>
+    <t>KNME</t>
+  </si>
+  <si>
+    <t>0192</t>
+  </si>
+  <si>
+    <t>KCAS</t>
+  </si>
+  <si>
+    <t>IVF2</t>
+  </si>
+  <si>
+    <t>PDSA</t>
+  </si>
+  <si>
+    <t>AVD</t>
+  </si>
+  <si>
+    <t>KVM</t>
+  </si>
+  <si>
+    <t>FIS</t>
+  </si>
+  <si>
+    <t>KPYR</t>
+  </si>
+  <si>
+    <t>MIS</t>
+  </si>
+  <si>
+    <t>ZEM</t>
+  </si>
+  <si>
+    <t>ENME</t>
+  </si>
+  <si>
+    <t>A192</t>
+  </si>
+  <si>
+    <t>MME</t>
+  </si>
+  <si>
+    <t>EDAV</t>
+  </si>
+  <si>
+    <t>EPYR</t>
+  </si>
+  <si>
+    <t>KAVD</t>
+  </si>
+  <si>
+    <t>KFIS</t>
+  </si>
+  <si>
+    <t>KPDSA</t>
+  </si>
+  <si>
+    <t>CAS</t>
+  </si>
+  <si>
+    <t>PYR</t>
+  </si>
+  <si>
+    <t>IVF1</t>
+  </si>
+  <si>
+    <t>KMIS</t>
+  </si>
+  <si>
+    <t>P534</t>
+  </si>
+  <si>
+    <t>P705</t>
+  </si>
+  <si>
+    <t>KN40</t>
+  </si>
+  <si>
     <t>N001</t>
   </si>
   <si>
-    <t>PD109</t>
-  </si>
-  <si>
-    <t>TFL</t>
-  </si>
-  <si>
-    <t>KDSA</t>
-  </si>
-  <si>
-    <t>DSA</t>
+    <t>KBET</t>
+  </si>
+  <si>
+    <t>KDSY</t>
+  </si>
+  <si>
+    <t>KDHW</t>
+  </si>
+  <si>
+    <t>DSW</t>
+  </si>
+  <si>
+    <t>EPIN</t>
+  </si>
+  <si>
+    <t>BIT</t>
+  </si>
+  <si>
+    <t>PIN</t>
+  </si>
+  <si>
+    <t>EDEP</t>
+  </si>
+  <si>
+    <t>KDEP</t>
+  </si>
+  <si>
+    <t>EDSY</t>
+  </si>
+  <si>
+    <t>KDIS</t>
+  </si>
+  <si>
+    <t>PGH</t>
+  </si>
+  <si>
+    <t>BET</t>
+  </si>
+  <si>
+    <t>KSOC</t>
+  </si>
+  <si>
+    <t>KPRI</t>
+  </si>
+  <si>
+    <t>KDSW</t>
+  </si>
+  <si>
+    <t>EDSW</t>
+  </si>
+  <si>
+    <t>SOC</t>
+  </si>
+  <si>
+    <t>PRI</t>
+  </si>
+  <si>
+    <t>DSY</t>
+  </si>
+  <si>
+    <t>KPIN</t>
+  </si>
+  <si>
+    <t>DIS</t>
+  </si>
+  <si>
+    <t>PSI2</t>
+  </si>
+  <si>
+    <t>KAPC</t>
+  </si>
+  <si>
+    <t>ZPP</t>
+  </si>
+  <si>
+    <t>EDHW</t>
+  </si>
+  <si>
+    <t>KZPP</t>
+  </si>
+  <si>
+    <t>PSI1</t>
+  </si>
+  <si>
+    <t>PSM</t>
+  </si>
+  <si>
+    <t>APC</t>
+  </si>
+  <si>
+    <t>KPSM</t>
+  </si>
+  <si>
+    <t>ESOC</t>
+  </si>
+  <si>
+    <t>UKR</t>
+  </si>
+  <si>
+    <t>DHW</t>
+  </si>
+  <si>
+    <t>KPGH</t>
+  </si>
+  <si>
+    <t>DEP</t>
+  </si>
+  <si>
+    <t>PD06</t>
   </si>
   <si>
     <t>PD305</t>
   </si>
   <si>
-    <t>PD06</t>
+    <t>E120</t>
   </si>
   <si>
     <t>E121</t>
   </si>
   <si>
-    <t>E120</t>
-  </si>
-  <si>
     <t>P312</t>
   </si>
   <si>
@@ -765,208 +1491,253 @@
     <t>PD107</t>
   </si>
   <si>
+    <t>ZFIN</t>
+  </si>
+  <si>
     <t>FINA</t>
   </si>
   <si>
-    <t>ZFIN</t>
-  </si>
-  <si>
-    <t>N321</t>
-  </si>
-  <si>
-    <t>B307</t>
-  </si>
-  <si>
-    <t>P226</t>
-  </si>
-  <si>
-    <t>N107</t>
+    <t>N109</t>
+  </si>
+  <si>
+    <t>PD53</t>
+  </si>
+  <si>
+    <t>NA18</t>
+  </si>
+  <si>
+    <t>PSP</t>
+  </si>
+  <si>
+    <t>0088</t>
+  </si>
+  <si>
+    <t>0089</t>
+  </si>
+  <si>
+    <t>0090</t>
+  </si>
+  <si>
+    <t>KBIG</t>
+  </si>
+  <si>
+    <t>BIG</t>
+  </si>
+  <si>
+    <t>M200</t>
+  </si>
+  <si>
+    <t>0150</t>
+  </si>
+  <si>
+    <t>ME201</t>
+  </si>
+  <si>
+    <t>N024</t>
+  </si>
+  <si>
+    <t>E115</t>
+  </si>
+  <si>
+    <t>N050</t>
+  </si>
+  <si>
+    <t>M407</t>
+  </si>
+  <si>
+    <t>M209</t>
+  </si>
+  <si>
+    <t>0177</t>
+  </si>
+  <si>
+    <t>M112</t>
+  </si>
+  <si>
+    <t>AUC</t>
+  </si>
+  <si>
+    <t>N223</t>
+  </si>
+  <si>
+    <t>N224</t>
+  </si>
+  <si>
+    <t>N211</t>
+  </si>
+  <si>
+    <t>P750</t>
+  </si>
+  <si>
+    <t>0231</t>
+  </si>
+  <si>
+    <t>P861</t>
+  </si>
+  <si>
+    <t>AP04</t>
+  </si>
+  <si>
+    <t>P230</t>
+  </si>
+  <si>
+    <t>P839</t>
+  </si>
+  <si>
+    <t>N060</t>
+  </si>
+  <si>
+    <t>K220</t>
+  </si>
+  <si>
+    <t>PMC</t>
+  </si>
+  <si>
+    <t>P234</t>
+  </si>
+  <si>
+    <t>EFORT</t>
+  </si>
+  <si>
+    <t>K513</t>
+  </si>
+  <si>
+    <t>K215</t>
+  </si>
+  <si>
+    <t>P523</t>
+  </si>
+  <si>
+    <t>KPMC</t>
+  </si>
+  <si>
+    <t>PZOS</t>
+  </si>
+  <si>
+    <t>FORT</t>
+  </si>
+  <si>
+    <t>KFORT</t>
+  </si>
+  <si>
+    <t>KPZOS</t>
+  </si>
+  <si>
+    <t>P240</t>
+  </si>
+  <si>
+    <t>P364</t>
+  </si>
+  <si>
+    <t>VFIN</t>
+  </si>
+  <si>
+    <t>P629</t>
+  </si>
+  <si>
+    <t>P529</t>
+  </si>
+  <si>
+    <t>PD04</t>
+  </si>
+  <si>
+    <t>BK205</t>
+  </si>
+  <si>
+    <t>E126</t>
+  </si>
+  <si>
+    <t>BP205</t>
+  </si>
+  <si>
+    <t>AMAT</t>
+  </si>
+  <si>
+    <t>M201</t>
+  </si>
+  <si>
+    <t>ASK</t>
+  </si>
+  <si>
+    <t>M211</t>
+  </si>
+  <si>
+    <t>B314</t>
+  </si>
+  <si>
+    <t>BK314</t>
+  </si>
+  <si>
+    <t>PD55</t>
+  </si>
+  <si>
+    <t>P208</t>
+  </si>
+  <si>
+    <t>P108</t>
+  </si>
+  <si>
+    <t>PD10</t>
+  </si>
+  <si>
+    <t>PD12</t>
+  </si>
+  <si>
+    <t>PD08</t>
+  </si>
+  <si>
+    <t>ME302</t>
+  </si>
+  <si>
+    <t>PD66</t>
+  </si>
+  <si>
+    <t>EMLR</t>
+  </si>
+  <si>
+    <t>EDMR</t>
+  </si>
+  <si>
+    <t>PD307</t>
+  </si>
+  <si>
+    <t>K413</t>
+  </si>
+  <si>
+    <t>K312</t>
+  </si>
+  <si>
+    <t>P335</t>
+  </si>
+  <si>
+    <t>BK106</t>
   </si>
   <si>
     <t>B106</t>
   </si>
   <si>
-    <t>BK307</t>
-  </si>
-  <si>
-    <t>P518</t>
-  </si>
-  <si>
-    <t>BK106</t>
-  </si>
-  <si>
-    <t>P414</t>
-  </si>
-  <si>
-    <t>P534</t>
-  </si>
-  <si>
-    <t>P117</t>
-  </si>
-  <si>
-    <t>N109</t>
-  </si>
-  <si>
-    <t>K101</t>
-  </si>
-  <si>
-    <t>N216</t>
-  </si>
-  <si>
-    <t>PD53</t>
-  </si>
-  <si>
-    <t>NA18</t>
-  </si>
-  <si>
-    <t>PSP</t>
-  </si>
-  <si>
-    <t>0088</t>
-  </si>
-  <si>
-    <t>0089</t>
-  </si>
-  <si>
-    <t>0090</t>
-  </si>
-  <si>
-    <t>KBIG</t>
-  </si>
-  <si>
-    <t>BIG</t>
-  </si>
-  <si>
-    <t>0150</t>
-  </si>
-  <si>
-    <t>E115</t>
-  </si>
-  <si>
-    <t>N050</t>
-  </si>
-  <si>
-    <t>0177</t>
-  </si>
-  <si>
-    <t>PD101</t>
-  </si>
-  <si>
-    <t>AUC</t>
-  </si>
-  <si>
-    <t>N024</t>
-  </si>
-  <si>
-    <t>N224</t>
-  </si>
-  <si>
-    <t>N223</t>
-  </si>
-  <si>
-    <t>N211</t>
-  </si>
-  <si>
-    <t>P750</t>
-  </si>
-  <si>
-    <t>0231</t>
-  </si>
-  <si>
-    <t>P839</t>
-  </si>
-  <si>
-    <t>P230</t>
-  </si>
-  <si>
-    <t>AP04</t>
-  </si>
-  <si>
-    <t>P861</t>
-  </si>
-  <si>
-    <t>VSP</t>
-  </si>
-  <si>
-    <t>N060</t>
-  </si>
-  <si>
-    <t>K104</t>
-  </si>
-  <si>
-    <t>VFIN</t>
-  </si>
-  <si>
-    <t>P529</t>
-  </si>
-  <si>
-    <t>P629</t>
-  </si>
-  <si>
-    <t>AMAT</t>
-  </si>
-  <si>
-    <t>M201</t>
-  </si>
-  <si>
-    <t>ASK</t>
-  </si>
-  <si>
-    <t>M211</t>
-  </si>
-  <si>
-    <t>PD55</t>
-  </si>
-  <si>
-    <t>P108</t>
-  </si>
-  <si>
-    <t>P208</t>
-  </si>
-  <si>
-    <t>PD10</t>
-  </si>
-  <si>
-    <t>PD12</t>
-  </si>
-  <si>
-    <t>PD08</t>
-  </si>
-  <si>
-    <t>ME301</t>
-  </si>
-  <si>
-    <t>ME300</t>
-  </si>
-  <si>
-    <t>ME302</t>
-  </si>
-  <si>
-    <t>EDAV</t>
-  </si>
-  <si>
-    <t>EDMR</t>
-  </si>
-  <si>
-    <t>EPYR</t>
-  </si>
-  <si>
-    <t>EMLR</t>
-  </si>
-  <si>
-    <t>PD307</t>
-  </si>
-  <si>
-    <t>P103</t>
-  </si>
-  <si>
-    <t>K413</t>
-  </si>
-  <si>
-    <t>K312</t>
-  </si>
-  <si>
-    <t>P335</t>
+    <t>OPR</t>
+  </si>
+  <si>
+    <t>EOMLM</t>
+  </si>
+  <si>
+    <t>KOPR</t>
+  </si>
+  <si>
+    <t>OMLM</t>
+  </si>
+  <si>
+    <t>BK302</t>
+  </si>
+  <si>
+    <t>KB302</t>
+  </si>
+  <si>
+    <t>PB302</t>
+  </si>
+  <si>
+    <t>BP302</t>
   </si>
   <si>
     <t>'prof. RNDr. Rudolf Hrach DrSc.'</t>
@@ -978,6 +1749,18 @@
     <t>'doc. Ing. Tomáš Loučka CSc.</t>
   </si>
   <si>
+    <t>'Ing. Miroslav Richter Ph.D.'</t>
+  </si>
+  <si>
+    <t>'doc. RNDr. Jaromír Hajer CSc.</t>
+  </si>
+  <si>
+    <t>'doc. RNDr. Jaromír Hajer CSc.'</t>
+  </si>
+  <si>
+    <t>'doc. RNDr. Karel Kubát CSc.'</t>
+  </si>
+  <si>
     <t>'doc. MUDr. Vladislav Mareš DrSc.'</t>
   </si>
   <si>
@@ -996,12 +1779,12 @@
     <t>'doc. RNDr. Dušan Novotný CSc.</t>
   </si>
   <si>
+    <t>'doc. RNDr. Martin Balej Ph.D.'</t>
+  </si>
+  <si>
     <t>'doc. RNDr. Martin Balej Ph.D.</t>
   </si>
   <si>
-    <t>'doc. RNDr. Martin Balej Ph.D.'</t>
-  </si>
-  <si>
     <t>'Mgr. Milan Bursa CSc.'</t>
   </si>
   <si>
@@ -1011,9 +1794,24 @@
     <t>'prof. PhDr. Jiří Škoda Ph.D., MBA</t>
   </si>
   <si>
+    <t>'prof. RNDr. Anna Macková Ph.D.'</t>
+  </si>
+  <si>
+    <t>'doc. Ing. Mgr. Jiří Barilla CSc.'</t>
+  </si>
+  <si>
+    <t>'doc. Ing. Mgr. Jiří Barilla CSc.</t>
+  </si>
+  <si>
     <t>'Mgr. Tomáš Oršulák</t>
   </si>
   <si>
+    <t>'prof. Ing. Pavel Janoš CSc.'</t>
+  </si>
+  <si>
+    <t>'prof. Ing. Pavel Janoš CSc.</t>
+  </si>
+  <si>
     <t>'doc. RNDr. František Fiala'</t>
   </si>
   <si>
@@ -1032,12 +1830,24 @@
     <t>'doc. RNDr. Jiří Felcman CSc.</t>
   </si>
   <si>
+    <t>'Mgr. Květuše Sýkorová'</t>
+  </si>
+  <si>
+    <t>'Mgr. Květuše Sýkorová</t>
+  </si>
+  <si>
     <t>'doc. RNDr. Ladislav Skokan CSc.'</t>
   </si>
   <si>
     <t>'Ing. Lucie Povolná Ph.D.'</t>
   </si>
   <si>
+    <t>'doc. Ing. Jan Čermák CSc.'</t>
+  </si>
+  <si>
+    <t>'doc. Ing. Jan Čermák CSc.</t>
+  </si>
+  <si>
     <t>'Ing. Miroslav Hlávka Ph.D.'</t>
   </si>
   <si>
@@ -1065,7 +1875,7 @@
     <t>'doc. RNDr. Ivan Bičík CSc.'</t>
   </si>
   <si>
-    <t>'Ing. Martin Raška'</t>
+    <t>'prof. Ing. Josef Šedlbauer Ph.D.'</t>
   </si>
   <si>
     <t>'Mgr. Jana Čejnová</t>
@@ -1074,18 +1884,36 @@
     <t>'PhDr. Aleš Navrátil Ph.D.'</t>
   </si>
   <si>
+    <t>'Ing. Petra Olšová Ph.D.'</t>
+  </si>
+  <si>
+    <t>'RNDr. Jiří Škvor Ph.D.'</t>
+  </si>
+  <si>
+    <t>'RNDr. Jiří Škvor Ph.D.</t>
+  </si>
+  <si>
+    <t>'doc. RNDr. Vlastimil Dohnal Ph.D.</t>
+  </si>
+  <si>
+    <t>'doc. RNDr. Vlastimil Dohnal Ph.D.'</t>
+  </si>
+  <si>
     <t>'Mgr. Zuzana Pavlasová'</t>
   </si>
   <si>
-    <t>'prof. Petr Dostál Ph.D., M.A.'</t>
+    <t>'doc. RNDr. Mgr. Viktor Maškov DrSc.</t>
+  </si>
+  <si>
+    <t>'doc. RNDr. Mgr. Viktor Maškov DrSc.'</t>
+  </si>
+  <si>
+    <t>'doc. RNDr. Karel Oliva Dr.</t>
   </si>
   <si>
     <t>'doc. RNDr. Karel Oliva Dr.'</t>
   </si>
   <si>
-    <t>'doc. RNDr. Karel Oliva Dr.</t>
-  </si>
-  <si>
     <t>'prof. Ing. Václav Švorčík DrSc.'</t>
   </si>
   <si>
@@ -1098,7 +1926,7 @@
     <t>'Mgr. Kateřina Radana Drbalová</t>
   </si>
   <si>
-    <t>'doc. Dr. phil. Mgr. Lukáš Novotný Ph.D., M.A.'</t>
+    <t>'doc. Dr. phil. Lukáš Novotný M.A.'</t>
   </si>
   <si>
     <t>'doc. Ing. Jan Pacina Ph.D.'</t>
@@ -1107,7 +1935,7 @@
     <t>'Ing. Kateřina Felixová Ph.D.'</t>
   </si>
   <si>
-    <t>'prof. PharmDr. Jana Žďárová-Karasová Ph.D.'</t>
+    <t>'Mgr. Dita Šimáčková'</t>
   </si>
   <si>
     <t>'Ing. Stanislav Hejda Ph.D.</t>
@@ -1140,18 +1968,30 @@
     <t>'prof. RNDr. Zdeněk Fišar CSc.</t>
   </si>
   <si>
+    <t>'PhDr. Mgr. Jan Šmíd Ph.D.'</t>
+  </si>
+  <si>
     <t>'Mgr. Stanislav Lhota Ph.D.</t>
   </si>
   <si>
     <t>'Mgr. Petr Bláha Ph.D.'</t>
   </si>
   <si>
+    <t>'RNDr. Jan Martinec CSc.'</t>
+  </si>
+  <si>
     <t>'RNDr. Tomáš Vaněk CSc.'</t>
   </si>
   <si>
     <t>'prof. RNDr. Stanislav Komárek Ph.D.'</t>
   </si>
   <si>
+    <t>'RNDr. Dana Fialová Ph.D.</t>
+  </si>
+  <si>
+    <t>'doc. Ing. Jaroslav Sixta Ph.D.</t>
+  </si>
+  <si>
     <t>'Hoon Ko Ph.D.'</t>
   </si>
   <si>
@@ -1161,12 +2001,12 @@
     <t>'doc. Ing. Lenka Slavíková Ph.D.'</t>
   </si>
   <si>
+    <t>'doc. Ing. Jaromír Cais Ph.D.</t>
+  </si>
+  <si>
     <t>'doc. Ing. Mgr. Petr Klán CSc.'</t>
   </si>
   <si>
-    <t>'PhDr. Jaroslav Žďára</t>
-  </si>
-  <si>
     <t>'Ing. Jaroslav Procházka'</t>
   </si>
   <si>
@@ -1188,16 +2028,31 @@
     <t>'RNDr. Michal Němec Ph.D.'</t>
   </si>
   <si>
-    <t>'Mgr. Vladimír Lorenc'</t>
-  </si>
-  <si>
-    <t>'Ing. Lucie Kopáčková</t>
+    <t>'Mgr. Martin Svoboda Ph.D.'</t>
+  </si>
+  <si>
+    <t>'Mgr. Martin Svoboda Ph.D.</t>
+  </si>
+  <si>
+    <t>'Ing. Lucie Kopáčková Ph.D.</t>
   </si>
   <si>
     <t>'Ing. Ivan Hrabal'</t>
   </si>
   <si>
-    <t>'Mgr. Michal Forejt'</t>
+    <t>'Mgr. Michal Forejt Ph.D.'</t>
+  </si>
+  <si>
+    <t>'doc. RNDr. Dana Gášková CSc.'</t>
+  </si>
+  <si>
+    <t>'doc. RNDr. Dana Gášková CSc.</t>
+  </si>
+  <si>
+    <t>'Mgr. Klára Caisová Ph.D.'</t>
+  </si>
+  <si>
+    <t>'doc. Ing. Alena Maaytová Ph.D.'</t>
   </si>
   <si>
     <t>'Ing. Pavlína Hájková Ph.D.'</t>
@@ -1212,6 +2067,9 @@
     <t>'Ing. Martin Kantor Ph.D.'</t>
   </si>
   <si>
+    <t>'Ing. Vadim Prokopec Ph.D.'</t>
+  </si>
+  <si>
     <t>'Ing. Marcela Munzarová Ph.D.'</t>
   </si>
   <si>
@@ -1227,24 +2085,21 @@
     <t>'Ing. Petra Ecorchard Ph.D.'</t>
   </si>
   <si>
-    <t>'RNDr. Pavel Branny CSc.</t>
-  </si>
-  <si>
-    <t>'RNDr. Pavel Branny CSc.'</t>
-  </si>
-  <si>
     <t>'Mgr. David Poustka</t>
   </si>
   <si>
     <t>'Ing. Tomáš Vomastek Ph.D.'</t>
   </si>
   <si>
+    <t>'doc. RNDr. Bohumír Opic DrSc.'</t>
+  </si>
+  <si>
+    <t>'Ricardo Rodriguez Jorge Ph.D.'</t>
+  </si>
+  <si>
     <t>'Ricardo Rodriguez Jorge Ph.D.</t>
   </si>
   <si>
-    <t>'Ricardo Rodriguez Jorge Ph.D.'</t>
-  </si>
-  <si>
     <t>'Ing. Tadeáš Riley Wangle Ph.D.'</t>
   </si>
   <si>
@@ -1257,7 +2112,16 @@
     <t>'Mgr. Bc. Lukáš Tichý'</t>
   </si>
   <si>
-    <t>'RNDr. Alžběta Dlabková Ph.D.</t>
+    <t>'Mgr. Petr Jošt Ph.D.'</t>
+  </si>
+  <si>
+    <t>'Dr. Hossein Moosaei Ph.D.'</t>
+  </si>
+  <si>
+    <t>'Ing. Ondřej Vozár'</t>
+  </si>
+  <si>
+    <t>'RNDr. Jan Klečka Ph.D.'</t>
   </si>
 </sst>
 </file>
@@ -1319,8 +2183,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:D186" totalsRowShown="0">
-  <autoFilter ref="A1:D186"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:D381" totalsRowShown="0">
+  <autoFilter ref="A1:D381"/>
   <tableColumns count="4">
     <tableColumn id="1" name="nazev" dataDxfId="0"/>
     <tableColumn id="2" name="zkratka" dataDxfId="0"/>
@@ -1616,7 +2480,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D186"/>
+  <dimension ref="A1:D381"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1641,13 +2505,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>147</v>
+        <v>242</v>
       </c>
       <c r="C2" s="2">
         <v>69</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>317</v>
+        <v>574</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1655,55 +2519,55 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>148</v>
+        <v>243</v>
       </c>
       <c r="C3" s="2">
         <v>69</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>317</v>
+        <v>574</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>149</v>
+        <v>244</v>
       </c>
       <c r="C4" s="2">
         <v>69</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>317</v>
+        <v>574</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>150</v>
+        <v>245</v>
       </c>
       <c r="C5" s="2">
         <v>69</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>317</v>
+        <v>574</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>151</v>
+        <v>246</v>
       </c>
       <c r="C6" s="2">
         <v>69</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>317</v>
+        <v>574</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1711,13 +2575,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>152</v>
+        <v>247</v>
       </c>
       <c r="C7" s="2">
         <v>130</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>318</v>
+        <v>575</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1725,13 +2589,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>153</v>
+        <v>248</v>
       </c>
       <c r="C8" s="2">
         <v>130</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>318</v>
+        <v>575</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1739,41 +2603,41 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>154</v>
+        <v>249</v>
       </c>
       <c r="C9" s="2">
         <v>198</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>319</v>
+        <v>576</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>155</v>
+        <v>250</v>
       </c>
       <c r="C10" s="2">
         <v>198</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>319</v>
+        <v>576</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>156</v>
+        <v>251</v>
       </c>
       <c r="C11" s="2">
         <v>198</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>319</v>
+        <v>576</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1781,125 +2645,125 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>157</v>
+        <v>252</v>
       </c>
       <c r="C12" s="2">
-        <v>281</v>
+        <v>199</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>320</v>
+        <v>577</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>158</v>
+        <v>253</v>
       </c>
       <c r="C13" s="2">
-        <v>281</v>
+        <v>199</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>320</v>
+        <v>577</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>159</v>
+        <v>254</v>
       </c>
       <c r="C14" s="2">
-        <v>281</v>
+        <v>199</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>321</v>
+        <v>577</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>160</v>
+        <v>255</v>
       </c>
       <c r="C15" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>321</v>
+        <v>578</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>161</v>
+        <v>256</v>
       </c>
       <c r="C16" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>321</v>
+        <v>579</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>162</v>
+        <v>257</v>
       </c>
       <c r="C17" s="2">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>322</v>
+        <v>578</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>163</v>
+        <v>258</v>
       </c>
       <c r="C18" s="2">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>322</v>
+        <v>579</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>164</v>
+        <v>259</v>
       </c>
       <c r="C19" s="2">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>323</v>
+        <v>578</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>165</v>
+        <v>260</v>
       </c>
       <c r="C20" s="2">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>323</v>
+        <v>578</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1907,307 +2771,307 @@
         <v>14</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>166</v>
+        <v>261</v>
       </c>
       <c r="C21" s="2">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>322</v>
+        <v>579</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>167</v>
+        <v>262</v>
       </c>
       <c r="C22" s="2">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>322</v>
+        <v>578</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>168</v>
+        <v>263</v>
       </c>
       <c r="C23" s="2">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>323</v>
+        <v>579</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>169</v>
+        <v>264</v>
       </c>
       <c r="C24" s="2">
-        <v>307</v>
+        <v>279</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>324</v>
+        <v>580</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>170</v>
+        <v>265</v>
       </c>
       <c r="C25" s="2">
-        <v>307</v>
+        <v>279</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>324</v>
+        <v>580</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>171</v>
+        <v>266</v>
       </c>
       <c r="C26" s="2">
-        <v>307</v>
+        <v>279</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>324</v>
+        <v>580</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>172</v>
+        <v>267</v>
       </c>
       <c r="C27" s="2">
-        <v>307</v>
+        <v>279</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>324</v>
+        <v>580</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>173</v>
+        <v>268</v>
       </c>
       <c r="C28" s="2">
-        <v>307</v>
+        <v>279</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>324</v>
+        <v>580</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>174</v>
+        <v>269</v>
       </c>
       <c r="C29" s="2">
-        <v>307</v>
+        <v>279</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>324</v>
+        <v>580</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>175</v>
+        <v>270</v>
       </c>
       <c r="C30" s="2">
-        <v>307</v>
+        <v>279</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>324</v>
+        <v>580</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>176</v>
+        <v>271</v>
       </c>
       <c r="C31" s="2">
-        <v>307</v>
+        <v>279</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>325</v>
+        <v>580</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>177</v>
+        <v>272</v>
       </c>
       <c r="C32" s="2">
-        <v>307</v>
+        <v>279</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>324</v>
+        <v>580</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>178</v>
+        <v>273</v>
       </c>
       <c r="C33" s="2">
-        <v>307</v>
+        <v>279</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>324</v>
+        <v>580</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>179</v>
+        <v>274</v>
       </c>
       <c r="C34" s="2">
-        <v>307</v>
+        <v>279</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>324</v>
+        <v>580</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>180</v>
+        <v>275</v>
       </c>
       <c r="C35" s="2">
-        <v>307</v>
+        <v>279</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>324</v>
+        <v>580</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>181</v>
+        <v>276</v>
       </c>
       <c r="C36" s="2">
-        <v>307</v>
+        <v>279</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>324</v>
+        <v>580</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>182</v>
+        <v>277</v>
       </c>
       <c r="C37" s="2">
-        <v>307</v>
+        <v>279</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>324</v>
+        <v>580</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>183</v>
+        <v>278</v>
       </c>
       <c r="C38" s="2">
-        <v>307</v>
+        <v>279</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>324</v>
+        <v>580</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>184</v>
+        <v>279</v>
       </c>
       <c r="C39" s="2">
-        <v>307</v>
+        <v>279</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>324</v>
+        <v>580</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>185</v>
+        <v>280</v>
       </c>
       <c r="C40" s="2">
-        <v>307</v>
+        <v>281</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>324</v>
+        <v>581</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>186</v>
+        <v>281</v>
       </c>
       <c r="C41" s="2">
-        <v>307</v>
+        <v>281</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>325</v>
+        <v>581</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>187</v>
+        <v>282</v>
       </c>
       <c r="C42" s="2">
-        <v>307</v>
+        <v>281</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>324</v>
+        <v>582</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2215,2015 +3079,4745 @@
         <v>24</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>188</v>
+        <v>283</v>
       </c>
       <c r="C43" s="2">
-        <v>307</v>
+        <v>281</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>324</v>
+        <v>582</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>189</v>
+        <v>284</v>
       </c>
       <c r="C44" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>324</v>
+        <v>583</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>190</v>
+        <v>285</v>
       </c>
       <c r="C45" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>324</v>
+        <v>584</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>191</v>
+        <v>258</v>
       </c>
       <c r="C46" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>324</v>
+        <v>584</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>192</v>
+        <v>286</v>
       </c>
       <c r="C47" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>324</v>
+        <v>584</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>193</v>
+        <v>287</v>
       </c>
       <c r="C48" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>324</v>
+        <v>583</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>194</v>
+        <v>288</v>
       </c>
       <c r="C49" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>324</v>
+        <v>583</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>195</v>
+        <v>289</v>
       </c>
       <c r="C50" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>326</v>
+        <v>585</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>196</v>
+        <v>290</v>
       </c>
       <c r="C51" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>327</v>
+        <v>585</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>197</v>
+        <v>291</v>
       </c>
       <c r="C52" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>326</v>
+        <v>585</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>198</v>
+        <v>292</v>
       </c>
       <c r="C53" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>326</v>
+        <v>585</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>199</v>
+        <v>293</v>
       </c>
       <c r="C54" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>327</v>
+        <v>585</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>200</v>
+        <v>294</v>
       </c>
       <c r="C55" s="2">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>328</v>
+        <v>585</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>201</v>
+        <v>295</v>
       </c>
       <c r="C56" s="2">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>329</v>
+        <v>585</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>202</v>
+        <v>296</v>
       </c>
       <c r="C57" s="2">
-        <v>336</v>
+        <v>307</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>330</v>
+        <v>586</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>203</v>
+        <v>297</v>
       </c>
       <c r="C58" s="2">
-        <v>336</v>
+        <v>307</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>330</v>
+        <v>585</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>204</v>
+        <v>298</v>
       </c>
       <c r="C59" s="2">
-        <v>336</v>
+        <v>307</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>330</v>
+        <v>585</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>205</v>
+        <v>299</v>
       </c>
       <c r="C60" s="2">
-        <v>336</v>
+        <v>307</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>330</v>
+        <v>585</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>206</v>
+        <v>300</v>
       </c>
       <c r="C61" s="2">
-        <v>451</v>
+        <v>307</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>331</v>
+        <v>586</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>207</v>
+        <v>301</v>
       </c>
       <c r="C62" s="2">
-        <v>605</v>
+        <v>307</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>332</v>
+        <v>585</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>208</v>
+        <v>302</v>
       </c>
       <c r="C63" s="2">
-        <v>606</v>
+        <v>307</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>333</v>
+        <v>585</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>209</v>
+        <v>303</v>
       </c>
       <c r="C64" s="2">
-        <v>606</v>
+        <v>307</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>333</v>
+        <v>585</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>210</v>
+        <v>304</v>
       </c>
       <c r="C65" s="2">
-        <v>606</v>
+        <v>307</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>334</v>
+        <v>585</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>211</v>
+        <v>305</v>
       </c>
       <c r="C66" s="2">
-        <v>612</v>
+        <v>307</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>335</v>
+        <v>585</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>212</v>
+        <v>306</v>
       </c>
       <c r="C67" s="2">
-        <v>719</v>
+        <v>307</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>336</v>
+        <v>585</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>213</v>
+        <v>307</v>
       </c>
       <c r="C68" s="2">
-        <v>816</v>
+        <v>307</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>337</v>
+        <v>585</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>214</v>
+        <v>308</v>
       </c>
       <c r="C69" s="2">
-        <v>816</v>
+        <v>307</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>337</v>
+        <v>585</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>215</v>
+        <v>309</v>
       </c>
       <c r="C70" s="2">
-        <v>920</v>
+        <v>307</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>338</v>
+        <v>585</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>216</v>
+        <v>310</v>
       </c>
       <c r="C71" s="2">
-        <v>1057</v>
+        <v>307</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>339</v>
+        <v>585</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>217</v>
+        <v>311</v>
       </c>
       <c r="C72" s="2">
-        <v>1067</v>
+        <v>307</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>340</v>
+        <v>585</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>218</v>
+        <v>312</v>
       </c>
       <c r="C73" s="2">
-        <v>1115</v>
+        <v>307</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>341</v>
+        <v>585</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>219</v>
+        <v>313</v>
       </c>
       <c r="C74" s="2">
-        <v>1456</v>
+        <v>307</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>342</v>
+        <v>585</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>220</v>
+        <v>314</v>
       </c>
       <c r="C75" s="2">
-        <v>1537</v>
+        <v>307</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>343</v>
+        <v>585</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>221</v>
+        <v>315</v>
       </c>
       <c r="C76" s="2">
-        <v>1537</v>
+        <v>307</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>343</v>
+        <v>585</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>222</v>
+        <v>262</v>
       </c>
       <c r="C77" s="2">
-        <v>1546</v>
+        <v>313</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>344</v>
+        <v>587</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>223</v>
+        <v>316</v>
       </c>
       <c r="C78" s="2">
-        <v>1546</v>
+        <v>313</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>344</v>
+        <v>588</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>224</v>
+        <v>317</v>
       </c>
       <c r="C79" s="2">
-        <v>1546</v>
+        <v>313</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>344</v>
+        <v>588</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>225</v>
+        <v>318</v>
       </c>
       <c r="C80" s="2">
-        <v>1546</v>
+        <v>313</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>344</v>
+        <v>587</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>226</v>
+        <v>319</v>
       </c>
       <c r="C81" s="2">
-        <v>1546</v>
+        <v>313</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>344</v>
+        <v>588</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>227</v>
+        <v>320</v>
       </c>
       <c r="C82" s="2">
-        <v>1546</v>
+        <v>314</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>344</v>
+        <v>589</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>228</v>
+        <v>321</v>
       </c>
       <c r="C83" s="2">
-        <v>1553</v>
+        <v>316</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>345</v>
+        <v>590</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>229</v>
+        <v>322</v>
       </c>
       <c r="C84" s="2">
-        <v>1569</v>
+        <v>336</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>346</v>
+        <v>591</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>230</v>
+        <v>323</v>
       </c>
       <c r="C85" s="2">
-        <v>1590</v>
+        <v>336</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>347</v>
+        <v>591</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>231</v>
+        <v>324</v>
       </c>
       <c r="C86" s="2">
-        <v>1590</v>
+        <v>336</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>347</v>
+        <v>591</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>232</v>
+        <v>325</v>
       </c>
       <c r="C87" s="2">
-        <v>1590</v>
+        <v>336</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>347</v>
+        <v>591</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>233</v>
+        <v>326</v>
       </c>
       <c r="C88" s="2">
-        <v>1633</v>
+        <v>423</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>348</v>
+        <v>592</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>197</v>
+        <v>327</v>
       </c>
       <c r="C89" s="2">
-        <v>1894</v>
+        <v>423</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>349</v>
+        <v>592</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>234</v>
+        <v>328</v>
       </c>
       <c r="C90" s="2">
-        <v>1986</v>
+        <v>423</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>350</v>
+        <v>592</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>235</v>
+        <v>329</v>
       </c>
       <c r="C91" s="2">
-        <v>1986</v>
+        <v>423</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>350</v>
+        <v>592</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>236</v>
+        <v>330</v>
       </c>
       <c r="C92" s="2">
-        <v>2028</v>
+        <v>423</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>351</v>
+        <v>592</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>237</v>
+        <v>331</v>
       </c>
       <c r="C93" s="2">
-        <v>2232</v>
+        <v>423</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>352</v>
+        <v>592</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>238</v>
+        <v>332</v>
       </c>
       <c r="C94" s="2">
-        <v>2233</v>
+        <v>423</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>353</v>
+        <v>592</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>239</v>
+        <v>333</v>
       </c>
       <c r="C95" s="2">
-        <v>2240</v>
+        <v>423</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>354</v>
+        <v>592</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>240</v>
+        <v>334</v>
       </c>
       <c r="C96" s="2">
-        <v>2240</v>
+        <v>423</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>355</v>
+        <v>592</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>241</v>
+        <v>335</v>
       </c>
       <c r="C97" s="2">
-        <v>2240</v>
+        <v>423</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>355</v>
+        <v>592</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>242</v>
+        <v>336</v>
       </c>
       <c r="C98" s="2">
-        <v>2428</v>
+        <v>423</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>356</v>
+        <v>592</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>243</v>
+        <v>337</v>
       </c>
       <c r="C99" s="2">
-        <v>2428</v>
+        <v>423</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>356</v>
+        <v>592</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>244</v>
+        <v>338</v>
       </c>
       <c r="C100" s="2">
-        <v>2441</v>
+        <v>423</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>357</v>
+        <v>592</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>245</v>
+        <v>339</v>
       </c>
       <c r="C101" s="2">
-        <v>2441</v>
+        <v>423</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>357</v>
+        <v>592</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>246</v>
+        <v>340</v>
       </c>
       <c r="C102" s="2">
-        <v>2527</v>
+        <v>423</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>358</v>
+        <v>592</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>224</v>
+        <v>341</v>
       </c>
       <c r="C103" s="2">
-        <v>2757</v>
+        <v>449</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>359</v>
+        <v>593</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>247</v>
+        <v>342</v>
       </c>
       <c r="C104" s="2">
-        <v>2758</v>
+        <v>449</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>360</v>
+        <v>593</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="1" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>248</v>
+        <v>343</v>
       </c>
       <c r="C105" s="2">
-        <v>2787</v>
+        <v>449</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>361</v>
+        <v>594</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="1" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>249</v>
+        <v>344</v>
       </c>
       <c r="C106" s="2">
-        <v>2821</v>
+        <v>449</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>362</v>
+        <v>593</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="1" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>250</v>
+        <v>345</v>
       </c>
       <c r="C107" s="2">
-        <v>2821</v>
+        <v>449</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>362</v>
+        <v>594</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="1" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>251</v>
+        <v>346</v>
       </c>
       <c r="C108" s="2">
-        <v>3066</v>
+        <v>449</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>363</v>
+        <v>594</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>252</v>
+        <v>347</v>
       </c>
       <c r="C109" s="2">
-        <v>3066</v>
+        <v>449</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>363</v>
+        <v>594</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="1" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>253</v>
+        <v>348</v>
       </c>
       <c r="C110" s="2">
-        <v>3066</v>
+        <v>449</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>363</v>
+        <v>593</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="1" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>254</v>
+        <v>349</v>
       </c>
       <c r="C111" s="2">
-        <v>3066</v>
+        <v>449</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>363</v>
+        <v>594</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="1" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>255</v>
+        <v>350</v>
       </c>
       <c r="C112" s="2">
-        <v>3066</v>
+        <v>449</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>363</v>
+        <v>594</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="1" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>256</v>
+        <v>351</v>
       </c>
       <c r="C113" s="2">
-        <v>3066</v>
+        <v>449</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>363</v>
+        <v>593</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="1" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>257</v>
+        <v>352</v>
       </c>
       <c r="C114" s="2">
-        <v>3066</v>
+        <v>449</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>363</v>
+        <v>594</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="1" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>258</v>
+        <v>353</v>
       </c>
       <c r="C115" s="2">
-        <v>3066</v>
+        <v>449</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>363</v>
+        <v>594</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="1" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>259</v>
+        <v>354</v>
       </c>
       <c r="C116" s="2">
-        <v>3175</v>
+        <v>449</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>364</v>
+        <v>594</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>260</v>
+        <v>355</v>
       </c>
       <c r="C117" s="2">
-        <v>3176</v>
+        <v>451</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>365</v>
+        <v>595</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="1" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>261</v>
+        <v>356</v>
       </c>
       <c r="C118" s="2">
-        <v>3176</v>
+        <v>550</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>365</v>
+        <v>596</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="1" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>262</v>
+        <v>357</v>
       </c>
       <c r="C119" s="2">
-        <v>3176</v>
+        <v>550</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>366</v>
+        <v>597</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="1" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="C120" s="2">
-        <v>3176</v>
+        <v>550</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>365</v>
+        <v>597</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="1" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>264</v>
+        <v>358</v>
       </c>
       <c r="C121" s="2">
-        <v>3176</v>
+        <v>550</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>365</v>
+        <v>596</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="1" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>265</v>
+        <v>359</v>
       </c>
       <c r="C122" s="2">
-        <v>3420</v>
+        <v>550</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>367</v>
+        <v>597</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="1" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>266</v>
+        <v>360</v>
       </c>
       <c r="C123" s="2">
-        <v>3420</v>
+        <v>550</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>367</v>
+        <v>597</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="1" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>267</v>
+        <v>361</v>
       </c>
       <c r="C124" s="2">
-        <v>3458</v>
+        <v>605</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>368</v>
+        <v>598</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="1" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>268</v>
+        <v>362</v>
       </c>
       <c r="C125" s="2">
-        <v>4175</v>
+        <v>606</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>369</v>
+        <v>599</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="1" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>269</v>
+        <v>363</v>
       </c>
       <c r="C126" s="2">
-        <v>4176</v>
+        <v>606</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>370</v>
+        <v>599</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="1" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>270</v>
+        <v>364</v>
       </c>
       <c r="C127" s="2">
-        <v>4177</v>
+        <v>606</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>371</v>
+        <v>600</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="1" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>271</v>
+        <v>365</v>
       </c>
       <c r="C128" s="2">
-        <v>4195</v>
+        <v>612</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>372</v>
+        <v>601</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="1" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>272</v>
+        <v>359</v>
       </c>
       <c r="C129" s="2">
-        <v>4195</v>
+        <v>719</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>372</v>
+        <v>602</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="1" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>158</v>
+        <v>366</v>
       </c>
       <c r="C130" s="2">
-        <v>4208</v>
+        <v>816</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>373</v>
+        <v>603</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="1" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>224</v>
+        <v>367</v>
       </c>
       <c r="C131" s="2">
-        <v>4219</v>
+        <v>816</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>374</v>
+        <v>603</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="1" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>273</v>
+        <v>368</v>
       </c>
       <c r="C132" s="2">
-        <v>4227</v>
+        <v>835</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>375</v>
+        <v>604</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="1" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>274</v>
+        <v>369</v>
       </c>
       <c r="C133" s="2">
-        <v>4390</v>
+        <v>835</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>376</v>
+        <v>604</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="1" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>275</v>
+        <v>370</v>
       </c>
       <c r="C134" s="2">
-        <v>4394</v>
+        <v>835</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>377</v>
+        <v>605</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="1" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>276</v>
+        <v>371</v>
       </c>
       <c r="C135" s="2">
-        <v>4685</v>
+        <v>835</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>378</v>
+        <v>604</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="1" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>229</v>
+        <v>372</v>
       </c>
       <c r="C136" s="2">
-        <v>4691</v>
+        <v>835</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>379</v>
+        <v>605</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="1" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>277</v>
+        <v>373</v>
       </c>
       <c r="C137" s="2">
-        <v>4747</v>
+        <v>835</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>380</v>
+        <v>604</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="1" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>278</v>
+        <v>374</v>
       </c>
       <c r="C138" s="2">
-        <v>5039</v>
+        <v>835</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>381</v>
+        <v>604</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>251</v>
+        <v>375</v>
       </c>
       <c r="C139" s="2">
-        <v>5061</v>
+        <v>835</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>382</v>
+        <v>604</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>254</v>
+        <v>376</v>
       </c>
       <c r="C140" s="2">
-        <v>5061</v>
+        <v>835</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>382</v>
+        <v>604</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="1" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>235</v>
+        <v>377</v>
       </c>
       <c r="C141" s="2">
-        <v>5062</v>
+        <v>835</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>383</v>
+        <v>604</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="1" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>279</v>
+        <v>378</v>
       </c>
       <c r="C142" s="2">
-        <v>5062</v>
+        <v>835</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>383</v>
+        <v>604</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="1" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>280</v>
+        <v>379</v>
       </c>
       <c r="C143" s="2">
-        <v>5062</v>
+        <v>835</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>383</v>
+        <v>605</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="1" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>281</v>
+        <v>380</v>
       </c>
       <c r="C144" s="2">
-        <v>5062</v>
+        <v>835</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>383</v>
+        <v>604</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="1" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>282</v>
+        <v>381</v>
       </c>
       <c r="C145" s="2">
-        <v>5063</v>
+        <v>920</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>384</v>
+        <v>606</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="1" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>246</v>
+        <v>382</v>
       </c>
       <c r="C146" s="2">
-        <v>5131</v>
+        <v>1057</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>385</v>
+        <v>607</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="1" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>283</v>
+        <v>383</v>
       </c>
       <c r="C147" s="2">
-        <v>5199</v>
+        <v>1064</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>386</v>
+        <v>608</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="1" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>284</v>
+        <v>384</v>
       </c>
       <c r="C148" s="2">
-        <v>5201</v>
+        <v>1064</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>387</v>
+        <v>609</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="1" t="s">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>285</v>
+        <v>385</v>
       </c>
       <c r="C149" s="2">
-        <v>5201</v>
+        <v>1064</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>387</v>
+        <v>609</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="1" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>286</v>
+        <v>386</v>
       </c>
       <c r="C150" s="2">
-        <v>5201</v>
+        <v>1064</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>387</v>
+        <v>609</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="1" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>287</v>
+        <v>387</v>
       </c>
       <c r="C151" s="2">
-        <v>5201</v>
+        <v>1064</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>387</v>
+        <v>608</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="1" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="C152" s="2">
-        <v>5201</v>
+        <v>1064</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>387</v>
+        <v>608</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="1" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>289</v>
+        <v>388</v>
       </c>
       <c r="C153" s="2">
-        <v>5309</v>
+        <v>1064</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>388</v>
+        <v>608</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="1" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>290</v>
+        <v>389</v>
       </c>
       <c r="C154" s="2">
-        <v>5472</v>
+        <v>1064</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>389</v>
+        <v>608</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="1" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>291</v>
+        <v>390</v>
       </c>
       <c r="C155" s="2">
-        <v>5754</v>
+        <v>1064</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>390</v>
+        <v>608</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="1" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>292</v>
+        <v>391</v>
       </c>
       <c r="C156" s="2">
-        <v>6120</v>
+        <v>1064</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>391</v>
+        <v>609</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="1" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>293</v>
+        <v>392</v>
       </c>
       <c r="C157" s="2">
-        <v>6383</v>
+        <v>1064</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>392</v>
+        <v>608</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="1" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>294</v>
+        <v>393</v>
       </c>
       <c r="C158" s="2">
-        <v>6383</v>
+        <v>1064</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>392</v>
+        <v>608</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="1" t="s">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>195</v>
+        <v>394</v>
       </c>
       <c r="C159" s="2">
-        <v>6387</v>
+        <v>1064</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>393</v>
+        <v>609</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="1" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>295</v>
+        <v>395</v>
       </c>
       <c r="C160" s="2">
-        <v>6886</v>
+        <v>1064</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>394</v>
+        <v>608</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="1" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>295</v>
+        <v>396</v>
       </c>
       <c r="C161" s="2">
-        <v>6886</v>
+        <v>1064</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>394</v>
+        <v>609</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="1" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>296</v>
+        <v>397</v>
       </c>
       <c r="C162" s="2">
-        <v>6920</v>
+        <v>1064</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>395</v>
+        <v>608</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="1" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>297</v>
+        <v>398</v>
       </c>
       <c r="C163" s="2">
-        <v>7152</v>
+        <v>1064</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>396</v>
+        <v>608</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="1" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>298</v>
+        <v>399</v>
       </c>
       <c r="C164" s="2">
-        <v>7307</v>
+        <v>1064</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>397</v>
+        <v>608</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="1" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>299</v>
+        <v>400</v>
       </c>
       <c r="C165" s="2">
-        <v>7805</v>
+        <v>1064</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>398</v>
+        <v>608</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="1" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>300</v>
+        <v>401</v>
       </c>
       <c r="C166" s="2">
-        <v>8021</v>
+        <v>1064</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>399</v>
+        <v>608</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="1" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>301</v>
+        <v>402</v>
       </c>
       <c r="C167" s="2">
-        <v>8021</v>
+        <v>1067</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>399</v>
+        <v>610</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="1" t="s">
-        <v>132</v>
+        <v>82</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>302</v>
+        <v>358</v>
       </c>
       <c r="C168" s="2">
-        <v>8073</v>
+        <v>1115</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>400</v>
+        <v>611</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="1" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>303</v>
+        <v>403</v>
       </c>
       <c r="C169" s="2">
-        <v>8074</v>
+        <v>1456</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>401</v>
+        <v>612</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="1" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>304</v>
+        <v>404</v>
       </c>
       <c r="C170" s="2">
-        <v>8075</v>
+        <v>1537</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>402</v>
+        <v>613</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="1" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>305</v>
+        <v>405</v>
       </c>
       <c r="C171" s="2">
-        <v>8154</v>
+        <v>1537</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>403</v>
+        <v>613</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="1" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>306</v>
+        <v>406</v>
       </c>
       <c r="C172" s="2">
-        <v>8154</v>
+        <v>1546</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>404</v>
+        <v>614</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="1" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>245</v>
+        <v>407</v>
       </c>
       <c r="C173" s="2">
-        <v>8316</v>
+        <v>1546</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>405</v>
+        <v>614</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="1" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>307</v>
+        <v>408</v>
       </c>
       <c r="C174" s="2">
-        <v>8422</v>
+        <v>1546</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>406</v>
+        <v>614</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="1" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>308</v>
+        <v>409</v>
       </c>
       <c r="C175" s="2">
-        <v>8514</v>
+        <v>1546</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>407</v>
+        <v>614</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="1" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>309</v>
+        <v>410</v>
       </c>
       <c r="C176" s="2">
-        <v>8514</v>
+        <v>1553</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>408</v>
+        <v>615</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="1" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>310</v>
+        <v>411</v>
       </c>
       <c r="C177" s="2">
-        <v>8514</v>
+        <v>1569</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>407</v>
+        <v>616</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="1" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>311</v>
+        <v>412</v>
       </c>
       <c r="C178" s="2">
-        <v>8514</v>
+        <v>1590</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>408</v>
+        <v>617</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="1" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>312</v>
+        <v>413</v>
       </c>
       <c r="C179" s="2">
-        <v>8515</v>
+        <v>1590</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>409</v>
+        <v>617</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="1" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>313</v>
+        <v>414</v>
       </c>
       <c r="C180" s="2">
-        <v>8677</v>
+        <v>1590</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>410</v>
+        <v>617</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="1" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>314</v>
+        <v>415</v>
       </c>
       <c r="C181" s="2">
-        <v>8677</v>
+        <v>1633</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>410</v>
+        <v>618</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="1" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>315</v>
+        <v>416</v>
       </c>
       <c r="C182" s="2">
-        <v>8748</v>
+        <v>1775</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>411</v>
+        <v>619</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="1" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>316</v>
+        <v>417</v>
       </c>
       <c r="C183" s="2">
-        <v>8748</v>
+        <v>1986</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>411</v>
+        <v>620</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="1" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>178</v>
+        <v>418</v>
       </c>
       <c r="C184" s="2">
-        <v>8750</v>
+        <v>1986</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>412</v>
+        <v>620</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="1" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>251</v>
+        <v>419</v>
       </c>
       <c r="C185" s="2">
-        <v>9098</v>
+        <v>2028</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>413</v>
+        <v>621</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="1" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>254</v>
+        <v>420</v>
       </c>
       <c r="C186" s="2">
-        <v>9098</v>
+        <v>2142</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>413</v>
+        <v>622</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C187" s="2">
+        <v>2220</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C188" s="2">
+        <v>2220</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C189" s="2">
+        <v>2220</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C190" s="2">
+        <v>2220</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C191" s="2">
+        <v>2220</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C192" s="2">
+        <v>2220</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C193" s="2">
+        <v>2220</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C194" s="2">
+        <v>2220</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C195" s="2">
+        <v>2220</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C196" s="2">
+        <v>2220</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C197" s="2">
+        <v>2220</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C198" s="2">
+        <v>2220</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C199" s="2">
+        <v>2220</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C200" s="2">
+        <v>2220</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C201" s="2">
+        <v>2220</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C202" s="2">
+        <v>2220</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C203" s="2">
+        <v>2220</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C204" s="2">
+        <v>2220</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C205" s="2">
+        <v>2220</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C206" s="2">
+        <v>2220</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C207" s="2">
+        <v>2220</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C208" s="2">
+        <v>2220</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C209" s="2">
+        <v>2220</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C210" s="2">
+        <v>2220</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C211" s="2">
+        <v>2220</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C212" s="2">
+        <v>2220</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C213" s="2">
+        <v>2220</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C214" s="2">
+        <v>2220</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C215" s="2">
+        <v>2227</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C216" s="2">
+        <v>2227</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C217" s="2">
+        <v>2227</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C218" s="2">
+        <v>2232</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C219" s="2">
+        <v>2239</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C220" s="2">
+        <v>2239</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C221" s="2">
+        <v>2239</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C222" s="2">
+        <v>2239</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C223" s="2">
+        <v>2239</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C224" s="2">
+        <v>2239</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C225" s="2">
+        <v>2239</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C226" s="2">
+        <v>2239</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C227" s="2">
+        <v>2239</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C228" s="2">
+        <v>2239</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C229" s="2">
+        <v>2239</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C230" s="2">
+        <v>2239</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C231" s="2">
+        <v>2239</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C232" s="2">
+        <v>2239</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="C233" s="2">
+        <v>2239</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C234" s="2">
+        <v>2239</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C235" s="2">
+        <v>2239</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C236" s="2">
+        <v>2239</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C237" s="2">
+        <v>2239</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C238" s="2">
+        <v>2239</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C239" s="2">
+        <v>2239</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C240" s="2">
+        <v>2239</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C241" s="2">
+        <v>2239</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C242" s="2">
+        <v>2239</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C243" s="2">
+        <v>2239</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C244" s="2">
+        <v>2239</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C245" s="2">
+        <v>2239</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C246" s="2">
+        <v>2239</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C247" s="2">
+        <v>2239</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C248" s="2">
+        <v>2239</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C249" s="2">
+        <v>2239</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C250" s="2">
+        <v>2239</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C251" s="2">
+        <v>2239</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C252" s="2">
+        <v>2239</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C253" s="2">
+        <v>2239</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C254" s="2">
+        <v>2239</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C255" s="2">
+        <v>2239</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C256" s="2">
+        <v>2239</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C257" s="2">
+        <v>2239</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C258" s="2">
+        <v>2239</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C259" s="2">
+        <v>2239</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C260" s="2">
+        <v>2239</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C261" s="2">
+        <v>2240</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C262" s="2">
+        <v>2240</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C263" s="2">
+        <v>2240</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="C264" s="2">
+        <v>2428</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C265" s="2">
+        <v>2428</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C266" s="2">
+        <v>2441</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C267" s="2">
+        <v>2441</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C268" s="2">
+        <v>2527</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C269" s="2">
+        <v>2757</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="C270" s="2">
+        <v>2758</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C271" s="2">
+        <v>2787</v>
+      </c>
+      <c r="D271" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C272" s="2">
+        <v>2821</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="C273" s="2">
+        <v>2821</v>
+      </c>
+      <c r="D273" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C274" s="2">
+        <v>3096</v>
+      </c>
+      <c r="D274" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C275" s="2">
+        <v>3175</v>
+      </c>
+      <c r="D275" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C276" s="2">
+        <v>3176</v>
+      </c>
+      <c r="D276" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C277" s="2">
+        <v>3176</v>
+      </c>
+      <c r="D277" s="1" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="C278" s="2">
+        <v>3420</v>
+      </c>
+      <c r="D278" s="1" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="C279" s="2">
+        <v>3420</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C280" s="2">
+        <v>3458</v>
+      </c>
+      <c r="D280" s="1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="C281" s="2">
+        <v>4175</v>
+      </c>
+      <c r="D281" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="C282" s="2">
+        <v>4176</v>
+      </c>
+      <c r="D282" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C283" s="2">
+        <v>4177</v>
+      </c>
+      <c r="D283" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C284" s="2">
+        <v>4195</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C285" s="2">
+        <v>4195</v>
+      </c>
+      <c r="D285" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C286" s="2">
+        <v>4208</v>
+      </c>
+      <c r="D286" s="1" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C287" s="2">
+        <v>4213</v>
+      </c>
+      <c r="D287" s="1" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C288" s="2">
+        <v>4219</v>
+      </c>
+      <c r="D288" s="1" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C289" s="2">
+        <v>4227</v>
+      </c>
+      <c r="D289" s="1" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C290" s="2">
+        <v>4264</v>
+      </c>
+      <c r="D290" s="1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C291" s="2">
+        <v>4264</v>
+      </c>
+      <c r="D291" s="1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="C292" s="2">
+        <v>4390</v>
+      </c>
+      <c r="D292" s="1" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="C293" s="2">
+        <v>4394</v>
+      </c>
+      <c r="D293" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C294" s="2">
+        <v>4397</v>
+      </c>
+      <c r="D294" s="1" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="C295" s="2">
+        <v>4397</v>
+      </c>
+      <c r="D295" s="1" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C296" s="2">
+        <v>4533</v>
+      </c>
+      <c r="D296" s="1" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C297" s="2">
+        <v>4533</v>
+      </c>
+      <c r="D297" s="1" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C298" s="2">
+        <v>4685</v>
+      </c>
+      <c r="D298" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C299" s="2">
+        <v>4691</v>
+      </c>
+      <c r="D299" s="1" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C300" s="2">
+        <v>4747</v>
+      </c>
+      <c r="D300" s="1" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C301" s="2">
+        <v>4951</v>
+      </c>
+      <c r="D301" s="1" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="C302" s="2">
+        <v>5039</v>
+      </c>
+      <c r="D302" s="1" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="C303" s="2">
+        <v>5062</v>
+      </c>
+      <c r="D303" s="1" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C304" s="2">
+        <v>5062</v>
+      </c>
+      <c r="D304" s="1" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4">
+      <c r="A305" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C305" s="2">
+        <v>5062</v>
+      </c>
+      <c r="D305" s="1" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4">
+      <c r="A306" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="C306" s="2">
+        <v>5062</v>
+      </c>
+      <c r="D306" s="1" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4">
+      <c r="A307" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C307" s="2">
+        <v>5063</v>
+      </c>
+      <c r="D307" s="1" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4">
+      <c r="A308" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C308" s="2">
+        <v>5131</v>
+      </c>
+      <c r="D308" s="1" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4">
+      <c r="A309" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="C309" s="2">
+        <v>5199</v>
+      </c>
+      <c r="D309" s="1" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4">
+      <c r="A310" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="C310" s="2">
+        <v>5201</v>
+      </c>
+      <c r="D310" s="1" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4">
+      <c r="A311" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="C311" s="2">
+        <v>5201</v>
+      </c>
+      <c r="D311" s="1" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4">
+      <c r="A312" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="C312" s="2">
+        <v>5201</v>
+      </c>
+      <c r="D312" s="1" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4">
+      <c r="A313" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C313" s="2">
+        <v>5201</v>
+      </c>
+      <c r="D313" s="1" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4">
+      <c r="A314" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C314" s="2">
+        <v>5201</v>
+      </c>
+      <c r="D314" s="1" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4">
+      <c r="A315" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C315" s="2">
+        <v>5309</v>
+      </c>
+      <c r="D315" s="1" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4">
+      <c r="A316" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="C316" s="2">
+        <v>5472</v>
+      </c>
+      <c r="D316" s="1" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4">
+      <c r="A317" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="C317" s="2">
+        <v>5958</v>
+      </c>
+      <c r="D317" s="1" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4">
+      <c r="A318" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="C318" s="2">
+        <v>5958</v>
+      </c>
+      <c r="D318" s="1" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4">
+      <c r="A319" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="C319" s="2">
+        <v>5958</v>
+      </c>
+      <c r="D319" s="1" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4">
+      <c r="A320" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C320" s="2">
+        <v>5958</v>
+      </c>
+      <c r="D320" s="1" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4">
+      <c r="A321" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="C321" s="2">
+        <v>5958</v>
+      </c>
+      <c r="D321" s="1" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4">
+      <c r="A322" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="C322" s="2">
+        <v>5958</v>
+      </c>
+      <c r="D322" s="1" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4">
+      <c r="A323" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="C323" s="2">
+        <v>5958</v>
+      </c>
+      <c r="D323" s="1" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4">
+      <c r="A324" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="C324" s="2">
+        <v>5958</v>
+      </c>
+      <c r="D324" s="1" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4">
+      <c r="A325" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C325" s="2">
+        <v>5958</v>
+      </c>
+      <c r="D325" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4">
+      <c r="A326" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C326" s="2">
+        <v>5958</v>
+      </c>
+      <c r="D326" s="1" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4">
+      <c r="A327" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="C327" s="2">
+        <v>5958</v>
+      </c>
+      <c r="D327" s="1" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4">
+      <c r="A328" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="C328" s="2">
+        <v>5958</v>
+      </c>
+      <c r="D328" s="1" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4">
+      <c r="A329" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="C329" s="2">
+        <v>5958</v>
+      </c>
+      <c r="D329" s="1" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4">
+      <c r="A330" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="C330" s="2">
+        <v>5958</v>
+      </c>
+      <c r="D330" s="1" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4">
+      <c r="A331" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C331" s="2">
+        <v>5958</v>
+      </c>
+      <c r="D331" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4">
+      <c r="A332" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C332" s="2">
+        <v>5958</v>
+      </c>
+      <c r="D332" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4">
+      <c r="A333" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="C333" s="2">
+        <v>5958</v>
+      </c>
+      <c r="D333" s="1" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4">
+      <c r="A334" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="C334" s="2">
+        <v>6120</v>
+      </c>
+      <c r="D334" s="1" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4">
+      <c r="A335" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="C335" s="2">
+        <v>6383</v>
+      </c>
+      <c r="D335" s="1" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4">
+      <c r="A336" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C336" s="2">
+        <v>6383</v>
+      </c>
+      <c r="D336" s="1" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4">
+      <c r="A337" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C337" s="2">
+        <v>6387</v>
+      </c>
+      <c r="D337" s="1" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4">
+      <c r="A338" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="C338" s="2">
+        <v>6543</v>
+      </c>
+      <c r="D338" s="1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4">
+      <c r="A339" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="C339" s="2">
+        <v>6543</v>
+      </c>
+      <c r="D339" s="1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4">
+      <c r="A340" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="C340" s="2">
+        <v>6543</v>
+      </c>
+      <c r="D340" s="1" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4">
+      <c r="A341" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C341" s="2">
+        <v>6543</v>
+      </c>
+      <c r="D341" s="1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4">
+      <c r="A342" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C342" s="2">
+        <v>6633</v>
+      </c>
+      <c r="D342" s="1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4">
+      <c r="A343" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="C343" s="2">
+        <v>6773</v>
+      </c>
+      <c r="D343" s="1" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4">
+      <c r="A344" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="C344" s="2">
+        <v>6886</v>
+      </c>
+      <c r="D344" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4">
+      <c r="A345" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="C345" s="2">
+        <v>6886</v>
+      </c>
+      <c r="D345" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4">
+      <c r="A346" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="C346" s="2">
+        <v>6920</v>
+      </c>
+      <c r="D346" s="1" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4">
+      <c r="A347" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="C347" s="2">
+        <v>7152</v>
+      </c>
+      <c r="D347" s="1" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4">
+      <c r="A348" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="C348" s="2">
+        <v>7307</v>
+      </c>
+      <c r="D348" s="1" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4">
+      <c r="A349" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="C349" s="2">
+        <v>7776</v>
+      </c>
+      <c r="D349" s="1" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4">
+      <c r="A350" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="C350" s="2">
+        <v>7776</v>
+      </c>
+      <c r="D350" s="1" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4">
+      <c r="A351" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="C351" s="2">
+        <v>7805</v>
+      </c>
+      <c r="D351" s="1" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4">
+      <c r="A352" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="C352" s="2">
+        <v>8021</v>
+      </c>
+      <c r="D352" s="1" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4">
+      <c r="A353" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C353" s="2">
+        <v>8021</v>
+      </c>
+      <c r="D353" s="1" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4">
+      <c r="A354" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="C354" s="2">
+        <v>8073</v>
+      </c>
+      <c r="D354" s="1" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4">
+      <c r="A355" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="C355" s="2">
+        <v>8074</v>
+      </c>
+      <c r="D355" s="1" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4">
+      <c r="A356" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C356" s="2">
+        <v>8075</v>
+      </c>
+      <c r="D356" s="1" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4">
+      <c r="A357" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C357" s="2">
+        <v>8316</v>
+      </c>
+      <c r="D357" s="1" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4">
+      <c r="A358" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="C358" s="2">
+        <v>8422</v>
+      </c>
+      <c r="D358" s="1" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4">
+      <c r="A359" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="C359" s="2">
+        <v>8438</v>
+      </c>
+      <c r="D359" s="1" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4">
+      <c r="A360" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="C360" s="2">
+        <v>8514</v>
+      </c>
+      <c r="D360" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4">
+      <c r="A361" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C361" s="2">
+        <v>8514</v>
+      </c>
+      <c r="D361" s="1" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4">
+      <c r="A362" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C362" s="2">
+        <v>8514</v>
+      </c>
+      <c r="D362" s="1" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4">
+      <c r="A363" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="C363" s="2">
+        <v>8514</v>
+      </c>
+      <c r="D363" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4">
+      <c r="A364" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="C364" s="2">
+        <v>8515</v>
+      </c>
+      <c r="D364" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4">
+      <c r="A365" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="C365" s="2">
+        <v>8677</v>
+      </c>
+      <c r="D365" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4">
+      <c r="A366" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C366" s="2">
+        <v>8677</v>
+      </c>
+      <c r="D366" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4">
+      <c r="A367" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="C367" s="2">
+        <v>8748</v>
+      </c>
+      <c r="D367" s="1" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4">
+      <c r="A368" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="C368" s="2">
+        <v>8748</v>
+      </c>
+      <c r="D368" s="1" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="A369" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C369" s="2">
+        <v>8750</v>
+      </c>
+      <c r="D369" s="1" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="A370" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C370" s="2">
+        <v>8815</v>
+      </c>
+      <c r="D370" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="A371" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="C371" s="2">
+        <v>8815</v>
+      </c>
+      <c r="D371" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="A372" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="C372" s="2">
+        <v>9114</v>
+      </c>
+      <c r="D372" s="1" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
+      <c r="A373" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C373" s="2">
+        <v>9114</v>
+      </c>
+      <c r="D373" s="1" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="A374" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="C374" s="2">
+        <v>9114</v>
+      </c>
+      <c r="D374" s="1" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4">
+      <c r="A375" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C375" s="2">
+        <v>9114</v>
+      </c>
+      <c r="D375" s="1" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="A376" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C376" s="2">
+        <v>9304</v>
+      </c>
+      <c r="D376" s="1" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C377" s="2">
+        <v>9304</v>
+      </c>
+      <c r="D377" s="1" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
+      <c r="A378" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="C378" s="2">
+        <v>9624</v>
+      </c>
+      <c r="D378" s="1" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="C379" s="2">
+        <v>9624</v>
+      </c>
+      <c r="D379" s="1" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="A380" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="C380" s="2">
+        <v>9624</v>
+      </c>
+      <c r="D380" s="1" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="A381" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="C381" s="2">
+        <v>9624</v>
+      </c>
+      <c r="D381" s="1" t="s">
+        <v>701</v>
       </c>
     </row>
   </sheetData>

--- a/results_xlsx/prednasejici_bez_prednasek.xlsx
+++ b/results_xlsx/prednasejici_bez_prednasek.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="686">
   <si>
     <t>nazev</t>
   </si>
@@ -49,37 +49,40 @@
     <t>Technologie ochrany životního prostředí</t>
   </si>
   <si>
+    <t>Vybrané kapitoly z etologie bezobratlých</t>
+  </si>
+  <si>
+    <t>Biologie členovců</t>
+  </si>
+  <si>
+    <t>Fauna ČR</t>
+  </si>
+  <si>
     <t>Vědecká komunikace v biologii</t>
   </si>
   <si>
-    <t>Vybrané kapitoly z etologie bezobratlých</t>
-  </si>
-  <si>
-    <t>Biologie členovců</t>
-  </si>
-  <si>
-    <t>Fauna ČR</t>
-  </si>
-  <si>
     <t>Fylogeneze a systém bezobratlých</t>
   </si>
   <si>
+    <t>Obecná botanika</t>
+  </si>
+  <si>
     <t>Fylogeneze a systém vyšších rostlin</t>
   </si>
   <si>
+    <t>Flóra ČR</t>
+  </si>
+  <si>
     <t>Biologické principy ochrany přírody</t>
   </si>
   <si>
-    <t>Flóra ČR</t>
-  </si>
-  <si>
-    <t>Obecná botanika</t>
+    <t>Geobotanika</t>
   </si>
   <si>
     <t>Biogeografie</t>
   </si>
   <si>
-    <t>Geobotanika</t>
+    <t>Fyziologie živočichů a člověka</t>
   </si>
   <si>
     <t>Fyziologie a mol. bio. eukar. buňky I</t>
@@ -88,96 +91,93 @@
     <t>Patobiologie živočišných buněk a tkání</t>
   </si>
   <si>
-    <t>Fyziologie živočichů a člověka</t>
-  </si>
-  <si>
     <t>Úvod do počítačového modelování</t>
   </si>
   <si>
     <t>Vybrané partie z fyziky</t>
   </si>
   <si>
+    <t>Vakuová fyzika a technika</t>
+  </si>
+  <si>
     <t>Fyzikální vlastnosti tenkých vrstev</t>
   </si>
   <si>
-    <t>Vakuová fyzika a technika</t>
-  </si>
-  <si>
     <t>Počítačové simulace v nanotechnologiích</t>
   </si>
   <si>
+    <t>Sel. parts of the theory of el. fields</t>
+  </si>
+  <si>
+    <t>Vybrané partie z kvantové fyziky</t>
+  </si>
+  <si>
+    <t>Vybrané partie z teorie elektromag. pole</t>
+  </si>
+  <si>
+    <t>Úvod do kvantové fyziky a spektroskopie</t>
+  </si>
+  <si>
+    <t>Kvantová mechanika</t>
+  </si>
+  <si>
+    <t>Základy kvantové chemie a spektra mol.</t>
+  </si>
+  <si>
+    <t>Vybr. partie z teorie el. pole</t>
+  </si>
+  <si>
     <t>Kvantová fyzika I</t>
   </si>
   <si>
+    <t>Vybrané partie z teoretické fyziky I</t>
+  </si>
+  <si>
     <t>Kvantová fyzika</t>
   </si>
   <si>
+    <t>Speciální teorie relativity</t>
+  </si>
+  <si>
     <t>Teorie elektromagnetického pole</t>
   </si>
   <si>
+    <t>Teorie relativity</t>
+  </si>
+  <si>
     <t>Fyzika I</t>
   </si>
   <si>
+    <t>Fyzika</t>
+  </si>
+  <si>
+    <t>PVK - Vyb.partie z teoretické fyziky I</t>
+  </si>
+  <si>
     <t>PVK - Vyb.partie z teoretické fyziky II</t>
   </si>
   <si>
-    <t>Vybrané partie z kvantové fyziky</t>
-  </si>
-  <si>
-    <t>PVK - Vyb.partie z teoretické fyziky I</t>
-  </si>
-  <si>
-    <t>Sel. parts of the theory of el. fields</t>
-  </si>
-  <si>
-    <t>Úvod do kvantové fyziky a spektroskopie</t>
-  </si>
-  <si>
-    <t>Teorie relativity</t>
-  </si>
-  <si>
-    <t>Vybr. partie z teorie el. pole</t>
-  </si>
-  <si>
-    <t>Kvantová mechanika</t>
-  </si>
-  <si>
     <t>Kvantová fyzika II</t>
   </si>
   <si>
-    <t>Základy kvantové chemie a spektra mol.</t>
-  </si>
-  <si>
     <t>VK-Teorie relativity</t>
   </si>
   <si>
-    <t>Speciální teorie relativity</t>
-  </si>
-  <si>
-    <t>Fyzika</t>
-  </si>
-  <si>
-    <t>Vybrané partie z teoretické fyziky I</t>
-  </si>
-  <si>
-    <t>Vybrané partie z teorie elektromag. pole</t>
+    <t>Metody geografického výzkumu krajiny</t>
+  </si>
+  <si>
+    <t>Potenciál kulturní krajiny a GIS</t>
   </si>
   <si>
     <t>Vybrané kapitoly FG Evropy</t>
   </si>
   <si>
+    <t>Regional environmental change</t>
+  </si>
+  <si>
     <t>Krajinná ekologie</t>
   </si>
   <si>
-    <t>Regional environmental change</t>
-  </si>
-  <si>
-    <t>Metody geografického výzkumu krajiny</t>
-  </si>
-  <si>
-    <t>Potenciál kulturní krajiny a GIS</t>
-  </si>
-  <si>
     <t>Problémové oblasti Česka</t>
   </si>
   <si>
@@ -190,84 +190,84 @@
     <t>Didaktika chemie I</t>
   </si>
   <si>
+    <t>Simulation of the charged particle</t>
+  </si>
+  <si>
+    <t>Atomová a jaderná fyzika</t>
+  </si>
+  <si>
+    <t>Fyzika energetických svazků iontů</t>
+  </si>
+  <si>
+    <t>Pokr. studium povrchů pomocí jader. met.</t>
+  </si>
+  <si>
+    <t>Iontové analytické metody</t>
+  </si>
+  <si>
+    <t>Simulace průchodu nabitých částic</t>
+  </si>
+  <si>
+    <t>Atomic and Nuclear Physics</t>
+  </si>
+  <si>
+    <t>Úvod do fyziky energet. svazků iontů</t>
+  </si>
+  <si>
     <t>Characterization of surface layers using</t>
   </si>
   <si>
-    <t>Úvod do fyziky energet. svazků iontů</t>
-  </si>
-  <si>
     <t>Jaderné analytické metody</t>
   </si>
   <si>
-    <t>Simulation of the charged particle</t>
-  </si>
-  <si>
-    <t>Fyzika energetických svazků iontů</t>
-  </si>
-  <si>
-    <t>Iontové analytické metody</t>
-  </si>
-  <si>
-    <t>Atomová a jaderná fyzika</t>
-  </si>
-  <si>
-    <t>Pokr. studium povrchů pomocí jader. met.</t>
-  </si>
-  <si>
-    <t>Simulace průchodu nabitých částic</t>
+    <t>Příprava mikro a nanostruktur</t>
   </si>
   <si>
     <t>Studium povrchů pomocí jaderných metod</t>
   </si>
   <si>
-    <t>Atomic and Nuclear Physics</t>
-  </si>
-  <si>
-    <t>Příprava mikro a nanostruktur</t>
+    <t>Teorie automatů a formálních jazyků</t>
+  </si>
+  <si>
+    <t>Teoretické základy informatiky</t>
+  </si>
+  <si>
+    <t>Pokročilé numerické metody</t>
+  </si>
+  <si>
+    <t>Theory of Automata and Formal Languages</t>
+  </si>
+  <si>
+    <t>Optimalizace</t>
+  </si>
+  <si>
+    <t>Numerické metody</t>
+  </si>
+  <si>
+    <t>Teorie formálních jazyků</t>
   </si>
   <si>
     <t>Automata and Formal Language Theory</t>
   </si>
   <si>
-    <t>Teorie automatů a formálních jazyků</t>
-  </si>
-  <si>
-    <t>Teoretické základy informatiky</t>
-  </si>
-  <si>
-    <t>Theory of Automata and Formal Languages</t>
-  </si>
-  <si>
-    <t>Pokročilé numerické metody</t>
-  </si>
-  <si>
-    <t>Numerické metody</t>
-  </si>
-  <si>
-    <t>Optimalizace</t>
-  </si>
-  <si>
-    <t>Teorie formálních jazyků</t>
-  </si>
-  <si>
     <t>VK-Regionální geografie Portugalska</t>
   </si>
   <si>
+    <t>Analytická chemie ŽP NMgr.</t>
+  </si>
+  <si>
+    <t>Systém kvality a vyhodnocování dat</t>
+  </si>
+  <si>
+    <t>Stopová organická analýza</t>
+  </si>
+  <si>
+    <t>Hodnocení nebezpečných vlastností odpadů</t>
+  </si>
+  <si>
     <t>Pokročilé instrumentální metody</t>
   </si>
   <si>
-    <t>Analytická chemie ŽP NMgr.</t>
-  </si>
-  <si>
-    <t>Stopová organická analýza</t>
-  </si>
-  <si>
-    <t>Hodnocení nebezpečných vlastností odpadů</t>
-  </si>
-  <si>
-    <t>Systém kvality a vyhodnocování dat</t>
-  </si>
-  <si>
     <t>VK-Programování ATMEL I</t>
   </si>
   <si>
@@ -286,60 +286,33 @@
     <t>Matematika pro informatiky</t>
   </si>
   <si>
+    <t>Samoopravné kódy</t>
+  </si>
+  <si>
+    <t>Algoritmy a datové struktury</t>
+  </si>
+  <si>
+    <t>Algorithms and Data Structures</t>
+  </si>
+  <si>
     <t>Základy kryptologie</t>
   </si>
   <si>
-    <t>Algoritmy a datové struktury</t>
-  </si>
-  <si>
-    <t>Samoopravné kódy</t>
-  </si>
-  <si>
-    <t>Algorithms and Data Structures</t>
-  </si>
-  <si>
     <t>Základy kyberbezpečnosti</t>
   </si>
   <si>
     <t>Aplikovaná kryptologie</t>
   </si>
   <si>
+    <t>Paleontologie a paleoekologie</t>
+  </si>
+  <si>
     <t>VK - Úvod do geografie náboženství</t>
   </si>
   <si>
     <t>Kurz marketingu a managementu</t>
   </si>
   <si>
-    <t>Úvod do spektroskop. metod v org. chem.</t>
-  </si>
-  <si>
-    <t>Heterocyklické a organokovové sloučeniny</t>
-  </si>
-  <si>
-    <t>Organická chemie I</t>
-  </si>
-  <si>
-    <t>Intr. to Inorganic and Organic Chemistry</t>
-  </si>
-  <si>
-    <t>Organické syntézy</t>
-  </si>
-  <si>
-    <t>Organická chemie</t>
-  </si>
-  <si>
-    <t>Organická chemie Nmgr.</t>
-  </si>
-  <si>
-    <t>Organická chemie Nmgr. - ZŠ</t>
-  </si>
-  <si>
-    <t>Koordinační chemie</t>
-  </si>
-  <si>
-    <t>Organická chemie Nmgr. - SŠ</t>
-  </si>
-  <si>
     <t>Odpadové hospodářství I</t>
   </si>
   <si>
@@ -352,34 +325,34 @@
     <t>Matematika III</t>
   </si>
   <si>
+    <t>Obecná zoologie</t>
+  </si>
+  <si>
+    <t>Obecná parazitologie</t>
+  </si>
+  <si>
     <t>Parasitology</t>
   </si>
   <si>
     <t>Biologie a ekologie člověka I</t>
   </si>
   <si>
-    <t>Obecná zoologie</t>
-  </si>
-  <si>
-    <t>Obecná parazitologie</t>
-  </si>
-  <si>
     <t>Approaches to regional histories</t>
   </si>
   <si>
     <t>Logistika</t>
-  </si>
-  <si>
-    <t>Komplexní analýza materiálů</t>
-  </si>
-  <si>
-    <t>Metody analýz materiálů</t>
   </si>
   <si>
     <t>Met. analýz mat. 
 využ. el. mikroskopie</t>
   </si>
   <si>
+    <t>Komplexní analýza materiálů</t>
+  </si>
+  <si>
+    <t>Metody analýz materiálů</t>
+  </si>
+  <si>
     <t>Specializační přednášky z praxe</t>
   </si>
   <si>
@@ -395,45 +368,45 @@
     <t>Veřejná správa</t>
   </si>
   <si>
+    <t>Python and R for Data Science</t>
+  </si>
+  <si>
+    <t>Computational Geometry</t>
+  </si>
+  <si>
+    <t>Pokročilé datové struktury a algoritmy</t>
+  </si>
+  <si>
+    <t>Informatika ve fyzice II</t>
+  </si>
+  <si>
+    <t>Matematika v mikroekonomii</t>
+  </si>
+  <si>
+    <t>Analýza a vizualizace dat</t>
+  </si>
+  <si>
+    <t>Projektové řízení a firemní IS</t>
+  </si>
+  <si>
     <t>Výpočetní geometrie</t>
   </si>
   <si>
+    <t>Základy ekonomie a managementu</t>
+  </si>
+  <si>
+    <t>Numerical Methods</t>
+  </si>
+  <si>
     <t>Časové řady</t>
   </si>
   <si>
-    <t>Informatika ve fyzice II</t>
-  </si>
-  <si>
-    <t>Pokročilé datové struktury a algoritmy</t>
-  </si>
-  <si>
-    <t>Analýza a vizualizace dat</t>
+    <t>Podnikový management a IS</t>
   </si>
   <si>
     <t>Kvantitativní management</t>
   </si>
   <si>
-    <t>Projektové řízení a firemní IS</t>
-  </si>
-  <si>
-    <t>Python and R for Data Science</t>
-  </si>
-  <si>
-    <t>Podnikový management a IS</t>
-  </si>
-  <si>
-    <t>Základy ekonomie a managementu</t>
-  </si>
-  <si>
-    <t>Numerical Methods</t>
-  </si>
-  <si>
-    <t>Computational Geometry</t>
-  </si>
-  <si>
-    <t>Matematika v mikroekonomii</t>
-  </si>
-  <si>
     <t>Data Analysis and Visualisation</t>
   </si>
   <si>
@@ -452,69 +425,69 @@
     <t>Didaktika geografie I</t>
   </si>
   <si>
+    <t>Soft Computing</t>
+  </si>
+  <si>
+    <t>Architektura počítačů</t>
+  </si>
+  <si>
+    <t>Programování hardwaru</t>
+  </si>
+  <si>
+    <t>Database Systems</t>
+  </si>
+  <si>
+    <t>Programování pro internet</t>
+  </si>
+  <si>
     <t>Bezpečnostní technologie</t>
   </si>
   <si>
+    <t>Pokročilé statistické metody</t>
+  </si>
+  <si>
+    <t>Dependability of Information Systems</t>
+  </si>
+  <si>
+    <t>Základy počítačových sítí a protokolů</t>
+  </si>
+  <si>
+    <t>Dependabilita softwarových systémů</t>
+  </si>
+  <si>
+    <t>Dependability of Hardware Systems</t>
+  </si>
+  <si>
+    <t>Dependabilita informačních systémů</t>
+  </si>
+  <si>
+    <t>Počítačové sítě II</t>
+  </si>
+  <si>
     <t>Databázové systémy</t>
   </si>
   <si>
+    <t>Programování pro Internet</t>
+  </si>
+  <si>
+    <t>Bezpečnost IS/IT</t>
+  </si>
+  <si>
+    <t>Dependability of Software Systems</t>
+  </si>
+  <si>
+    <t>Internet Programming</t>
+  </si>
+  <si>
+    <t>Úvod do kryptografie</t>
+  </si>
+  <si>
     <t>Dependabilita hardwarových systémů</t>
   </si>
   <si>
-    <t>Dependabilita softwarových systémů</t>
-  </si>
-  <si>
-    <t>Internet Programming</t>
-  </si>
-  <si>
-    <t>Bezpečnost IS/IT</t>
-  </si>
-  <si>
-    <t>Programování pro Internet</t>
-  </si>
-  <si>
-    <t>Dependability of Information Systems</t>
-  </si>
-  <si>
-    <t>Dependabilita informačních systémů</t>
-  </si>
-  <si>
-    <t>Database Systems</t>
-  </si>
-  <si>
-    <t>Programování hardwaru</t>
-  </si>
-  <si>
-    <t>Soft Computing</t>
-  </si>
-  <si>
-    <t>Programování pro internet</t>
-  </si>
-  <si>
-    <t>Dependability of Software Systems</t>
-  </si>
-  <si>
-    <t>Počítačové sítě II</t>
-  </si>
-  <si>
-    <t>Architektura počítačů</t>
-  </si>
-  <si>
-    <t>Základy počítačových sítí a protokolů</t>
-  </si>
-  <si>
-    <t>Dependability of Hardware Systems</t>
-  </si>
-  <si>
     <t>Počítačové sítě I</t>
   </si>
   <si>
-    <t>Pokročilé statistické metody</t>
-  </si>
-  <si>
-    <t>Úvod do kryptografie</t>
-  </si>
-  <si>
     <t>Struktura a vlastnosti polymerů</t>
   </si>
   <si>
@@ -545,12 +518,12 @@
     <t>Ekotoxikologie</t>
   </si>
   <si>
+    <t>Úvod do fotofyziky a fotochemie nanomat.</t>
+  </si>
+  <si>
     <t>Fotofyzika a fotochemie nanomateriálů</t>
   </si>
   <si>
-    <t>Úvod do fotofyziky a fotochemie nanomat.</t>
-  </si>
-  <si>
     <t>Počítačové sítě a protokoly</t>
   </si>
   <si>
@@ -572,12 +545,12 @@
     <t>Neziskový sektor a regionální rozvoj</t>
   </si>
   <si>
+    <t>Fyziol. a mol. biolog. eukar. buňky II</t>
+  </si>
+  <si>
     <t>Fyziologie a mol. biologie rostl. buňky</t>
   </si>
   <si>
-    <t>Fyziol. a mol. biolog. eukar. buňky II</t>
-  </si>
-  <si>
     <t>Plant Biotechnology</t>
   </si>
   <si>
@@ -602,19 +575,26 @@
     <t>Forenzní vědy</t>
   </si>
   <si>
+    <t>Klinická analýza</t>
+  </si>
+  <si>
     <t>Biochemie cizorodých látek</t>
   </si>
   <si>
-    <t>Klinická analýza</t>
-  </si>
-  <si>
     <t>Klinická biochemie a patobiochemie</t>
   </si>
   <si>
     <t>Bioaktivní přírodní látky</t>
   </si>
   <si>
+    <t xml:space="preserve">Metody charakterizace látek a materiálů
+</t>
+  </si>
+  <si>
     <t>Fyzika plazmatu a plazmové technologie</t>
+  </si>
+  <si>
+    <t>Fyzika povrchů</t>
   </si>
   <si>
     <t>Principy a obvod. řešení el. spektometrů</t>
@@ -624,54 +604,51 @@
 využ. prin. el. spektr</t>
   </si>
   <si>
-    <t>Fyzika povrchů</t>
-  </si>
-  <si>
     <t>Srovnávací anatom. a morfol. obratlovců</t>
   </si>
   <si>
+    <t>Programming - Fortran</t>
+  </si>
+  <si>
     <t>Poč. mod. - zpracování obrazu a signálu</t>
   </si>
   <si>
+    <t>Počítačové zpracování obrazu a signálu</t>
+  </si>
+  <si>
     <t>Počítačové metody Monte Carlo</t>
   </si>
   <si>
-    <t>Programming - Fortran</t>
+    <t>Počítačová grafika a zpracování obrazu</t>
+  </si>
+  <si>
+    <t>Počítačové model. - částicové modelování</t>
+  </si>
+  <si>
+    <t>Programování - Fortran</t>
   </si>
   <si>
     <t>Poč. mod. - částicové modelování</t>
   </si>
   <si>
-    <t>Počítačové model. - částicové modelování</t>
-  </si>
-  <si>
-    <t>Počítačové zpracování obrazu a signálu</t>
-  </si>
-  <si>
-    <t>Programování - Fortran</t>
-  </si>
-  <si>
-    <t>Počítačová grafika a zpracování obrazu</t>
-  </si>
-  <si>
     <t>Veřejné finance</t>
   </si>
   <si>
+    <t>Toxikologie a legislavita ČR a EU 1</t>
+  </si>
+  <si>
     <t>Toxikologie a legislavita ČR a EU 2</t>
   </si>
   <si>
-    <t>Toxikologie a legislavita ČR a EU 1</t>
+    <t>Biologie kvasinek</t>
+  </si>
+  <si>
+    <t>Biophysics</t>
   </si>
   <si>
     <t>Nanočástice v buňkách a tkáních</t>
   </si>
   <si>
-    <t>Biologie kvasinek</t>
-  </si>
-  <si>
-    <t>Biophysics</t>
-  </si>
-  <si>
     <t>Nekovové anorganické materiály</t>
   </si>
   <si>
@@ -690,6 +667,18 @@
     <t>Přípr. a využití nanovlákenných struktur</t>
   </si>
   <si>
+    <t>Ekologie</t>
+  </si>
+  <si>
+    <t>Kryptobióza</t>
+  </si>
+  <si>
+    <t>Ecology</t>
+  </si>
+  <si>
+    <t>Animal and Plant Models in Biology</t>
+  </si>
+  <si>
     <t>Didaktika biologie II</t>
   </si>
   <si>
@@ -708,24 +697,21 @@
     <t>Regulace a poruchy signálních drah ž.b.</t>
   </si>
   <si>
-    <t>Vybrané partie matematiky</t>
+    <t>Data Mining Techniq. based on R Software</t>
   </si>
   <si>
     <t>Machine Learning Based on R Software</t>
   </si>
   <si>
-    <t>Data Mining Techniq. based on R Software</t>
-  </si>
-  <si>
     <t>Materials and Technolog. for Sust. Soc.</t>
   </si>
   <si>
+    <t>Základy matematiky</t>
+  </si>
+  <si>
     <t>Pravděpodobnost a statistika I</t>
   </si>
   <si>
-    <t>Základy matematiky</t>
-  </si>
-  <si>
     <t>Geometrie</t>
   </si>
   <si>
@@ -738,27 +724,27 @@
     <t>Optimální rozhodování</t>
   </si>
   <si>
+    <t>Optimization for ML with MATLAB</t>
+  </si>
+  <si>
     <t>Optimiz. for Mach. Learning with MATLAB</t>
   </si>
   <si>
-    <t>Optimization for ML with MATLAB</t>
-  </si>
-  <si>
     <t>K839</t>
   </si>
   <si>
     <t>P503</t>
   </si>
   <si>
+    <t>K403</t>
+  </si>
+  <si>
+    <t>K503</t>
+  </si>
+  <si>
     <t>P403</t>
   </si>
   <si>
-    <t>K403</t>
-  </si>
-  <si>
-    <t>K503</t>
-  </si>
-  <si>
     <t>5DEMO</t>
   </si>
   <si>
@@ -774,49 +760,64 @@
     <t>P224</t>
   </si>
   <si>
+    <t>B315</t>
+  </si>
+  <si>
+    <t>P414</t>
+  </si>
+  <si>
     <t>BK315</t>
   </si>
   <si>
-    <t>P414</t>
-  </si>
-  <si>
-    <t>B315</t>
+    <t>MA100</t>
+  </si>
+  <si>
+    <t>P325</t>
+  </si>
+  <si>
+    <t>N102</t>
+  </si>
+  <si>
+    <t>N052</t>
   </si>
   <si>
     <t>N021</t>
   </si>
   <si>
-    <t>MA100</t>
-  </si>
-  <si>
-    <t>N102</t>
-  </si>
-  <si>
-    <t>P325</t>
+    <t>KN102</t>
   </si>
   <si>
     <t>M100</t>
   </si>
   <si>
-    <t>KN102</t>
-  </si>
-  <si>
-    <t>N052</t>
+    <t>P302</t>
   </si>
   <si>
     <t>M102</t>
   </si>
   <si>
-    <t>P302</t>
+    <t>P103</t>
   </si>
   <si>
     <t>PB219</t>
   </si>
   <si>
+    <t>BK219</t>
+  </si>
+  <si>
+    <t>MA204</t>
+  </si>
+  <si>
     <t>MA300</t>
   </si>
   <si>
-    <t>MA204</t>
+    <t>N064</t>
+  </si>
+  <si>
+    <t>MA200</t>
+  </si>
+  <si>
+    <t>BP421</t>
   </si>
   <si>
     <t>KB219</t>
@@ -825,37 +826,28 @@
     <t>K102</t>
   </si>
   <si>
+    <t>N025</t>
+  </si>
+  <si>
+    <t>K410</t>
+  </si>
+  <si>
+    <t>BP219</t>
+  </si>
+  <si>
+    <t>BK421</t>
+  </si>
+  <si>
+    <t>P112</t>
+  </si>
+  <si>
     <t>P421</t>
   </si>
   <si>
-    <t>BP421</t>
-  </si>
-  <si>
-    <t>BK421</t>
-  </si>
-  <si>
-    <t>BP219</t>
-  </si>
-  <si>
-    <t>MA200</t>
-  </si>
-  <si>
-    <t>K410</t>
-  </si>
-  <si>
-    <t>P103</t>
-  </si>
-  <si>
-    <t>BK219</t>
-  </si>
-  <si>
-    <t>N064</t>
-  </si>
-  <si>
-    <t>P112</t>
-  </si>
-  <si>
-    <t>N025</t>
+    <t>PB502</t>
+  </si>
+  <si>
+    <t>KB502</t>
   </si>
   <si>
     <t>N016</t>
@@ -864,73 +856,94 @@
     <t>N059</t>
   </si>
   <si>
-    <t>PB502</t>
-  </si>
-  <si>
-    <t>KB502</t>
+    <t>KUDPM</t>
+  </si>
+  <si>
+    <t>K414</t>
+  </si>
+  <si>
+    <t>K218</t>
+  </si>
+  <si>
+    <t>PSVN</t>
   </si>
   <si>
     <t>UDPM</t>
   </si>
   <si>
-    <t>K414</t>
-  </si>
-  <si>
-    <t>K218</t>
-  </si>
-  <si>
-    <t>PSVN</t>
-  </si>
-  <si>
-    <t>KUDPM</t>
+    <t>CM101</t>
+  </si>
+  <si>
+    <t>PM100</t>
+  </si>
+  <si>
+    <t>PD203</t>
+  </si>
+  <si>
+    <t>P216</t>
+  </si>
+  <si>
+    <t>KM</t>
+  </si>
+  <si>
+    <t>NA11</t>
+  </si>
+  <si>
+    <t>PM101</t>
+  </si>
+  <si>
+    <t>P509</t>
+  </si>
+  <si>
+    <t>P427</t>
   </si>
   <si>
     <t>K512</t>
   </si>
   <si>
+    <t>P938</t>
+  </si>
+  <si>
     <t>P737</t>
   </si>
   <si>
+    <t>KSTR</t>
+  </si>
+  <si>
     <t>TEP</t>
   </si>
   <si>
+    <t>P508</t>
+  </si>
+  <si>
+    <t>K606</t>
+  </si>
+  <si>
+    <t>KKM</t>
+  </si>
+  <si>
+    <t>P606</t>
+  </si>
+  <si>
     <t>K222</t>
   </si>
   <si>
+    <t>P231</t>
+  </si>
+  <si>
+    <t>K422</t>
+  </si>
+  <si>
+    <t>P213</t>
+  </si>
+  <si>
     <t>K522</t>
   </si>
   <si>
-    <t>PM100</t>
-  </si>
-  <si>
-    <t>K422</t>
-  </si>
-  <si>
-    <t>CM101</t>
-  </si>
-  <si>
-    <t>P216</t>
-  </si>
-  <si>
-    <t>K606</t>
-  </si>
-  <si>
-    <t>P508</t>
-  </si>
-  <si>
-    <t>PM101</t>
-  </si>
-  <si>
-    <t>KM</t>
-  </si>
-  <si>
     <t>P607</t>
   </si>
   <si>
-    <t>NA11</t>
-  </si>
-  <si>
-    <t>P213</t>
+    <t>K724</t>
   </si>
   <si>
     <t>0164</t>
@@ -939,45 +952,18 @@
     <t>STR</t>
   </si>
   <si>
-    <t>P606</t>
-  </si>
-  <si>
-    <t>P509</t>
-  </si>
-  <si>
-    <t>KSTR</t>
-  </si>
-  <si>
-    <t>P427</t>
-  </si>
-  <si>
-    <t>P231</t>
-  </si>
-  <si>
-    <t>P938</t>
-  </si>
-  <si>
-    <t>K724</t>
-  </si>
-  <si>
-    <t>KKM</t>
-  </si>
-  <si>
-    <t>PD203</t>
+    <t>M409</t>
+  </si>
+  <si>
+    <t>M214</t>
+  </si>
+  <si>
+    <t>PD103</t>
   </si>
   <si>
     <t>B303</t>
   </si>
   <si>
-    <t>PD103</t>
-  </si>
-  <si>
-    <t>M409</t>
-  </si>
-  <si>
-    <t>M214</t>
-  </si>
-  <si>
     <t>0154</t>
   </si>
   <si>
@@ -987,129 +973,129 @@
     <t>KN22</t>
   </si>
   <si>
+    <t>KN10</t>
+  </si>
+  <si>
     <t>N304</t>
   </si>
   <si>
-    <t>KN10</t>
-  </si>
-  <si>
     <t>N115</t>
   </si>
   <si>
+    <t>CM306</t>
+  </si>
+  <si>
+    <t>P511</t>
+  </si>
+  <si>
+    <t>ATOM</t>
+  </si>
+  <si>
+    <t>PD101</t>
+  </si>
+  <si>
+    <t>AP14</t>
+  </si>
+  <si>
+    <t>PD200</t>
+  </si>
+  <si>
+    <t>K401</t>
+  </si>
+  <si>
+    <t>PM306</t>
+  </si>
+  <si>
+    <t>E511</t>
+  </si>
+  <si>
+    <t>KATOM</t>
+  </si>
+  <si>
+    <t>AP09</t>
+  </si>
+  <si>
     <t>CM203</t>
   </si>
   <si>
-    <t>AP09</t>
-  </si>
-  <si>
     <t>JAM</t>
   </si>
   <si>
-    <t>CM306</t>
-  </si>
-  <si>
-    <t>PD101</t>
-  </si>
-  <si>
-    <t>PD200</t>
-  </si>
-  <si>
-    <t>KATOM</t>
-  </si>
-  <si>
-    <t>ATOM</t>
-  </si>
-  <si>
-    <t>AP14</t>
-  </si>
-  <si>
-    <t>PM306</t>
+    <t>PMNS</t>
   </si>
   <si>
     <t>PM203</t>
   </si>
   <si>
-    <t>K401</t>
-  </si>
-  <si>
-    <t>P511</t>
-  </si>
-  <si>
-    <t>E511</t>
-  </si>
-  <si>
-    <t>PMNS</t>
+    <t>AFJ</t>
+  </si>
+  <si>
+    <t>KTZI</t>
+  </si>
+  <si>
+    <t>PNUM</t>
+  </si>
+  <si>
+    <t>EAFJ</t>
+  </si>
+  <si>
+    <t>OTT</t>
+  </si>
+  <si>
+    <t>XNME</t>
+  </si>
+  <si>
+    <t>KPNUM</t>
+  </si>
+  <si>
+    <t>KOTT</t>
+  </si>
+  <si>
+    <t>NME</t>
+  </si>
+  <si>
+    <t>KAFJ</t>
+  </si>
+  <si>
+    <t>TFL</t>
+  </si>
+  <si>
+    <t>KOPT</t>
   </si>
   <si>
     <t>ETFI</t>
   </si>
   <si>
-    <t>KAFJ</t>
-  </si>
-  <si>
     <t>TZI</t>
   </si>
   <si>
-    <t>EAFJ</t>
-  </si>
-  <si>
-    <t>PNUM</t>
-  </si>
-  <si>
-    <t>XNME</t>
-  </si>
-  <si>
-    <t>OTT</t>
-  </si>
-  <si>
-    <t>KTZI</t>
-  </si>
-  <si>
-    <t>KOTT</t>
-  </si>
-  <si>
-    <t>KPNUM</t>
-  </si>
-  <si>
-    <t>AFJ</t>
-  </si>
-  <si>
-    <t>NME</t>
-  </si>
-  <si>
-    <t>KOPT</t>
-  </si>
-  <si>
-    <t>TFL</t>
-  </si>
-  <si>
     <t>0124</t>
   </si>
   <si>
+    <t>N406</t>
+  </si>
+  <si>
+    <t>KN04</t>
+  </si>
+  <si>
+    <t>N111</t>
+  </si>
+  <si>
+    <t>N308</t>
+  </si>
+  <si>
     <t>N108</t>
   </si>
   <si>
-    <t>KN04</t>
-  </si>
-  <si>
-    <t>N308</t>
-  </si>
-  <si>
-    <t>N111</t>
-  </si>
-  <si>
-    <t>N406</t>
-  </si>
-  <si>
     <t>0175</t>
   </si>
   <si>
+    <t>P422</t>
+  </si>
+  <si>
     <t>P522</t>
   </si>
   <si>
-    <t>P422</t>
-  </si>
-  <si>
     <t>K305</t>
   </si>
   <si>
@@ -1122,43 +1108,49 @@
     <t>MAI</t>
   </si>
   <si>
+    <t>SOK</t>
+  </si>
+  <si>
+    <t>DSA</t>
+  </si>
+  <si>
+    <t>KDSA</t>
+  </si>
+  <si>
+    <t>EDSA</t>
+  </si>
+  <si>
+    <t>KRY</t>
+  </si>
+  <si>
+    <t>XADS</t>
+  </si>
+  <si>
+    <t>KZKR</t>
+  </si>
+  <si>
+    <t>ZKB</t>
+  </si>
+  <si>
+    <t>ZKR</t>
+  </si>
+  <si>
+    <t>KZKB</t>
+  </si>
+  <si>
+    <t>AKR</t>
+  </si>
+  <si>
     <t>KKRY</t>
   </si>
   <si>
     <t>ADS</t>
   </si>
   <si>
-    <t>KDSA</t>
-  </si>
-  <si>
-    <t>SOK</t>
-  </si>
-  <si>
-    <t>EDSA</t>
-  </si>
-  <si>
-    <t>KZKB</t>
-  </si>
-  <si>
-    <t>ZKR</t>
-  </si>
-  <si>
-    <t>KRY</t>
-  </si>
-  <si>
-    <t>XADS</t>
-  </si>
-  <si>
-    <t>KZKR</t>
-  </si>
-  <si>
-    <t>AKR</t>
-  </si>
-  <si>
-    <t>DSA</t>
-  </si>
-  <si>
-    <t>ZKB</t>
+    <t>BK334</t>
+  </si>
+  <si>
+    <t>BP334</t>
   </si>
   <si>
     <t>0133</t>
@@ -1167,63 +1159,6 @@
     <t>PD308</t>
   </si>
   <si>
-    <t>BK309</t>
-  </si>
-  <si>
-    <t>BK306</t>
-  </si>
-  <si>
-    <t>K301</t>
-  </si>
-  <si>
-    <t>E101</t>
-  </si>
-  <si>
-    <t>PD09</t>
-  </si>
-  <si>
-    <t>M202</t>
-  </si>
-  <si>
-    <t>KN32</t>
-  </si>
-  <si>
-    <t>P321</t>
-  </si>
-  <si>
-    <t>B306</t>
-  </si>
-  <si>
-    <t>N413</t>
-  </si>
-  <si>
-    <t>N323</t>
-  </si>
-  <si>
-    <t>BK200</t>
-  </si>
-  <si>
-    <t>KN323</t>
-  </si>
-  <si>
-    <t>M207</t>
-  </si>
-  <si>
-    <t>KN37</t>
-  </si>
-  <si>
-    <t>P301</t>
-  </si>
-  <si>
-    <t>B309</t>
-  </si>
-  <si>
-    <t>N402</t>
-  </si>
-  <si>
-    <t>B200</t>
-  </si>
-  <si>
     <t>P313</t>
   </si>
   <si>
@@ -1236,64 +1171,100 @@
     <t>K304</t>
   </si>
   <si>
+    <t>K110</t>
+  </si>
+  <si>
+    <t>P323</t>
+  </si>
+  <si>
     <t>E129</t>
   </si>
   <si>
     <t>P303</t>
   </si>
   <si>
-    <t>K110</t>
-  </si>
-  <si>
-    <t>P323</t>
-  </si>
-  <si>
     <t>PD106</t>
   </si>
   <si>
     <t>LOG</t>
   </si>
   <si>
+    <t>AP03</t>
+  </si>
+  <si>
     <t>PD202</t>
   </si>
   <si>
     <t>AP05</t>
   </si>
   <si>
-    <t>AP03</t>
-  </si>
-  <si>
     <t>B605</t>
   </si>
   <si>
     <t>N307</t>
   </si>
   <si>
+    <t>ME200</t>
+  </si>
+  <si>
     <t>N023</t>
   </si>
   <si>
-    <t>ME200</t>
-  </si>
-  <si>
     <t>0120</t>
   </si>
   <si>
     <t>VSP</t>
   </si>
   <si>
+    <t>EPYR</t>
+  </si>
+  <si>
     <t>KNME</t>
   </si>
   <si>
+    <t>A192</t>
+  </si>
+  <si>
+    <t>PDSA</t>
+  </si>
+  <si>
+    <t>IVF2</t>
+  </si>
+  <si>
+    <t>KPDSA</t>
+  </si>
+  <si>
+    <t>MME</t>
+  </si>
+  <si>
+    <t>KAVD</t>
+  </si>
+  <si>
+    <t>FIS</t>
+  </si>
+  <si>
     <t>0192</t>
   </si>
   <si>
+    <t>ZEM</t>
+  </si>
+  <si>
+    <t>ENME</t>
+  </si>
+  <si>
+    <t>KPYR</t>
+  </si>
+  <si>
+    <t>CAS</t>
+  </si>
+  <si>
+    <t>KFIS</t>
+  </si>
+  <si>
     <t>KCAS</t>
   </si>
   <si>
-    <t>IVF2</t>
-  </si>
-  <si>
-    <t>PDSA</t>
+    <t>KMIS</t>
   </si>
   <si>
     <t>AVD</t>
@@ -1302,54 +1273,18 @@
     <t>KVM</t>
   </si>
   <si>
-    <t>FIS</t>
-  </si>
-  <si>
-    <t>KPYR</t>
+    <t>EDAV</t>
+  </si>
+  <si>
+    <t>IVF1</t>
+  </si>
+  <si>
+    <t>PYR</t>
   </si>
   <si>
     <t>MIS</t>
   </si>
   <si>
-    <t>ZEM</t>
-  </si>
-  <si>
-    <t>ENME</t>
-  </si>
-  <si>
-    <t>A192</t>
-  </si>
-  <si>
-    <t>MME</t>
-  </si>
-  <si>
-    <t>EDAV</t>
-  </si>
-  <si>
-    <t>EPYR</t>
-  </si>
-  <si>
-    <t>KAVD</t>
-  </si>
-  <si>
-    <t>KFIS</t>
-  </si>
-  <si>
-    <t>KPDSA</t>
-  </si>
-  <si>
-    <t>CAS</t>
-  </si>
-  <si>
-    <t>PYR</t>
-  </si>
-  <si>
-    <t>IVF1</t>
-  </si>
-  <si>
-    <t>KMIS</t>
-  </si>
-  <si>
     <t>P534</t>
   </si>
   <si>
@@ -1362,114 +1297,114 @@
     <t>N001</t>
   </si>
   <si>
+    <t>KSOC</t>
+  </si>
+  <si>
+    <t>KAPC</t>
+  </si>
+  <si>
+    <t>PGH</t>
+  </si>
+  <si>
+    <t>EDSY</t>
+  </si>
+  <si>
+    <t>KPRI</t>
+  </si>
+  <si>
+    <t>SOC</t>
+  </si>
+  <si>
+    <t>BET</t>
+  </si>
+  <si>
+    <t>PRI</t>
+  </si>
+  <si>
+    <t>PSM</t>
+  </si>
+  <si>
+    <t>EDEP</t>
+  </si>
+  <si>
+    <t>KZPP</t>
+  </si>
+  <si>
+    <t>APC</t>
+  </si>
+  <si>
+    <t>ESOC</t>
+  </si>
+  <si>
+    <t>KDSW</t>
+  </si>
+  <si>
+    <t>EDHW</t>
+  </si>
+  <si>
+    <t>DIS</t>
+  </si>
+  <si>
+    <t>ZPP</t>
+  </si>
+  <si>
+    <t>PSI2</t>
+  </si>
+  <si>
+    <t>DEP</t>
+  </si>
+  <si>
+    <t>DSY</t>
+  </si>
+  <si>
+    <t>PIN</t>
+  </si>
+  <si>
+    <t>BIT</t>
+  </si>
+  <si>
+    <t>EDSW</t>
+  </si>
+  <si>
+    <t>DSW</t>
+  </si>
+  <si>
+    <t>EPIN</t>
+  </si>
+  <si>
+    <t>UKR</t>
+  </si>
+  <si>
+    <t>DHW</t>
+  </si>
+  <si>
+    <t>KDSY</t>
+  </si>
+  <si>
     <t>KBET</t>
   </si>
   <si>
-    <t>KDSY</t>
+    <t>KPIN</t>
+  </si>
+  <si>
+    <t>KDIS</t>
+  </si>
+  <si>
+    <t>KPGH</t>
+  </si>
+  <si>
+    <t>PSI1</t>
+  </si>
+  <si>
+    <t>KDEP</t>
   </si>
   <si>
     <t>KDHW</t>
   </si>
   <si>
-    <t>DSW</t>
-  </si>
-  <si>
-    <t>EPIN</t>
-  </si>
-  <si>
-    <t>BIT</t>
-  </si>
-  <si>
-    <t>PIN</t>
-  </si>
-  <si>
-    <t>EDEP</t>
-  </si>
-  <si>
-    <t>KDEP</t>
-  </si>
-  <si>
-    <t>EDSY</t>
-  </si>
-  <si>
-    <t>KDIS</t>
-  </si>
-  <si>
-    <t>PGH</t>
-  </si>
-  <si>
-    <t>BET</t>
-  </si>
-  <si>
-    <t>KSOC</t>
-  </si>
-  <si>
-    <t>KPRI</t>
-  </si>
-  <si>
-    <t>KDSW</t>
-  </si>
-  <si>
-    <t>EDSW</t>
-  </si>
-  <si>
-    <t>SOC</t>
-  </si>
-  <si>
-    <t>PRI</t>
-  </si>
-  <si>
-    <t>DSY</t>
-  </si>
-  <si>
-    <t>KPIN</t>
-  </si>
-  <si>
-    <t>DIS</t>
-  </si>
-  <si>
-    <t>PSI2</t>
-  </si>
-  <si>
-    <t>KAPC</t>
-  </si>
-  <si>
-    <t>ZPP</t>
-  </si>
-  <si>
-    <t>EDHW</t>
-  </si>
-  <si>
-    <t>KZPP</t>
-  </si>
-  <si>
-    <t>PSI1</t>
-  </si>
-  <si>
-    <t>PSM</t>
-  </si>
-  <si>
-    <t>APC</t>
-  </si>
-  <si>
     <t>KPSM</t>
   </si>
   <si>
-    <t>ESOC</t>
-  </si>
-  <si>
-    <t>UKR</t>
-  </si>
-  <si>
-    <t>DHW</t>
-  </si>
-  <si>
-    <t>KPGH</t>
-  </si>
-  <si>
-    <t>DEP</t>
-  </si>
-  <si>
     <t>PD06</t>
   </si>
   <si>
@@ -1500,12 +1435,12 @@
     <t>N109</t>
   </si>
   <si>
+    <t>NA18</t>
+  </si>
+  <si>
     <t>PD53</t>
   </si>
   <si>
-    <t>NA18</t>
-  </si>
-  <si>
     <t>PSP</t>
   </si>
   <si>
@@ -1530,24 +1465,24 @@
     <t>0150</t>
   </si>
   <si>
+    <t>N024</t>
+  </si>
+  <si>
     <t>ME201</t>
   </si>
   <si>
-    <t>N024</t>
-  </si>
-  <si>
     <t>E115</t>
   </si>
   <si>
     <t>N050</t>
   </si>
   <si>
+    <t>M209</t>
+  </si>
+  <si>
     <t>M407</t>
   </si>
   <si>
-    <t>M209</t>
-  </si>
-  <si>
     <t>0177</t>
   </si>
   <si>
@@ -1566,90 +1501,93 @@
     <t>N211</t>
   </si>
   <si>
+    <t>M104</t>
+  </si>
+  <si>
     <t>P750</t>
   </si>
   <si>
+    <t>P861</t>
+  </si>
+  <si>
+    <t>P230</t>
+  </si>
+  <si>
     <t>0231</t>
   </si>
   <si>
-    <t>P861</t>
+    <t>P839</t>
   </si>
   <si>
     <t>AP04</t>
   </si>
   <si>
-    <t>P230</t>
-  </si>
-  <si>
-    <t>P839</t>
-  </si>
-  <si>
     <t>N060</t>
   </si>
   <si>
+    <t>EFORT</t>
+  </si>
+  <si>
+    <t>P234</t>
+  </si>
+  <si>
+    <t>PZOS</t>
+  </si>
+  <si>
+    <t>KPZOS</t>
+  </si>
+  <si>
+    <t>PMC</t>
+  </si>
+  <si>
+    <t>KPMC</t>
+  </si>
+  <si>
+    <t>K215</t>
+  </si>
+  <si>
     <t>K220</t>
   </si>
   <si>
-    <t>PMC</t>
-  </si>
-  <si>
-    <t>P234</t>
-  </si>
-  <si>
-    <t>EFORT</t>
+    <t>P364</t>
+  </si>
+  <si>
+    <t>P523</t>
+  </si>
+  <si>
+    <t>FORT</t>
   </si>
   <si>
     <t>K513</t>
   </si>
   <si>
-    <t>K215</t>
-  </si>
-  <si>
-    <t>P523</t>
-  </si>
-  <si>
-    <t>KPMC</t>
-  </si>
-  <si>
-    <t>PZOS</t>
-  </si>
-  <si>
-    <t>FORT</t>
-  </si>
-  <si>
     <t>KFORT</t>
   </si>
   <si>
-    <t>KPZOS</t>
-  </si>
-  <si>
     <t>P240</t>
   </si>
   <si>
-    <t>P364</t>
-  </si>
-  <si>
     <t>VFIN</t>
   </si>
   <si>
+    <t>P529</t>
+  </si>
+  <si>
     <t>P629</t>
   </si>
   <si>
-    <t>P529</t>
+    <t>BP205</t>
+  </si>
+  <si>
+    <t>BK205</t>
+  </si>
+  <si>
+    <t>E126</t>
   </si>
   <si>
     <t>PD04</t>
   </si>
   <si>
-    <t>BK205</t>
-  </si>
-  <si>
-    <t>E126</t>
-  </si>
-  <si>
-    <t>BP205</t>
-  </si>
-  <si>
     <t>AMAT</t>
   </si>
   <si>
@@ -1662,15 +1600,45 @@
     <t>M211</t>
   </si>
   <si>
+    <t>BK314</t>
+  </si>
+  <si>
     <t>B314</t>
   </si>
   <si>
-    <t>BK314</t>
-  </si>
-  <si>
     <t>PD55</t>
   </si>
   <si>
+    <t>N200</t>
+  </si>
+  <si>
+    <t>BP422</t>
+  </si>
+  <si>
+    <t>BP300</t>
+  </si>
+  <si>
+    <t>E107</t>
+  </si>
+  <si>
+    <t>N018</t>
+  </si>
+  <si>
+    <t>K411</t>
+  </si>
+  <si>
+    <t>N030</t>
+  </si>
+  <si>
+    <t>BK300</t>
+  </si>
+  <si>
+    <t>BK422</t>
+  </si>
+  <si>
+    <t>E123</t>
+  </si>
+  <si>
     <t>P208</t>
   </si>
   <si>
@@ -1689,57 +1657,42 @@
     <t>ME302</t>
   </si>
   <si>
-    <t>PD66</t>
+    <t>EDMR</t>
   </si>
   <si>
     <t>EMLR</t>
   </si>
   <si>
-    <t>EDMR</t>
-  </si>
-  <si>
     <t>PD307</t>
   </si>
   <si>
     <t>K413</t>
   </si>
   <si>
+    <t>P335</t>
+  </si>
+  <si>
     <t>K312</t>
   </si>
   <si>
-    <t>P335</t>
+    <t>B106</t>
   </si>
   <si>
     <t>BK106</t>
   </si>
   <si>
-    <t>B106</t>
-  </si>
-  <si>
     <t>OPR</t>
   </si>
   <si>
+    <t>OMLM</t>
+  </si>
+  <si>
     <t>EOMLM</t>
   </si>
   <si>
     <t>KOPR</t>
   </si>
   <si>
-    <t>OMLM</t>
-  </si>
-  <si>
-    <t>BK302</t>
-  </si>
-  <si>
-    <t>KB302</t>
-  </si>
-  <si>
-    <t>PB302</t>
-  </si>
-  <si>
-    <t>BP302</t>
-  </si>
-  <si>
     <t>'prof. RNDr. Rudolf Hrach DrSc.'</t>
   </si>
   <si>
@@ -1752,33 +1705,33 @@
     <t>'Ing. Miroslav Richter Ph.D.'</t>
   </si>
   <si>
+    <t>'doc. RNDr. Jaromír Hajer CSc.'</t>
+  </si>
+  <si>
     <t>'doc. RNDr. Jaromír Hajer CSc.</t>
   </si>
   <si>
-    <t>'doc. RNDr. Jaromír Hajer CSc.'</t>
-  </si>
-  <si>
     <t>'doc. RNDr. Karel Kubát CSc.'</t>
   </si>
   <si>
+    <t>'doc. MUDr. Vladislav Mareš DrSc.</t>
+  </si>
+  <si>
     <t>'doc. MUDr. Vladislav Mareš DrSc.'</t>
   </si>
   <si>
-    <t>'doc. MUDr. Vladislav Mareš DrSc.</t>
-  </si>
-  <si>
     <t>'prof. RNDr. Stanislav Novák CSc.</t>
   </si>
   <si>
     <t>'prof. RNDr. Stanislav Novák CSc.'</t>
   </si>
   <si>
+    <t>'doc. RNDr. Dušan Novotný CSc.</t>
+  </si>
+  <si>
     <t>'doc. RNDr. Dušan Novotný CSc.'</t>
   </si>
   <si>
-    <t>'doc. RNDr. Dušan Novotný CSc.</t>
-  </si>
-  <si>
     <t>'doc. RNDr. Martin Balej Ph.D.'</t>
   </si>
   <si>
@@ -1806,12 +1759,12 @@
     <t>'Mgr. Tomáš Oršulák</t>
   </si>
   <si>
+    <t>'prof. Ing. Pavel Janoš CSc.</t>
+  </si>
+  <si>
     <t>'prof. Ing. Pavel Janoš CSc.'</t>
   </si>
   <si>
-    <t>'prof. Ing. Pavel Janoš CSc.</t>
-  </si>
-  <si>
     <t>'doc. RNDr. František Fiala'</t>
   </si>
   <si>
@@ -1836,18 +1789,15 @@
     <t>'Mgr. Květuše Sýkorová</t>
   </si>
   <si>
+    <t>'Ing. Richard Pokorný DiS., Ph.D.'</t>
+  </si>
+  <si>
     <t>'doc. RNDr. Ladislav Skokan CSc.'</t>
   </si>
   <si>
     <t>'Ing. Lucie Povolná Ph.D.'</t>
   </si>
   <si>
-    <t>'doc. Ing. Jan Čermák CSc.'</t>
-  </si>
-  <si>
-    <t>'doc. Ing. Jan Čermák CSc.</t>
-  </si>
-  <si>
     <t>'Ing. Miroslav Hlávka Ph.D.'</t>
   </si>
   <si>
@@ -1902,12 +1852,12 @@
     <t>'Mgr. Zuzana Pavlasová'</t>
   </si>
   <si>
+    <t>'doc. RNDr. Mgr. Viktor Maškov DrSc.'</t>
+  </si>
+  <si>
     <t>'doc. RNDr. Mgr. Viktor Maškov DrSc.</t>
   </si>
   <si>
-    <t>'doc. RNDr. Mgr. Viktor Maškov DrSc.'</t>
-  </si>
-  <si>
     <t>'doc. RNDr. Karel Oliva Dr.</t>
   </si>
   <si>
@@ -2016,6 +1966,9 @@
     <t>'Ing. Johana Jackovičová Ph.D.</t>
   </si>
   <si>
+    <t>'Ing. Jitka Tolaszová Ph.D.</t>
+  </si>
+  <si>
     <t>'doc. Mgr. Pavel Kudrna'</t>
   </si>
   <si>
@@ -2073,6 +2026,12 @@
     <t>'Ing. Marcela Munzarová Ph.D.'</t>
   </si>
   <si>
+    <t>'Mgr. Michaela Czerneková Ph.D.'</t>
+  </si>
+  <si>
+    <t>'Mgr. Michaela Czerneková Ph.D.</t>
+  </si>
+  <si>
     <t>'PaedDr. Milan Kubiatko PhD.'</t>
   </si>
   <si>
@@ -2091,15 +2050,12 @@
     <t>'Ing. Tomáš Vomastek Ph.D.'</t>
   </si>
   <si>
-    <t>'doc. RNDr. Bohumír Opic DrSc.'</t>
+    <t>'Ricardo Rodriguez Jorge Ph.D.</t>
   </si>
   <si>
     <t>'Ricardo Rodriguez Jorge Ph.D.'</t>
   </si>
   <si>
-    <t>'Ricardo Rodriguez Jorge Ph.D.</t>
-  </si>
-  <si>
     <t>'Ing. Tadeáš Riley Wangle Ph.D.'</t>
   </si>
   <si>
@@ -2119,9 +2075,6 @@
   </si>
   <si>
     <t>'Ing. Ondřej Vozár'</t>
-  </si>
-  <si>
-    <t>'RNDr. Jan Klečka Ph.D.'</t>
   </si>
 </sst>
 </file>
@@ -2183,8 +2136,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:D381" totalsRowShown="0">
-  <autoFilter ref="A1:D381"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:D375" totalsRowShown="0">
+  <autoFilter ref="A1:D375"/>
   <tableColumns count="4">
     <tableColumn id="1" name="nazev" dataDxfId="0"/>
     <tableColumn id="2" name="zkratka" dataDxfId="0"/>
@@ -2480,7 +2433,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D381"/>
+  <dimension ref="A1:D375"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2505,13 +2458,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C2" s="2">
         <v>69</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2519,13 +2472,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C3" s="2">
         <v>69</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2533,41 +2486,41 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C4" s="2">
         <v>69</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C5" s="2">
         <v>69</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C6" s="2">
         <v>69</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2575,13 +2528,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C7" s="2">
         <v>130</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>575</v>
+        <v>559</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2589,13 +2542,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C8" s="2">
         <v>130</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>575</v>
+        <v>559</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2603,13 +2556,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C9" s="2">
         <v>198</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2617,13 +2570,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C10" s="2">
         <v>198</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2631,13 +2584,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C11" s="2">
         <v>198</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2645,13 +2598,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C12" s="2">
         <v>199</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>577</v>
+        <v>561</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2659,13 +2612,13 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C13" s="2">
         <v>199</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>577</v>
+        <v>561</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2673,13 +2626,13 @@
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C14" s="2">
         <v>199</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>577</v>
+        <v>561</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2687,13 +2640,13 @@
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C15" s="2">
         <v>278</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>578</v>
+        <v>562</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2701,27 +2654,27 @@
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C16" s="2">
         <v>278</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>579</v>
+        <v>562</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C17" s="2">
         <v>278</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>578</v>
+        <v>563</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2729,41 +2682,41 @@
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C18" s="2">
         <v>278</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>579</v>
+        <v>562</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C19" s="2">
         <v>278</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>578</v>
+        <v>563</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C20" s="2">
         <v>278</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>578</v>
+        <v>563</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2771,41 +2724,41 @@
         <v>14</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C21" s="2">
         <v>278</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>579</v>
+        <v>563</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C22" s="2">
         <v>278</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>578</v>
+        <v>562</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C23" s="2">
         <v>278</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>579</v>
+        <v>563</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2813,13 +2766,13 @@
         <v>16</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C24" s="2">
         <v>279</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2827,41 +2780,41 @@
         <v>17</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C25" s="2">
         <v>279</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C26" s="2">
         <v>279</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C27" s="2">
         <v>279</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2869,27 +2822,27 @@
         <v>19</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C28" s="2">
         <v>279</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C29" s="2">
         <v>279</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2897,55 +2850,55 @@
         <v>20</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C30" s="2">
         <v>279</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C31" s="2">
         <v>279</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C32" s="2">
         <v>279</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C33" s="2">
         <v>279</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2953,69 +2906,69 @@
         <v>20</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C34" s="2">
         <v>279</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C35" s="2">
         <v>279</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C36" s="2">
         <v>279</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C37" s="2">
         <v>279</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C38" s="2">
         <v>279</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3023,13 +2976,13 @@
         <v>21</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C39" s="2">
         <v>279</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -3037,41 +2990,41 @@
         <v>22</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C40" s="2">
         <v>281</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>581</v>
+        <v>565</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C41" s="2">
         <v>281</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>581</v>
+        <v>565</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C42" s="2">
         <v>281</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>582</v>
+        <v>566</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -3079,13 +3032,13 @@
         <v>24</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C43" s="2">
         <v>281</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>582</v>
+        <v>566</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -3093,13 +3046,13 @@
         <v>25</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C44" s="2">
         <v>306</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>583</v>
+        <v>567</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3107,13 +3060,13 @@
         <v>26</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C45" s="2">
         <v>306</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>584</v>
+        <v>568</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -3121,13 +3074,13 @@
         <v>27</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>258</v>
+        <v>281</v>
       </c>
       <c r="C46" s="2">
         <v>306</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>584</v>
+        <v>568</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3135,13 +3088,13 @@
         <v>28</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="C47" s="2">
         <v>306</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>584</v>
+        <v>568</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -3149,13 +3102,13 @@
         <v>29</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C48" s="2">
         <v>306</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>583</v>
+        <v>567</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -3163,13 +3116,13 @@
         <v>25</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C49" s="2">
         <v>306</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>583</v>
+        <v>567</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -3177,13 +3130,13 @@
         <v>30</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C50" s="2">
         <v>307</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>585</v>
+        <v>569</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -3191,13 +3144,13 @@
         <v>31</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C51" s="2">
         <v>307</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>585</v>
+        <v>570</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -3205,13 +3158,13 @@
         <v>32</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C52" s="2">
         <v>307</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>585</v>
+        <v>570</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -3219,13 +3172,13 @@
         <v>33</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C53" s="2">
         <v>307</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>585</v>
+        <v>570</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -3233,13 +3186,13 @@
         <v>34</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C54" s="2">
         <v>307</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>585</v>
+        <v>570</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -3247,13 +3200,13 @@
         <v>35</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C55" s="2">
         <v>307</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>585</v>
+        <v>570</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -3261,13 +3214,13 @@
         <v>36</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C56" s="2">
         <v>307</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>585</v>
+        <v>569</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -3275,181 +3228,181 @@
         <v>37</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C57" s="2">
         <v>307</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>586</v>
+        <v>570</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C58" s="2">
         <v>307</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>585</v>
+        <v>570</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C59" s="2">
         <v>307</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>585</v>
+        <v>570</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C60" s="2">
         <v>307</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>585</v>
+        <v>570</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C61" s="2">
         <v>307</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>586</v>
+        <v>570</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C62" s="2">
         <v>307</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>585</v>
+        <v>570</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C63" s="2">
         <v>307</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>585</v>
+        <v>570</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C64" s="2">
         <v>307</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>585</v>
+        <v>570</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C65" s="2">
         <v>307</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>585</v>
+        <v>570</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C66" s="2">
         <v>307</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>585</v>
+        <v>570</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C67" s="2">
         <v>307</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>585</v>
+        <v>570</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C68" s="2">
         <v>307</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>585</v>
+        <v>570</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C69" s="2">
         <v>307</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>585</v>
+        <v>570</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -3457,27 +3410,27 @@
         <v>45</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C70" s="2">
         <v>307</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>585</v>
+        <v>570</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C71" s="2">
         <v>307</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>585</v>
+        <v>570</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -3485,13 +3438,13 @@
         <v>46</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C72" s="2">
         <v>307</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>585</v>
+        <v>570</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -3499,55 +3452,55 @@
         <v>47</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C73" s="2">
         <v>307</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>585</v>
+        <v>570</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C74" s="2">
         <v>307</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>585</v>
+        <v>570</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C75" s="2">
         <v>307</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>585</v>
+        <v>570</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C76" s="2">
         <v>307</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>585</v>
+        <v>570</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -3555,13 +3508,13 @@
         <v>49</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>262</v>
+        <v>311</v>
       </c>
       <c r="C77" s="2">
         <v>313</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>587</v>
+        <v>571</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -3569,13 +3522,13 @@
         <v>50</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C78" s="2">
         <v>313</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>588</v>
+        <v>572</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3583,13 +3536,13 @@
         <v>51</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>317</v>
+        <v>258</v>
       </c>
       <c r="C79" s="2">
         <v>313</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>588</v>
+        <v>571</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -3597,13 +3550,13 @@
         <v>52</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C80" s="2">
         <v>313</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>587</v>
+        <v>572</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3611,13 +3564,13 @@
         <v>53</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C81" s="2">
         <v>313</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>588</v>
+        <v>572</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3625,13 +3578,13 @@
         <v>54</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C82" s="2">
         <v>314</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>589</v>
+        <v>573</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3639,13 +3592,13 @@
         <v>55</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C83" s="2">
         <v>316</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>590</v>
+        <v>574</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3653,41 +3606,41 @@
         <v>56</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C84" s="2">
         <v>336</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>591</v>
+        <v>575</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C85" s="2">
         <v>336</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>591</v>
+        <v>575</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C86" s="2">
         <v>336</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>591</v>
+        <v>575</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3695,13 +3648,13 @@
         <v>57</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C87" s="2">
         <v>336</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>591</v>
+        <v>575</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3709,13 +3662,13 @@
         <v>58</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C88" s="2">
         <v>423</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>592</v>
+        <v>576</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3723,167 +3676,167 @@
         <v>59</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C89" s="2">
         <v>423</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>592</v>
+        <v>576</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C90" s="2">
         <v>423</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>592</v>
+        <v>576</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C91" s="2">
         <v>423</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>592</v>
+        <v>576</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C92" s="2">
         <v>423</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>592</v>
+        <v>576</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C93" s="2">
         <v>423</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>592</v>
+        <v>576</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C94" s="2">
         <v>423</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>592</v>
+        <v>576</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C95" s="2">
         <v>423</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>592</v>
+        <v>576</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C96" s="2">
         <v>423</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>592</v>
+        <v>576</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C97" s="2">
         <v>423</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>592</v>
+        <v>576</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C98" s="2">
         <v>423</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>592</v>
+        <v>576</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C99" s="2">
         <v>423</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>592</v>
+        <v>576</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C100" s="2">
         <v>423</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>592</v>
+        <v>576</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3891,13 +3844,13 @@
         <v>68</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C101" s="2">
         <v>423</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>592</v>
+        <v>576</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3905,13 +3858,13 @@
         <v>69</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C102" s="2">
         <v>423</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>592</v>
+        <v>576</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3919,13 +3872,13 @@
         <v>70</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C103" s="2">
         <v>449</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>593</v>
+        <v>577</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3933,13 +3886,13 @@
         <v>71</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C104" s="2">
         <v>449</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>593</v>
+        <v>577</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3947,13 +3900,13 @@
         <v>72</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C105" s="2">
         <v>449</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3961,13 +3914,13 @@
         <v>73</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C106" s="2">
         <v>449</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>593</v>
+        <v>577</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3975,13 +3928,13 @@
         <v>74</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C107" s="2">
         <v>449</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3989,125 +3942,125 @@
         <v>75</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C108" s="2">
         <v>449</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C109" s="2">
         <v>449</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C110" s="2">
         <v>449</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>593</v>
+        <v>578</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C111" s="2">
         <v>449</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C112" s="2">
         <v>449</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>594</v>
+        <v>577</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C113" s="2">
         <v>449</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>593</v>
+        <v>578</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C114" s="2">
         <v>449</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C115" s="2">
         <v>449</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>594</v>
+        <v>577</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C116" s="2">
         <v>449</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -4115,13 +4068,13 @@
         <v>78</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C117" s="2">
         <v>451</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>595</v>
+        <v>579</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -4129,83 +4082,83 @@
         <v>79</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C118" s="2">
         <v>550</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>596</v>
+        <v>580</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C119" s="2">
         <v>550</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>597</v>
+        <v>580</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>279</v>
+        <v>353</v>
       </c>
       <c r="C120" s="2">
         <v>550</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>597</v>
+        <v>580</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>358</v>
+        <v>269</v>
       </c>
       <c r="C121" s="2">
         <v>550</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>596</v>
+        <v>580</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C122" s="2">
         <v>550</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>597</v>
+        <v>581</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C123" s="2">
         <v>550</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>597</v>
+        <v>581</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -4213,41 +4166,41 @@
         <v>84</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C124" s="2">
         <v>605</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>598</v>
+        <v>582</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="1" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C125" s="2">
         <v>606</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>599</v>
+        <v>583</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="1" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C126" s="2">
         <v>606</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>599</v>
+        <v>583</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -4255,13 +4208,13 @@
         <v>86</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C127" s="2">
         <v>606</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>600</v>
+        <v>584</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -4269,27 +4222,27 @@
         <v>87</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C128" s="2">
         <v>612</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>601</v>
+        <v>585</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C129" s="2">
         <v>719</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -4297,13 +4250,13 @@
         <v>88</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C130" s="2">
         <v>816</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>603</v>
+        <v>587</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -4311,13 +4264,13 @@
         <v>89</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C131" s="2">
         <v>816</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>603</v>
+        <v>587</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -4325,13 +4278,13 @@
         <v>90</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C132" s="2">
         <v>835</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>604</v>
+        <v>588</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -4339,13 +4292,13 @@
         <v>91</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C133" s="2">
         <v>835</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>604</v>
+        <v>589</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -4353,13 +4306,13 @@
         <v>91</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C134" s="2">
         <v>835</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>605</v>
+        <v>589</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -4367,13 +4320,13 @@
         <v>92</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C135" s="2">
         <v>835</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>604</v>
+        <v>589</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -4381,83 +4334,83 @@
         <v>93</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C136" s="2">
         <v>835</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>605</v>
+        <v>588</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="C137" s="2">
         <v>835</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>604</v>
+        <v>588</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="C138" s="2">
         <v>835</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>604</v>
+        <v>588</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="C139" s="2">
         <v>835</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>604</v>
+        <v>588</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="C140" s="2">
         <v>835</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>604</v>
+        <v>588</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C141" s="2">
         <v>835</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>604</v>
+        <v>588</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -4465,41 +4418,41 @@
         <v>95</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="C142" s="2">
         <v>835</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>604</v>
+        <v>588</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C143" s="2">
         <v>835</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>605</v>
+        <v>588</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C144" s="2">
         <v>835</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>604</v>
+        <v>588</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -4507,615 +4460,615 @@
         <v>96</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C145" s="2">
-        <v>920</v>
+        <v>839</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>606</v>
+        <v>590</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C146" s="2">
-        <v>1057</v>
+        <v>839</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>607</v>
+        <v>590</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C147" s="2">
-        <v>1064</v>
+        <v>920</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>608</v>
+        <v>591</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C148" s="2">
-        <v>1064</v>
+        <v>1057</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>609</v>
+        <v>592</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C149" s="2">
-        <v>1064</v>
+        <v>1067</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>609</v>
+        <v>593</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>386</v>
+        <v>354</v>
       </c>
       <c r="C150" s="2">
-        <v>1064</v>
+        <v>1115</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>609</v>
+        <v>594</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C151" s="2">
-        <v>1064</v>
+        <v>1456</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>608</v>
+        <v>595</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>258</v>
+        <v>382</v>
       </c>
       <c r="C152" s="2">
-        <v>1064</v>
+        <v>1537</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C153" s="2">
-        <v>1064</v>
+        <v>1537</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C154" s="2">
-        <v>1064</v>
+        <v>1546</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C155" s="2">
-        <v>1064</v>
+        <v>1546</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="C156" s="2">
-        <v>1064</v>
+        <v>1546</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C157" s="2">
-        <v>1064</v>
+        <v>1546</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="C158" s="2">
-        <v>1064</v>
+        <v>1553</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C159" s="2">
-        <v>1064</v>
+        <v>1569</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C160" s="2">
-        <v>1064</v>
+        <v>1590</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="C161" s="2">
-        <v>1064</v>
+        <v>1590</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="1" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C162" s="2">
-        <v>1064</v>
+        <v>1590</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="1" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C163" s="2">
-        <v>1064</v>
+        <v>1633</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="1" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C164" s="2">
-        <v>1064</v>
+        <v>1775</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="C165" s="2">
-        <v>1064</v>
+        <v>1986</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="1" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="C166" s="2">
-        <v>1064</v>
+        <v>1986</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="1" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="C167" s="2">
-        <v>1067</v>
+        <v>2028</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="1" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>358</v>
+        <v>398</v>
       </c>
       <c r="C168" s="2">
-        <v>1115</v>
+        <v>2142</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="1" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>403</v>
+        <v>364</v>
       </c>
       <c r="C169" s="2">
-        <v>1456</v>
+        <v>2220</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="1" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>404</v>
+        <v>365</v>
       </c>
       <c r="C170" s="2">
-        <v>1537</v>
+        <v>2220</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="C171" s="2">
-        <v>1537</v>
+        <v>2220</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="1" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>406</v>
+        <v>366</v>
       </c>
       <c r="C172" s="2">
-        <v>1546</v>
+        <v>2220</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="1" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="C173" s="2">
-        <v>1546</v>
+        <v>2220</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="C174" s="2">
-        <v>1546</v>
+        <v>2220</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="C175" s="2">
-        <v>1546</v>
+        <v>2220</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="1" t="s">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>410</v>
+        <v>341</v>
       </c>
       <c r="C176" s="2">
-        <v>1553</v>
+        <v>2220</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="C177" s="2">
-        <v>1569</v>
+        <v>2220</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C178" s="2">
-        <v>1590</v>
+        <v>2220</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="1" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>413</v>
+        <v>344</v>
       </c>
       <c r="C179" s="2">
-        <v>1590</v>
+        <v>2220</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="C180" s="2">
-        <v>1590</v>
+        <v>2220</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="C181" s="2">
-        <v>1633</v>
+        <v>2220</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="C182" s="2">
-        <v>1775</v>
+        <v>2220</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="C183" s="2">
-        <v>1986</v>
+        <v>2220</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>620</v>
+        <v>606</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="C184" s="2">
-        <v>1986</v>
+        <v>2220</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>620</v>
+        <v>606</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="C185" s="2">
-        <v>2028</v>
+        <v>2220</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>621</v>
+        <v>606</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="C186" s="2">
-        <v>2142</v>
+        <v>2220</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="1" t="s">
-        <v>75</v>
+        <v>127</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="C187" s="2">
         <v>2220</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>623</v>
+        <v>607</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="C188" s="2">
         <v>2220</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>623</v>
+        <v>607</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -5123,41 +5076,41 @@
         <v>127</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="C189" s="2">
         <v>2220</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>624</v>
+        <v>607</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="1" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>370</v>
+        <v>415</v>
       </c>
       <c r="C190" s="2">
         <v>2220</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>623</v>
+        <v>607</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C191" s="2">
         <v>2220</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>623</v>
+        <v>606</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -5165,13 +5118,13 @@
         <v>129</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="C192" s="2">
         <v>2220</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>623</v>
+        <v>606</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -5179,13 +5132,13 @@
         <v>130</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C193" s="2">
         <v>2220</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>623</v>
+        <v>606</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -5193,83 +5146,83 @@
         <v>131</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="C194" s="2">
         <v>2220</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>623</v>
+        <v>606</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="1" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="C195" s="2">
         <v>2220</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>624</v>
+        <v>606</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="1" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>372</v>
+        <v>421</v>
       </c>
       <c r="C196" s="2">
         <v>2220</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>623</v>
+        <v>607</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="C197" s="2">
-        <v>2220</v>
+        <v>2227</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>623</v>
+        <v>608</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="C198" s="2">
-        <v>2220</v>
+        <v>2227</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>624</v>
+        <v>609</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="1" t="s">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>346</v>
+        <v>424</v>
       </c>
       <c r="C199" s="2">
-        <v>2220</v>
+        <v>2227</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>623</v>
+        <v>608</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -5277,13 +5230,13 @@
         <v>135</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C200" s="2">
-        <v>2220</v>
+        <v>2232</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>623</v>
+        <v>610</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -5291,13 +5244,13 @@
         <v>136</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="C201" s="2">
-        <v>2220</v>
+        <v>2239</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -5305,13 +5258,13 @@
         <v>137</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="C202" s="2">
-        <v>2220</v>
+        <v>2239</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -5319,13 +5272,13 @@
         <v>138</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="C203" s="2">
-        <v>2220</v>
+        <v>2239</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>624</v>
+        <v>611</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -5333,321 +5286,321 @@
         <v>139</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C204" s="2">
-        <v>2220</v>
+        <v>2239</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="1" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="C205" s="2">
-        <v>2220</v>
+        <v>2239</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="C206" s="2">
-        <v>2220</v>
+        <v>2239</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="1" t="s">
-        <v>91</v>
+        <v>141</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>379</v>
+        <v>432</v>
       </c>
       <c r="C207" s="2">
-        <v>2220</v>
+        <v>2239</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="1" t="s">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>352</v>
+        <v>433</v>
       </c>
       <c r="C208" s="2">
-        <v>2220</v>
+        <v>2239</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="1" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C209" s="2">
-        <v>2220</v>
+        <v>2239</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>624</v>
+        <v>611</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="1" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C210" s="2">
-        <v>2220</v>
+        <v>2239</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="1" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C211" s="2">
-        <v>2220</v>
+        <v>2239</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>624</v>
+        <v>611</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C212" s="2">
-        <v>2220</v>
+        <v>2239</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C213" s="2">
-        <v>2220</v>
+        <v>2239</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="1" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C214" s="2">
-        <v>2220</v>
+        <v>2239</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>624</v>
+        <v>611</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C215" s="2">
-        <v>2227</v>
+        <v>2239</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>625</v>
+        <v>611</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C216" s="2">
-        <v>2227</v>
+        <v>2239</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>626</v>
+        <v>611</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C217" s="2">
-        <v>2227</v>
+        <v>2239</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>625</v>
+        <v>611</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="1" t="s">
-        <v>144</v>
+        <v>75</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>447</v>
+        <v>400</v>
       </c>
       <c r="C218" s="2">
-        <v>2232</v>
+        <v>2239</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>627</v>
+        <v>612</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="1" t="s">
-        <v>75</v>
+        <v>148</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>421</v>
+        <v>443</v>
       </c>
       <c r="C219" s="2">
         <v>2239</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>628</v>
+        <v>611</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C220" s="2">
         <v>2239</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>629</v>
+        <v>611</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="1" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>449</v>
+        <v>402</v>
       </c>
       <c r="C221" s="2">
         <v>2239</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>629</v>
+        <v>612</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="C222" s="2">
         <v>2239</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>629</v>
+        <v>611</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="C223" s="2">
         <v>2239</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>629</v>
+        <v>611</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="C224" s="2">
         <v>2239</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>629</v>
+        <v>611</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="1" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>453</v>
+        <v>404</v>
       </c>
       <c r="C225" s="2">
         <v>2239</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>629</v>
+        <v>612</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="1" t="s">
-        <v>151</v>
+        <v>94</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>454</v>
+        <v>370</v>
       </c>
       <c r="C226" s="2">
         <v>2239</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>629</v>
+        <v>612</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -5655,405 +5608,405 @@
         <v>152</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="C227" s="2">
         <v>2239</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>629</v>
+        <v>611</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="1" t="s">
-        <v>153</v>
+        <v>94</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>456</v>
+        <v>372</v>
       </c>
       <c r="C228" s="2">
         <v>2239</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>629</v>
+        <v>612</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="1" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="C229" s="2">
         <v>2239</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>629</v>
+        <v>611</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="1" t="s">
-        <v>153</v>
+        <v>95</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>458</v>
+        <v>373</v>
       </c>
       <c r="C230" s="2">
         <v>2239</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>629</v>
+        <v>612</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="C231" s="2">
         <v>2239</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>629</v>
+        <v>611</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="1" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>425</v>
+        <v>451</v>
       </c>
       <c r="C232" s="2">
         <v>2239</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>628</v>
+        <v>611</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="1" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="C233" s="2">
         <v>2239</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>629</v>
+        <v>611</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="C234" s="2">
         <v>2239</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>629</v>
+        <v>611</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="1" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="C235" s="2">
         <v>2239</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>629</v>
+        <v>611</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="C236" s="2">
         <v>2239</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>629</v>
+        <v>611</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="1" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="C237" s="2">
         <v>2239</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>629</v>
+        <v>611</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="1" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="C238" s="2">
         <v>2239</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>629</v>
+        <v>611</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="1" t="s">
-        <v>94</v>
+        <v>156</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>373</v>
+        <v>458</v>
       </c>
       <c r="C239" s="2">
         <v>2239</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>628</v>
+        <v>611</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="1" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="C240" s="2">
         <v>2239</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>629</v>
+        <v>611</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="1" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="C241" s="2">
         <v>2239</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>629</v>
+        <v>611</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="1" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="C242" s="2">
         <v>2239</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>629</v>
+        <v>611</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="1" t="s">
-        <v>153</v>
+        <v>91</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>469</v>
+        <v>364</v>
       </c>
       <c r="C243" s="2">
-        <v>2239</v>
+        <v>2240</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>629</v>
+        <v>613</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="1" t="s">
-        <v>159</v>
+        <v>91</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>470</v>
+        <v>365</v>
       </c>
       <c r="C244" s="2">
-        <v>2239</v>
+        <v>2240</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>629</v>
+        <v>613</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="1" t="s">
-        <v>160</v>
+        <v>76</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>471</v>
+        <v>346</v>
       </c>
       <c r="C245" s="2">
-        <v>2239</v>
+        <v>2240</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>629</v>
+        <v>614</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="C246" s="2">
-        <v>2239</v>
+        <v>2428</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>629</v>
+        <v>615</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="C247" s="2">
-        <v>2239</v>
+        <v>2428</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>629</v>
+        <v>615</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="C248" s="2">
-        <v>2239</v>
+        <v>2441</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>629</v>
+        <v>616</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="C249" s="2">
-        <v>2239</v>
+        <v>2441</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>629</v>
+        <v>616</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="1" t="s">
-        <v>95</v>
+        <v>160</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>378</v>
+        <v>466</v>
       </c>
       <c r="C250" s="2">
-        <v>2239</v>
+        <v>2527</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="1" t="s">
-        <v>164</v>
+        <v>106</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>476</v>
+        <v>387</v>
       </c>
       <c r="C251" s="2">
-        <v>2239</v>
+        <v>2757</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="C252" s="2">
-        <v>2239</v>
+        <v>2758</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="1" t="s">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>439</v>
+        <v>468</v>
       </c>
       <c r="C253" s="2">
-        <v>2239</v>
+        <v>2787</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="C254" s="2">
-        <v>2239</v>
+        <v>2821</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="1" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="C255" s="2">
-        <v>2239</v>
+        <v>2821</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -6061,853 +6014,853 @@
         <v>165</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>480</v>
+        <v>313</v>
       </c>
       <c r="C256" s="2">
-        <v>2239</v>
+        <v>3096</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="1" t="s">
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>380</v>
+        <v>248</v>
       </c>
       <c r="C257" s="2">
-        <v>2239</v>
+        <v>3175</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="1" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>481</v>
+        <v>422</v>
       </c>
       <c r="C258" s="2">
-        <v>2239</v>
+        <v>3176</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="1" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="C259" s="2">
-        <v>2239</v>
+        <v>3176</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="1" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="C260" s="2">
-        <v>2239</v>
+        <v>3420</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="1" t="s">
-        <v>91</v>
+        <v>168</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>370</v>
+        <v>473</v>
       </c>
       <c r="C261" s="2">
-        <v>2240</v>
+        <v>3420</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="1" t="s">
-        <v>91</v>
+        <v>169</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>379</v>
+        <v>474</v>
       </c>
       <c r="C262" s="2">
-        <v>2240</v>
+        <v>3458</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="1" t="s">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>354</v>
+        <v>475</v>
       </c>
       <c r="C263" s="2">
-        <v>2240</v>
+        <v>4175</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="C264" s="2">
-        <v>2428</v>
+        <v>4176</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="1" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="C265" s="2">
-        <v>2428</v>
+        <v>4177</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="1" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="C266" s="2">
-        <v>2441</v>
+        <v>4195</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="1" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="C267" s="2">
-        <v>2441</v>
+        <v>4195</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="1" t="s">
-        <v>169</v>
+        <v>23</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>488</v>
+        <v>277</v>
       </c>
       <c r="C268" s="2">
-        <v>2527</v>
+        <v>4208</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="1" t="s">
-        <v>113</v>
+        <v>174</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>407</v>
+        <v>480</v>
       </c>
       <c r="C269" s="2">
-        <v>2757</v>
+        <v>4213</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="1" t="s">
-        <v>170</v>
+        <v>106</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>489</v>
+        <v>387</v>
       </c>
       <c r="C270" s="2">
-        <v>2758</v>
+        <v>4219</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="C271" s="2">
-        <v>2787</v>
+        <v>4227</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="C272" s="2">
-        <v>2821</v>
+        <v>4264</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="C273" s="2">
-        <v>2821</v>
+        <v>4264</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>317</v>
+        <v>484</v>
       </c>
       <c r="C274" s="2">
-        <v>3096</v>
+        <v>4390</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="1" t="s">
-        <v>10</v>
+        <v>179</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>253</v>
+        <v>485</v>
       </c>
       <c r="C275" s="2">
-        <v>3175</v>
+        <v>4394</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="1" t="s">
-        <v>141</v>
+        <v>180</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>444</v>
+        <v>486</v>
       </c>
       <c r="C276" s="2">
-        <v>3176</v>
+        <v>4397</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="1" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="C277" s="2">
-        <v>3176</v>
+        <v>4397</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="1" t="s">
-        <v>176</v>
+        <v>127</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>494</v>
+        <v>412</v>
       </c>
       <c r="C278" s="2">
-        <v>3420</v>
+        <v>4533</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="1" t="s">
-        <v>177</v>
+        <v>127</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>495</v>
+        <v>414</v>
       </c>
       <c r="C279" s="2">
-        <v>3420</v>
+        <v>4533</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="C280" s="2">
-        <v>3458</v>
+        <v>4685</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="1" t="s">
-        <v>179</v>
+        <v>108</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>497</v>
+        <v>389</v>
       </c>
       <c r="C281" s="2">
-        <v>4175</v>
+        <v>4691</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>498</v>
+        <v>324</v>
       </c>
       <c r="C282" s="2">
-        <v>4176</v>
+        <v>4747</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="C283" s="2">
-        <v>4177</v>
+        <v>4951</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="C284" s="2">
-        <v>4195</v>
+        <v>5039</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="C285" s="2">
-        <v>4195</v>
+        <v>5062</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="1" t="s">
-        <v>22</v>
+        <v>186</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>280</v>
+        <v>482</v>
       </c>
       <c r="C286" s="2">
-        <v>4208</v>
+        <v>5062</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>502</v>
+        <v>396</v>
       </c>
       <c r="C287" s="2">
-        <v>4213</v>
+        <v>5062</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="1" t="s">
-        <v>113</v>
+        <v>188</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>407</v>
+        <v>492</v>
       </c>
       <c r="C288" s="2">
-        <v>4219</v>
+        <v>5062</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="1" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="C289" s="2">
-        <v>4227</v>
+        <v>5063</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="1" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>504</v>
+        <v>466</v>
       </c>
       <c r="C290" s="2">
-        <v>4264</v>
+        <v>5131</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="1" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="C291" s="2">
-        <v>4264</v>
+        <v>5135</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="C292" s="2">
-        <v>4390</v>
+        <v>5199</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="1" t="s">
-        <v>188</v>
+        <v>4</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="C293" s="2">
-        <v>4394</v>
+        <v>5201</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="C294" s="2">
-        <v>4397</v>
+        <v>5201</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="1" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="C295" s="2">
-        <v>4397</v>
+        <v>5201</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="1" t="s">
-        <v>127</v>
+        <v>4</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>423</v>
+        <v>499</v>
       </c>
       <c r="C296" s="2">
-        <v>4533</v>
+        <v>5201</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="1" t="s">
-        <v>127</v>
+        <v>194</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>440</v>
+        <v>500</v>
       </c>
       <c r="C297" s="2">
-        <v>4533</v>
+        <v>5201</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="1" t="s">
-        <v>190</v>
+        <v>116</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>510</v>
+        <v>398</v>
       </c>
       <c r="C298" s="2">
-        <v>4685</v>
+        <v>5309</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="1" t="s">
-        <v>117</v>
+        <v>195</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>411</v>
+        <v>501</v>
       </c>
       <c r="C299" s="2">
-        <v>4691</v>
+        <v>5472</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="1" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>330</v>
+        <v>502</v>
       </c>
       <c r="C300" s="2">
-        <v>4747</v>
+        <v>5958</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="1" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="C301" s="2">
-        <v>4951</v>
+        <v>5958</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="1" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="C302" s="2">
-        <v>5039</v>
+        <v>5958</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="1" t="s">
-        <v>194</v>
+        <v>25</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>513</v>
+        <v>279</v>
       </c>
       <c r="C303" s="2">
-        <v>5062</v>
+        <v>5958</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>417</v>
+        <v>505</v>
       </c>
       <c r="C304" s="2">
-        <v>5062</v>
+        <v>5958</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C305" s="2">
-        <v>5062</v>
+        <v>5958</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="C306" s="2">
-        <v>5062</v>
+        <v>5958</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C307" s="2">
-        <v>5063</v>
+        <v>5958</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="1" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>488</v>
+        <v>509</v>
       </c>
       <c r="C308" s="2">
-        <v>5131</v>
+        <v>5958</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="C309" s="2">
-        <v>5199</v>
+        <v>5958</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="C310" s="2">
-        <v>5201</v>
+        <v>5958</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="1" t="s">
-        <v>4</v>
+        <v>202</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="C311" s="2">
-        <v>5201</v>
+        <v>5958</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="1" t="s">
-        <v>201</v>
+        <v>29</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>519</v>
+        <v>282</v>
       </c>
       <c r="C312" s="2">
-        <v>5201</v>
+        <v>5958</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="1" t="s">
-        <v>202</v>
+        <v>25</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>520</v>
+        <v>283</v>
       </c>
       <c r="C313" s="2">
-        <v>5201</v>
+        <v>5958</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="1" t="s">
-        <v>4</v>
+        <v>203</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="C314" s="2">
-        <v>5201</v>
+        <v>5958</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="1" t="s">
-        <v>125</v>
+        <v>202</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>420</v>
+        <v>514</v>
       </c>
       <c r="C315" s="2">
-        <v>5309</v>
+        <v>5958</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="C316" s="2">
-        <v>5472</v>
+        <v>5958</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>669</v>
+        <v>654</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -6915,13 +6868,13 @@
         <v>204</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="C317" s="2">
-        <v>5958</v>
+        <v>6120</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>670</v>
+        <v>656</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -6929,41 +6882,41 @@
         <v>205</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="C318" s="2">
-        <v>5958</v>
+        <v>6383</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>670</v>
+        <v>657</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="C319" s="2">
-        <v>5958</v>
+        <v>6383</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>670</v>
+        <v>657</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="1" t="s">
-        <v>206</v>
+        <v>53</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>526</v>
+        <v>314</v>
       </c>
       <c r="C320" s="2">
-        <v>5958</v>
+        <v>6387</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -6971,27 +6924,27 @@
         <v>207</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="C321" s="2">
-        <v>5958</v>
+        <v>6543</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>670</v>
+        <v>659</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="C322" s="2">
-        <v>5958</v>
+        <v>6543</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>670</v>
+        <v>659</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -6999,55 +6952,55 @@
         <v>208</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="C323" s="2">
-        <v>5958</v>
+        <v>6543</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="C324" s="2">
-        <v>5958</v>
+        <v>6543</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>670</v>
+        <v>659</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="1" t="s">
-        <v>25</v>
+        <v>183</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>284</v>
+        <v>489</v>
       </c>
       <c r="C325" s="2">
-        <v>5958</v>
+        <v>6633</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="1" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>531</v>
+        <v>516</v>
       </c>
       <c r="C326" s="2">
-        <v>5958</v>
+        <v>6773</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -7055,13 +7008,13 @@
         <v>210</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="C327" s="2">
-        <v>5958</v>
+        <v>6886</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -7069,755 +7022,671 @@
         <v>210</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="C328" s="2">
-        <v>5958</v>
+        <v>6886</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="C329" s="2">
-        <v>5958</v>
+        <v>6920</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="1" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="C330" s="2">
-        <v>5958</v>
+        <v>7152</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="1" t="s">
-        <v>29</v>
+        <v>213</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>287</v>
+        <v>526</v>
       </c>
       <c r="C331" s="2">
-        <v>5958</v>
+        <v>7307</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="1" t="s">
-        <v>25</v>
+        <v>214</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>288</v>
+        <v>527</v>
       </c>
       <c r="C332" s="2">
-        <v>5958</v>
+        <v>7776</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="C333" s="2">
-        <v>5958</v>
+        <v>7776</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="C334" s="2">
-        <v>6120</v>
+        <v>7805</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>538</v>
+        <v>357</v>
       </c>
       <c r="C335" s="2">
-        <v>6383</v>
+        <v>8018</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="1" t="s">
-        <v>214</v>
+        <v>11</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>539</v>
+        <v>250</v>
       </c>
       <c r="C336" s="2">
-        <v>6383</v>
+        <v>8018</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="1" t="s">
-        <v>50</v>
+        <v>216</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>316</v>
+        <v>530</v>
       </c>
       <c r="C337" s="2">
-        <v>6387</v>
+        <v>8018</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="C338" s="2">
-        <v>6543</v>
+        <v>8018</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="C339" s="2">
-        <v>6543</v>
+        <v>8018</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="C340" s="2">
-        <v>6543</v>
+        <v>8018</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="1" t="s">
-        <v>216</v>
+        <v>12</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="C341" s="2">
-        <v>6543</v>
+        <v>8018</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="1" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>511</v>
+        <v>535</v>
       </c>
       <c r="C342" s="2">
-        <v>6633</v>
+        <v>8018</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="1" t="s">
-        <v>212</v>
+        <v>12</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>537</v>
+        <v>251</v>
       </c>
       <c r="C343" s="2">
-        <v>6773</v>
+        <v>8018</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="1" t="s">
-        <v>218</v>
+        <v>11</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="C344" s="2">
-        <v>6886</v>
+        <v>8018</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="1" t="s">
-        <v>218</v>
+        <v>12</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>544</v>
+        <v>252</v>
       </c>
       <c r="C345" s="2">
-        <v>6886</v>
+        <v>8018</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="1" t="s">
-        <v>219</v>
+        <v>12</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>545</v>
+        <v>255</v>
       </c>
       <c r="C346" s="2">
-        <v>6920</v>
+        <v>8018</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="C347" s="2">
-        <v>7152</v>
+        <v>8018</v>
       </c>
       <c r="D347" s="1" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="C348" s="2">
-        <v>7307</v>
+        <v>8018</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>682</v>
+        <v>669</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="C349" s="2">
-        <v>7776</v>
+        <v>8018</v>
       </c>
       <c r="D349" s="1" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="1" t="s">
-        <v>222</v>
+        <v>12</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>549</v>
+        <v>258</v>
       </c>
       <c r="C350" s="2">
-        <v>7776</v>
+        <v>8018</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="C351" s="2">
-        <v>7805</v>
+        <v>8021</v>
       </c>
       <c r="D351" s="1" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="C352" s="2">
         <v>8021</v>
       </c>
       <c r="D352" s="1" t="s">
-        <v>685</v>
+        <v>671</v>
       </c>
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="C353" s="2">
-        <v>8021</v>
+        <v>8073</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>685</v>
+        <v>672</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="C354" s="2">
-        <v>8073</v>
+        <v>8074</v>
       </c>
       <c r="D354" s="1" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="C355" s="2">
-        <v>8074</v>
+        <v>8075</v>
       </c>
       <c r="D355" s="1" t="s">
-        <v>687</v>
+        <v>674</v>
       </c>
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="1" t="s">
-        <v>228</v>
+        <v>158</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>555</v>
+        <v>464</v>
       </c>
       <c r="C356" s="2">
-        <v>8075</v>
+        <v>8316</v>
       </c>
       <c r="D356" s="1" t="s">
-        <v>688</v>
+        <v>675</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="1" t="s">
-        <v>167</v>
+        <v>225</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>486</v>
+        <v>545</v>
       </c>
       <c r="C357" s="2">
-        <v>8316</v>
+        <v>8422</v>
       </c>
       <c r="D357" s="1" t="s">
-        <v>689</v>
+        <v>676</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="1" t="s">
-        <v>229</v>
+        <v>117</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>556</v>
+        <v>399</v>
       </c>
       <c r="C358" s="2">
-        <v>8422</v>
+        <v>8514</v>
       </c>
       <c r="D358" s="1" t="s">
-        <v>690</v>
+        <v>677</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="C359" s="2">
-        <v>8438</v>
+        <v>8514</v>
       </c>
       <c r="D359" s="1" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="C360" s="2">
         <v>8514</v>
       </c>
       <c r="D360" s="1" t="s">
-        <v>692</v>
+        <v>678</v>
       </c>
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="1" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="C361" s="2">
         <v>8514</v>
       </c>
       <c r="D361" s="1" t="s">
-        <v>693</v>
+        <v>677</v>
       </c>
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="1" t="s">
-        <v>133</v>
+        <v>228</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>436</v>
+        <v>548</v>
       </c>
       <c r="C362" s="2">
-        <v>8514</v>
+        <v>8515</v>
       </c>
       <c r="D362" s="1" t="s">
-        <v>693</v>
+        <v>679</v>
       </c>
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>559</v>
+        <v>259</v>
       </c>
       <c r="C363" s="2">
-        <v>8514</v>
+        <v>8677</v>
       </c>
       <c r="D363" s="1" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="C364" s="2">
-        <v>8515</v>
+        <v>8677</v>
       </c>
       <c r="D364" s="1" t="s">
-        <v>694</v>
+        <v>680</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
       <c r="C365" s="2">
-        <v>8677</v>
+        <v>8748</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>695</v>
+        <v>681</v>
       </c>
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>275</v>
+        <v>551</v>
       </c>
       <c r="C366" s="2">
-        <v>8677</v>
+        <v>8748</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>695</v>
+        <v>681</v>
       </c>
     </row>
     <row r="367" spans="1:4">
       <c r="A367" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>562</v>
+        <v>293</v>
       </c>
       <c r="C367" s="2">
-        <v>8748</v>
+        <v>8750</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>696</v>
+        <v>682</v>
       </c>
     </row>
     <row r="368" spans="1:4">
       <c r="A368" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="C368" s="2">
-        <v>8748</v>
+        <v>8815</v>
       </c>
       <c r="D368" s="1" t="s">
-        <v>696</v>
+        <v>683</v>
       </c>
     </row>
     <row r="369" spans="1:4">
       <c r="A369" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>289</v>
+        <v>553</v>
       </c>
       <c r="C369" s="2">
-        <v>8750</v>
+        <v>8815</v>
       </c>
       <c r="D369" s="1" t="s">
-        <v>697</v>
+        <v>683</v>
       </c>
     </row>
     <row r="370" spans="1:4">
       <c r="A370" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="C370" s="2">
-        <v>8815</v>
+        <v>9114</v>
       </c>
       <c r="D370" s="1" t="s">
-        <v>698</v>
+        <v>684</v>
       </c>
     </row>
     <row r="371" spans="1:4">
       <c r="A371" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="C371" s="2">
-        <v>8815</v>
+        <v>9114</v>
       </c>
       <c r="D371" s="1" t="s">
-        <v>698</v>
+        <v>684</v>
       </c>
     </row>
     <row r="372" spans="1:4">
       <c r="A372" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="C372" s="2">
         <v>9114</v>
       </c>
       <c r="D372" s="1" t="s">
-        <v>699</v>
+        <v>684</v>
       </c>
     </row>
     <row r="373" spans="1:4">
       <c r="A373" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="C373" s="2">
         <v>9114</v>
       </c>
       <c r="D373" s="1" t="s">
-        <v>699</v>
+        <v>684</v>
       </c>
     </row>
     <row r="374" spans="1:4">
       <c r="A374" s="1" t="s">
-        <v>239</v>
+        <v>127</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>568</v>
+        <v>412</v>
       </c>
       <c r="C374" s="2">
-        <v>9114</v>
+        <v>9304</v>
       </c>
       <c r="D374" s="1" t="s">
-        <v>699</v>
+        <v>685</v>
       </c>
     </row>
     <row r="375" spans="1:4">
       <c r="A375" s="1" t="s">
-        <v>241</v>
+        <v>127</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>569</v>
+        <v>414</v>
       </c>
       <c r="C375" s="2">
-        <v>9114</v>
+        <v>9304</v>
       </c>
       <c r="D375" s="1" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4">
-      <c r="A376" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B376" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="C376" s="2">
-        <v>9304</v>
-      </c>
-      <c r="D376" s="1" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="377" spans="1:4">
-      <c r="A377" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B377" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="C377" s="2">
-        <v>9304</v>
-      </c>
-      <c r="D377" s="1" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="378" spans="1:4">
-      <c r="A378" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B378" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="C378" s="2">
-        <v>9624</v>
-      </c>
-      <c r="D378" s="1" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="379" spans="1:4">
-      <c r="A379" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B379" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="C379" s="2">
-        <v>9624</v>
-      </c>
-      <c r="D379" s="1" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="380" spans="1:4">
-      <c r="A380" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B380" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="C380" s="2">
-        <v>9624</v>
-      </c>
-      <c r="D380" s="1" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="381" spans="1:4">
-      <c r="A381" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B381" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="C381" s="2">
-        <v>9624</v>
-      </c>
-      <c r="D381" s="1" t="s">
-        <v>701</v>
+        <v>685</v>
       </c>
     </row>
   </sheetData>

--- a/results_xlsx/prednasejici_bez_prednasek.xlsx
+++ b/results_xlsx/prednasejici_bez_prednasek.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="680">
   <si>
     <t>nazev</t>
   </si>
@@ -28,15 +28,15 @@
     <t>jmena</t>
   </si>
   <si>
+    <t>Základy počítačové fyziky</t>
+  </si>
+  <si>
+    <t>Počítačové modelování IV</t>
+  </si>
+  <si>
     <t>Fyzika pevných látek I</t>
   </si>
   <si>
-    <t>Základy počítačové fyziky</t>
-  </si>
-  <si>
-    <t>Počítačové modelování IV</t>
-  </si>
-  <si>
     <t>Demografie</t>
   </si>
   <si>
@@ -49,25 +49,28 @@
     <t>Technologie ochrany životního prostředí</t>
   </si>
   <si>
-    <t>Vybrané kapitoly z etologie bezobratlých</t>
+    <t>Fylogeneze a systém bezobratlých</t>
+  </si>
+  <si>
+    <t>Vědecká komunikace v biologii</t>
+  </si>
+  <si>
+    <t>Fauna ČR</t>
   </si>
   <si>
     <t>Biologie členovců</t>
   </si>
   <si>
-    <t>Fauna ČR</t>
-  </si>
-  <si>
-    <t>Vědecká komunikace v biologii</t>
-  </si>
-  <si>
-    <t>Fylogeneze a systém bezobratlých</t>
+    <t>Fylogeneze a systém vyšších rostlin</t>
+  </si>
+  <si>
+    <t>Biogeografie</t>
   </si>
   <si>
     <t>Obecná botanika</t>
   </si>
   <si>
-    <t>Fylogeneze a systém vyšších rostlin</t>
+    <t>Geobotanika</t>
   </si>
   <si>
     <t>Flóra ČR</t>
@@ -76,12 +79,6 @@
     <t>Biologické principy ochrany přírody</t>
   </si>
   <si>
-    <t>Geobotanika</t>
-  </si>
-  <si>
-    <t>Biogeografie</t>
-  </si>
-  <si>
     <t>Fyziologie živočichů a člověka</t>
   </si>
   <si>
@@ -94,73 +91,79 @@
     <t>Úvod do počítačového modelování</t>
   </si>
   <si>
+    <t>Vakuová fyzika a technika</t>
+  </si>
+  <si>
     <t>Vybrané partie z fyziky</t>
   </si>
   <si>
-    <t>Vakuová fyzika a technika</t>
+    <t>Počítačové simulace v nanotechnologiích</t>
   </si>
   <si>
     <t>Fyzikální vlastnosti tenkých vrstev</t>
   </si>
   <si>
-    <t>Počítačové simulace v nanotechnologiích</t>
-  </si>
-  <si>
     <t>Sel. parts of the theory of el. fields</t>
   </si>
   <si>
+    <t>Teorie relativity</t>
+  </si>
+  <si>
+    <t>Teorie elektromagnetického pole</t>
+  </si>
+  <si>
+    <t>Speciální teorie relativity</t>
+  </si>
+  <si>
+    <t>Vybr. partie z teorie el. pole</t>
+  </si>
+  <si>
+    <t>Úvod do kvantové fyziky a spektroskopie</t>
+  </si>
+  <si>
+    <t>Vybrané partie z teorie elektromag. pole</t>
+  </si>
+  <si>
+    <t>Fyzika I</t>
+  </si>
+  <si>
+    <t>PVK - Vyb.partie z teoretické fyziky I</t>
+  </si>
+  <si>
+    <t>Vybrané partie z teoretické fyziky I</t>
+  </si>
+  <si>
+    <t>Kvantová fyzika I</t>
+  </si>
+  <si>
     <t>Vybrané partie z kvantové fyziky</t>
   </si>
   <si>
-    <t>Vybrané partie z teorie elektromag. pole</t>
-  </si>
-  <si>
-    <t>Úvod do kvantové fyziky a spektroskopie</t>
+    <t>VK-Teorie relativity</t>
+  </si>
+  <si>
+    <t>Kvantová fyzika</t>
+  </si>
+  <si>
+    <t>Kvantová fyzika II</t>
+  </si>
+  <si>
+    <t>Základy kvantové chemie a spektra mol.</t>
+  </si>
+  <si>
+    <t>Fyzika</t>
+  </si>
+  <si>
+    <t>PVK - Vyb.partie z teoretické fyziky II</t>
   </si>
   <si>
     <t>Kvantová mechanika</t>
   </si>
   <si>
-    <t>Základy kvantové chemie a spektra mol.</t>
-  </si>
-  <si>
-    <t>Vybr. partie z teorie el. pole</t>
-  </si>
-  <si>
-    <t>Kvantová fyzika I</t>
-  </si>
-  <si>
-    <t>Vybrané partie z teoretické fyziky I</t>
-  </si>
-  <si>
-    <t>Kvantová fyzika</t>
-  </si>
-  <si>
-    <t>Speciální teorie relativity</t>
-  </si>
-  <si>
-    <t>Teorie elektromagnetického pole</t>
-  </si>
-  <si>
-    <t>Teorie relativity</t>
-  </si>
-  <si>
-    <t>Fyzika I</t>
-  </si>
-  <si>
-    <t>Fyzika</t>
-  </si>
-  <si>
-    <t>PVK - Vyb.partie z teoretické fyziky I</t>
-  </si>
-  <si>
-    <t>PVK - Vyb.partie z teoretické fyziky II</t>
-  </si>
-  <si>
-    <t>Kvantová fyzika II</t>
-  </si>
-  <si>
-    <t>VK-Teorie relativity</t>
+    <t>Krajinná ekologie</t>
+  </si>
+  <si>
+    <t>Vybrané kapitoly FG Evropy</t>
   </si>
   <si>
     <t>Metody geografického výzkumu krajiny</t>
@@ -169,48 +172,48 @@
     <t>Potenciál kulturní krajiny a GIS</t>
   </si>
   <si>
-    <t>Vybrané kapitoly FG Evropy</t>
-  </si>
-  <si>
     <t>Regional environmental change</t>
   </si>
   <si>
-    <t>Krajinná ekologie</t>
-  </si>
-  <si>
     <t>Problémové oblasti Česka</t>
   </si>
   <si>
     <t>Planetární geografie</t>
   </si>
   <si>
+    <t>Didaktika chemie I</t>
+  </si>
+  <si>
     <t>Didaktika chemie II - SŠ</t>
   </si>
   <si>
-    <t>Didaktika chemie I</t>
+    <t>Pokr. studium povrchů pomocí jader. met.</t>
+  </si>
+  <si>
+    <t>Atomová a jaderná fyzika</t>
+  </si>
+  <si>
+    <t>Iontové analytické metody</t>
+  </si>
+  <si>
+    <t>Fyzika energetických svazků iontů</t>
+  </si>
+  <si>
+    <t>Atomic and Nuclear Physics</t>
   </si>
   <si>
     <t>Simulation of the charged particle</t>
   </si>
   <si>
-    <t>Atomová a jaderná fyzika</t>
-  </si>
-  <si>
-    <t>Fyzika energetických svazků iontů</t>
-  </si>
-  <si>
-    <t>Pokr. studium povrchů pomocí jader. met.</t>
-  </si>
-  <si>
-    <t>Iontové analytické metody</t>
+    <t>Příprava mikro a nanostruktur</t>
+  </si>
+  <si>
+    <t>Studium povrchů pomocí jaderných metod</t>
   </si>
   <si>
     <t>Simulace průchodu nabitých částic</t>
   </si>
   <si>
-    <t>Atomic and Nuclear Physics</t>
-  </si>
-  <si>
     <t>Úvod do fyziky energet. svazků iontů</t>
   </si>
   <si>
@@ -220,54 +223,48 @@
     <t>Jaderné analytické metody</t>
   </si>
   <si>
-    <t>Příprava mikro a nanostruktur</t>
-  </si>
-  <si>
-    <t>Studium povrchů pomocí jaderných metod</t>
+    <t>Automata and Formal Language Theory</t>
+  </si>
+  <si>
+    <t>Teorie formálních jazyků</t>
+  </si>
+  <si>
+    <t>Teoretické základy informatiky</t>
+  </si>
+  <si>
+    <t>Numerické metody</t>
+  </si>
+  <si>
+    <t>Pokročilé numerické metody</t>
   </si>
   <si>
     <t>Teorie automatů a formálních jazyků</t>
   </si>
   <si>
-    <t>Teoretické základy informatiky</t>
-  </si>
-  <si>
-    <t>Pokročilé numerické metody</t>
+    <t>Optimalizace</t>
   </si>
   <si>
     <t>Theory of Automata and Formal Languages</t>
   </si>
   <si>
-    <t>Optimalizace</t>
-  </si>
-  <si>
-    <t>Numerické metody</t>
-  </si>
-  <si>
-    <t>Teorie formálních jazyků</t>
-  </si>
-  <si>
-    <t>Automata and Formal Language Theory</t>
-  </si>
-  <si>
     <t>VK-Regionální geografie Portugalska</t>
   </si>
   <si>
+    <t>Systém kvality a vyhodnocování dat</t>
+  </si>
+  <si>
+    <t>Stopová organická analýza</t>
+  </si>
+  <si>
+    <t>Hodnocení nebezpečných vlastností odpadů</t>
+  </si>
+  <si>
+    <t>Pokročilé instrumentální metody</t>
+  </si>
+  <si>
     <t>Analytická chemie ŽP NMgr.</t>
   </si>
   <si>
-    <t>Systém kvality a vyhodnocování dat</t>
-  </si>
-  <si>
-    <t>Stopová organická analýza</t>
-  </si>
-  <si>
-    <t>Hodnocení nebezpečných vlastností odpadů</t>
-  </si>
-  <si>
-    <t>Pokročilé instrumentální metody</t>
-  </si>
-  <si>
     <t>VK-Programování ATMEL I</t>
   </si>
   <si>
@@ -280,30 +277,30 @@
     <t>Programování B</t>
   </si>
   <si>
+    <t>Matematika pro informatiky</t>
+  </si>
+  <si>
     <t>Počítač. modelování - spojité modelování</t>
   </si>
   <si>
-    <t>Matematika pro informatiky</t>
+    <t>Základy kyberbezpečnosti</t>
+  </si>
+  <si>
+    <t>Základy kryptologie</t>
+  </si>
+  <si>
+    <t>Algoritmy a datové struktury</t>
+  </si>
+  <si>
+    <t>Algorithms and Data Structures</t>
+  </si>
+  <si>
+    <t>Aplikovaná kryptologie</t>
   </si>
   <si>
     <t>Samoopravné kódy</t>
   </si>
   <si>
-    <t>Algoritmy a datové struktury</t>
-  </si>
-  <si>
-    <t>Algorithms and Data Structures</t>
-  </si>
-  <si>
-    <t>Základy kryptologie</t>
-  </si>
-  <si>
-    <t>Základy kyberbezpečnosti</t>
-  </si>
-  <si>
-    <t>Aplikovaná kryptologie</t>
-  </si>
-  <si>
     <t>Paleontologie a paleoekologie</t>
   </si>
   <si>
@@ -325,31 +322,31 @@
     <t>Matematika III</t>
   </si>
   <si>
+    <t>Biologie a ekologie člověka I</t>
+  </si>
+  <si>
+    <t>Parasitology</t>
+  </si>
+  <si>
+    <t>Obecná parazitologie</t>
+  </si>
+  <si>
     <t>Obecná zoologie</t>
   </si>
   <si>
-    <t>Obecná parazitologie</t>
-  </si>
-  <si>
-    <t>Parasitology</t>
-  </si>
-  <si>
-    <t>Biologie a ekologie člověka I</t>
-  </si>
-  <si>
     <t>Approaches to regional histories</t>
   </si>
   <si>
     <t>Logistika</t>
+  </si>
+  <si>
+    <t>Komplexní analýza materiálů</t>
   </si>
   <si>
     <t>Met. analýz mat. 
 využ. el. mikroskopie</t>
   </si>
   <si>
-    <t>Komplexní analýza materiálů</t>
-  </si>
-  <si>
     <t>Metody analýz materiálů</t>
   </si>
   <si>
@@ -368,135 +365,135 @@
     <t>Veřejná správa</t>
   </si>
   <si>
+    <t>Projektové řízení a firemní IS</t>
+  </si>
+  <si>
+    <t>Podnikový management a IS</t>
+  </si>
+  <si>
+    <t>Časové řady</t>
+  </si>
+  <si>
+    <t>Informatika ve fyzice I</t>
+  </si>
+  <si>
+    <t>Analýza a vizualizace dat</t>
+  </si>
+  <si>
+    <t>Numerical Methods</t>
+  </si>
+  <si>
     <t>Python and R for Data Science</t>
   </si>
   <si>
+    <t>Data Analysis and Visualisation</t>
+  </si>
+  <si>
+    <t>Matematika v mikroekonomii</t>
+  </si>
+  <si>
+    <t>Informatika ve fyzice II</t>
+  </si>
+  <si>
+    <t>Pokročilé datové struktury a algoritmy</t>
+  </si>
+  <si>
+    <t>Výpočetní geometrie</t>
+  </si>
+  <si>
+    <t>Kvantitativní management</t>
+  </si>
+  <si>
+    <t>Základy ekonomie a managementu</t>
+  </si>
+  <si>
     <t>Computational Geometry</t>
   </si>
   <si>
-    <t>Pokročilé datové struktury a algoritmy</t>
-  </si>
-  <si>
-    <t>Informatika ve fyzice II</t>
-  </si>
-  <si>
-    <t>Matematika v mikroekonomii</t>
-  </si>
-  <si>
-    <t>Analýza a vizualizace dat</t>
-  </si>
-  <si>
-    <t>Projektové řízení a firemní IS</t>
-  </si>
-  <si>
-    <t>Výpočetní geometrie</t>
-  </si>
-  <si>
-    <t>Základy ekonomie a managementu</t>
-  </si>
-  <si>
-    <t>Numerical Methods</t>
-  </si>
-  <si>
-    <t>Časové řady</t>
-  </si>
-  <si>
-    <t>Podnikový management a IS</t>
-  </si>
-  <si>
-    <t>Kvantitativní management</t>
-  </si>
-  <si>
-    <t>Data Analysis and Visualisation</t>
-  </si>
-  <si>
-    <t>Informatika ve fyzice I</t>
+    <t>Elektromigrační metody</t>
+  </si>
+  <si>
+    <t>Analytická chemie Nmgr.</t>
   </si>
   <si>
     <t>Toxikologie rostl. a živočišných toxinů</t>
   </si>
   <si>
-    <t>Elektromigrační metody</t>
-  </si>
-  <si>
-    <t>Analytická chemie Nmgr.</t>
-  </si>
-  <si>
     <t>Didaktika geografie I</t>
   </si>
   <si>
+    <t>Bezpečnost IS/IT</t>
+  </si>
+  <si>
+    <t>Základy počítačových sítí a protokolů</t>
+  </si>
+  <si>
+    <t>Architektura počítačů</t>
+  </si>
+  <si>
     <t>Soft Computing</t>
   </si>
   <si>
-    <t>Architektura počítačů</t>
+    <t>Pokročilé statistické metody</t>
+  </si>
+  <si>
+    <t>Počítačové sítě I</t>
+  </si>
+  <si>
+    <t>Dependabilita informačních systémů</t>
+  </si>
+  <si>
+    <t>Úvod do kryptografie</t>
+  </si>
+  <si>
+    <t>Databázové systémy</t>
+  </si>
+  <si>
+    <t>Internet Programming</t>
   </si>
   <si>
     <t>Programování hardwaru</t>
   </si>
   <si>
+    <t>Dependabilita softwarových systémů</t>
+  </si>
+  <si>
+    <t>Počítačové sítě II</t>
+  </si>
+  <si>
+    <t>Dependabilita hardwarových systémů</t>
+  </si>
+  <si>
+    <t>Bezpečnostní technologie</t>
+  </si>
+  <si>
+    <t>Programování pro Internet</t>
+  </si>
+  <si>
+    <t>Programování pro internet</t>
+  </si>
+  <si>
+    <t>Dependability of Information Systems</t>
+  </si>
+  <si>
     <t>Database Systems</t>
   </si>
   <si>
-    <t>Programování pro internet</t>
-  </si>
-  <si>
-    <t>Bezpečnostní technologie</t>
-  </si>
-  <si>
-    <t>Pokročilé statistické metody</t>
-  </si>
-  <si>
-    <t>Dependability of Information Systems</t>
-  </si>
-  <si>
-    <t>Základy počítačových sítí a protokolů</t>
-  </si>
-  <si>
-    <t>Dependabilita softwarových systémů</t>
+    <t>Dependability of Software Systems</t>
   </si>
   <si>
     <t>Dependability of Hardware Systems</t>
   </si>
   <si>
-    <t>Dependabilita informačních systémů</t>
-  </si>
-  <si>
-    <t>Počítačové sítě II</t>
-  </si>
-  <si>
-    <t>Databázové systémy</t>
-  </si>
-  <si>
-    <t>Programování pro Internet</t>
-  </si>
-  <si>
-    <t>Bezpečnost IS/IT</t>
-  </si>
-  <si>
-    <t>Dependability of Software Systems</t>
-  </si>
-  <si>
-    <t>Internet Programming</t>
-  </si>
-  <si>
-    <t>Úvod do kryptografie</t>
-  </si>
-  <si>
-    <t>Dependabilita hardwarových systémů</t>
-  </si>
-  <si>
-    <t>Počítačové sítě I</t>
-  </si>
-  <si>
     <t>Struktura a vlastnosti polymerů</t>
   </si>
   <si>
+    <t>Labor. Techniq. in Mol. and Cell Biology</t>
+  </si>
+  <si>
     <t>Microscopy Techniques in Biology</t>
   </si>
   <si>
-    <t>Labor. Techniq. in Mol. and Cell Biology</t>
-  </si>
-  <si>
     <t>Ochrana přírody</t>
   </si>
   <si>
@@ -506,12 +503,12 @@
     <t>Geospatial data: sources and analysis</t>
   </si>
   <si>
+    <t>Finanční analýza</t>
+  </si>
+  <si>
     <t>Základy financí</t>
   </si>
   <si>
-    <t>Finanční analýza</t>
-  </si>
-  <si>
     <t>Anglický jazyk</t>
   </si>
   <si>
@@ -578,10 +575,10 @@
     <t>Klinická analýza</t>
   </si>
   <si>
+    <t>Klinická biochemie a patobiochemie</t>
+  </si>
+  <si>
     <t>Biochemie cizorodých látek</t>
-  </si>
-  <si>
-    <t>Klinická biochemie a patobiochemie</t>
   </si>
   <si>
     <t>Bioaktivní přírodní látky</t>
@@ -594,9 +591,6 @@
     <t>Fyzika plazmatu a plazmové technologie</t>
   </si>
   <si>
-    <t>Fyzika povrchů</t>
-  </si>
-  <si>
     <t>Principy a obvod. řešení el. spektometrů</t>
   </si>
   <si>
@@ -604,33 +598,36 @@
 využ. prin. el. spektr</t>
   </si>
   <si>
+    <t>Fyzika povrchů</t>
+  </si>
+  <si>
     <t>Srovnávací anatom. a morfol. obratlovců</t>
   </si>
   <si>
+    <t>Poč. mod. - zpracování obrazu a signálu</t>
+  </si>
+  <si>
+    <t>Programování - Fortran</t>
+  </si>
+  <si>
+    <t>Počítačové metody Monte Carlo</t>
+  </si>
+  <si>
+    <t>Počítačová grafika a zpracování obrazu</t>
+  </si>
+  <si>
     <t>Programming - Fortran</t>
   </si>
   <si>
-    <t>Poč. mod. - zpracování obrazu a signálu</t>
+    <t>Počítačové model. - částicové modelování</t>
+  </si>
+  <si>
+    <t>Poč. mod. - částicové modelování</t>
   </si>
   <si>
     <t>Počítačové zpracování obrazu a signálu</t>
   </si>
   <si>
-    <t>Počítačové metody Monte Carlo</t>
-  </si>
-  <si>
-    <t>Počítačová grafika a zpracování obrazu</t>
-  </si>
-  <si>
-    <t>Počítačové model. - částicové modelování</t>
-  </si>
-  <si>
-    <t>Programování - Fortran</t>
-  </si>
-  <si>
-    <t>Poč. mod. - částicové modelování</t>
-  </si>
-  <si>
     <t>Veřejné finance</t>
   </si>
   <si>
@@ -667,24 +664,27 @@
     <t>Přípr. a využití nanovlákenných struktur</t>
   </si>
   <si>
+    <t>Kryptobióza</t>
+  </si>
+  <si>
     <t>Ekologie</t>
   </si>
   <si>
-    <t>Kryptobióza</t>
-  </si>
-  <si>
     <t>Ecology</t>
   </si>
   <si>
     <t>Animal and Plant Models in Biology</t>
   </si>
   <si>
+    <t>Vybrané kapitoly z etologie bezobratlých</t>
+  </si>
+  <si>
+    <t>Didaktika biologie I</t>
+  </si>
+  <si>
     <t>Didaktika biologie II</t>
   </si>
   <si>
-    <t>Didaktika biologie I</t>
-  </si>
-  <si>
     <t>Nanoporézní materiály</t>
   </si>
   <si>
@@ -697,12 +697,12 @@
     <t>Regulace a poruchy signálních drah ž.b.</t>
   </si>
   <si>
+    <t>Machine Learning Based on R Software</t>
+  </si>
+  <si>
     <t>Data Mining Techniq. based on R Software</t>
   </si>
   <si>
-    <t>Machine Learning Based on R Software</t>
-  </si>
-  <si>
     <t>Materials and Technolog. for Sust. Soc.</t>
   </si>
   <si>
@@ -730,126 +730,117 @@
     <t>Optimiz. for Mach. Learning with MATLAB</t>
   </si>
   <si>
+    <t>P503</t>
+  </si>
+  <si>
+    <t>P403</t>
+  </si>
+  <si>
+    <t>K503</t>
+  </si>
+  <si>
     <t>K839</t>
   </si>
   <si>
-    <t>P503</t>
-  </si>
-  <si>
     <t>K403</t>
   </si>
   <si>
-    <t>K503</t>
-  </si>
-  <si>
-    <t>P403</t>
-  </si>
-  <si>
     <t>5DEMO</t>
   </si>
   <si>
     <t>FDEMO</t>
   </si>
   <si>
+    <t>KN11</t>
+  </si>
+  <si>
+    <t>P224</t>
+  </si>
+  <si>
     <t>N114</t>
   </si>
   <si>
-    <t>KN11</t>
-  </si>
-  <si>
-    <t>P224</t>
-  </si>
-  <si>
     <t>B315</t>
   </si>
   <si>
+    <t>BK315</t>
+  </si>
+  <si>
     <t>P414</t>
   </si>
   <si>
-    <t>BK315</t>
-  </si>
-  <si>
-    <t>MA100</t>
+    <t>P302</t>
+  </si>
+  <si>
+    <t>M100</t>
+  </si>
+  <si>
+    <t>N021</t>
+  </si>
+  <si>
+    <t>N052</t>
+  </si>
+  <si>
+    <t>M102</t>
   </si>
   <si>
     <t>P325</t>
   </si>
   <si>
-    <t>N102</t>
-  </si>
-  <si>
-    <t>N052</t>
-  </si>
-  <si>
-    <t>N021</t>
-  </si>
-  <si>
-    <t>KN102</t>
-  </si>
-  <si>
-    <t>M100</t>
-  </si>
-  <si>
-    <t>P302</t>
-  </si>
-  <si>
-    <t>M102</t>
+    <t>BK219</t>
+  </si>
+  <si>
+    <t>BP421</t>
+  </si>
+  <si>
+    <t>P112</t>
+  </si>
+  <si>
+    <t>KB219</t>
+  </si>
+  <si>
+    <t>K102</t>
+  </si>
+  <si>
+    <t>N025</t>
+  </si>
+  <si>
+    <t>P421</t>
+  </si>
+  <si>
+    <t>K410</t>
+  </si>
+  <si>
+    <t>BK421</t>
+  </si>
+  <si>
+    <t>MA204</t>
+  </si>
+  <si>
+    <t>BP219</t>
+  </si>
+  <si>
+    <t>MA300</t>
+  </si>
+  <si>
+    <t>PB219</t>
+  </si>
+  <si>
+    <t>MA200</t>
   </si>
   <si>
     <t>P103</t>
   </si>
   <si>
-    <t>PB219</t>
-  </si>
-  <si>
-    <t>BK219</t>
-  </si>
-  <si>
-    <t>MA204</t>
-  </si>
-  <si>
-    <t>MA300</t>
-  </si>
-  <si>
     <t>N064</t>
   </si>
   <si>
-    <t>MA200</t>
-  </si>
-  <si>
-    <t>BP421</t>
-  </si>
-  <si>
-    <t>KB219</t>
-  </si>
-  <si>
-    <t>K102</t>
-  </si>
-  <si>
-    <t>N025</t>
-  </si>
-  <si>
-    <t>K410</t>
-  </si>
-  <si>
-    <t>BP219</t>
-  </si>
-  <si>
-    <t>BK421</t>
-  </si>
-  <si>
-    <t>P112</t>
-  </si>
-  <si>
-    <t>P421</t>
+    <t>KB502</t>
   </si>
   <si>
     <t>PB502</t>
   </si>
   <si>
-    <t>KB502</t>
-  </si>
-  <si>
     <t>N016</t>
   </si>
   <si>
@@ -859,12 +850,12 @@
     <t>KUDPM</t>
   </si>
   <si>
+    <t>K218</t>
+  </si>
+  <si>
     <t>K414</t>
   </si>
   <si>
-    <t>K218</t>
-  </si>
-  <si>
     <t>PSVN</t>
   </si>
   <si>
@@ -874,82 +865,85 @@
     <t>CM101</t>
   </si>
   <si>
+    <t>K606</t>
+  </si>
+  <si>
+    <t>TEP</t>
+  </si>
+  <si>
+    <t>STR</t>
+  </si>
+  <si>
+    <t>PM101</t>
+  </si>
+  <si>
+    <t>P216</t>
+  </si>
+  <si>
+    <t>KSTR</t>
+  </si>
+  <si>
+    <t>PD203</t>
+  </si>
+  <si>
+    <t>K222</t>
+  </si>
+  <si>
+    <t>P606</t>
+  </si>
+  <si>
+    <t>K422</t>
+  </si>
+  <si>
+    <t>P938</t>
+  </si>
+  <si>
+    <t>K512</t>
+  </si>
+  <si>
     <t>PM100</t>
   </si>
   <si>
-    <t>PD203</t>
-  </si>
-  <si>
-    <t>P216</t>
+    <t>0164</t>
+  </si>
+  <si>
+    <t>P427</t>
+  </si>
+  <si>
+    <t>P737</t>
+  </si>
+  <si>
+    <t>P607</t>
+  </si>
+  <si>
+    <t>P508</t>
+  </si>
+  <si>
+    <t>P213</t>
+  </si>
+  <si>
+    <t>NA11</t>
+  </si>
+  <si>
+    <t>P231</t>
+  </si>
+  <si>
+    <t>K724</t>
+  </si>
+  <si>
+    <t>P509</t>
+  </si>
+  <si>
+    <t>K522</t>
+  </si>
+  <si>
+    <t>KKM</t>
   </si>
   <si>
     <t>KM</t>
   </si>
   <si>
-    <t>NA11</t>
-  </si>
-  <si>
-    <t>PM101</t>
-  </si>
-  <si>
-    <t>P509</t>
-  </si>
-  <si>
-    <t>P427</t>
-  </si>
-  <si>
-    <t>K512</t>
-  </si>
-  <si>
-    <t>P938</t>
-  </si>
-  <si>
-    <t>P737</t>
-  </si>
-  <si>
-    <t>KSTR</t>
-  </si>
-  <si>
-    <t>TEP</t>
-  </si>
-  <si>
-    <t>P508</t>
-  </si>
-  <si>
-    <t>K606</t>
-  </si>
-  <si>
-    <t>KKM</t>
-  </si>
-  <si>
-    <t>P606</t>
-  </si>
-  <si>
-    <t>K222</t>
-  </si>
-  <si>
-    <t>P231</t>
-  </si>
-  <si>
-    <t>K422</t>
-  </si>
-  <si>
-    <t>P213</t>
-  </si>
-  <si>
-    <t>K522</t>
-  </si>
-  <si>
-    <t>P607</t>
-  </si>
-  <si>
-    <t>K724</t>
-  </si>
-  <si>
-    <t>0164</t>
-  </si>
-  <si>
-    <t>STR</t>
+    <t>B303</t>
   </si>
   <si>
     <t>M409</t>
@@ -961,15 +955,15 @@
     <t>PD103</t>
   </si>
   <si>
-    <t>B303</t>
-  </si>
-  <si>
     <t>0154</t>
   </si>
   <si>
     <t>B102</t>
   </si>
   <si>
+    <t>N115</t>
+  </si>
+  <si>
     <t>KN22</t>
   </si>
   <si>
@@ -979,174 +973,171 @@
     <t>N304</t>
   </si>
   <si>
-    <t>N115</t>
+    <t>AP14</t>
+  </si>
+  <si>
+    <t>KATOM</t>
+  </si>
+  <si>
+    <t>ATOM</t>
+  </si>
+  <si>
+    <t>PD200</t>
+  </si>
+  <si>
+    <t>PD101</t>
+  </si>
+  <si>
+    <t>E511</t>
   </si>
   <si>
     <t>CM306</t>
   </si>
   <si>
+    <t>PMNS</t>
+  </si>
+  <si>
+    <t>PM203</t>
+  </si>
+  <si>
     <t>P511</t>
   </si>
   <si>
-    <t>ATOM</t>
-  </si>
-  <si>
-    <t>PD101</t>
-  </si>
-  <si>
-    <t>AP14</t>
-  </si>
-  <si>
-    <t>PD200</t>
+    <t>PM306</t>
+  </si>
+  <si>
+    <t>AP09</t>
   </si>
   <si>
     <t>K401</t>
   </si>
   <si>
-    <t>PM306</t>
-  </si>
-  <si>
-    <t>E511</t>
-  </si>
-  <si>
-    <t>KATOM</t>
-  </si>
-  <si>
-    <t>AP09</t>
-  </si>
-  <si>
     <t>CM203</t>
   </si>
   <si>
     <t>JAM</t>
   </si>
   <si>
-    <t>PMNS</t>
-  </si>
-  <si>
-    <t>PM203</t>
+    <t>ETFI</t>
+  </si>
+  <si>
+    <t>TFL</t>
+  </si>
+  <si>
+    <t>KTZI</t>
+  </si>
+  <si>
+    <t>XNME</t>
+  </si>
+  <si>
+    <t>PNUM</t>
   </si>
   <si>
     <t>AFJ</t>
   </si>
   <si>
-    <t>KTZI</t>
-  </si>
-  <si>
-    <t>PNUM</t>
+    <t>NME</t>
+  </si>
+  <si>
+    <t>KOTT</t>
+  </si>
+  <si>
+    <t>TZI</t>
+  </si>
+  <si>
+    <t>OTT</t>
+  </si>
+  <si>
+    <t>KOPT</t>
+  </si>
+  <si>
+    <t>KPNUM</t>
+  </si>
+  <si>
+    <t>KAFJ</t>
   </si>
   <si>
     <t>EAFJ</t>
   </si>
   <si>
-    <t>OTT</t>
-  </si>
-  <si>
-    <t>XNME</t>
-  </si>
-  <si>
-    <t>KPNUM</t>
-  </si>
-  <si>
-    <t>KOTT</t>
-  </si>
-  <si>
-    <t>NME</t>
-  </si>
-  <si>
-    <t>KAFJ</t>
-  </si>
-  <si>
-    <t>TFL</t>
-  </si>
-  <si>
-    <t>KOPT</t>
-  </si>
-  <si>
-    <t>ETFI</t>
-  </si>
-  <si>
-    <t>TZI</t>
-  </si>
-  <si>
     <t>0124</t>
   </si>
   <si>
+    <t>N111</t>
+  </si>
+  <si>
+    <t>N308</t>
+  </si>
+  <si>
+    <t>N108</t>
+  </si>
+  <si>
+    <t>KN04</t>
+  </si>
+  <si>
     <t>N406</t>
   </si>
   <si>
-    <t>KN04</t>
-  </si>
-  <si>
-    <t>N111</t>
-  </si>
-  <si>
-    <t>N308</t>
-  </si>
-  <si>
-    <t>N108</t>
-  </si>
-  <si>
     <t>0175</t>
   </si>
   <si>
+    <t>P522</t>
+  </si>
+  <si>
+    <t>K305</t>
+  </si>
+  <si>
     <t>P422</t>
   </si>
   <si>
-    <t>P522</t>
-  </si>
-  <si>
-    <t>K305</t>
-  </si>
-  <si>
     <t>P203</t>
   </si>
   <si>
+    <t>MAI</t>
+  </si>
+  <si>
     <t>P366</t>
   </si>
   <si>
-    <t>MAI</t>
+    <t>ZKB</t>
+  </si>
+  <si>
+    <t>KZKB</t>
+  </si>
+  <si>
+    <t>KKRY</t>
+  </si>
+  <si>
+    <t>DSA</t>
+  </si>
+  <si>
+    <t>KZKR</t>
+  </si>
+  <si>
+    <t>KDSA</t>
+  </si>
+  <si>
+    <t>XADS</t>
+  </si>
+  <si>
+    <t>EDSA</t>
+  </si>
+  <si>
+    <t>KRY</t>
+  </si>
+  <si>
+    <t>AKR</t>
+  </si>
+  <si>
+    <t>ADS</t>
+  </si>
+  <si>
+    <t>ZKR</t>
   </si>
   <si>
     <t>SOK</t>
   </si>
   <si>
-    <t>DSA</t>
-  </si>
-  <si>
-    <t>KDSA</t>
-  </si>
-  <si>
-    <t>EDSA</t>
-  </si>
-  <si>
-    <t>KRY</t>
-  </si>
-  <si>
-    <t>XADS</t>
-  </si>
-  <si>
-    <t>KZKR</t>
-  </si>
-  <si>
-    <t>ZKB</t>
-  </si>
-  <si>
-    <t>ZKR</t>
-  </si>
-  <si>
-    <t>KZKB</t>
-  </si>
-  <si>
-    <t>AKR</t>
-  </si>
-  <si>
-    <t>KKRY</t>
-  </si>
-  <si>
-    <t>ADS</t>
-  </si>
-  <si>
     <t>BK334</t>
   </si>
   <si>
@@ -1171,30 +1162,30 @@
     <t>K304</t>
   </si>
   <si>
+    <t>P303</t>
+  </si>
+  <si>
+    <t>E129</t>
+  </si>
+  <si>
+    <t>P323</t>
+  </si>
+  <si>
     <t>K110</t>
   </si>
   <si>
-    <t>P323</t>
-  </si>
-  <si>
-    <t>E129</t>
-  </si>
-  <si>
-    <t>P303</t>
-  </si>
-  <si>
     <t>PD106</t>
   </si>
   <si>
     <t>LOG</t>
   </si>
   <si>
+    <t>PD202</t>
+  </si>
+  <si>
     <t>AP03</t>
   </si>
   <si>
-    <t>PD202</t>
-  </si>
-  <si>
     <t>AP05</t>
   </si>
   <si>
@@ -1204,219 +1195,219 @@
     <t>N307</t>
   </si>
   <si>
+    <t>N023</t>
+  </si>
+  <si>
     <t>ME200</t>
   </si>
   <si>
-    <t>N023</t>
-  </si>
-  <si>
     <t>0120</t>
   </si>
   <si>
     <t>VSP</t>
   </si>
   <si>
+    <t>KFIS</t>
+  </si>
+  <si>
+    <t>KMIS</t>
+  </si>
+  <si>
+    <t>CAS</t>
+  </si>
+  <si>
+    <t>IVF1</t>
+  </si>
+  <si>
+    <t>KAVD</t>
+  </si>
+  <si>
+    <t>ENME</t>
+  </si>
+  <si>
     <t>EPYR</t>
   </si>
   <si>
+    <t>EDAV</t>
+  </si>
+  <si>
     <t>KNME</t>
   </si>
   <si>
+    <t>KCAS</t>
+  </si>
+  <si>
+    <t>MME</t>
+  </si>
+  <si>
+    <t>FIS</t>
+  </si>
+  <si>
+    <t>IVF2</t>
+  </si>
+  <si>
+    <t>PDSA</t>
+  </si>
+  <si>
+    <t>PYR</t>
+  </si>
+  <si>
+    <t>0192</t>
+  </si>
+  <si>
+    <t>KPDSA</t>
+  </si>
+  <si>
+    <t>KVM</t>
+  </si>
+  <si>
+    <t>ZEM</t>
+  </si>
+  <si>
+    <t>KPYR</t>
+  </si>
+  <si>
+    <t>MIS</t>
+  </si>
+  <si>
     <t>A192</t>
   </si>
   <si>
-    <t>PDSA</t>
-  </si>
-  <si>
-    <t>IVF2</t>
-  </si>
-  <si>
-    <t>KPDSA</t>
-  </si>
-  <si>
-    <t>MME</t>
-  </si>
-  <si>
-    <t>KAVD</t>
-  </si>
-  <si>
-    <t>FIS</t>
-  </si>
-  <si>
-    <t>0192</t>
-  </si>
-  <si>
-    <t>ZEM</t>
-  </si>
-  <si>
-    <t>ENME</t>
-  </si>
-  <si>
-    <t>KPYR</t>
-  </si>
-  <si>
-    <t>CAS</t>
-  </si>
-  <si>
-    <t>KFIS</t>
-  </si>
-  <si>
-    <t>KCAS</t>
-  </si>
-  <si>
-    <t>KMIS</t>
-  </si>
-  <si>
     <t>AVD</t>
   </si>
   <si>
-    <t>KVM</t>
-  </si>
-  <si>
-    <t>EDAV</t>
-  </si>
-  <si>
-    <t>IVF1</t>
-  </si>
-  <si>
-    <t>PYR</t>
-  </si>
-  <si>
-    <t>MIS</t>
+    <t>P705</t>
+  </si>
+  <si>
+    <t>KN40</t>
   </si>
   <si>
     <t>P534</t>
   </si>
   <si>
-    <t>P705</t>
-  </si>
-  <si>
-    <t>KN40</t>
-  </si>
-  <si>
     <t>N001</t>
   </si>
   <si>
+    <t>BIT</t>
+  </si>
+  <si>
+    <t>ZPP</t>
+  </si>
+  <si>
+    <t>KAPC</t>
+  </si>
+  <si>
     <t>KSOC</t>
   </si>
   <si>
-    <t>KAPC</t>
+    <t>PSM</t>
+  </si>
+  <si>
+    <t>PSI1</t>
+  </si>
+  <si>
+    <t>DIS</t>
+  </si>
+  <si>
+    <t>KDIS</t>
+  </si>
+  <si>
+    <t>UKR</t>
+  </si>
+  <si>
+    <t>KDSY</t>
+  </si>
+  <si>
+    <t>APC</t>
+  </si>
+  <si>
+    <t>EPIN</t>
+  </si>
+  <si>
+    <t>KPGH</t>
   </si>
   <si>
     <t>PGH</t>
   </si>
   <si>
+    <t>ESOC</t>
+  </si>
+  <si>
+    <t>DEP</t>
+  </si>
+  <si>
+    <t>DSY</t>
+  </si>
+  <si>
+    <t>KDEP</t>
+  </si>
+  <si>
+    <t>KDSW</t>
+  </si>
+  <si>
+    <t>DSW</t>
+  </si>
+  <si>
+    <t>PSI2</t>
+  </si>
+  <si>
+    <t>DHW</t>
+  </si>
+  <si>
+    <t>KZPP</t>
+  </si>
+  <si>
+    <t>KBET</t>
+  </si>
+  <si>
+    <t>KPIN</t>
+  </si>
+  <si>
+    <t>KPRI</t>
+  </si>
+  <si>
+    <t>EDEP</t>
+  </si>
+  <si>
     <t>EDSY</t>
   </si>
   <si>
-    <t>KPRI</t>
+    <t>KDHW</t>
+  </si>
+  <si>
+    <t>PIN</t>
+  </si>
+  <si>
+    <t>BET</t>
   </si>
   <si>
     <t>SOC</t>
   </si>
   <si>
-    <t>BET</t>
+    <t>EDSW</t>
   </si>
   <si>
     <t>PRI</t>
   </si>
   <si>
-    <t>PSM</t>
-  </si>
-  <si>
-    <t>EDEP</t>
-  </si>
-  <si>
-    <t>KZPP</t>
-  </si>
-  <si>
-    <t>APC</t>
-  </si>
-  <si>
-    <t>ESOC</t>
-  </si>
-  <si>
-    <t>KDSW</t>
+    <t>KPSM</t>
   </si>
   <si>
     <t>EDHW</t>
   </si>
   <si>
-    <t>DIS</t>
-  </si>
-  <si>
-    <t>ZPP</t>
-  </si>
-  <si>
-    <t>PSI2</t>
-  </si>
-  <si>
-    <t>DEP</t>
-  </si>
-  <si>
-    <t>DSY</t>
-  </si>
-  <si>
-    <t>PIN</t>
-  </si>
-  <si>
-    <t>BIT</t>
-  </si>
-  <si>
-    <t>EDSW</t>
-  </si>
-  <si>
-    <t>DSW</t>
-  </si>
-  <si>
-    <t>EPIN</t>
-  </si>
-  <si>
-    <t>UKR</t>
-  </si>
-  <si>
-    <t>DHW</t>
-  </si>
-  <si>
-    <t>KDSY</t>
-  </si>
-  <si>
-    <t>KBET</t>
-  </si>
-  <si>
-    <t>KPIN</t>
-  </si>
-  <si>
-    <t>KDIS</t>
-  </si>
-  <si>
-    <t>KPGH</t>
-  </si>
-  <si>
-    <t>PSI1</t>
-  </si>
-  <si>
-    <t>KDEP</t>
-  </si>
-  <si>
-    <t>KDHW</t>
-  </si>
-  <si>
-    <t>KPSM</t>
+    <t>PD305</t>
   </si>
   <si>
     <t>PD06</t>
   </si>
   <si>
-    <t>PD305</t>
+    <t>E121</t>
   </si>
   <si>
     <t>E120</t>
   </si>
   <si>
-    <t>E121</t>
-  </si>
-  <si>
     <t>P312</t>
   </si>
   <si>
@@ -1426,12 +1417,12 @@
     <t>PD107</t>
   </si>
   <si>
+    <t>FINA</t>
+  </si>
+  <si>
     <t>ZFIN</t>
   </si>
   <si>
-    <t>FINA</t>
-  </si>
-  <si>
     <t>N109</t>
   </si>
   <si>
@@ -1507,66 +1498,66 @@
     <t>P750</t>
   </si>
   <si>
+    <t>0231</t>
+  </si>
+  <si>
     <t>P861</t>
   </si>
   <si>
+    <t>AP04</t>
+  </si>
+  <si>
     <t>P230</t>
   </si>
   <si>
-    <t>0231</t>
-  </si>
-  <si>
     <t>P839</t>
   </si>
   <si>
-    <t>AP04</t>
-  </si>
-  <si>
     <t>N060</t>
   </si>
   <si>
+    <t>P240</t>
+  </si>
+  <si>
+    <t>K220</t>
+  </si>
+  <si>
+    <t>FORT</t>
+  </si>
+  <si>
+    <t>PMC</t>
+  </si>
+  <si>
+    <t>P234</t>
+  </si>
+  <si>
+    <t>KFORT</t>
+  </si>
+  <si>
+    <t>P364</t>
+  </si>
+  <si>
     <t>EFORT</t>
   </si>
   <si>
-    <t>P234</t>
+    <t>P523</t>
+  </si>
+  <si>
+    <t>K513</t>
+  </si>
+  <si>
+    <t>KPZOS</t>
   </si>
   <si>
     <t>PZOS</t>
   </si>
   <si>
-    <t>KPZOS</t>
-  </si>
-  <si>
-    <t>PMC</t>
-  </si>
-  <si>
     <t>KPMC</t>
   </si>
   <si>
     <t>K215</t>
   </si>
   <si>
-    <t>K220</t>
-  </si>
-  <si>
-    <t>P364</t>
-  </si>
-  <si>
-    <t>P523</t>
-  </si>
-  <si>
-    <t>FORT</t>
-  </si>
-  <si>
-    <t>K513</t>
-  </si>
-  <si>
-    <t>KFORT</t>
-  </si>
-  <si>
-    <t>P240</t>
-  </si>
-  <si>
     <t>VFIN</t>
   </si>
   <si>
@@ -1579,15 +1570,15 @@
     <t>BP205</t>
   </si>
   <si>
+    <t>E126</t>
+  </si>
+  <si>
+    <t>PD04</t>
+  </si>
+  <si>
     <t>BK205</t>
   </si>
   <si>
-    <t>E126</t>
-  </si>
-  <si>
-    <t>PD04</t>
-  </si>
-  <si>
     <t>AMAT</t>
   </si>
   <si>
@@ -1609,42 +1600,33 @@
     <t>PD55</t>
   </si>
   <si>
-    <t>N200</t>
-  </si>
-  <si>
-    <t>BP422</t>
-  </si>
-  <si>
     <t>BP300</t>
   </si>
   <si>
+    <t>BK300</t>
+  </si>
+  <si>
+    <t>K411</t>
+  </si>
+  <si>
     <t>E107</t>
   </si>
   <si>
     <t>N018</t>
   </si>
   <si>
-    <t>K411</t>
+    <t>E123</t>
   </si>
   <si>
     <t>N030</t>
   </si>
   <si>
-    <t>BK300</t>
-  </si>
-  <si>
-    <t>BK422</t>
-  </si>
-  <si>
-    <t>E123</t>
+    <t>P108</t>
   </si>
   <si>
     <t>P208</t>
   </si>
   <si>
-    <t>P108</t>
-  </si>
-  <si>
     <t>PD10</t>
   </si>
   <si>
@@ -1657,12 +1639,12 @@
     <t>ME302</t>
   </si>
   <si>
+    <t>EMLR</t>
+  </si>
+  <si>
     <t>EDMR</t>
   </si>
   <si>
-    <t>EMLR</t>
-  </si>
-  <si>
     <t>PD307</t>
   </si>
   <si>
@@ -1681,18 +1663,18 @@
     <t>BK106</t>
   </si>
   <si>
+    <t>KOPR</t>
+  </si>
+  <si>
+    <t>OMLM</t>
+  </si>
+  <si>
+    <t>EOMLM</t>
+  </si>
+  <si>
     <t>OPR</t>
   </si>
   <si>
-    <t>OMLM</t>
-  </si>
-  <si>
-    <t>EOMLM</t>
-  </si>
-  <si>
-    <t>KOPR</t>
-  </si>
-  <si>
     <t>'prof. RNDr. Rudolf Hrach DrSc.'</t>
   </si>
   <si>
@@ -1732,12 +1714,12 @@
     <t>'doc. RNDr. Dušan Novotný CSc.'</t>
   </si>
   <si>
+    <t>'doc. RNDr. Martin Balej Ph.D.</t>
+  </si>
+  <si>
     <t>'doc. RNDr. Martin Balej Ph.D.'</t>
   </si>
   <si>
-    <t>'doc. RNDr. Martin Balej Ph.D.</t>
-  </si>
-  <si>
     <t>'Mgr. Milan Bursa CSc.'</t>
   </si>
   <si>
@@ -1837,31 +1819,31 @@
     <t>'Ing. Petra Olšová Ph.D.'</t>
   </si>
   <si>
+    <t>'RNDr. Jiří Škvor Ph.D.</t>
+  </si>
+  <si>
     <t>'RNDr. Jiří Škvor Ph.D.'</t>
   </si>
   <si>
-    <t>'RNDr. Jiří Škvor Ph.D.</t>
+    <t>'doc. RNDr. Vlastimil Dohnal Ph.D.'</t>
   </si>
   <si>
     <t>'doc. RNDr. Vlastimil Dohnal Ph.D.</t>
   </si>
   <si>
-    <t>'doc. RNDr. Vlastimil Dohnal Ph.D.'</t>
-  </si>
-  <si>
     <t>'Mgr. Zuzana Pavlasová'</t>
   </si>
   <si>
+    <t>'doc. RNDr. Mgr. Viktor Maškov DrSc.</t>
+  </si>
+  <si>
     <t>'doc. RNDr. Mgr. Viktor Maškov DrSc.'</t>
   </si>
   <si>
-    <t>'doc. RNDr. Mgr. Viktor Maškov DrSc.</t>
-  </si>
-  <si>
-    <t>'doc. RNDr. Karel Oliva Dr.</t>
-  </si>
-  <si>
-    <t>'doc. RNDr. Karel Oliva Dr.'</t>
+    <t>'doc. RNDr. Dr. Karel Oliva'</t>
+  </si>
+  <si>
+    <t>'doc. RNDr. Dr. Karel Oliva</t>
   </si>
   <si>
     <t>'prof. Ing. Václav Švorčík DrSc.'</t>
@@ -1891,12 +1873,12 @@
     <t>'Ing. Stanislav Hejda Ph.D.</t>
   </si>
   <si>
+    <t>'PharmDr. Markéta Švarcová Ph.D.</t>
+  </si>
+  <si>
     <t>'PharmDr. Markéta Švarcová Ph.D.'</t>
   </si>
   <si>
-    <t>'PharmDr. Markéta Švarcová Ph.D.</t>
-  </si>
-  <si>
     <t>'Ing. Kamil Lang CSc.'</t>
   </si>
   <si>
@@ -1981,12 +1963,12 @@
     <t>'RNDr. Michal Němec Ph.D.'</t>
   </si>
   <si>
+    <t>'Mgr. Martin Svoboda Ph.D.</t>
+  </si>
+  <si>
     <t>'Mgr. Martin Svoboda Ph.D.'</t>
   </si>
   <si>
-    <t>'Mgr. Martin Svoboda Ph.D.</t>
-  </si>
-  <si>
     <t>'Ing. Lucie Kopáčková Ph.D.</t>
   </si>
   <si>
@@ -2050,10 +2032,10 @@
     <t>'Ing. Tomáš Vomastek Ph.D.'</t>
   </si>
   <si>
+    <t>'Ricardo Rodriguez Jorge Ph.D.'</t>
+  </si>
+  <si>
     <t>'Ricardo Rodriguez Jorge Ph.D.</t>
-  </si>
-  <si>
-    <t>'Ricardo Rodriguez Jorge Ph.D.'</t>
   </si>
   <si>
     <t>'Ing. Tadeáš Riley Wangle Ph.D.'</t>
@@ -2136,8 +2118,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:D375" totalsRowShown="0">
-  <autoFilter ref="A1:D375"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:D366" totalsRowShown="0">
+  <autoFilter ref="A1:D366"/>
   <tableColumns count="4">
     <tableColumn id="1" name="nazev" dataDxfId="0"/>
     <tableColumn id="2" name="zkratka" dataDxfId="0"/>
@@ -2433,7 +2415,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D375"/>
+  <dimension ref="A1:D366"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2464,7 +2446,7 @@
         <v>69</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2478,12 +2460,12 @@
         <v>69</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>239</v>
@@ -2492,12 +2474,12 @@
         <v>69</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>240</v>
@@ -2506,12 +2488,12 @@
         <v>69</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>241</v>
@@ -2520,7 +2502,7 @@
         <v>69</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2534,7 +2516,7 @@
         <v>130</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2548,7 +2530,7 @@
         <v>130</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2562,12 +2544,12 @@
         <v>198</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>245</v>
@@ -2576,12 +2558,12 @@
         <v>198</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>246</v>
@@ -2590,7 +2572,7 @@
         <v>198</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2604,7 +2586,7 @@
         <v>199</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2618,7 +2600,7 @@
         <v>199</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2632,7 +2614,7 @@
         <v>199</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2646,7 +2628,7 @@
         <v>278</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2660,7 +2642,7 @@
         <v>278</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2674,7 +2656,7 @@
         <v>278</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2688,7 +2670,7 @@
         <v>278</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2702,12 +2684,12 @@
         <v>278</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>255</v>
@@ -2716,54 +2698,54 @@
         <v>278</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>256</v>
       </c>
       <c r="C21" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>257</v>
       </c>
       <c r="C22" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>258</v>
       </c>
       <c r="C23" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>259</v>
@@ -2772,7 +2754,7 @@
         <v>279</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2786,12 +2768,12 @@
         <v>279</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>261</v>
@@ -2800,12 +2782,12 @@
         <v>279</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>262</v>
@@ -2814,12 +2796,12 @@
         <v>279</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>263</v>
@@ -2828,12 +2810,12 @@
         <v>279</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>264</v>
@@ -2842,12 +2824,12 @@
         <v>279</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>265</v>
@@ -2856,12 +2838,12 @@
         <v>279</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>266</v>
@@ -2870,12 +2852,12 @@
         <v>279</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>267</v>
@@ -2884,12 +2866,12 @@
         <v>279</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>268</v>
@@ -2898,12 +2880,12 @@
         <v>279</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>269</v>
@@ -2912,12 +2894,12 @@
         <v>279</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>270</v>
@@ -2926,12 +2908,12 @@
         <v>279</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>271</v>
@@ -2940,7 +2922,7 @@
         <v>279</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2951,43 +2933,43 @@
         <v>272</v>
       </c>
       <c r="C37" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>273</v>
       </c>
       <c r="C38" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>274</v>
       </c>
       <c r="C39" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>275</v>
@@ -2996,54 +2978,54 @@
         <v>281</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>276</v>
       </c>
       <c r="C41" s="2">
-        <v>281</v>
+        <v>306</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>277</v>
       </c>
       <c r="C42" s="2">
-        <v>281</v>
+        <v>306</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>278</v>
       </c>
       <c r="C43" s="2">
-        <v>281</v>
+        <v>306</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>279</v>
@@ -3052,12 +3034,12 @@
         <v>306</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>280</v>
@@ -3066,68 +3048,68 @@
         <v>306</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>281</v>
+        <v>255</v>
       </c>
       <c r="C46" s="2">
         <v>306</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="C47" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>282</v>
       </c>
       <c r="C48" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>283</v>
       </c>
       <c r="C49" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>284</v>
@@ -3136,12 +3118,12 @@
         <v>307</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>285</v>
@@ -3150,12 +3132,12 @@
         <v>307</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>286</v>
@@ -3164,12 +3146,12 @@
         <v>307</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>287</v>
@@ -3178,12 +3160,12 @@
         <v>307</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>288</v>
@@ -3192,12 +3174,12 @@
         <v>307</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>289</v>
@@ -3206,12 +3188,12 @@
         <v>307</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>290</v>
@@ -3220,7 +3202,7 @@
         <v>307</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -3234,12 +3216,12 @@
         <v>307</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>292</v>
@@ -3248,12 +3230,12 @@
         <v>307</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>293</v>
@@ -3262,12 +3244,12 @@
         <v>307</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>294</v>
@@ -3276,12 +3258,12 @@
         <v>307</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>295</v>
@@ -3290,12 +3272,12 @@
         <v>307</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>296</v>
@@ -3304,12 +3286,12 @@
         <v>307</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>297</v>
@@ -3318,12 +3300,12 @@
         <v>307</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>298</v>
@@ -3332,12 +3314,12 @@
         <v>307</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>299</v>
@@ -3346,12 +3328,12 @@
         <v>307</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>300</v>
@@ -3360,12 +3342,12 @@
         <v>307</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>301</v>
@@ -3374,12 +3356,12 @@
         <v>307</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>302</v>
@@ -3388,12 +3370,12 @@
         <v>307</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>303</v>
@@ -3402,12 +3384,12 @@
         <v>307</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>304</v>
@@ -3416,12 +3398,12 @@
         <v>307</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>305</v>
@@ -3430,12 +3412,12 @@
         <v>307</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>306</v>
@@ -3444,7 +3426,7 @@
         <v>307</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -3458,133 +3440,133 @@
         <v>307</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>308</v>
       </c>
       <c r="C74" s="2">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>309</v>
+        <v>254</v>
       </c>
       <c r="C75" s="2">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C76" s="2">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C77" s="2">
         <v>313</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C78" s="2">
         <v>313</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>258</v>
+        <v>312</v>
       </c>
       <c r="C79" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>313</v>
       </c>
       <c r="C80" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>314</v>
       </c>
       <c r="C81" s="2">
-        <v>313</v>
+        <v>336</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>315</v>
       </c>
       <c r="C82" s="2">
-        <v>314</v>
+        <v>336</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3595,10 +3577,10 @@
         <v>316</v>
       </c>
       <c r="C83" s="2">
-        <v>316</v>
+        <v>336</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3612,7 +3594,7 @@
         <v>336</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3623,43 +3605,43 @@
         <v>318</v>
       </c>
       <c r="C85" s="2">
-        <v>336</v>
+        <v>423</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>319</v>
       </c>
       <c r="C86" s="2">
-        <v>336</v>
+        <v>423</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>320</v>
       </c>
       <c r="C87" s="2">
-        <v>336</v>
+        <v>423</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>321</v>
@@ -3668,12 +3650,12 @@
         <v>423</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>322</v>
@@ -3682,12 +3664,12 @@
         <v>423</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>323</v>
@@ -3696,12 +3678,12 @@
         <v>423</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>324</v>
@@ -3710,12 +3692,12 @@
         <v>423</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>325</v>
@@ -3724,12 +3706,12 @@
         <v>423</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>326</v>
@@ -3738,12 +3720,12 @@
         <v>423</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>327</v>
@@ -3752,12 +3734,12 @@
         <v>423</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>328</v>
@@ -3766,12 +3748,12 @@
         <v>423</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>329</v>
@@ -3780,12 +3762,12 @@
         <v>423</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>330</v>
@@ -3794,12 +3776,12 @@
         <v>423</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>331</v>
@@ -3808,12 +3790,12 @@
         <v>423</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>332</v>
@@ -3822,54 +3804,54 @@
         <v>423</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>333</v>
       </c>
       <c r="C100" s="2">
-        <v>423</v>
+        <v>449</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>334</v>
       </c>
       <c r="C101" s="2">
-        <v>423</v>
+        <v>449</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>335</v>
       </c>
       <c r="C102" s="2">
-        <v>423</v>
+        <v>449</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>336</v>
@@ -3878,12 +3860,12 @@
         <v>449</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>337</v>
@@ -3892,12 +3874,12 @@
         <v>449</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>338</v>
@@ -3906,12 +3888,12 @@
         <v>449</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>339</v>
@@ -3920,12 +3902,12 @@
         <v>449</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>340</v>
@@ -3934,12 +3916,12 @@
         <v>449</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>341</v>
@@ -3948,12 +3930,12 @@
         <v>449</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>342</v>
@@ -3962,12 +3944,12 @@
         <v>449</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>343</v>
@@ -3976,12 +3958,12 @@
         <v>449</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>344</v>
@@ -3990,12 +3972,12 @@
         <v>449</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>345</v>
@@ -4004,7 +3986,7 @@
         <v>449</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -4018,264 +4000,264 @@
         <v>449</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>347</v>
       </c>
       <c r="C114" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>348</v>
       </c>
       <c r="C115" s="2">
-        <v>449</v>
+        <v>550</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>349</v>
+        <v>261</v>
       </c>
       <c r="C116" s="2">
-        <v>449</v>
+        <v>550</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C117" s="2">
-        <v>451</v>
+        <v>550</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C118" s="2">
         <v>550</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C119" s="2">
         <v>550</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C120" s="2">
         <v>550</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>269</v>
+        <v>353</v>
       </c>
       <c r="C121" s="2">
-        <v>550</v>
+        <v>605</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>354</v>
       </c>
       <c r="C122" s="2">
-        <v>550</v>
+        <v>606</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>355</v>
       </c>
       <c r="C123" s="2">
-        <v>550</v>
+        <v>606</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="1" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>356</v>
       </c>
       <c r="C124" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="1" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>357</v>
       </c>
       <c r="C125" s="2">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="C126" s="2">
-        <v>606</v>
+        <v>719</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C127" s="2">
-        <v>606</v>
+        <v>816</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C128" s="2">
-        <v>612</v>
+        <v>816</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="1" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="C129" s="2">
-        <v>719</v>
+        <v>835</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>361</v>
       </c>
       <c r="C130" s="2">
-        <v>816</v>
+        <v>835</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>362</v>
       </c>
       <c r="C131" s="2">
-        <v>816</v>
+        <v>835</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>363</v>
@@ -4284,12 +4266,12 @@
         <v>835</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>364</v>
@@ -4298,7 +4280,7 @@
         <v>835</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -4312,12 +4294,12 @@
         <v>835</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>366</v>
@@ -4326,12 +4308,12 @@
         <v>835</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>367</v>
@@ -4340,12 +4322,12 @@
         <v>835</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>368</v>
@@ -4354,7 +4336,7 @@
         <v>835</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -4368,12 +4350,12 @@
         <v>835</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>370</v>
@@ -4382,12 +4364,12 @@
         <v>835</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>371</v>
@@ -4396,7 +4378,7 @@
         <v>835</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -4410,7 +4392,7 @@
         <v>835</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -4421,169 +4403,169 @@
         <v>373</v>
       </c>
       <c r="C142" s="2">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>374</v>
       </c>
       <c r="C143" s="2">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>375</v>
       </c>
       <c r="C144" s="2">
-        <v>835</v>
+        <v>920</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>376</v>
       </c>
       <c r="C145" s="2">
-        <v>839</v>
+        <v>1057</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>377</v>
       </c>
       <c r="C146" s="2">
-        <v>839</v>
+        <v>1067</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="1" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>378</v>
+        <v>349</v>
       </c>
       <c r="C147" s="2">
-        <v>920</v>
+        <v>1115</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C148" s="2">
-        <v>1057</v>
+        <v>1456</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C149" s="2">
-        <v>1067</v>
+        <v>1537</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="1" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>354</v>
+        <v>380</v>
       </c>
       <c r="C150" s="2">
-        <v>1115</v>
+        <v>1537</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>381</v>
       </c>
       <c r="C151" s="2">
-        <v>1456</v>
+        <v>1546</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>382</v>
       </c>
       <c r="C152" s="2">
-        <v>1537</v>
+        <v>1546</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>383</v>
       </c>
       <c r="C153" s="2">
-        <v>1537</v>
+        <v>1546</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>384</v>
@@ -4592,432 +4574,432 @@
         <v>1546</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>385</v>
       </c>
       <c r="C155" s="2">
-        <v>1546</v>
+        <v>1553</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>386</v>
       </c>
       <c r="C156" s="2">
-        <v>1546</v>
+        <v>1569</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>387</v>
       </c>
       <c r="C157" s="2">
-        <v>1546</v>
+        <v>1590</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>388</v>
       </c>
       <c r="C158" s="2">
-        <v>1553</v>
+        <v>1590</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>389</v>
       </c>
       <c r="C159" s="2">
-        <v>1569</v>
+        <v>1590</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>390</v>
       </c>
       <c r="C160" s="2">
-        <v>1590</v>
+        <v>1633</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>391</v>
       </c>
       <c r="C161" s="2">
-        <v>1590</v>
+        <v>1775</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>392</v>
       </c>
       <c r="C162" s="2">
-        <v>1590</v>
+        <v>1986</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>393</v>
       </c>
       <c r="C163" s="2">
-        <v>1633</v>
+        <v>1986</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>394</v>
       </c>
       <c r="C164" s="2">
-        <v>1775</v>
+        <v>2028</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>395</v>
       </c>
       <c r="C165" s="2">
-        <v>1986</v>
+        <v>2142</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>396</v>
       </c>
       <c r="C166" s="2">
-        <v>1986</v>
+        <v>2220</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>397</v>
       </c>
       <c r="C167" s="2">
-        <v>2028</v>
+        <v>2220</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>398</v>
       </c>
       <c r="C168" s="2">
-        <v>2142</v>
+        <v>2220</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="1" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>364</v>
+        <v>399</v>
       </c>
       <c r="C169" s="2">
         <v>2220</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="1" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>365</v>
+        <v>400</v>
       </c>
       <c r="C170" s="2">
         <v>2220</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C171" s="2">
         <v>2220</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="1" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>366</v>
+        <v>402</v>
       </c>
       <c r="C172" s="2">
         <v>2220</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="1" t="s">
-        <v>75</v>
+        <v>123</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C173" s="2">
         <v>2220</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="1" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>401</v>
+        <v>363</v>
       </c>
       <c r="C174" s="2">
         <v>2220</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="1" t="s">
-        <v>119</v>
+        <v>72</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C175" s="2">
         <v>2220</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C176" s="2">
         <v>2220</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C177" s="2">
         <v>2220</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C178" s="2">
         <v>2220</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="1" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>344</v>
+        <v>407</v>
       </c>
       <c r="C179" s="2">
         <v>2220</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C180" s="2">
         <v>2220</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C181" s="2">
         <v>2220</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="1" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
       <c r="C182" s="2">
         <v>2220</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="1" t="s">
-        <v>124</v>
+        <v>72</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>408</v>
+        <v>339</v>
       </c>
       <c r="C183" s="2">
         <v>2220</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="1" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>409</v>
+        <v>367</v>
       </c>
       <c r="C184" s="2">
         <v>2220</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>410</v>
@@ -5026,12 +5008,12 @@
         <v>2220</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="1" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>411</v>
@@ -5040,12 +5022,12 @@
         <v>2220</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>412</v>
@@ -5054,12 +5036,12 @@
         <v>2220</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>413</v>
@@ -5068,12 +5050,12 @@
         <v>2220</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>414</v>
@@ -5082,12 +5064,12 @@
         <v>2220</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>415</v>
@@ -5096,12 +5078,12 @@
         <v>2220</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>416</v>
@@ -5110,12 +5092,12 @@
         <v>2220</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>417</v>
@@ -5124,12 +5106,12 @@
         <v>2220</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>418</v>
@@ -5138,7 +5120,7 @@
         <v>2220</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -5149,178 +5131,178 @@
         <v>419</v>
       </c>
       <c r="C194" s="2">
-        <v>2220</v>
+        <v>2227</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="1" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>420</v>
       </c>
       <c r="C195" s="2">
-        <v>2220</v>
+        <v>2227</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>421</v>
       </c>
       <c r="C196" s="2">
-        <v>2220</v>
+        <v>2227</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>422</v>
       </c>
       <c r="C197" s="2">
-        <v>2227</v>
+        <v>2232</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="1" t="s">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>423</v>
+        <v>360</v>
       </c>
       <c r="C198" s="2">
-        <v>2227</v>
+        <v>2239</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C199" s="2">
-        <v>2227</v>
+        <v>2239</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C200" s="2">
-        <v>2232</v>
+        <v>2239</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C201" s="2">
         <v>2239</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C202" s="2">
         <v>2239</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C203" s="2">
         <v>2239</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C204" s="2">
         <v>2239</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="1" t="s">
-        <v>140</v>
+        <v>89</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>430</v>
+        <v>361</v>
       </c>
       <c r="C205" s="2">
         <v>2239</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C206" s="2">
         <v>2239</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -5328,55 +5310,55 @@
         <v>141</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C207" s="2">
         <v>2239</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C208" s="2">
         <v>2239</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C209" s="2">
         <v>2239</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C210" s="2">
         <v>2239</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -5384,228 +5366,228 @@
         <v>144</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C211" s="2">
         <v>2239</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="1" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C212" s="2">
         <v>2239</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="1" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C213" s="2">
         <v>2239</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C214" s="2">
         <v>2239</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="1" t="s">
-        <v>146</v>
+        <v>72</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>440</v>
+        <v>404</v>
       </c>
       <c r="C215" s="2">
         <v>2239</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C216" s="2">
         <v>2239</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C217" s="2">
         <v>2239</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="1" t="s">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="C218" s="2">
         <v>2239</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C219" s="2">
         <v>2239</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C220" s="2">
         <v>2239</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="1" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>402</v>
+        <v>443</v>
       </c>
       <c r="C221" s="2">
         <v>2239</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C222" s="2">
         <v>2239</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="1" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C223" s="2">
         <v>2239</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="1" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>447</v>
+        <v>409</v>
       </c>
       <c r="C224" s="2">
         <v>2239</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="1" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>404</v>
+        <v>446</v>
       </c>
       <c r="C225" s="2">
         <v>2239</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="1" t="s">
-        <v>94</v>
+        <v>150</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>370</v>
+        <v>447</v>
       </c>
       <c r="C226" s="2">
         <v>2239</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>448</v>
@@ -5614,110 +5596,110 @@
         <v>2239</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="1" t="s">
-        <v>94</v>
+        <v>152</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>372</v>
+        <v>449</v>
       </c>
       <c r="C228" s="2">
         <v>2239</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="1" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C229" s="2">
         <v>2239</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="1" t="s">
-        <v>95</v>
+        <v>148</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>373</v>
+        <v>451</v>
       </c>
       <c r="C230" s="2">
         <v>2239</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C231" s="2">
         <v>2239</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="1" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>451</v>
+        <v>412</v>
       </c>
       <c r="C232" s="2">
         <v>2239</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C233" s="2">
         <v>2239</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="1" t="s">
-        <v>149</v>
+        <v>93</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>453</v>
+        <v>369</v>
       </c>
       <c r="C234" s="2">
         <v>2239</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>454</v>
@@ -5726,12 +5708,12 @@
         <v>2239</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>455</v>
@@ -5740,12 +5722,12 @@
         <v>2239</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>456</v>
@@ -5754,12 +5736,12 @@
         <v>2239</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>457</v>
@@ -5768,12 +5750,12 @@
         <v>2239</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>458</v>
@@ -5782,371 +5764,371 @@
         <v>2239</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="1" t="s">
-        <v>147</v>
+        <v>70</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>459</v>
+        <v>334</v>
       </c>
       <c r="C240" s="2">
-        <v>2239</v>
+        <v>2240</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="1" t="s">
-        <v>155</v>
+        <v>91</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>460</v>
+        <v>363</v>
       </c>
       <c r="C241" s="2">
-        <v>2239</v>
+        <v>2240</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="1" t="s">
-        <v>142</v>
+        <v>91</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>461</v>
+        <v>365</v>
       </c>
       <c r="C242" s="2">
-        <v>2239</v>
+        <v>2240</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="1" t="s">
-        <v>91</v>
+        <v>156</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>364</v>
+        <v>459</v>
       </c>
       <c r="C243" s="2">
-        <v>2240</v>
+        <v>2428</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="1" t="s">
-        <v>91</v>
+        <v>156</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>365</v>
+        <v>460</v>
       </c>
       <c r="C244" s="2">
-        <v>2240</v>
+        <v>2428</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="1" t="s">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>346</v>
+        <v>461</v>
       </c>
       <c r="C245" s="2">
-        <v>2240</v>
+        <v>2441</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>462</v>
       </c>
       <c r="C246" s="2">
-        <v>2428</v>
+        <v>2441</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>463</v>
       </c>
       <c r="C247" s="2">
-        <v>2428</v>
+        <v>2527</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="1" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>464</v>
+        <v>381</v>
       </c>
       <c r="C248" s="2">
-        <v>2441</v>
+        <v>2757</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C249" s="2">
-        <v>2441</v>
+        <v>2758</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C250" s="2">
-        <v>2527</v>
+        <v>2787</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="1" t="s">
-        <v>106</v>
+        <v>162</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>387</v>
+        <v>466</v>
       </c>
       <c r="C251" s="2">
-        <v>2757</v>
+        <v>2821</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>467</v>
       </c>
       <c r="C252" s="2">
-        <v>2758</v>
+        <v>2821</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>468</v>
+        <v>311</v>
       </c>
       <c r="C253" s="2">
-        <v>2787</v>
+        <v>3096</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="1" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>469</v>
+        <v>249</v>
       </c>
       <c r="C254" s="2">
-        <v>2821</v>
+        <v>3175</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C255" s="2">
-        <v>2821</v>
+        <v>3176</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="1" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>313</v>
+        <v>421</v>
       </c>
       <c r="C256" s="2">
-        <v>3096</v>
+        <v>3176</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="1" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>248</v>
+        <v>469</v>
       </c>
       <c r="C257" s="2">
-        <v>3175</v>
+        <v>3420</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="1" t="s">
-        <v>132</v>
+        <v>167</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>422</v>
+        <v>470</v>
       </c>
       <c r="C258" s="2">
-        <v>3176</v>
+        <v>3420</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>471</v>
       </c>
       <c r="C259" s="2">
-        <v>3176</v>
+        <v>3458</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B260" s="1" t="s">
         <v>472</v>
       </c>
       <c r="C260" s="2">
-        <v>3420</v>
+        <v>4175</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>473</v>
       </c>
       <c r="C261" s="2">
-        <v>3420</v>
+        <v>4176</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>474</v>
       </c>
       <c r="C262" s="2">
-        <v>3458</v>
+        <v>4177</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>475</v>
       </c>
       <c r="C263" s="2">
-        <v>4175</v>
+        <v>4195</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B264" s="1" t="s">
         <v>476</v>
       </c>
       <c r="C264" s="2">
-        <v>4176</v>
+        <v>4195</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="1" t="s">
-        <v>172</v>
+        <v>22</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>477</v>
+        <v>274</v>
       </c>
       <c r="C265" s="2">
-        <v>4177</v>
+        <v>4208</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -6154,153 +6136,153 @@
         <v>173</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C266" s="2">
-        <v>4195</v>
+        <v>4213</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="1" t="s">
-        <v>173</v>
+        <v>102</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>479</v>
+        <v>381</v>
       </c>
       <c r="C267" s="2">
-        <v>4195</v>
+        <v>4219</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="1" t="s">
-        <v>23</v>
+        <v>174</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>277</v>
+        <v>478</v>
       </c>
       <c r="C268" s="2">
-        <v>4208</v>
+        <v>4227</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C269" s="2">
-        <v>4213</v>
+        <v>4264</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="1" t="s">
-        <v>106</v>
+        <v>176</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>387</v>
+        <v>480</v>
       </c>
       <c r="C270" s="2">
-        <v>4219</v>
+        <v>4264</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>481</v>
       </c>
       <c r="C271" s="2">
-        <v>4227</v>
+        <v>4390</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B272" s="1" t="s">
         <v>482</v>
       </c>
       <c r="C272" s="2">
-        <v>4264</v>
+        <v>4394</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>483</v>
       </c>
       <c r="C273" s="2">
-        <v>4264</v>
+        <v>4397</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>484</v>
       </c>
       <c r="C274" s="2">
-        <v>4390</v>
+        <v>4397</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="1" t="s">
-        <v>179</v>
+        <v>118</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>485</v>
+        <v>398</v>
       </c>
       <c r="C275" s="2">
-        <v>4394</v>
+        <v>4533</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="1" t="s">
-        <v>180</v>
+        <v>118</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>486</v>
+        <v>405</v>
       </c>
       <c r="C276" s="2">
-        <v>4397</v>
+        <v>4533</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -6308,228 +6290,228 @@
         <v>180</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C277" s="2">
-        <v>4397</v>
+        <v>4685</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="1" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>412</v>
+        <v>386</v>
       </c>
       <c r="C278" s="2">
-        <v>4533</v>
+        <v>4691</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="1" t="s">
-        <v>127</v>
+        <v>181</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>414</v>
+        <v>322</v>
       </c>
       <c r="C279" s="2">
-        <v>4533</v>
+        <v>4747</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C280" s="2">
-        <v>4685</v>
+        <v>4951</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="1" t="s">
-        <v>108</v>
+        <v>183</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>389</v>
+        <v>487</v>
       </c>
       <c r="C281" s="2">
-        <v>4691</v>
+        <v>5039</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>324</v>
+        <v>488</v>
       </c>
       <c r="C282" s="2">
-        <v>4747</v>
+        <v>5062</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="C283" s="2">
-        <v>4951</v>
+        <v>5062</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C284" s="2">
-        <v>5039</v>
+        <v>5062</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>491</v>
+        <v>392</v>
       </c>
       <c r="C285" s="2">
         <v>5062</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="C286" s="2">
-        <v>5062</v>
+        <v>5063</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="1" t="s">
-        <v>187</v>
+        <v>159</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>396</v>
+        <v>463</v>
       </c>
       <c r="C287" s="2">
-        <v>5062</v>
+        <v>5131</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C288" s="2">
-        <v>5062</v>
+        <v>5135</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C289" s="2">
-        <v>5063</v>
+        <v>5199</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="1" t="s">
-        <v>160</v>
+        <v>191</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>466</v>
+        <v>493</v>
       </c>
       <c r="C290" s="2">
-        <v>5131</v>
+        <v>5201</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="1" t="s">
-        <v>190</v>
+        <v>6</v>
       </c>
       <c r="B291" s="1" t="s">
         <v>494</v>
       </c>
       <c r="C291" s="2">
-        <v>5135</v>
+        <v>5201</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B292" s="1" t="s">
         <v>495</v>
       </c>
       <c r="C292" s="2">
-        <v>5199</v>
+        <v>5201</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="1" t="s">
-        <v>4</v>
+        <v>193</v>
       </c>
       <c r="B293" s="1" t="s">
         <v>496</v>
@@ -6538,12 +6520,12 @@
         <v>5201</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="1" t="s">
-        <v>192</v>
+        <v>6</v>
       </c>
       <c r="B294" s="1" t="s">
         <v>497</v>
@@ -6552,63 +6534,63 @@
         <v>5201</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="1" t="s">
-        <v>193</v>
+        <v>115</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>498</v>
+        <v>395</v>
       </c>
       <c r="C295" s="2">
-        <v>5201</v>
+        <v>5309</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="1" t="s">
-        <v>4</v>
+        <v>194</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C296" s="2">
-        <v>5201</v>
+        <v>5472</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="1" t="s">
-        <v>194</v>
+        <v>24</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>500</v>
+        <v>276</v>
       </c>
       <c r="C297" s="2">
-        <v>5201</v>
+        <v>5958</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="1" t="s">
-        <v>116</v>
+        <v>195</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>398</v>
+        <v>499</v>
       </c>
       <c r="C298" s="2">
-        <v>5309</v>
+        <v>5958</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -6616,13 +6598,13 @@
         <v>195</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C299" s="2">
-        <v>5472</v>
+        <v>5958</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -6630,153 +6612,153 @@
         <v>196</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C300" s="2">
         <v>5958</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="1" t="s">
-        <v>197</v>
+        <v>27</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>503</v>
+        <v>279</v>
       </c>
       <c r="C301" s="2">
         <v>5958</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C302" s="2">
         <v>5958</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="1" t="s">
-        <v>25</v>
+        <v>195</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>279</v>
+        <v>503</v>
       </c>
       <c r="C303" s="2">
         <v>5958</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="1" t="s">
-        <v>198</v>
+        <v>24</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>505</v>
+        <v>280</v>
       </c>
       <c r="C304" s="2">
         <v>5958</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C305" s="2">
         <v>5958</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C306" s="2">
         <v>5958</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C307" s="2">
         <v>5958</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C308" s="2">
         <v>5958</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C309" s="2">
         <v>5958</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C310" s="2">
         <v>5958</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -6784,41 +6766,41 @@
         <v>202</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C311" s="2">
         <v>5958</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="1" t="s">
-        <v>29</v>
+        <v>197</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>282</v>
+        <v>511</v>
       </c>
       <c r="C312" s="2">
         <v>5958</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="1" t="s">
-        <v>25</v>
+        <v>195</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>283</v>
+        <v>512</v>
       </c>
       <c r="C313" s="2">
         <v>5958</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -6829,99 +6811,99 @@
         <v>513</v>
       </c>
       <c r="C314" s="2">
-        <v>5958</v>
+        <v>6120</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B315" s="1" t="s">
         <v>514</v>
       </c>
       <c r="C315" s="2">
-        <v>5958</v>
+        <v>6383</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="1" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="B316" s="1" t="s">
         <v>515</v>
       </c>
       <c r="C316" s="2">
-        <v>5958</v>
+        <v>6383</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="1" t="s">
-        <v>204</v>
+        <v>48</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>516</v>
+        <v>308</v>
       </c>
       <c r="C317" s="2">
-        <v>6120</v>
+        <v>6387</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C318" s="2">
-        <v>6383</v>
+        <v>6543</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C319" s="2">
-        <v>6383</v>
+        <v>6543</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="1" t="s">
-        <v>53</v>
+        <v>208</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>314</v>
+        <v>518</v>
       </c>
       <c r="C320" s="2">
-        <v>6387</v>
+        <v>6543</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B321" s="1" t="s">
         <v>519</v>
@@ -6930,35 +6912,35 @@
         <v>6543</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="1" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>520</v>
+        <v>486</v>
       </c>
       <c r="C322" s="2">
-        <v>6543</v>
+        <v>6633</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="C323" s="2">
-        <v>6543</v>
+        <v>6773</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -6966,195 +6948,195 @@
         <v>209</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C324" s="2">
-        <v>6543</v>
+        <v>6886</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="1" t="s">
-        <v>183</v>
+        <v>209</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>489</v>
+        <v>520</v>
       </c>
       <c r="C325" s="2">
-        <v>6633</v>
+        <v>6886</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="1" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="C326" s="2">
-        <v>6773</v>
+        <v>6920</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C327" s="2">
-        <v>6886</v>
+        <v>7152</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B328" s="1" t="s">
         <v>523</v>
       </c>
       <c r="C328" s="2">
-        <v>6886</v>
+        <v>7307</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B329" s="1" t="s">
         <v>524</v>
       </c>
       <c r="C329" s="2">
-        <v>6920</v>
+        <v>7776</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B330" s="1" t="s">
         <v>525</v>
       </c>
       <c r="C330" s="2">
-        <v>7152</v>
+        <v>7776</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B331" s="1" t="s">
         <v>526</v>
       </c>
       <c r="C331" s="2">
-        <v>7307</v>
+        <v>7805</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B332" s="1" t="s">
         <v>527</v>
       </c>
       <c r="C332" s="2">
-        <v>7776</v>
+        <v>8018</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B333" s="1" t="s">
         <v>528</v>
       </c>
       <c r="C333" s="2">
-        <v>7776</v>
+        <v>8018</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B334" s="1" t="s">
         <v>529</v>
       </c>
       <c r="C334" s="2">
-        <v>7805</v>
+        <v>8018</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>357</v>
+        <v>530</v>
       </c>
       <c r="C335" s="2">
         <v>8018</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>250</v>
+        <v>531</v>
       </c>
       <c r="C336" s="2">
         <v>8018</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="C337" s="2">
         <v>8018</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -7162,136 +7144,136 @@
         <v>216</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>531</v>
+        <v>356</v>
       </c>
       <c r="C338" s="2">
         <v>8018</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="1" t="s">
-        <v>217</v>
+        <v>14</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>532</v>
+        <v>254</v>
       </c>
       <c r="C339" s="2">
         <v>8018</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="1" t="s">
-        <v>218</v>
+        <v>14</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>533</v>
+        <v>255</v>
       </c>
       <c r="C340" s="2">
         <v>8018</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="1" t="s">
-        <v>12</v>
+        <v>219</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C341" s="2">
         <v>8018</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="1" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C342" s="2">
-        <v>8018</v>
+        <v>8021</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="1" t="s">
-        <v>12</v>
+        <v>221</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>251</v>
+        <v>535</v>
       </c>
       <c r="C343" s="2">
-        <v>8018</v>
+        <v>8021</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="1" t="s">
-        <v>11</v>
+        <v>222</v>
       </c>
       <c r="B344" s="1" t="s">
         <v>536</v>
       </c>
       <c r="C344" s="2">
-        <v>8018</v>
+        <v>8073</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="1" t="s">
-        <v>12</v>
+        <v>223</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>252</v>
+        <v>537</v>
       </c>
       <c r="C345" s="2">
-        <v>8018</v>
+        <v>8074</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="1" t="s">
-        <v>12</v>
+        <v>224</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>255</v>
+        <v>538</v>
       </c>
       <c r="C346" s="2">
-        <v>8018</v>
+        <v>8075</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="1" t="s">
-        <v>217</v>
+        <v>158</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>537</v>
+        <v>462</v>
       </c>
       <c r="C347" s="2">
-        <v>8018</v>
+        <v>8316</v>
       </c>
       <c r="D347" s="1" t="s">
         <v>669</v>
@@ -7299,69 +7281,69 @@
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="1" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C348" s="2">
-        <v>8018</v>
+        <v>8422</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="1" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C349" s="2">
-        <v>8018</v>
+        <v>8514</v>
       </c>
       <c r="D349" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="1" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>258</v>
+        <v>402</v>
       </c>
       <c r="C350" s="2">
-        <v>8018</v>
+        <v>8514</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="1" t="s">
-        <v>220</v>
+        <v>123</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>540</v>
+        <v>403</v>
       </c>
       <c r="C351" s="2">
-        <v>8021</v>
+        <v>8514</v>
       </c>
       <c r="D351" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="1" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="B352" s="1" t="s">
         <v>541</v>
       </c>
       <c r="C352" s="2">
-        <v>8021</v>
+        <v>8514</v>
       </c>
       <c r="D352" s="1" t="s">
         <v>671</v>
@@ -7369,41 +7351,41 @@
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="1" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B353" s="1" t="s">
         <v>542</v>
       </c>
       <c r="C353" s="2">
-        <v>8073</v>
+        <v>8515</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="1" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>543</v>
+        <v>270</v>
       </c>
       <c r="C354" s="2">
-        <v>8074</v>
+        <v>8677</v>
       </c>
       <c r="D354" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="1" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C355" s="2">
-        <v>8075</v>
+        <v>8677</v>
       </c>
       <c r="D355" s="1" t="s">
         <v>674</v>
@@ -7411,13 +7393,13 @@
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="1" t="s">
-        <v>158</v>
+        <v>231</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>464</v>
+        <v>544</v>
       </c>
       <c r="C356" s="2">
-        <v>8316</v>
+        <v>8748</v>
       </c>
       <c r="D356" s="1" t="s">
         <v>675</v>
@@ -7425,268 +7407,142 @@
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="1" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="B357" s="1" t="s">
         <v>545</v>
       </c>
       <c r="C357" s="2">
-        <v>8422</v>
+        <v>8748</v>
       </c>
       <c r="D357" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="1" t="s">
-        <v>117</v>
+        <v>232</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>399</v>
+        <v>293</v>
       </c>
       <c r="C358" s="2">
-        <v>8514</v>
+        <v>8750</v>
       </c>
       <c r="D358" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="1" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="B359" s="1" t="s">
         <v>546</v>
       </c>
       <c r="C359" s="2">
-        <v>8514</v>
+        <v>8815</v>
       </c>
       <c r="D359" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="1" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="B360" s="1" t="s">
         <v>547</v>
       </c>
       <c r="C360" s="2">
-        <v>8514</v>
+        <v>8815</v>
       </c>
       <c r="D360" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="1" t="s">
-        <v>130</v>
+        <v>234</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>418</v>
+        <v>548</v>
       </c>
       <c r="C361" s="2">
-        <v>8514</v>
+        <v>9114</v>
       </c>
       <c r="D361" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="1" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C362" s="2">
-        <v>8515</v>
+        <v>9114</v>
       </c>
       <c r="D362" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="1" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>259</v>
+        <v>550</v>
       </c>
       <c r="C363" s="2">
-        <v>8677</v>
+        <v>9114</v>
       </c>
       <c r="D363" s="1" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="1" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C364" s="2">
-        <v>8677</v>
+        <v>9114</v>
       </c>
       <c r="D364" s="1" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="1" t="s">
-        <v>231</v>
+        <v>118</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>550</v>
+        <v>398</v>
       </c>
       <c r="C365" s="2">
-        <v>8748</v>
+        <v>9304</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="1" t="s">
-        <v>231</v>
+        <v>118</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>551</v>
+        <v>405</v>
       </c>
       <c r="C366" s="2">
-        <v>8748</v>
+        <v>9304</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="367" spans="1:4">
-      <c r="A367" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B367" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="C367" s="2">
-        <v>8750</v>
-      </c>
-      <c r="D367" s="1" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="368" spans="1:4">
-      <c r="A368" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B368" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="C368" s="2">
-        <v>8815</v>
-      </c>
-      <c r="D368" s="1" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="369" spans="1:4">
-      <c r="A369" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B369" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="C369" s="2">
-        <v>8815</v>
-      </c>
-      <c r="D369" s="1" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="370" spans="1:4">
-      <c r="A370" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B370" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="C370" s="2">
-        <v>9114</v>
-      </c>
-      <c r="D370" s="1" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="371" spans="1:4">
-      <c r="A371" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B371" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="C371" s="2">
-        <v>9114</v>
-      </c>
-      <c r="D371" s="1" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="372" spans="1:4">
-      <c r="A372" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B372" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="C372" s="2">
-        <v>9114</v>
-      </c>
-      <c r="D372" s="1" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="373" spans="1:4">
-      <c r="A373" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B373" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="C373" s="2">
-        <v>9114</v>
-      </c>
-      <c r="D373" s="1" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="374" spans="1:4">
-      <c r="A374" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B374" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="C374" s="2">
-        <v>9304</v>
-      </c>
-      <c r="D374" s="1" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="375" spans="1:4">
-      <c r="A375" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B375" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="C375" s="2">
-        <v>9304</v>
-      </c>
-      <c r="D375" s="1" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
     </row>
   </sheetData>
